--- a/Pentapod Bom.xlsx
+++ b/Pentapod Bom.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="RAL-Basic" sheetId="4" r:id="rId4"/>
     <sheet name="RAL" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="644">
   <si>
     <t>#</t>
   </si>
@@ -1952,6 +1952,9 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>Additional Servo cables for customized wires</t>
   </si>
 </sst>
 </file>
@@ -4353,10 +4356,577 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4375,573 +4945,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5463,10 +5466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5526,7 +5529,7 @@
         <v>59</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J22" si="0">I3*B3</f>
+        <f t="shared" ref="J3:J23" si="0">I3*B3</f>
         <v>59</v>
       </c>
     </row>
@@ -5732,6 +5735,9 @@
       </c>
       <c r="C13" t="s">
         <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>643</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -5903,7 +5909,7 @@
         <v>1.49</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J21" si="1">I21*B21</f>
         <v>1.49</v>
       </c>
     </row>
@@ -5912,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -5929,55 +5935,76 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.49</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" ref="J24:J25" si="1">I24*B24</f>
-        <v>23.6</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ref="J25:J26" si="2">I25*B25</f>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>53</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>3.38</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="1"/>
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
         <v>3.38</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J26" s="4">
-        <f>SUM(J3:J25)</f>
-        <v>2431.9899999999993</v>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J27" s="4">
+        <f>SUM(J3:J26)</f>
+        <v>2433.4799999999991</v>
       </c>
     </row>
   </sheetData>
@@ -6166,7 +6193,7 @@
       <c r="A1" s="393">
         <v>1000</v>
       </c>
-      <c r="B1" s="589" t="s">
+      <c r="B1" s="394" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6178,7 +6205,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="393"/>
-      <c r="B2" s="589"/>
+      <c r="B2" s="394"/>
       <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
@@ -6188,7 +6215,7 @@
       <c r="A4" s="393">
         <v>1001</v>
       </c>
-      <c r="B4" s="590" t="s">
+      <c r="B4" s="396" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -6200,7 +6227,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="393"/>
-      <c r="B5" s="590"/>
+      <c r="B5" s="396"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
@@ -6210,7 +6237,7 @@
       <c r="A7" s="393">
         <v>1002</v>
       </c>
-      <c r="B7" s="587" t="s">
+      <c r="B7" s="399" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6222,7 +6249,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="393"/>
-      <c r="B8" s="587"/>
+      <c r="B8" s="399"/>
       <c r="C8" s="13" t="s">
         <v>71</v>
       </c>
@@ -6232,7 +6259,7 @@
       <c r="A10" s="393">
         <v>1003</v>
       </c>
-      <c r="B10" s="588" t="s">
+      <c r="B10" s="400" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -6244,7 +6271,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="393"/>
-      <c r="B11" s="588"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
@@ -6254,7 +6281,7 @@
       <c r="A13" s="393">
         <v>1004</v>
       </c>
-      <c r="B13" s="585" t="s">
+      <c r="B13" s="397" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -6266,7 +6293,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="393"/>
-      <c r="B14" s="585"/>
+      <c r="B14" s="397"/>
       <c r="C14" s="17" t="s">
         <v>77</v>
       </c>
@@ -6276,7 +6303,7 @@
       <c r="A16" s="393">
         <v>1005</v>
       </c>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="398" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -6288,7 +6315,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="393"/>
-      <c r="B17" s="586"/>
+      <c r="B17" s="398"/>
       <c r="C17" s="19" t="s">
         <v>80</v>
       </c>
@@ -6298,7 +6325,7 @@
       <c r="A19" s="393">
         <v>1006</v>
       </c>
-      <c r="B19" s="583" t="s">
+      <c r="B19" s="403" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -6310,7 +6337,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="393"/>
-      <c r="B20" s="583"/>
+      <c r="B20" s="403"/>
       <c r="C20" s="21" t="s">
         <v>83</v>
       </c>
@@ -6320,7 +6347,7 @@
       <c r="A22" s="393">
         <v>1007</v>
       </c>
-      <c r="B22" s="584" t="s">
+      <c r="B22" s="404" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -6332,7 +6359,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="393"/>
-      <c r="B23" s="584"/>
+      <c r="B23" s="404"/>
       <c r="C23" s="23" t="s">
         <v>86</v>
       </c>
@@ -6342,7 +6369,7 @@
       <c r="A25" s="393">
         <v>1011</v>
       </c>
-      <c r="B25" s="581" t="s">
+      <c r="B25" s="401" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -6354,7 +6381,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="393"/>
-      <c r="B26" s="581"/>
+      <c r="B26" s="401"/>
       <c r="C26" s="25" t="s">
         <v>89</v>
       </c>
@@ -6364,7 +6391,7 @@
       <c r="A28" s="393">
         <v>1012</v>
       </c>
-      <c r="B28" s="582" t="s">
+      <c r="B28" s="402" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -6376,7 +6403,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="393"/>
-      <c r="B29" s="582"/>
+      <c r="B29" s="402"/>
       <c r="C29" s="27" t="s">
         <v>92</v>
       </c>
@@ -6386,7 +6413,7 @@
       <c r="A31" s="393">
         <v>1013</v>
       </c>
-      <c r="B31" s="579" t="s">
+      <c r="B31" s="407" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -6398,7 +6425,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="393"/>
-      <c r="B32" s="579"/>
+      <c r="B32" s="407"/>
       <c r="C32" s="29" t="s">
         <v>95</v>
       </c>
@@ -6408,7 +6435,7 @@
       <c r="A34" s="393">
         <v>1014</v>
       </c>
-      <c r="B34" s="580" t="s">
+      <c r="B34" s="408" t="s">
         <v>96</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -6420,7 +6447,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="393"/>
-      <c r="B35" s="580"/>
+      <c r="B35" s="408"/>
       <c r="C35" s="31" t="s">
         <v>98</v>
       </c>
@@ -6430,7 +6457,7 @@
       <c r="A37" s="393">
         <v>1015</v>
       </c>
-      <c r="B37" s="577" t="s">
+      <c r="B37" s="405" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="32" t="s">
@@ -6442,7 +6469,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="393"/>
-      <c r="B38" s="577"/>
+      <c r="B38" s="405"/>
       <c r="C38" s="33" t="s">
         <v>101</v>
       </c>
@@ -6452,7 +6479,7 @@
       <c r="A40" s="393">
         <v>1016</v>
       </c>
-      <c r="B40" s="578" t="s">
+      <c r="B40" s="406" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="34" t="s">
@@ -6464,7 +6491,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="393"/>
-      <c r="B41" s="578"/>
+      <c r="B41" s="406"/>
       <c r="C41" s="35" t="s">
         <v>104</v>
       </c>
@@ -6474,7 +6501,7 @@
       <c r="A43" s="393">
         <v>1017</v>
       </c>
-      <c r="B43" s="575" t="s">
+      <c r="B43" s="411" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -6486,7 +6513,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="393"/>
-      <c r="B44" s="575"/>
+      <c r="B44" s="411"/>
       <c r="C44" s="37" t="s">
         <v>107</v>
       </c>
@@ -6496,7 +6523,7 @@
       <c r="A46" s="393">
         <v>1018</v>
       </c>
-      <c r="B46" s="576" t="s">
+      <c r="B46" s="412" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="38" t="s">
@@ -6508,7 +6535,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="393"/>
-      <c r="B47" s="576"/>
+      <c r="B47" s="412"/>
       <c r="C47" s="39" t="s">
         <v>110</v>
       </c>
@@ -6518,7 +6545,7 @@
       <c r="A49" s="393">
         <v>1019</v>
       </c>
-      <c r="B49" s="573" t="s">
+      <c r="B49" s="409" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -6530,7 +6557,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="393"/>
-      <c r="B50" s="573"/>
+      <c r="B50" s="409"/>
       <c r="C50" s="41" t="s">
         <v>113</v>
       </c>
@@ -6540,7 +6567,7 @@
       <c r="A52" s="393">
         <v>1020</v>
       </c>
-      <c r="B52" s="574" t="s">
+      <c r="B52" s="410" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="42" t="s">
@@ -6552,7 +6579,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="393"/>
-      <c r="B53" s="574"/>
+      <c r="B53" s="410"/>
       <c r="C53" s="43" t="s">
         <v>116</v>
       </c>
@@ -6562,7 +6589,7 @@
       <c r="A55" s="393">
         <v>1021</v>
       </c>
-      <c r="B55" s="572" t="s">
+      <c r="B55" s="415" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="44" t="s">
@@ -6574,7 +6601,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="393"/>
-      <c r="B56" s="572"/>
+      <c r="B56" s="415"/>
       <c r="C56" s="45" t="s">
         <v>119</v>
       </c>
@@ -6584,7 +6611,7 @@
       <c r="A58" s="393">
         <v>1023</v>
       </c>
-      <c r="B58" s="572" t="s">
+      <c r="B58" s="415" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="44" t="s">
@@ -6596,7 +6623,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="393"/>
-      <c r="B59" s="572"/>
+      <c r="B59" s="415"/>
       <c r="C59" s="45" t="s">
         <v>119</v>
       </c>
@@ -6606,7 +6633,7 @@
       <c r="A61" s="393">
         <v>1024</v>
       </c>
-      <c r="B61" s="570" t="s">
+      <c r="B61" s="413" t="s">
         <v>121</v>
       </c>
       <c r="C61" s="46" t="s">
@@ -6618,7 +6645,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="393"/>
-      <c r="B62" s="570"/>
+      <c r="B62" s="413"/>
       <c r="C62" s="47" t="s">
         <v>123</v>
       </c>
@@ -6628,7 +6655,7 @@
       <c r="A64" s="393">
         <v>1026</v>
       </c>
-      <c r="B64" s="571" t="s">
+      <c r="B64" s="414" t="s">
         <v>124</v>
       </c>
       <c r="C64" s="48" t="s">
@@ -6640,7 +6667,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="393"/>
-      <c r="B65" s="571"/>
+      <c r="B65" s="414"/>
       <c r="C65" s="49" t="s">
         <v>126</v>
       </c>
@@ -6650,7 +6677,7 @@
       <c r="A67" s="393">
         <v>1027</v>
       </c>
-      <c r="B67" s="568" t="s">
+      <c r="B67" s="418" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="50" t="s">
@@ -6662,7 +6689,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="393"/>
-      <c r="B68" s="568"/>
+      <c r="B68" s="418"/>
       <c r="C68" s="51" t="s">
         <v>129</v>
       </c>
@@ -6672,7 +6699,7 @@
       <c r="A70" s="393">
         <v>1028</v>
       </c>
-      <c r="B70" s="569" t="s">
+      <c r="B70" s="419" t="s">
         <v>130</v>
       </c>
       <c r="C70" s="52" t="s">
@@ -6684,7 +6711,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="393"/>
-      <c r="B71" s="569"/>
+      <c r="B71" s="419"/>
       <c r="C71" s="53" t="s">
         <v>132</v>
       </c>
@@ -6694,7 +6721,7 @@
       <c r="A73" s="393">
         <v>1032</v>
       </c>
-      <c r="B73" s="566" t="s">
+      <c r="B73" s="416" t="s">
         <v>133</v>
       </c>
       <c r="C73" s="54" t="s">
@@ -6706,7 +6733,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="393"/>
-      <c r="B74" s="566"/>
+      <c r="B74" s="416"/>
       <c r="C74" s="55" t="s">
         <v>135</v>
       </c>
@@ -6716,7 +6743,7 @@
       <c r="A76" s="393">
         <v>1033</v>
       </c>
-      <c r="B76" s="567" t="s">
+      <c r="B76" s="417" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="56" t="s">
@@ -6728,7 +6755,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="393"/>
-      <c r="B77" s="567"/>
+      <c r="B77" s="417"/>
       <c r="C77" s="57" t="s">
         <v>138</v>
       </c>
@@ -6738,7 +6765,7 @@
       <c r="A79" s="393">
         <v>1034</v>
       </c>
-      <c r="B79" s="564" t="s">
+      <c r="B79" s="422" t="s">
         <v>139</v>
       </c>
       <c r="C79" s="58" t="s">
@@ -6750,7 +6777,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="393"/>
-      <c r="B80" s="564"/>
+      <c r="B80" s="422"/>
       <c r="C80" s="59" t="s">
         <v>141</v>
       </c>
@@ -6760,7 +6787,7 @@
       <c r="A82" s="393">
         <v>2000</v>
       </c>
-      <c r="B82" s="565" t="s">
+      <c r="B82" s="423" t="s">
         <v>142</v>
       </c>
       <c r="C82" s="60" t="s">
@@ -6772,7 +6799,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="393"/>
-      <c r="B83" s="565"/>
+      <c r="B83" s="423"/>
       <c r="C83" s="61" t="s">
         <v>144</v>
       </c>
@@ -6782,7 +6809,7 @@
       <c r="A85" s="393">
         <v>2001</v>
       </c>
-      <c r="B85" s="562" t="s">
+      <c r="B85" s="420" t="s">
         <v>145</v>
       </c>
       <c r="C85" s="62" t="s">
@@ -6794,7 +6821,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="393"/>
-      <c r="B86" s="562"/>
+      <c r="B86" s="420"/>
       <c r="C86" s="63" t="s">
         <v>147</v>
       </c>
@@ -6804,7 +6831,7 @@
       <c r="A88" s="393">
         <v>2002</v>
       </c>
-      <c r="B88" s="563" t="s">
+      <c r="B88" s="421" t="s">
         <v>148</v>
       </c>
       <c r="C88" s="64" t="s">
@@ -6816,7 +6843,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="393"/>
-      <c r="B89" s="563"/>
+      <c r="B89" s="421"/>
       <c r="C89" s="65" t="s">
         <v>150</v>
       </c>
@@ -6826,7 +6853,7 @@
       <c r="A91" s="393">
         <v>2003</v>
       </c>
-      <c r="B91" s="560" t="s">
+      <c r="B91" s="426" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="66" t="s">
@@ -6838,7 +6865,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="393"/>
-      <c r="B92" s="560"/>
+      <c r="B92" s="426"/>
       <c r="C92" s="67" t="s">
         <v>153</v>
       </c>
@@ -6848,7 +6875,7 @@
       <c r="A94" s="393">
         <v>2004</v>
       </c>
-      <c r="B94" s="561" t="s">
+      <c r="B94" s="427" t="s">
         <v>154</v>
       </c>
       <c r="C94" s="68" t="s">
@@ -6860,7 +6887,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="393"/>
-      <c r="B95" s="561"/>
+      <c r="B95" s="427"/>
       <c r="C95" s="69" t="s">
         <v>156</v>
       </c>
@@ -6870,7 +6897,7 @@
       <c r="A97" s="393">
         <v>2005</v>
       </c>
-      <c r="B97" s="558" t="s">
+      <c r="B97" s="424" t="s">
         <v>157</v>
       </c>
       <c r="C97" s="70" t="s">
@@ -6882,7 +6909,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="393"/>
-      <c r="B98" s="558"/>
+      <c r="B98" s="424"/>
       <c r="C98" s="71" t="s">
         <v>159</v>
       </c>
@@ -6892,7 +6919,7 @@
       <c r="A100" s="393">
         <v>2007</v>
       </c>
-      <c r="B100" s="559" t="s">
+      <c r="B100" s="425" t="s">
         <v>160</v>
       </c>
       <c r="C100" s="72" t="s">
@@ -6904,7 +6931,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="393"/>
-      <c r="B101" s="559"/>
+      <c r="B101" s="425"/>
       <c r="C101" s="73" t="s">
         <v>162</v>
       </c>
@@ -6914,7 +6941,7 @@
       <c r="A103" s="393">
         <v>2008</v>
       </c>
-      <c r="B103" s="556" t="s">
+      <c r="B103" s="430" t="s">
         <v>163</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -6926,7 +6953,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="393"/>
-      <c r="B104" s="556"/>
+      <c r="B104" s="430"/>
       <c r="C104" s="75" t="s">
         <v>165</v>
       </c>
@@ -6936,7 +6963,7 @@
       <c r="A106" s="393">
         <v>2009</v>
       </c>
-      <c r="B106" s="557" t="s">
+      <c r="B106" s="431" t="s">
         <v>166</v>
       </c>
       <c r="C106" s="76" t="s">
@@ -6948,7 +6975,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="393"/>
-      <c r="B107" s="557"/>
+      <c r="B107" s="431"/>
       <c r="C107" s="77" t="s">
         <v>168</v>
       </c>
@@ -6958,7 +6985,7 @@
       <c r="A109" s="393">
         <v>2010</v>
       </c>
-      <c r="B109" s="554" t="s">
+      <c r="B109" s="428" t="s">
         <v>169</v>
       </c>
       <c r="C109" s="78" t="s">
@@ -6970,7 +6997,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="393"/>
-      <c r="B110" s="554"/>
+      <c r="B110" s="428"/>
       <c r="C110" s="79" t="s">
         <v>171</v>
       </c>
@@ -6980,7 +7007,7 @@
       <c r="A112" s="393">
         <v>2011</v>
       </c>
-      <c r="B112" s="555" t="s">
+      <c r="B112" s="429" t="s">
         <v>172</v>
       </c>
       <c r="C112" s="80" t="s">
@@ -6992,7 +7019,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="393"/>
-      <c r="B113" s="555"/>
+      <c r="B113" s="429"/>
       <c r="C113" s="81" t="s">
         <v>174</v>
       </c>
@@ -7002,7 +7029,7 @@
       <c r="A115" s="393">
         <v>2012</v>
       </c>
-      <c r="B115" s="552" t="s">
+      <c r="B115" s="434" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="82" t="s">
@@ -7014,7 +7041,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="393"/>
-      <c r="B116" s="552"/>
+      <c r="B116" s="434"/>
       <c r="C116" s="83" t="s">
         <v>177</v>
       </c>
@@ -7024,7 +7051,7 @@
       <c r="A118" s="393">
         <v>3000</v>
       </c>
-      <c r="B118" s="553" t="s">
+      <c r="B118" s="435" t="s">
         <v>178</v>
       </c>
       <c r="C118" s="84" t="s">
@@ -7036,7 +7063,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="393"/>
-      <c r="B119" s="553"/>
+      <c r="B119" s="435"/>
       <c r="C119" s="85" t="s">
         <v>180</v>
       </c>
@@ -7046,7 +7073,7 @@
       <c r="A121" s="393">
         <v>3001</v>
       </c>
-      <c r="B121" s="550" t="s">
+      <c r="B121" s="432" t="s">
         <v>181</v>
       </c>
       <c r="C121" s="86" t="s">
@@ -7058,7 +7085,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="393"/>
-      <c r="B122" s="550"/>
+      <c r="B122" s="432"/>
       <c r="C122" s="87" t="s">
         <v>183</v>
       </c>
@@ -7068,7 +7095,7 @@
       <c r="A124" s="393">
         <v>3002</v>
       </c>
-      <c r="B124" s="551" t="s">
+      <c r="B124" s="433" t="s">
         <v>184</v>
       </c>
       <c r="C124" s="88" t="s">
@@ -7080,7 +7107,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="393"/>
-      <c r="B125" s="551"/>
+      <c r="B125" s="433"/>
       <c r="C125" s="89" t="s">
         <v>186</v>
       </c>
@@ -7090,7 +7117,7 @@
       <c r="A127" s="393">
         <v>3003</v>
       </c>
-      <c r="B127" s="548" t="s">
+      <c r="B127" s="438" t="s">
         <v>187</v>
       </c>
       <c r="C127" s="90" t="s">
@@ -7102,7 +7129,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="393"/>
-      <c r="B128" s="548"/>
+      <c r="B128" s="438"/>
       <c r="C128" s="91" t="s">
         <v>189</v>
       </c>
@@ -7112,7 +7139,7 @@
       <c r="A130" s="393">
         <v>3004</v>
       </c>
-      <c r="B130" s="549" t="s">
+      <c r="B130" s="439" t="s">
         <v>190</v>
       </c>
       <c r="C130" s="92" t="s">
@@ -7124,7 +7151,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="393"/>
-      <c r="B131" s="549"/>
+      <c r="B131" s="439"/>
       <c r="C131" s="93" t="s">
         <v>192</v>
       </c>
@@ -7134,7 +7161,7 @@
       <c r="A133" s="393">
         <v>3005</v>
       </c>
-      <c r="B133" s="546" t="s">
+      <c r="B133" s="436" t="s">
         <v>193</v>
       </c>
       <c r="C133" s="94" t="s">
@@ -7146,7 +7173,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="393"/>
-      <c r="B134" s="546"/>
+      <c r="B134" s="436"/>
       <c r="C134" s="95" t="s">
         <v>195</v>
       </c>
@@ -7156,7 +7183,7 @@
       <c r="A136" s="393">
         <v>3007</v>
       </c>
-      <c r="B136" s="547" t="s">
+      <c r="B136" s="437" t="s">
         <v>196</v>
       </c>
       <c r="C136" s="96" t="s">
@@ -7168,7 +7195,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="393"/>
-      <c r="B137" s="547"/>
+      <c r="B137" s="437"/>
       <c r="C137" s="97" t="s">
         <v>198</v>
       </c>
@@ -7178,7 +7205,7 @@
       <c r="A139" s="393">
         <v>3009</v>
       </c>
-      <c r="B139" s="544" t="s">
+      <c r="B139" s="442" t="s">
         <v>199</v>
       </c>
       <c r="C139" s="98" t="s">
@@ -7190,7 +7217,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="393"/>
-      <c r="B140" s="544"/>
+      <c r="B140" s="442"/>
       <c r="C140" s="99" t="s">
         <v>201</v>
       </c>
@@ -7200,7 +7227,7 @@
       <c r="A142" s="393">
         <v>3011</v>
       </c>
-      <c r="B142" s="545" t="s">
+      <c r="B142" s="443" t="s">
         <v>202</v>
       </c>
       <c r="C142" s="100" t="s">
@@ -7212,7 +7239,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="393"/>
-      <c r="B143" s="545"/>
+      <c r="B143" s="443"/>
       <c r="C143" s="101" t="s">
         <v>204</v>
       </c>
@@ -7222,7 +7249,7 @@
       <c r="A145" s="393">
         <v>3012</v>
       </c>
-      <c r="B145" s="542" t="s">
+      <c r="B145" s="440" t="s">
         <v>205</v>
       </c>
       <c r="C145" s="102" t="s">
@@ -7234,7 +7261,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="393"/>
-      <c r="B146" s="542"/>
+      <c r="B146" s="440"/>
       <c r="C146" s="103" t="s">
         <v>207</v>
       </c>
@@ -7244,7 +7271,7 @@
       <c r="A148" s="393">
         <v>3013</v>
       </c>
-      <c r="B148" s="543" t="s">
+      <c r="B148" s="441" t="s">
         <v>208</v>
       </c>
       <c r="C148" s="104" t="s">
@@ -7256,7 +7283,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="393"/>
-      <c r="B149" s="543"/>
+      <c r="B149" s="441"/>
       <c r="C149" s="105" t="s">
         <v>210</v>
       </c>
@@ -7266,7 +7293,7 @@
       <c r="A151" s="393">
         <v>3014</v>
       </c>
-      <c r="B151" s="540" t="s">
+      <c r="B151" s="446" t="s">
         <v>211</v>
       </c>
       <c r="C151" s="106" t="s">
@@ -7278,7 +7305,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="393"/>
-      <c r="B152" s="540"/>
+      <c r="B152" s="446"/>
       <c r="C152" s="107" t="s">
         <v>213</v>
       </c>
@@ -7288,7 +7315,7 @@
       <c r="A154" s="393">
         <v>3015</v>
       </c>
-      <c r="B154" s="541" t="s">
+      <c r="B154" s="447" t="s">
         <v>214</v>
       </c>
       <c r="C154" s="108" t="s">
@@ -7300,7 +7327,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="393"/>
-      <c r="B155" s="541"/>
+      <c r="B155" s="447"/>
       <c r="C155" s="109" t="s">
         <v>216</v>
       </c>
@@ -7310,7 +7337,7 @@
       <c r="A157" s="393">
         <v>3016</v>
       </c>
-      <c r="B157" s="538" t="s">
+      <c r="B157" s="444" t="s">
         <v>217</v>
       </c>
       <c r="C157" s="110" t="s">
@@ -7322,7 +7349,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="393"/>
-      <c r="B158" s="538"/>
+      <c r="B158" s="444"/>
       <c r="C158" s="111" t="s">
         <v>219</v>
       </c>
@@ -7332,7 +7359,7 @@
       <c r="A160" s="393">
         <v>3017</v>
       </c>
-      <c r="B160" s="539" t="s">
+      <c r="B160" s="445" t="s">
         <v>220</v>
       </c>
       <c r="C160" s="112" t="s">
@@ -7344,7 +7371,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="393"/>
-      <c r="B161" s="539"/>
+      <c r="B161" s="445"/>
       <c r="C161" s="113" t="s">
         <v>222</v>
       </c>
@@ -7354,7 +7381,7 @@
       <c r="A163" s="393">
         <v>3018</v>
       </c>
-      <c r="B163" s="536" t="s">
+      <c r="B163" s="450" t="s">
         <v>223</v>
       </c>
       <c r="C163" s="114" t="s">
@@ -7366,7 +7393,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="393"/>
-      <c r="B164" s="536"/>
+      <c r="B164" s="450"/>
       <c r="C164" s="115" t="s">
         <v>225</v>
       </c>
@@ -7376,7 +7403,7 @@
       <c r="A166" s="393">
         <v>3020</v>
       </c>
-      <c r="B166" s="537" t="s">
+      <c r="B166" s="451" t="s">
         <v>226</v>
       </c>
       <c r="C166" s="116" t="s">
@@ -7388,7 +7415,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="393"/>
-      <c r="B167" s="537"/>
+      <c r="B167" s="451"/>
       <c r="C167" s="117" t="s">
         <v>228</v>
       </c>
@@ -7398,7 +7425,7 @@
       <c r="A169" s="393">
         <v>3022</v>
       </c>
-      <c r="B169" s="534" t="s">
+      <c r="B169" s="448" t="s">
         <v>229</v>
       </c>
       <c r="C169" s="118" t="s">
@@ -7410,7 +7437,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="393"/>
-      <c r="B170" s="534"/>
+      <c r="B170" s="448"/>
       <c r="C170" s="119" t="s">
         <v>231</v>
       </c>
@@ -7420,7 +7447,7 @@
       <c r="A172" s="393">
         <v>3024</v>
       </c>
-      <c r="B172" s="535" t="s">
+      <c r="B172" s="449" t="s">
         <v>232</v>
       </c>
       <c r="C172" s="120" t="s">
@@ -7432,7 +7459,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="393"/>
-      <c r="B173" s="535"/>
+      <c r="B173" s="449"/>
       <c r="C173" s="121" t="s">
         <v>234</v>
       </c>
@@ -7442,7 +7469,7 @@
       <c r="A175" s="393">
         <v>3026</v>
       </c>
-      <c r="B175" s="532" t="s">
+      <c r="B175" s="454" t="s">
         <v>235</v>
       </c>
       <c r="C175" s="122" t="s">
@@ -7454,7 +7481,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="393"/>
-      <c r="B176" s="532"/>
+      <c r="B176" s="454"/>
       <c r="C176" s="123" t="s">
         <v>237</v>
       </c>
@@ -7464,7 +7491,7 @@
       <c r="A178" s="393">
         <v>3027</v>
       </c>
-      <c r="B178" s="533" t="s">
+      <c r="B178" s="455" t="s">
         <v>238</v>
       </c>
       <c r="C178" s="124" t="s">
@@ -7476,7 +7503,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="393"/>
-      <c r="B179" s="533"/>
+      <c r="B179" s="455"/>
       <c r="C179" s="125" t="s">
         <v>240</v>
       </c>
@@ -7486,7 +7513,7 @@
       <c r="A181" s="393">
         <v>3031</v>
       </c>
-      <c r="B181" s="530" t="s">
+      <c r="B181" s="452" t="s">
         <v>241</v>
       </c>
       <c r="C181" s="126" t="s">
@@ -7498,7 +7525,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="393"/>
-      <c r="B182" s="530"/>
+      <c r="B182" s="452"/>
       <c r="C182" s="127" t="s">
         <v>243</v>
       </c>
@@ -7508,7 +7535,7 @@
       <c r="A184" s="393">
         <v>4001</v>
       </c>
-      <c r="B184" s="531" t="s">
+      <c r="B184" s="453" t="s">
         <v>244</v>
       </c>
       <c r="C184" s="128" t="s">
@@ -7520,7 +7547,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="393"/>
-      <c r="B185" s="531"/>
+      <c r="B185" s="453"/>
       <c r="C185" s="129" t="s">
         <v>246</v>
       </c>
@@ -7530,7 +7557,7 @@
       <c r="A187" s="393">
         <v>4002</v>
       </c>
-      <c r="B187" s="528" t="s">
+      <c r="B187" s="458" t="s">
         <v>247</v>
       </c>
       <c r="C187" s="130" t="s">
@@ -7542,7 +7569,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="393"/>
-      <c r="B188" s="528"/>
+      <c r="B188" s="458"/>
       <c r="C188" s="131" t="s">
         <v>249</v>
       </c>
@@ -7552,7 +7579,7 @@
       <c r="A190" s="393">
         <v>4003</v>
       </c>
-      <c r="B190" s="529" t="s">
+      <c r="B190" s="459" t="s">
         <v>250</v>
       </c>
       <c r="C190" s="132" t="s">
@@ -7564,7 +7591,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="393"/>
-      <c r="B191" s="529"/>
+      <c r="B191" s="459"/>
       <c r="C191" s="133" t="s">
         <v>252</v>
       </c>
@@ -7574,7 +7601,7 @@
       <c r="A193" s="393">
         <v>4004</v>
       </c>
-      <c r="B193" s="526" t="s">
+      <c r="B193" s="456" t="s">
         <v>253</v>
       </c>
       <c r="C193" s="134" t="s">
@@ -7586,7 +7613,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="393"/>
-      <c r="B194" s="526"/>
+      <c r="B194" s="456"/>
       <c r="C194" s="135" t="s">
         <v>255</v>
       </c>
@@ -7596,7 +7623,7 @@
       <c r="A196" s="393">
         <v>4005</v>
       </c>
-      <c r="B196" s="527" t="s">
+      <c r="B196" s="457" t="s">
         <v>256</v>
       </c>
       <c r="C196" s="136" t="s">
@@ -7608,7 +7635,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="393"/>
-      <c r="B197" s="527"/>
+      <c r="B197" s="457"/>
       <c r="C197" s="137" t="s">
         <v>258</v>
       </c>
@@ -7618,7 +7645,7 @@
       <c r="A199" s="393">
         <v>4006</v>
       </c>
-      <c r="B199" s="524" t="s">
+      <c r="B199" s="462" t="s">
         <v>259</v>
       </c>
       <c r="C199" s="138" t="s">
@@ -7630,7 +7657,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="393"/>
-      <c r="B200" s="524"/>
+      <c r="B200" s="462"/>
       <c r="C200" s="139" t="s">
         <v>261</v>
       </c>
@@ -7640,7 +7667,7 @@
       <c r="A202" s="393">
         <v>4007</v>
       </c>
-      <c r="B202" s="525" t="s">
+      <c r="B202" s="463" t="s">
         <v>262</v>
       </c>
       <c r="C202" s="140" t="s">
@@ -7652,7 +7679,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="393"/>
-      <c r="B203" s="525"/>
+      <c r="B203" s="463"/>
       <c r="C203" s="141" t="s">
         <v>264</v>
       </c>
@@ -7662,7 +7689,7 @@
       <c r="A205" s="393">
         <v>4008</v>
       </c>
-      <c r="B205" s="522" t="s">
+      <c r="B205" s="460" t="s">
         <v>265</v>
       </c>
       <c r="C205" s="142" t="s">
@@ -7674,7 +7701,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="393"/>
-      <c r="B206" s="522"/>
+      <c r="B206" s="460"/>
       <c r="C206" s="143" t="s">
         <v>267</v>
       </c>
@@ -7684,7 +7711,7 @@
       <c r="A208" s="393">
         <v>4009</v>
       </c>
-      <c r="B208" s="523" t="s">
+      <c r="B208" s="461" t="s">
         <v>268</v>
       </c>
       <c r="C208" s="144" t="s">
@@ -7696,7 +7723,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="393"/>
-      <c r="B209" s="523"/>
+      <c r="B209" s="461"/>
       <c r="C209" s="145" t="s">
         <v>270</v>
       </c>
@@ -7706,7 +7733,7 @@
       <c r="A211" s="393">
         <v>4010</v>
       </c>
-      <c r="B211" s="520" t="s">
+      <c r="B211" s="466" t="s">
         <v>271</v>
       </c>
       <c r="C211" s="146" t="s">
@@ -7718,7 +7745,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="393"/>
-      <c r="B212" s="520"/>
+      <c r="B212" s="466"/>
       <c r="C212" s="147" t="s">
         <v>273</v>
       </c>
@@ -7728,7 +7755,7 @@
       <c r="A214" s="393">
         <v>5000</v>
       </c>
-      <c r="B214" s="521" t="s">
+      <c r="B214" s="467" t="s">
         <v>274</v>
       </c>
       <c r="C214" s="148" t="s">
@@ -7740,7 +7767,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="393"/>
-      <c r="B215" s="521"/>
+      <c r="B215" s="467"/>
       <c r="C215" s="149" t="s">
         <v>276</v>
       </c>
@@ -7750,7 +7777,7 @@
       <c r="A217" s="393">
         <v>5001</v>
       </c>
-      <c r="B217" s="518" t="s">
+      <c r="B217" s="464" t="s">
         <v>277</v>
       </c>
       <c r="C217" s="150" t="s">
@@ -7762,7 +7789,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="393"/>
-      <c r="B218" s="518"/>
+      <c r="B218" s="464"/>
       <c r="C218" s="151" t="s">
         <v>279</v>
       </c>
@@ -7772,7 +7799,7 @@
       <c r="A220" s="393">
         <v>5002</v>
       </c>
-      <c r="B220" s="519" t="s">
+      <c r="B220" s="465" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="152" t="s">
@@ -7784,7 +7811,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="393"/>
-      <c r="B221" s="519"/>
+      <c r="B221" s="465"/>
       <c r="C221" s="153" t="s">
         <v>282</v>
       </c>
@@ -7794,7 +7821,7 @@
       <c r="A223" s="393">
         <v>5003</v>
       </c>
-      <c r="B223" s="516" t="s">
+      <c r="B223" s="470" t="s">
         <v>283</v>
       </c>
       <c r="C223" s="154" t="s">
@@ -7806,7 +7833,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="393"/>
-      <c r="B224" s="516"/>
+      <c r="B224" s="470"/>
       <c r="C224" s="155" t="s">
         <v>285</v>
       </c>
@@ -7816,7 +7843,7 @@
       <c r="A226" s="393">
         <v>5004</v>
       </c>
-      <c r="B226" s="517" t="s">
+      <c r="B226" s="471" t="s">
         <v>286</v>
       </c>
       <c r="C226" s="156" t="s">
@@ -7828,7 +7855,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="393"/>
-      <c r="B227" s="517"/>
+      <c r="B227" s="471"/>
       <c r="C227" s="157" t="s">
         <v>288</v>
       </c>
@@ -7838,7 +7865,7 @@
       <c r="A229" s="393">
         <v>5005</v>
       </c>
-      <c r="B229" s="514" t="s">
+      <c r="B229" s="468" t="s">
         <v>289</v>
       </c>
       <c r="C229" s="158" t="s">
@@ -7850,7 +7877,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="393"/>
-      <c r="B230" s="514"/>
+      <c r="B230" s="468"/>
       <c r="C230" s="159" t="s">
         <v>291</v>
       </c>
@@ -7860,7 +7887,7 @@
       <c r="A232" s="393">
         <v>5007</v>
       </c>
-      <c r="B232" s="515" t="s">
+      <c r="B232" s="469" t="s">
         <v>292</v>
       </c>
       <c r="C232" s="160" t="s">
@@ -7872,7 +7899,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="393"/>
-      <c r="B233" s="515"/>
+      <c r="B233" s="469"/>
       <c r="C233" s="161" t="s">
         <v>294</v>
       </c>
@@ -7882,7 +7909,7 @@
       <c r="A235" s="393">
         <v>5008</v>
       </c>
-      <c r="B235" s="512" t="s">
+      <c r="B235" s="474" t="s">
         <v>295</v>
       </c>
       <c r="C235" s="162" t="s">
@@ -7894,7 +7921,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="393"/>
-      <c r="B236" s="512"/>
+      <c r="B236" s="474"/>
       <c r="C236" s="163" t="s">
         <v>297</v>
       </c>
@@ -7904,7 +7931,7 @@
       <c r="A238" s="393">
         <v>5009</v>
       </c>
-      <c r="B238" s="513" t="s">
+      <c r="B238" s="475" t="s">
         <v>298</v>
       </c>
       <c r="C238" s="164" t="s">
@@ -7916,7 +7943,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="393"/>
-      <c r="B239" s="513"/>
+      <c r="B239" s="475"/>
       <c r="C239" s="165" t="s">
         <v>300</v>
       </c>
@@ -7926,7 +7953,7 @@
       <c r="A241" s="393">
         <v>5011</v>
       </c>
-      <c r="B241" s="510" t="s">
+      <c r="B241" s="472" t="s">
         <v>301</v>
       </c>
       <c r="C241" s="166" t="s">
@@ -7938,7 +7965,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="393"/>
-      <c r="B242" s="510"/>
+      <c r="B242" s="472"/>
       <c r="C242" s="167" t="s">
         <v>303</v>
       </c>
@@ -7948,7 +7975,7 @@
       <c r="A244" s="393">
         <v>5012</v>
       </c>
-      <c r="B244" s="511" t="s">
+      <c r="B244" s="473" t="s">
         <v>304</v>
       </c>
       <c r="C244" s="168" t="s">
@@ -7960,7 +7987,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="393"/>
-      <c r="B245" s="511"/>
+      <c r="B245" s="473"/>
       <c r="C245" s="169" t="s">
         <v>306</v>
       </c>
@@ -7970,7 +7997,7 @@
       <c r="A247" s="393">
         <v>5013</v>
       </c>
-      <c r="B247" s="508" t="s">
+      <c r="B247" s="478" t="s">
         <v>307</v>
       </c>
       <c r="C247" s="170" t="s">
@@ -7982,7 +8009,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="393"/>
-      <c r="B248" s="508"/>
+      <c r="B248" s="478"/>
       <c r="C248" s="171" t="s">
         <v>309</v>
       </c>
@@ -7992,7 +8019,7 @@
       <c r="A250" s="393">
         <v>5014</v>
       </c>
-      <c r="B250" s="509" t="s">
+      <c r="B250" s="479" t="s">
         <v>310</v>
       </c>
       <c r="C250" s="172" t="s">
@@ -8004,7 +8031,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="393"/>
-      <c r="B251" s="509"/>
+      <c r="B251" s="479"/>
       <c r="C251" s="173" t="s">
         <v>312</v>
       </c>
@@ -8014,7 +8041,7 @@
       <c r="A253" s="393">
         <v>5015</v>
       </c>
-      <c r="B253" s="506" t="s">
+      <c r="B253" s="476" t="s">
         <v>313</v>
       </c>
       <c r="C253" s="174" t="s">
@@ -8026,7 +8053,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="393"/>
-      <c r="B254" s="506"/>
+      <c r="B254" s="476"/>
       <c r="C254" s="175" t="s">
         <v>315</v>
       </c>
@@ -8036,7 +8063,7 @@
       <c r="A256" s="393">
         <v>5017</v>
       </c>
-      <c r="B256" s="507" t="s">
+      <c r="B256" s="477" t="s">
         <v>316</v>
       </c>
       <c r="C256" s="176" t="s">
@@ -8048,7 +8075,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="393"/>
-      <c r="B257" s="507"/>
+      <c r="B257" s="477"/>
       <c r="C257" s="177" t="s">
         <v>318</v>
       </c>
@@ -8058,7 +8085,7 @@
       <c r="A259" s="393">
         <v>5018</v>
       </c>
-      <c r="B259" s="504" t="s">
+      <c r="B259" s="482" t="s">
         <v>319</v>
       </c>
       <c r="C259" s="178" t="s">
@@ -8070,7 +8097,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="393"/>
-      <c r="B260" s="504"/>
+      <c r="B260" s="482"/>
       <c r="C260" s="179" t="s">
         <v>321</v>
       </c>
@@ -8080,7 +8107,7 @@
       <c r="A262" s="393">
         <v>5019</v>
       </c>
-      <c r="B262" s="505" t="s">
+      <c r="B262" s="483" t="s">
         <v>322</v>
       </c>
       <c r="C262" s="180" t="s">
@@ -8092,7 +8119,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="393"/>
-      <c r="B263" s="505"/>
+      <c r="B263" s="483"/>
       <c r="C263" s="181" t="s">
         <v>324</v>
       </c>
@@ -8102,7 +8129,7 @@
       <c r="A265" s="393">
         <v>5020</v>
       </c>
-      <c r="B265" s="502" t="s">
+      <c r="B265" s="480" t="s">
         <v>301</v>
       </c>
       <c r="C265" s="182" t="s">
@@ -8114,7 +8141,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="393"/>
-      <c r="B266" s="502"/>
+      <c r="B266" s="480"/>
       <c r="C266" s="183" t="s">
         <v>326</v>
       </c>
@@ -8124,7 +8151,7 @@
       <c r="A268" s="393">
         <v>5021</v>
       </c>
-      <c r="B268" s="503" t="s">
+      <c r="B268" s="481" t="s">
         <v>327</v>
       </c>
       <c r="C268" s="184" t="s">
@@ -8136,7 +8163,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="393"/>
-      <c r="B269" s="503"/>
+      <c r="B269" s="481"/>
       <c r="C269" s="185" t="s">
         <v>329</v>
       </c>
@@ -8146,7 +8173,7 @@
       <c r="A271" s="393">
         <v>5022</v>
       </c>
-      <c r="B271" s="500" t="s">
+      <c r="B271" s="486" t="s">
         <v>330</v>
       </c>
       <c r="C271" s="186" t="s">
@@ -8158,7 +8185,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="393"/>
-      <c r="B272" s="500"/>
+      <c r="B272" s="486"/>
       <c r="C272" s="187" t="s">
         <v>332</v>
       </c>
@@ -8168,7 +8195,7 @@
       <c r="A274" s="393">
         <v>5023</v>
       </c>
-      <c r="B274" s="501" t="s">
+      <c r="B274" s="487" t="s">
         <v>333</v>
       </c>
       <c r="C274" s="188" t="s">
@@ -8180,7 +8207,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="393"/>
-      <c r="B275" s="501"/>
+      <c r="B275" s="487"/>
       <c r="C275" s="189" t="s">
         <v>335</v>
       </c>
@@ -8190,7 +8217,7 @@
       <c r="A277" s="393">
         <v>5024</v>
       </c>
-      <c r="B277" s="498" t="s">
+      <c r="B277" s="484" t="s">
         <v>336</v>
       </c>
       <c r="C277" s="190" t="s">
@@ -8202,7 +8229,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="393"/>
-      <c r="B278" s="498"/>
+      <c r="B278" s="484"/>
       <c r="C278" s="191" t="s">
         <v>338</v>
       </c>
@@ -8212,7 +8239,7 @@
       <c r="A280" s="393">
         <v>6000</v>
       </c>
-      <c r="B280" s="499" t="s">
+      <c r="B280" s="485" t="s">
         <v>339</v>
       </c>
       <c r="C280" s="192" t="s">
@@ -8224,7 +8251,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="393"/>
-      <c r="B281" s="499"/>
+      <c r="B281" s="485"/>
       <c r="C281" s="193" t="s">
         <v>341</v>
       </c>
@@ -8234,7 +8261,7 @@
       <c r="A283" s="393">
         <v>6001</v>
       </c>
-      <c r="B283" s="496" t="s">
+      <c r="B283" s="490" t="s">
         <v>342</v>
       </c>
       <c r="C283" s="194" t="s">
@@ -8246,7 +8273,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="393"/>
-      <c r="B284" s="496"/>
+      <c r="B284" s="490"/>
       <c r="C284" s="195" t="s">
         <v>344</v>
       </c>
@@ -8256,7 +8283,7 @@
       <c r="A286" s="393">
         <v>6002</v>
       </c>
-      <c r="B286" s="497" t="s">
+      <c r="B286" s="491" t="s">
         <v>345</v>
       </c>
       <c r="C286" s="196" t="s">
@@ -8268,7 +8295,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="393"/>
-      <c r="B287" s="497"/>
+      <c r="B287" s="491"/>
       <c r="C287" s="197" t="s">
         <v>347</v>
       </c>
@@ -8278,7 +8305,7 @@
       <c r="A289" s="393">
         <v>6003</v>
       </c>
-      <c r="B289" s="494" t="s">
+      <c r="B289" s="488" t="s">
         <v>348</v>
       </c>
       <c r="C289" s="198" t="s">
@@ -8290,7 +8317,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="393"/>
-      <c r="B290" s="494"/>
+      <c r="B290" s="488"/>
       <c r="C290" s="199" t="s">
         <v>350</v>
       </c>
@@ -8300,7 +8327,7 @@
       <c r="A292" s="393">
         <v>6004</v>
       </c>
-      <c r="B292" s="495" t="s">
+      <c r="B292" s="489" t="s">
         <v>351</v>
       </c>
       <c r="C292" s="200" t="s">
@@ -8312,7 +8339,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="393"/>
-      <c r="B293" s="495"/>
+      <c r="B293" s="489"/>
       <c r="C293" s="201" t="s">
         <v>353</v>
       </c>
@@ -8322,7 +8349,7 @@
       <c r="A295" s="393">
         <v>6005</v>
       </c>
-      <c r="B295" s="492" t="s">
+      <c r="B295" s="494" t="s">
         <v>354</v>
       </c>
       <c r="C295" s="202" t="s">
@@ -8334,7 +8361,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="393"/>
-      <c r="B296" s="492"/>
+      <c r="B296" s="494"/>
       <c r="C296" s="203" t="s">
         <v>356</v>
       </c>
@@ -8344,7 +8371,7 @@
       <c r="A298" s="393">
         <v>6006</v>
       </c>
-      <c r="B298" s="493" t="s">
+      <c r="B298" s="495" t="s">
         <v>357</v>
       </c>
       <c r="C298" s="204" t="s">
@@ -8356,7 +8383,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="393"/>
-      <c r="B299" s="493"/>
+      <c r="B299" s="495"/>
       <c r="C299" s="205" t="s">
         <v>359</v>
       </c>
@@ -8366,7 +8393,7 @@
       <c r="A301" s="393">
         <v>6007</v>
       </c>
-      <c r="B301" s="490" t="s">
+      <c r="B301" s="492" t="s">
         <v>360</v>
       </c>
       <c r="C301" s="206" t="s">
@@ -8378,7 +8405,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="393"/>
-      <c r="B302" s="490"/>
+      <c r="B302" s="492"/>
       <c r="C302" s="207" t="s">
         <v>362</v>
       </c>
@@ -8388,7 +8415,7 @@
       <c r="A304" s="393">
         <v>6008</v>
       </c>
-      <c r="B304" s="491" t="s">
+      <c r="B304" s="493" t="s">
         <v>363</v>
       </c>
       <c r="C304" s="208" t="s">
@@ -8400,7 +8427,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="393"/>
-      <c r="B305" s="491"/>
+      <c r="B305" s="493"/>
       <c r="C305" s="209" t="s">
         <v>365</v>
       </c>
@@ -8410,7 +8437,7 @@
       <c r="A307" s="393">
         <v>6009</v>
       </c>
-      <c r="B307" s="488" t="s">
+      <c r="B307" s="498" t="s">
         <v>366</v>
       </c>
       <c r="C307" s="210" t="s">
@@ -8422,7 +8449,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="393"/>
-      <c r="B308" s="488"/>
+      <c r="B308" s="498"/>
       <c r="C308" s="211" t="s">
         <v>368</v>
       </c>
@@ -8432,7 +8459,7 @@
       <c r="A310" s="393">
         <v>6010</v>
       </c>
-      <c r="B310" s="489" t="s">
+      <c r="B310" s="499" t="s">
         <v>369</v>
       </c>
       <c r="C310" s="212" t="s">
@@ -8444,7 +8471,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="393"/>
-      <c r="B311" s="489"/>
+      <c r="B311" s="499"/>
       <c r="C311" s="213" t="s">
         <v>371</v>
       </c>
@@ -8454,7 +8481,7 @@
       <c r="A313" s="393">
         <v>6011</v>
       </c>
-      <c r="B313" s="486" t="s">
+      <c r="B313" s="496" t="s">
         <v>372</v>
       </c>
       <c r="C313" s="214" t="s">
@@ -8466,7 +8493,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="393"/>
-      <c r="B314" s="486"/>
+      <c r="B314" s="496"/>
       <c r="C314" s="215" t="s">
         <v>374</v>
       </c>
@@ -8476,7 +8503,7 @@
       <c r="A316" s="393">
         <v>6012</v>
       </c>
-      <c r="B316" s="487" t="s">
+      <c r="B316" s="497" t="s">
         <v>375</v>
       </c>
       <c r="C316" s="216" t="s">
@@ -8488,7 +8515,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="393"/>
-      <c r="B317" s="487"/>
+      <c r="B317" s="497"/>
       <c r="C317" s="217" t="s">
         <v>377</v>
       </c>
@@ -8498,7 +8525,7 @@
       <c r="A319" s="393">
         <v>6013</v>
       </c>
-      <c r="B319" s="484" t="s">
+      <c r="B319" s="502" t="s">
         <v>378</v>
       </c>
       <c r="C319" s="218" t="s">
@@ -8510,7 +8537,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="393"/>
-      <c r="B320" s="484"/>
+      <c r="B320" s="502"/>
       <c r="C320" s="219" t="s">
         <v>380</v>
       </c>
@@ -8520,7 +8547,7 @@
       <c r="A322" s="393">
         <v>6014</v>
       </c>
-      <c r="B322" s="485" t="s">
+      <c r="B322" s="503" t="s">
         <v>381</v>
       </c>
       <c r="C322" s="220" t="s">
@@ -8532,7 +8559,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="393"/>
-      <c r="B323" s="485"/>
+      <c r="B323" s="503"/>
       <c r="C323" s="221" t="s">
         <v>383</v>
       </c>
@@ -8542,7 +8569,7 @@
       <c r="A325" s="393">
         <v>6015</v>
       </c>
-      <c r="B325" s="482" t="s">
+      <c r="B325" s="500" t="s">
         <v>384</v>
       </c>
       <c r="C325" s="222" t="s">
@@ -8554,7 +8581,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="393"/>
-      <c r="B326" s="482"/>
+      <c r="B326" s="500"/>
       <c r="C326" s="223" t="s">
         <v>386</v>
       </c>
@@ -8564,7 +8591,7 @@
       <c r="A328" s="393">
         <v>6016</v>
       </c>
-      <c r="B328" s="483" t="s">
+      <c r="B328" s="501" t="s">
         <v>387</v>
       </c>
       <c r="C328" s="224" t="s">
@@ -8576,7 +8603,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="393"/>
-      <c r="B329" s="483"/>
+      <c r="B329" s="501"/>
       <c r="C329" s="225" t="s">
         <v>389</v>
       </c>
@@ -8586,7 +8613,7 @@
       <c r="A331" s="393">
         <v>6017</v>
       </c>
-      <c r="B331" s="480" t="s">
+      <c r="B331" s="506" t="s">
         <v>390</v>
       </c>
       <c r="C331" s="226" t="s">
@@ -8598,7 +8625,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="393"/>
-      <c r="B332" s="480"/>
+      <c r="B332" s="506"/>
       <c r="C332" s="227" t="s">
         <v>392</v>
       </c>
@@ -8608,7 +8635,7 @@
       <c r="A334" s="393">
         <v>6018</v>
       </c>
-      <c r="B334" s="481" t="s">
+      <c r="B334" s="507" t="s">
         <v>393</v>
       </c>
       <c r="C334" s="228" t="s">
@@ -8620,7 +8647,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="393"/>
-      <c r="B335" s="481"/>
+      <c r="B335" s="507"/>
       <c r="C335" s="229" t="s">
         <v>395</v>
       </c>
@@ -8630,7 +8657,7 @@
       <c r="A337" s="393">
         <v>6019</v>
       </c>
-      <c r="B337" s="478" t="s">
+      <c r="B337" s="504" t="s">
         <v>396</v>
       </c>
       <c r="C337" s="230" t="s">
@@ -8642,7 +8669,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="393"/>
-      <c r="B338" s="478"/>
+      <c r="B338" s="504"/>
       <c r="C338" s="231" t="s">
         <v>398</v>
       </c>
@@ -8652,7 +8679,7 @@
       <c r="A340" s="393">
         <v>6020</v>
       </c>
-      <c r="B340" s="479" t="s">
+      <c r="B340" s="505" t="s">
         <v>399</v>
       </c>
       <c r="C340" s="232" t="s">
@@ -8664,7 +8691,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="393"/>
-      <c r="B341" s="479"/>
+      <c r="B341" s="505"/>
       <c r="C341" s="233" t="s">
         <v>401</v>
       </c>
@@ -8674,7 +8701,7 @@
       <c r="A343" s="393">
         <v>6021</v>
       </c>
-      <c r="B343" s="476" t="s">
+      <c r="B343" s="510" t="s">
         <v>402</v>
       </c>
       <c r="C343" s="234" t="s">
@@ -8686,7 +8713,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="393"/>
-      <c r="B344" s="476"/>
+      <c r="B344" s="510"/>
       <c r="C344" s="235" t="s">
         <v>404</v>
       </c>
@@ -8696,7 +8723,7 @@
       <c r="A346" s="393">
         <v>6022</v>
       </c>
-      <c r="B346" s="477" t="s">
+      <c r="B346" s="511" t="s">
         <v>405</v>
       </c>
       <c r="C346" s="236" t="s">
@@ -8708,7 +8735,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="393"/>
-      <c r="B347" s="477"/>
+      <c r="B347" s="511"/>
       <c r="C347" s="237" t="s">
         <v>407</v>
       </c>
@@ -8718,7 +8745,7 @@
       <c r="A349" s="393">
         <v>6024</v>
       </c>
-      <c r="B349" s="474" t="s">
+      <c r="B349" s="508" t="s">
         <v>408</v>
       </c>
       <c r="C349" s="238" t="s">
@@ -8730,7 +8757,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="393"/>
-      <c r="B350" s="474"/>
+      <c r="B350" s="508"/>
       <c r="C350" s="239" t="s">
         <v>410</v>
       </c>
@@ -8740,7 +8767,7 @@
       <c r="A352" s="393">
         <v>6025</v>
       </c>
-      <c r="B352" s="475" t="s">
+      <c r="B352" s="509" t="s">
         <v>411</v>
       </c>
       <c r="C352" s="240" t="s">
@@ -8752,7 +8779,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="393"/>
-      <c r="B353" s="475"/>
+      <c r="B353" s="509"/>
       <c r="C353" s="241" t="s">
         <v>413</v>
       </c>
@@ -8762,7 +8789,7 @@
       <c r="A355" s="393">
         <v>6026</v>
       </c>
-      <c r="B355" s="472" t="s">
+      <c r="B355" s="514" t="s">
         <v>414</v>
       </c>
       <c r="C355" s="242" t="s">
@@ -8774,7 +8801,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="393"/>
-      <c r="B356" s="472"/>
+      <c r="B356" s="514"/>
       <c r="C356" s="243" t="s">
         <v>416</v>
       </c>
@@ -8784,7 +8811,7 @@
       <c r="A358" s="393">
         <v>6027</v>
       </c>
-      <c r="B358" s="473" t="s">
+      <c r="B358" s="515" t="s">
         <v>417</v>
       </c>
       <c r="C358" s="244" t="s">
@@ -8796,7 +8823,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="393"/>
-      <c r="B359" s="473"/>
+      <c r="B359" s="515"/>
       <c r="C359" s="245" t="s">
         <v>419</v>
       </c>
@@ -8806,7 +8833,7 @@
       <c r="A361" s="393">
         <v>6028</v>
       </c>
-      <c r="B361" s="470" t="s">
+      <c r="B361" s="512" t="s">
         <v>420</v>
       </c>
       <c r="C361" s="246" t="s">
@@ -8818,7 +8845,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="393"/>
-      <c r="B362" s="470"/>
+      <c r="B362" s="512"/>
       <c r="C362" s="247" t="s">
         <v>422</v>
       </c>
@@ -8828,7 +8855,7 @@
       <c r="A364" s="393">
         <v>6029</v>
       </c>
-      <c r="B364" s="471" t="s">
+      <c r="B364" s="513" t="s">
         <v>423</v>
       </c>
       <c r="C364" s="248" t="s">
@@ -8840,7 +8867,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="393"/>
-      <c r="B365" s="471"/>
+      <c r="B365" s="513"/>
       <c r="C365" s="249" t="s">
         <v>425</v>
       </c>
@@ -8850,7 +8877,7 @@
       <c r="A367" s="393">
         <v>6032</v>
       </c>
-      <c r="B367" s="468" t="s">
+      <c r="B367" s="518" t="s">
         <v>426</v>
       </c>
       <c r="C367" s="250" t="s">
@@ -8862,7 +8889,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="393"/>
-      <c r="B368" s="468"/>
+      <c r="B368" s="518"/>
       <c r="C368" s="251" t="s">
         <v>428</v>
       </c>
@@ -8872,7 +8899,7 @@
       <c r="A370" s="393">
         <v>6033</v>
       </c>
-      <c r="B370" s="469" t="s">
+      <c r="B370" s="519" t="s">
         <v>429</v>
       </c>
       <c r="C370" s="252" t="s">
@@ -8884,7 +8911,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="393"/>
-      <c r="B371" s="469"/>
+      <c r="B371" s="519"/>
       <c r="C371" s="253" t="s">
         <v>431</v>
       </c>
@@ -8894,7 +8921,7 @@
       <c r="A373" s="393">
         <v>6034</v>
       </c>
-      <c r="B373" s="466" t="s">
+      <c r="B373" s="516" t="s">
         <v>432</v>
       </c>
       <c r="C373" s="254" t="s">
@@ -8906,7 +8933,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="393"/>
-      <c r="B374" s="466"/>
+      <c r="B374" s="516"/>
       <c r="C374" s="255" t="s">
         <v>434</v>
       </c>
@@ -8916,7 +8943,7 @@
       <c r="A376" s="393">
         <v>7000</v>
       </c>
-      <c r="B376" s="467" t="s">
+      <c r="B376" s="517" t="s">
         <v>435</v>
       </c>
       <c r="C376" s="256" t="s">
@@ -8928,7 +8955,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="393"/>
-      <c r="B377" s="467"/>
+      <c r="B377" s="517"/>
       <c r="C377" s="257" t="s">
         <v>437</v>
       </c>
@@ -8938,7 +8965,7 @@
       <c r="A379" s="393">
         <v>7001</v>
       </c>
-      <c r="B379" s="464" t="s">
+      <c r="B379" s="522" t="s">
         <v>438</v>
       </c>
       <c r="C379" s="258" t="s">
@@ -8950,7 +8977,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="393"/>
-      <c r="B380" s="464"/>
+      <c r="B380" s="522"/>
       <c r="C380" s="259" t="s">
         <v>440</v>
       </c>
@@ -8960,7 +8987,7 @@
       <c r="A382" s="393">
         <v>7002</v>
       </c>
-      <c r="B382" s="465" t="s">
+      <c r="B382" s="523" t="s">
         <v>441</v>
       </c>
       <c r="C382" s="260" t="s">
@@ -8972,7 +8999,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="393"/>
-      <c r="B383" s="465"/>
+      <c r="B383" s="523"/>
       <c r="C383" s="261" t="s">
         <v>443</v>
       </c>
@@ -8982,7 +9009,7 @@
       <c r="A385" s="393">
         <v>7003</v>
       </c>
-      <c r="B385" s="462" t="s">
+      <c r="B385" s="520" t="s">
         <v>444</v>
       </c>
       <c r="C385" s="262" t="s">
@@ -8994,7 +9021,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="393"/>
-      <c r="B386" s="462"/>
+      <c r="B386" s="520"/>
       <c r="C386" s="263" t="s">
         <v>446</v>
       </c>
@@ -9004,7 +9031,7 @@
       <c r="A388" s="393">
         <v>7004</v>
       </c>
-      <c r="B388" s="463" t="s">
+      <c r="B388" s="521" t="s">
         <v>447</v>
       </c>
       <c r="C388" s="264" t="s">
@@ -9016,7 +9043,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="393"/>
-      <c r="B389" s="463"/>
+      <c r="B389" s="521"/>
       <c r="C389" s="265" t="s">
         <v>449</v>
       </c>
@@ -9026,7 +9053,7 @@
       <c r="A391" s="393">
         <v>7005</v>
       </c>
-      <c r="B391" s="460" t="s">
+      <c r="B391" s="526" t="s">
         <v>450</v>
       </c>
       <c r="C391" s="266" t="s">
@@ -9038,7 +9065,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="393"/>
-      <c r="B392" s="460"/>
+      <c r="B392" s="526"/>
       <c r="C392" s="267" t="s">
         <v>452</v>
       </c>
@@ -9048,7 +9075,7 @@
       <c r="A394" s="393">
         <v>7006</v>
       </c>
-      <c r="B394" s="461" t="s">
+      <c r="B394" s="527" t="s">
         <v>453</v>
       </c>
       <c r="C394" s="268" t="s">
@@ -9060,7 +9087,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="393"/>
-      <c r="B395" s="461"/>
+      <c r="B395" s="527"/>
       <c r="C395" s="269" t="s">
         <v>455</v>
       </c>
@@ -9070,7 +9097,7 @@
       <c r="A397" s="393">
         <v>7008</v>
       </c>
-      <c r="B397" s="458" t="s">
+      <c r="B397" s="524" t="s">
         <v>456</v>
       </c>
       <c r="C397" s="270" t="s">
@@ -9082,7 +9109,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="393"/>
-      <c r="B398" s="458"/>
+      <c r="B398" s="524"/>
       <c r="C398" s="271" t="s">
         <v>458</v>
       </c>
@@ -9092,7 +9119,7 @@
       <c r="A400" s="393">
         <v>7009</v>
       </c>
-      <c r="B400" s="459" t="s">
+      <c r="B400" s="525" t="s">
         <v>459</v>
       </c>
       <c r="C400" s="272" t="s">
@@ -9104,7 +9131,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="393"/>
-      <c r="B401" s="459"/>
+      <c r="B401" s="525"/>
       <c r="C401" s="273" t="s">
         <v>461</v>
       </c>
@@ -9114,7 +9141,7 @@
       <c r="A403" s="393">
         <v>7010</v>
       </c>
-      <c r="B403" s="456" t="s">
+      <c r="B403" s="530" t="s">
         <v>462</v>
       </c>
       <c r="C403" s="274" t="s">
@@ -9126,7 +9153,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="393"/>
-      <c r="B404" s="456"/>
+      <c r="B404" s="530"/>
       <c r="C404" s="275" t="s">
         <v>464</v>
       </c>
@@ -9136,7 +9163,7 @@
       <c r="A406" s="393">
         <v>7011</v>
       </c>
-      <c r="B406" s="457" t="s">
+      <c r="B406" s="531" t="s">
         <v>465</v>
       </c>
       <c r="C406" s="276" t="s">
@@ -9148,7 +9175,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="393"/>
-      <c r="B407" s="457"/>
+      <c r="B407" s="531"/>
       <c r="C407" s="277" t="s">
         <v>467</v>
       </c>
@@ -9158,7 +9185,7 @@
       <c r="A409" s="393">
         <v>7012</v>
       </c>
-      <c r="B409" s="454" t="s">
+      <c r="B409" s="528" t="s">
         <v>468</v>
       </c>
       <c r="C409" s="278" t="s">
@@ -9170,7 +9197,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="393"/>
-      <c r="B410" s="454"/>
+      <c r="B410" s="528"/>
       <c r="C410" s="279" t="s">
         <v>470</v>
       </c>
@@ -9180,7 +9207,7 @@
       <c r="A412" s="393">
         <v>7013</v>
       </c>
-      <c r="B412" s="455" t="s">
+      <c r="B412" s="529" t="s">
         <v>471</v>
       </c>
       <c r="C412" s="280" t="s">
@@ -9192,7 +9219,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="393"/>
-      <c r="B413" s="455"/>
+      <c r="B413" s="529"/>
       <c r="C413" s="281" t="s">
         <v>473</v>
       </c>
@@ -9202,7 +9229,7 @@
       <c r="A415" s="393">
         <v>7015</v>
       </c>
-      <c r="B415" s="452" t="s">
+      <c r="B415" s="534" t="s">
         <v>474</v>
       </c>
       <c r="C415" s="282" t="s">
@@ -9214,7 +9241,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="393"/>
-      <c r="B416" s="452"/>
+      <c r="B416" s="534"/>
       <c r="C416" s="283" t="s">
         <v>476</v>
       </c>
@@ -9224,7 +9251,7 @@
       <c r="A418" s="393">
         <v>7016</v>
       </c>
-      <c r="B418" s="453" t="s">
+      <c r="B418" s="535" t="s">
         <v>477</v>
       </c>
       <c r="C418" s="284" t="s">
@@ -9236,7 +9263,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="393"/>
-      <c r="B419" s="453"/>
+      <c r="B419" s="535"/>
       <c r="C419" s="285" t="s">
         <v>479</v>
       </c>
@@ -9246,7 +9273,7 @@
       <c r="A421" s="393">
         <v>7021</v>
       </c>
-      <c r="B421" s="450" t="s">
+      <c r="B421" s="532" t="s">
         <v>480</v>
       </c>
       <c r="C421" s="286" t="s">
@@ -9258,7 +9285,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="393"/>
-      <c r="B422" s="450"/>
+      <c r="B422" s="532"/>
       <c r="C422" s="287" t="s">
         <v>482</v>
       </c>
@@ -9268,7 +9295,7 @@
       <c r="A424" s="393">
         <v>7022</v>
       </c>
-      <c r="B424" s="451" t="s">
+      <c r="B424" s="533" t="s">
         <v>483</v>
       </c>
       <c r="C424" s="288" t="s">
@@ -9280,7 +9307,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="393"/>
-      <c r="B425" s="451"/>
+      <c r="B425" s="533"/>
       <c r="C425" s="289" t="s">
         <v>485</v>
       </c>
@@ -9290,7 +9317,7 @@
       <c r="A427" s="393">
         <v>7023</v>
       </c>
-      <c r="B427" s="448" t="s">
+      <c r="B427" s="538" t="s">
         <v>486</v>
       </c>
       <c r="C427" s="290" t="s">
@@ -9302,7 +9329,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="393"/>
-      <c r="B428" s="448"/>
+      <c r="B428" s="538"/>
       <c r="C428" s="291" t="s">
         <v>488</v>
       </c>
@@ -9312,7 +9339,7 @@
       <c r="A430" s="393">
         <v>7024</v>
       </c>
-      <c r="B430" s="449" t="s">
+      <c r="B430" s="539" t="s">
         <v>489</v>
       </c>
       <c r="C430" s="292" t="s">
@@ -9324,7 +9351,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="393"/>
-      <c r="B431" s="449"/>
+      <c r="B431" s="539"/>
       <c r="C431" s="293" t="s">
         <v>491</v>
       </c>
@@ -9334,7 +9361,7 @@
       <c r="A433" s="393">
         <v>7026</v>
       </c>
-      <c r="B433" s="446" t="s">
+      <c r="B433" s="536" t="s">
         <v>492</v>
       </c>
       <c r="C433" s="294" t="s">
@@ -9346,7 +9373,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="393"/>
-      <c r="B434" s="446"/>
+      <c r="B434" s="536"/>
       <c r="C434" s="295" t="s">
         <v>494</v>
       </c>
@@ -9356,7 +9383,7 @@
       <c r="A436" s="393">
         <v>7030</v>
       </c>
-      <c r="B436" s="447" t="s">
+      <c r="B436" s="537" t="s">
         <v>495</v>
       </c>
       <c r="C436" s="296" t="s">
@@ -9368,7 +9395,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="393"/>
-      <c r="B437" s="447"/>
+      <c r="B437" s="537"/>
       <c r="C437" s="297" t="s">
         <v>497</v>
       </c>
@@ -9378,7 +9405,7 @@
       <c r="A439" s="393">
         <v>7031</v>
       </c>
-      <c r="B439" s="444" t="s">
+      <c r="B439" s="542" t="s">
         <v>498</v>
       </c>
       <c r="C439" s="298" t="s">
@@ -9390,7 +9417,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="393"/>
-      <c r="B440" s="444"/>
+      <c r="B440" s="542"/>
       <c r="C440" s="299" t="s">
         <v>500</v>
       </c>
@@ -9400,7 +9427,7 @@
       <c r="A442" s="393">
         <v>7032</v>
       </c>
-      <c r="B442" s="445" t="s">
+      <c r="B442" s="543" t="s">
         <v>501</v>
       </c>
       <c r="C442" s="300" t="s">
@@ -9412,7 +9439,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="393"/>
-      <c r="B443" s="445"/>
+      <c r="B443" s="543"/>
       <c r="C443" s="301" t="s">
         <v>503</v>
       </c>
@@ -9422,7 +9449,7 @@
       <c r="A445" s="393">
         <v>7033</v>
       </c>
-      <c r="B445" s="442" t="s">
+      <c r="B445" s="540" t="s">
         <v>504</v>
       </c>
       <c r="C445" s="302" t="s">
@@ -9434,7 +9461,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="393"/>
-      <c r="B446" s="442"/>
+      <c r="B446" s="540"/>
       <c r="C446" s="303" t="s">
         <v>506</v>
       </c>
@@ -9444,7 +9471,7 @@
       <c r="A448" s="393">
         <v>7034</v>
       </c>
-      <c r="B448" s="443" t="s">
+      <c r="B448" s="541" t="s">
         <v>507</v>
       </c>
       <c r="C448" s="304" t="s">
@@ -9456,7 +9483,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="393"/>
-      <c r="B449" s="443"/>
+      <c r="B449" s="541"/>
       <c r="C449" s="305" t="s">
         <v>509</v>
       </c>
@@ -9466,7 +9493,7 @@
       <c r="A451" s="393">
         <v>7035</v>
       </c>
-      <c r="B451" s="440" t="s">
+      <c r="B451" s="546" t="s">
         <v>510</v>
       </c>
       <c r="C451" s="306" t="s">
@@ -9478,7 +9505,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="393"/>
-      <c r="B452" s="440"/>
+      <c r="B452" s="546"/>
       <c r="C452" s="307" t="s">
         <v>512</v>
       </c>
@@ -9488,7 +9515,7 @@
       <c r="A454" s="393">
         <v>7036</v>
       </c>
-      <c r="B454" s="441" t="s">
+      <c r="B454" s="547" t="s">
         <v>513</v>
       </c>
       <c r="C454" s="308" t="s">
@@ -9500,7 +9527,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="393"/>
-      <c r="B455" s="441"/>
+      <c r="B455" s="547"/>
       <c r="C455" s="309" t="s">
         <v>515</v>
       </c>
@@ -9510,7 +9537,7 @@
       <c r="A457" s="393">
         <v>7037</v>
       </c>
-      <c r="B457" s="438" t="s">
+      <c r="B457" s="544" t="s">
         <v>516</v>
       </c>
       <c r="C457" s="310" t="s">
@@ -9522,7 +9549,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="393"/>
-      <c r="B458" s="438"/>
+      <c r="B458" s="544"/>
       <c r="C458" s="311" t="s">
         <v>518</v>
       </c>
@@ -9532,7 +9559,7 @@
       <c r="A460" s="393">
         <v>7038</v>
       </c>
-      <c r="B460" s="439" t="s">
+      <c r="B460" s="545" t="s">
         <v>519</v>
       </c>
       <c r="C460" s="312" t="s">
@@ -9544,7 +9571,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="393"/>
-      <c r="B461" s="439"/>
+      <c r="B461" s="545"/>
       <c r="C461" s="313" t="s">
         <v>521</v>
       </c>
@@ -9554,7 +9581,7 @@
       <c r="A463" s="393">
         <v>7039</v>
       </c>
-      <c r="B463" s="436" t="s">
+      <c r="B463" s="550" t="s">
         <v>522</v>
       </c>
       <c r="C463" s="314" t="s">
@@ -9566,7 +9593,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="393"/>
-      <c r="B464" s="436"/>
+      <c r="B464" s="550"/>
       <c r="C464" s="315" t="s">
         <v>524</v>
       </c>
@@ -9576,7 +9603,7 @@
       <c r="A466" s="393">
         <v>7040</v>
       </c>
-      <c r="B466" s="437" t="s">
+      <c r="B466" s="551" t="s">
         <v>525</v>
       </c>
       <c r="C466" s="316" t="s">
@@ -9588,7 +9615,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="393"/>
-      <c r="B467" s="437"/>
+      <c r="B467" s="551"/>
       <c r="C467" s="317" t="s">
         <v>527</v>
       </c>
@@ -9598,7 +9625,7 @@
       <c r="A469" s="393">
         <v>7042</v>
       </c>
-      <c r="B469" s="434" t="s">
+      <c r="B469" s="548" t="s">
         <v>528</v>
       </c>
       <c r="C469" s="318" t="s">
@@ -9610,7 +9637,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="393"/>
-      <c r="B470" s="434"/>
+      <c r="B470" s="548"/>
       <c r="C470" s="319" t="s">
         <v>530</v>
       </c>
@@ -9620,7 +9647,7 @@
       <c r="A472" s="393">
         <v>7043</v>
       </c>
-      <c r="B472" s="435" t="s">
+      <c r="B472" s="549" t="s">
         <v>531</v>
       </c>
       <c r="C472" s="320" t="s">
@@ -9632,7 +9659,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="393"/>
-      <c r="B473" s="435"/>
+      <c r="B473" s="549"/>
       <c r="C473" s="321" t="s">
         <v>533</v>
       </c>
@@ -9642,7 +9669,7 @@
       <c r="A475" s="393">
         <v>7044</v>
       </c>
-      <c r="B475" s="432" t="s">
+      <c r="B475" s="554" t="s">
         <v>534</v>
       </c>
       <c r="C475" s="322" t="s">
@@ -9654,7 +9681,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="393"/>
-      <c r="B476" s="432"/>
+      <c r="B476" s="554"/>
       <c r="C476" s="323" t="s">
         <v>536</v>
       </c>
@@ -9664,7 +9691,7 @@
       <c r="A478" s="393">
         <v>7045</v>
       </c>
-      <c r="B478" s="433" t="s">
+      <c r="B478" s="555" t="s">
         <v>537</v>
       </c>
       <c r="C478" s="324" t="s">
@@ -9676,7 +9703,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="393"/>
-      <c r="B479" s="433"/>
+      <c r="B479" s="555"/>
       <c r="C479" s="325" t="s">
         <v>539</v>
       </c>
@@ -9686,7 +9713,7 @@
       <c r="A481" s="393">
         <v>7046</v>
       </c>
-      <c r="B481" s="430" t="s">
+      <c r="B481" s="552" t="s">
         <v>540</v>
       </c>
       <c r="C481" s="326" t="s">
@@ -9698,7 +9725,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="393"/>
-      <c r="B482" s="430"/>
+      <c r="B482" s="552"/>
       <c r="C482" s="327" t="s">
         <v>542</v>
       </c>
@@ -9708,7 +9735,7 @@
       <c r="A484" s="393">
         <v>7047</v>
       </c>
-      <c r="B484" s="431" t="s">
+      <c r="B484" s="553" t="s">
         <v>543</v>
       </c>
       <c r="C484" s="328" t="s">
@@ -9720,7 +9747,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="393"/>
-      <c r="B485" s="431"/>
+      <c r="B485" s="553"/>
       <c r="C485" s="329" t="s">
         <v>545</v>
       </c>
@@ -9730,7 +9757,7 @@
       <c r="A487" s="393">
         <v>8000</v>
       </c>
-      <c r="B487" s="428" t="s">
+      <c r="B487" s="558" t="s">
         <v>546</v>
       </c>
       <c r="C487" s="330" t="s">
@@ -9742,7 +9769,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="393"/>
-      <c r="B488" s="428"/>
+      <c r="B488" s="558"/>
       <c r="C488" s="331" t="s">
         <v>548</v>
       </c>
@@ -9752,7 +9779,7 @@
       <c r="A490" s="393">
         <v>8001</v>
       </c>
-      <c r="B490" s="429" t="s">
+      <c r="B490" s="559" t="s">
         <v>549</v>
       </c>
       <c r="C490" s="332" t="s">
@@ -9764,7 +9791,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="393"/>
-      <c r="B491" s="429"/>
+      <c r="B491" s="559"/>
       <c r="C491" s="333" t="s">
         <v>551</v>
       </c>
@@ -9774,7 +9801,7 @@
       <c r="A493" s="393">
         <v>8002</v>
       </c>
-      <c r="B493" s="426" t="s">
+      <c r="B493" s="556" t="s">
         <v>552</v>
       </c>
       <c r="C493" s="334" t="s">
@@ -9786,7 +9813,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="393"/>
-      <c r="B494" s="426"/>
+      <c r="B494" s="556"/>
       <c r="C494" s="335" t="s">
         <v>554</v>
       </c>
@@ -9796,7 +9823,7 @@
       <c r="A496" s="393">
         <v>8003</v>
       </c>
-      <c r="B496" s="427" t="s">
+      <c r="B496" s="557" t="s">
         <v>555</v>
       </c>
       <c r="C496" s="336" t="s">
@@ -9808,7 +9835,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="393"/>
-      <c r="B497" s="427"/>
+      <c r="B497" s="557"/>
       <c r="C497" s="337" t="s">
         <v>557</v>
       </c>
@@ -9818,7 +9845,7 @@
       <c r="A499" s="393">
         <v>8004</v>
       </c>
-      <c r="B499" s="424" t="s">
+      <c r="B499" s="562" t="s">
         <v>558</v>
       </c>
       <c r="C499" s="338" t="s">
@@ -9830,7 +9857,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="393"/>
-      <c r="B500" s="424"/>
+      <c r="B500" s="562"/>
       <c r="C500" s="339" t="s">
         <v>560</v>
       </c>
@@ -9840,7 +9867,7 @@
       <c r="A502" s="393">
         <v>8007</v>
       </c>
-      <c r="B502" s="425" t="s">
+      <c r="B502" s="563" t="s">
         <v>561</v>
       </c>
       <c r="C502" s="340" t="s">
@@ -9852,7 +9879,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="393"/>
-      <c r="B503" s="425"/>
+      <c r="B503" s="563"/>
       <c r="C503" s="341" t="s">
         <v>563</v>
       </c>
@@ -9862,7 +9889,7 @@
       <c r="A505" s="393">
         <v>8008</v>
       </c>
-      <c r="B505" s="422" t="s">
+      <c r="B505" s="560" t="s">
         <v>564</v>
       </c>
       <c r="C505" s="342" t="s">
@@ -9874,7 +9901,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="393"/>
-      <c r="B506" s="422"/>
+      <c r="B506" s="560"/>
       <c r="C506" s="343" t="s">
         <v>566</v>
       </c>
@@ -9884,7 +9911,7 @@
       <c r="A508" s="393">
         <v>8011</v>
       </c>
-      <c r="B508" s="423" t="s">
+      <c r="B508" s="561" t="s">
         <v>567</v>
       </c>
       <c r="C508" s="344" t="s">
@@ -9896,7 +9923,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="393"/>
-      <c r="B509" s="423"/>
+      <c r="B509" s="561"/>
       <c r="C509" s="345" t="s">
         <v>569</v>
       </c>
@@ -9906,7 +9933,7 @@
       <c r="A511" s="393">
         <v>8012</v>
       </c>
-      <c r="B511" s="420" t="s">
+      <c r="B511" s="566" t="s">
         <v>570</v>
       </c>
       <c r="C511" s="346" t="s">
@@ -9918,7 +9945,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="393"/>
-      <c r="B512" s="420"/>
+      <c r="B512" s="566"/>
       <c r="C512" s="347" t="s">
         <v>572</v>
       </c>
@@ -9928,7 +9955,7 @@
       <c r="A514" s="393">
         <v>8014</v>
       </c>
-      <c r="B514" s="421" t="s">
+      <c r="B514" s="567" t="s">
         <v>573</v>
       </c>
       <c r="C514" s="348" t="s">
@@ -9940,7 +9967,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="393"/>
-      <c r="B515" s="421"/>
+      <c r="B515" s="567"/>
       <c r="C515" s="349" t="s">
         <v>575</v>
       </c>
@@ -9950,7 +9977,7 @@
       <c r="A517" s="393">
         <v>8015</v>
       </c>
-      <c r="B517" s="418" t="s">
+      <c r="B517" s="564" t="s">
         <v>576</v>
       </c>
       <c r="C517" s="350" t="s">
@@ -9962,7 +9989,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="393"/>
-      <c r="B518" s="418"/>
+      <c r="B518" s="564"/>
       <c r="C518" s="351" t="s">
         <v>578</v>
       </c>
@@ -9972,7 +9999,7 @@
       <c r="A520" s="393">
         <v>8016</v>
       </c>
-      <c r="B520" s="419" t="s">
+      <c r="B520" s="565" t="s">
         <v>579</v>
       </c>
       <c r="C520" s="352" t="s">
@@ -9984,7 +10011,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="393"/>
-      <c r="B521" s="419"/>
+      <c r="B521" s="565"/>
       <c r="C521" s="353" t="s">
         <v>581</v>
       </c>
@@ -9994,7 +10021,7 @@
       <c r="A523" s="393">
         <v>8017</v>
       </c>
-      <c r="B523" s="416" t="s">
+      <c r="B523" s="570" t="s">
         <v>582</v>
       </c>
       <c r="C523" s="354" t="s">
@@ -10006,7 +10033,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="393"/>
-      <c r="B524" s="416"/>
+      <c r="B524" s="570"/>
       <c r="C524" s="355" t="s">
         <v>584</v>
       </c>
@@ -10016,7 +10043,7 @@
       <c r="A526" s="393">
         <v>8019</v>
       </c>
-      <c r="B526" s="417" t="s">
+      <c r="B526" s="571" t="s">
         <v>585</v>
       </c>
       <c r="C526" s="356" t="s">
@@ -10028,7 +10055,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="393"/>
-      <c r="B527" s="417"/>
+      <c r="B527" s="571"/>
       <c r="C527" s="357" t="s">
         <v>587</v>
       </c>
@@ -10038,7 +10065,7 @@
       <c r="A529" s="393">
         <v>8022</v>
       </c>
-      <c r="B529" s="414" t="s">
+      <c r="B529" s="568" t="s">
         <v>588</v>
       </c>
       <c r="C529" s="358" t="s">
@@ -10050,7 +10077,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="393"/>
-      <c r="B530" s="414"/>
+      <c r="B530" s="568"/>
       <c r="C530" s="359" t="s">
         <v>590</v>
       </c>
@@ -10060,7 +10087,7 @@
       <c r="A532" s="393">
         <v>8023</v>
       </c>
-      <c r="B532" s="415" t="s">
+      <c r="B532" s="569" t="s">
         <v>591</v>
       </c>
       <c r="C532" s="360" t="s">
@@ -10072,7 +10099,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="393"/>
-      <c r="B533" s="415"/>
+      <c r="B533" s="569"/>
       <c r="C533" s="361" t="s">
         <v>593</v>
       </c>
@@ -10082,7 +10109,7 @@
       <c r="A535" s="393">
         <v>8024</v>
       </c>
-      <c r="B535" s="412" t="s">
+      <c r="B535" s="574" t="s">
         <v>594</v>
       </c>
       <c r="C535" s="362" t="s">
@@ -10094,7 +10121,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="393"/>
-      <c r="B536" s="412"/>
+      <c r="B536" s="574"/>
       <c r="C536" s="363" t="s">
         <v>596</v>
       </c>
@@ -10104,7 +10131,7 @@
       <c r="A538" s="393">
         <v>8025</v>
       </c>
-      <c r="B538" s="413" t="s">
+      <c r="B538" s="575" t="s">
         <v>597</v>
       </c>
       <c r="C538" s="364" t="s">
@@ -10116,7 +10143,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="393"/>
-      <c r="B539" s="413"/>
+      <c r="B539" s="575"/>
       <c r="C539" s="365" t="s">
         <v>599</v>
       </c>
@@ -10126,7 +10153,7 @@
       <c r="A541" s="393">
         <v>8028</v>
       </c>
-      <c r="B541" s="410" t="s">
+      <c r="B541" s="572" t="s">
         <v>600</v>
       </c>
       <c r="C541" s="366" t="s">
@@ -10138,7 +10165,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="393"/>
-      <c r="B542" s="410"/>
+      <c r="B542" s="572"/>
       <c r="C542" s="367" t="s">
         <v>602</v>
       </c>
@@ -10148,7 +10175,7 @@
       <c r="A544" s="393">
         <v>9001</v>
       </c>
-      <c r="B544" s="411" t="s">
+      <c r="B544" s="573" t="s">
         <v>603</v>
       </c>
       <c r="C544" s="368" t="s">
@@ -10160,7 +10187,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="393"/>
-      <c r="B545" s="411"/>
+      <c r="B545" s="573"/>
       <c r="C545" s="369" t="s">
         <v>605</v>
       </c>
@@ -10170,7 +10197,7 @@
       <c r="A547" s="393">
         <v>9002</v>
       </c>
-      <c r="B547" s="408" t="s">
+      <c r="B547" s="578" t="s">
         <v>606</v>
       </c>
       <c r="C547" s="370" t="s">
@@ -10182,7 +10209,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="393"/>
-      <c r="B548" s="408"/>
+      <c r="B548" s="578"/>
       <c r="C548" s="371" t="s">
         <v>608</v>
       </c>
@@ -10192,7 +10219,7 @@
       <c r="A550" s="393">
         <v>9003</v>
       </c>
-      <c r="B550" s="409" t="s">
+      <c r="B550" s="579" t="s">
         <v>609</v>
       </c>
       <c r="C550" s="372" t="s">
@@ -10204,7 +10231,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="393"/>
-      <c r="B551" s="409"/>
+      <c r="B551" s="579"/>
       <c r="C551" s="373" t="s">
         <v>611</v>
       </c>
@@ -10214,7 +10241,7 @@
       <c r="A553" s="393">
         <v>9004</v>
       </c>
-      <c r="B553" s="406" t="s">
+      <c r="B553" s="576" t="s">
         <v>612</v>
       </c>
       <c r="C553" s="374" t="s">
@@ -10226,7 +10253,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="393"/>
-      <c r="B554" s="406"/>
+      <c r="B554" s="576"/>
       <c r="C554" s="375" t="s">
         <v>614</v>
       </c>
@@ -10236,7 +10263,7 @@
       <c r="A556" s="393">
         <v>9005</v>
       </c>
-      <c r="B556" s="407" t="s">
+      <c r="B556" s="577" t="s">
         <v>615</v>
       </c>
       <c r="C556" s="376" t="s">
@@ -10248,7 +10275,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="393"/>
-      <c r="B557" s="407"/>
+      <c r="B557" s="577"/>
       <c r="C557" s="377" t="s">
         <v>617</v>
       </c>
@@ -10258,7 +10285,7 @@
       <c r="A559" s="393">
         <v>9006</v>
       </c>
-      <c r="B559" s="404" t="s">
+      <c r="B559" s="582" t="s">
         <v>618</v>
       </c>
       <c r="C559" s="378" t="s">
@@ -10270,7 +10297,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="393"/>
-      <c r="B560" s="404"/>
+      <c r="B560" s="582"/>
       <c r="C560" s="379" t="s">
         <v>620</v>
       </c>
@@ -10280,7 +10307,7 @@
       <c r="A562" s="393">
         <v>9007</v>
       </c>
-      <c r="B562" s="405" t="s">
+      <c r="B562" s="583" t="s">
         <v>621</v>
       </c>
       <c r="C562" s="380" t="s">
@@ -10292,7 +10319,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="393"/>
-      <c r="B563" s="405"/>
+      <c r="B563" s="583"/>
       <c r="C563" s="381" t="s">
         <v>623</v>
       </c>
@@ -10302,7 +10329,7 @@
       <c r="A565" s="393">
         <v>9010</v>
       </c>
-      <c r="B565" s="402" t="s">
+      <c r="B565" s="580" t="s">
         <v>624</v>
       </c>
       <c r="C565" s="382" t="s">
@@ -10314,7 +10341,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="393"/>
-      <c r="B566" s="402"/>
+      <c r="B566" s="580"/>
       <c r="C566" s="383" t="s">
         <v>626</v>
       </c>
@@ -10324,7 +10351,7 @@
       <c r="A568" s="393">
         <v>9011</v>
       </c>
-      <c r="B568" s="403" t="s">
+      <c r="B568" s="581" t="s">
         <v>627</v>
       </c>
       <c r="C568" s="384" t="s">
@@ -10336,7 +10363,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="393"/>
-      <c r="B569" s="403"/>
+      <c r="B569" s="581"/>
       <c r="C569" s="385" t="s">
         <v>629</v>
       </c>
@@ -10346,7 +10373,7 @@
       <c r="A571" s="393">
         <v>9016</v>
       </c>
-      <c r="B571" s="400" t="s">
+      <c r="B571" s="589" t="s">
         <v>630</v>
       </c>
       <c r="C571" s="386" t="s">
@@ -10358,7 +10385,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="393"/>
-      <c r="B572" s="400"/>
+      <c r="B572" s="589"/>
       <c r="C572" s="387" t="s">
         <v>632</v>
       </c>
@@ -10368,7 +10395,7 @@
       <c r="A574" s="393">
         <v>9017</v>
       </c>
-      <c r="B574" s="401" t="s">
+      <c r="B574" s="590" t="s">
         <v>633</v>
       </c>
       <c r="C574" s="388" t="s">
@@ -10380,7 +10407,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="393"/>
-      <c r="B575" s="401"/>
+      <c r="B575" s="590"/>
       <c r="C575" s="389" t="s">
         <v>635</v>
       </c>
@@ -10390,7 +10417,7 @@
       <c r="A577" s="393">
         <v>9018</v>
       </c>
-      <c r="B577" s="394" t="s">
+      <c r="B577" s="584" t="s">
         <v>636</v>
       </c>
       <c r="C577" s="390" t="s">
@@ -10402,7 +10429,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="393"/>
-      <c r="B578" s="394"/>
+      <c r="B578" s="584"/>
       <c r="C578" s="391" t="s">
         <v>638</v>
       </c>
@@ -10415,33 +10442,567 @@
       <c r="D580" s="395"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="396"/>
-      <c r="B581" s="398"/>
+      <c r="A581" s="585"/>
+      <c r="B581" s="587"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="397"/>
-      <c r="B582" s="399"/>
+      <c r="A582" s="586"/>
+      <c r="B582" s="588"/>
     </row>
   </sheetData>
   <mergeCells count="582">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="A580:D580"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="B581:B582"/>
+    <mergeCell ref="A571:A572"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="D571:D572"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="B574:B575"/>
+    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -10454,558 +11015,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="A580:D580"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="B581:B582"/>
-    <mergeCell ref="A571:A572"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="D571:D572"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="B574:B575"/>
-    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11015,7 +11042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Pentapod Bom.xlsx
+++ b/Pentapod Bom.xlsx
@@ -14,6 +14,7 @@
     <sheet name="RAL" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4356,577 +4357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4945,6 +4379,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6193,7 +6194,7 @@
       <c r="A1" s="393">
         <v>1000</v>
       </c>
-      <c r="B1" s="394" t="s">
+      <c r="B1" s="588" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6205,7 +6206,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="393"/>
-      <c r="B2" s="394"/>
+      <c r="B2" s="588"/>
       <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
@@ -6215,7 +6216,7 @@
       <c r="A4" s="393">
         <v>1001</v>
       </c>
-      <c r="B4" s="396" t="s">
+      <c r="B4" s="589" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -6227,7 +6228,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="393"/>
-      <c r="B5" s="396"/>
+      <c r="B5" s="589"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
@@ -6237,7 +6238,7 @@
       <c r="A7" s="393">
         <v>1002</v>
       </c>
-      <c r="B7" s="399" t="s">
+      <c r="B7" s="586" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6249,7 +6250,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="393"/>
-      <c r="B8" s="399"/>
+      <c r="B8" s="586"/>
       <c r="C8" s="13" t="s">
         <v>71</v>
       </c>
@@ -6259,7 +6260,7 @@
       <c r="A10" s="393">
         <v>1003</v>
       </c>
-      <c r="B10" s="400" t="s">
+      <c r="B10" s="587" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -6271,7 +6272,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="393"/>
-      <c r="B11" s="400"/>
+      <c r="B11" s="587"/>
       <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
@@ -6281,7 +6282,7 @@
       <c r="A13" s="393">
         <v>1004</v>
       </c>
-      <c r="B13" s="397" t="s">
+      <c r="B13" s="590" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -6293,7 +6294,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="393"/>
-      <c r="B14" s="397"/>
+      <c r="B14" s="590"/>
       <c r="C14" s="17" t="s">
         <v>77</v>
       </c>
@@ -6303,7 +6304,7 @@
       <c r="A16" s="393">
         <v>1005</v>
       </c>
-      <c r="B16" s="398" t="s">
+      <c r="B16" s="585" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -6315,7 +6316,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="393"/>
-      <c r="B17" s="398"/>
+      <c r="B17" s="585"/>
       <c r="C17" s="19" t="s">
         <v>80</v>
       </c>
@@ -6325,7 +6326,7 @@
       <c r="A19" s="393">
         <v>1006</v>
       </c>
-      <c r="B19" s="403" t="s">
+      <c r="B19" s="583" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -6337,7 +6338,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="393"/>
-      <c r="B20" s="403"/>
+      <c r="B20" s="583"/>
       <c r="C20" s="21" t="s">
         <v>83</v>
       </c>
@@ -6347,7 +6348,7 @@
       <c r="A22" s="393">
         <v>1007</v>
       </c>
-      <c r="B22" s="404" t="s">
+      <c r="B22" s="584" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -6359,7 +6360,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="393"/>
-      <c r="B23" s="404"/>
+      <c r="B23" s="584"/>
       <c r="C23" s="23" t="s">
         <v>86</v>
       </c>
@@ -6369,7 +6370,7 @@
       <c r="A25" s="393">
         <v>1011</v>
       </c>
-      <c r="B25" s="401" t="s">
+      <c r="B25" s="581" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -6381,7 +6382,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="393"/>
-      <c r="B26" s="401"/>
+      <c r="B26" s="581"/>
       <c r="C26" s="25" t="s">
         <v>89</v>
       </c>
@@ -6391,7 +6392,7 @@
       <c r="A28" s="393">
         <v>1012</v>
       </c>
-      <c r="B28" s="402" t="s">
+      <c r="B28" s="582" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -6403,7 +6404,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="393"/>
-      <c r="B29" s="402"/>
+      <c r="B29" s="582"/>
       <c r="C29" s="27" t="s">
         <v>92</v>
       </c>
@@ -6413,7 +6414,7 @@
       <c r="A31" s="393">
         <v>1013</v>
       </c>
-      <c r="B31" s="407" t="s">
+      <c r="B31" s="579" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -6425,7 +6426,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="393"/>
-      <c r="B32" s="407"/>
+      <c r="B32" s="579"/>
       <c r="C32" s="29" t="s">
         <v>95</v>
       </c>
@@ -6435,7 +6436,7 @@
       <c r="A34" s="393">
         <v>1014</v>
       </c>
-      <c r="B34" s="408" t="s">
+      <c r="B34" s="580" t="s">
         <v>96</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -6447,7 +6448,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="393"/>
-      <c r="B35" s="408"/>
+      <c r="B35" s="580"/>
       <c r="C35" s="31" t="s">
         <v>98</v>
       </c>
@@ -6457,7 +6458,7 @@
       <c r="A37" s="393">
         <v>1015</v>
       </c>
-      <c r="B37" s="405" t="s">
+      <c r="B37" s="577" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="32" t="s">
@@ -6469,7 +6470,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="393"/>
-      <c r="B38" s="405"/>
+      <c r="B38" s="577"/>
       <c r="C38" s="33" t="s">
         <v>101</v>
       </c>
@@ -6479,7 +6480,7 @@
       <c r="A40" s="393">
         <v>1016</v>
       </c>
-      <c r="B40" s="406" t="s">
+      <c r="B40" s="578" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="34" t="s">
@@ -6491,7 +6492,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="393"/>
-      <c r="B41" s="406"/>
+      <c r="B41" s="578"/>
       <c r="C41" s="35" t="s">
         <v>104</v>
       </c>
@@ -6501,7 +6502,7 @@
       <c r="A43" s="393">
         <v>1017</v>
       </c>
-      <c r="B43" s="411" t="s">
+      <c r="B43" s="575" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -6513,7 +6514,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="393"/>
-      <c r="B44" s="411"/>
+      <c r="B44" s="575"/>
       <c r="C44" s="37" t="s">
         <v>107</v>
       </c>
@@ -6523,7 +6524,7 @@
       <c r="A46" s="393">
         <v>1018</v>
       </c>
-      <c r="B46" s="412" t="s">
+      <c r="B46" s="576" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="38" t="s">
@@ -6535,7 +6536,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="393"/>
-      <c r="B47" s="412"/>
+      <c r="B47" s="576"/>
       <c r="C47" s="39" t="s">
         <v>110</v>
       </c>
@@ -6545,7 +6546,7 @@
       <c r="A49" s="393">
         <v>1019</v>
       </c>
-      <c r="B49" s="409" t="s">
+      <c r="B49" s="573" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -6557,7 +6558,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="393"/>
-      <c r="B50" s="409"/>
+      <c r="B50" s="573"/>
       <c r="C50" s="41" t="s">
         <v>113</v>
       </c>
@@ -6567,7 +6568,7 @@
       <c r="A52" s="393">
         <v>1020</v>
       </c>
-      <c r="B52" s="410" t="s">
+      <c r="B52" s="574" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="42" t="s">
@@ -6579,7 +6580,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="393"/>
-      <c r="B53" s="410"/>
+      <c r="B53" s="574"/>
       <c r="C53" s="43" t="s">
         <v>116</v>
       </c>
@@ -6589,7 +6590,7 @@
       <c r="A55" s="393">
         <v>1021</v>
       </c>
-      <c r="B55" s="415" t="s">
+      <c r="B55" s="572" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="44" t="s">
@@ -6601,7 +6602,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="393"/>
-      <c r="B56" s="415"/>
+      <c r="B56" s="572"/>
       <c r="C56" s="45" t="s">
         <v>119</v>
       </c>
@@ -6611,7 +6612,7 @@
       <c r="A58" s="393">
         <v>1023</v>
       </c>
-      <c r="B58" s="415" t="s">
+      <c r="B58" s="572" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="44" t="s">
@@ -6623,7 +6624,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="393"/>
-      <c r="B59" s="415"/>
+      <c r="B59" s="572"/>
       <c r="C59" s="45" t="s">
         <v>119</v>
       </c>
@@ -6633,7 +6634,7 @@
       <c r="A61" s="393">
         <v>1024</v>
       </c>
-      <c r="B61" s="413" t="s">
+      <c r="B61" s="570" t="s">
         <v>121</v>
       </c>
       <c r="C61" s="46" t="s">
@@ -6645,7 +6646,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="393"/>
-      <c r="B62" s="413"/>
+      <c r="B62" s="570"/>
       <c r="C62" s="47" t="s">
         <v>123</v>
       </c>
@@ -6655,7 +6656,7 @@
       <c r="A64" s="393">
         <v>1026</v>
       </c>
-      <c r="B64" s="414" t="s">
+      <c r="B64" s="571" t="s">
         <v>124</v>
       </c>
       <c r="C64" s="48" t="s">
@@ -6667,7 +6668,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="393"/>
-      <c r="B65" s="414"/>
+      <c r="B65" s="571"/>
       <c r="C65" s="49" t="s">
         <v>126</v>
       </c>
@@ -6677,7 +6678,7 @@
       <c r="A67" s="393">
         <v>1027</v>
       </c>
-      <c r="B67" s="418" t="s">
+      <c r="B67" s="568" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="50" t="s">
@@ -6689,7 +6690,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="393"/>
-      <c r="B68" s="418"/>
+      <c r="B68" s="568"/>
       <c r="C68" s="51" t="s">
         <v>129</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="A70" s="393">
         <v>1028</v>
       </c>
-      <c r="B70" s="419" t="s">
+      <c r="B70" s="569" t="s">
         <v>130</v>
       </c>
       <c r="C70" s="52" t="s">
@@ -6711,7 +6712,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="393"/>
-      <c r="B71" s="419"/>
+      <c r="B71" s="569"/>
       <c r="C71" s="53" t="s">
         <v>132</v>
       </c>
@@ -6721,7 +6722,7 @@
       <c r="A73" s="393">
         <v>1032</v>
       </c>
-      <c r="B73" s="416" t="s">
+      <c r="B73" s="566" t="s">
         <v>133</v>
       </c>
       <c r="C73" s="54" t="s">
@@ -6733,7 +6734,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="393"/>
-      <c r="B74" s="416"/>
+      <c r="B74" s="566"/>
       <c r="C74" s="55" t="s">
         <v>135</v>
       </c>
@@ -6743,7 +6744,7 @@
       <c r="A76" s="393">
         <v>1033</v>
       </c>
-      <c r="B76" s="417" t="s">
+      <c r="B76" s="567" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="56" t="s">
@@ -6755,7 +6756,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="393"/>
-      <c r="B77" s="417"/>
+      <c r="B77" s="567"/>
       <c r="C77" s="57" t="s">
         <v>138</v>
       </c>
@@ -6765,7 +6766,7 @@
       <c r="A79" s="393">
         <v>1034</v>
       </c>
-      <c r="B79" s="422" t="s">
+      <c r="B79" s="564" t="s">
         <v>139</v>
       </c>
       <c r="C79" s="58" t="s">
@@ -6777,7 +6778,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="393"/>
-      <c r="B80" s="422"/>
+      <c r="B80" s="564"/>
       <c r="C80" s="59" t="s">
         <v>141</v>
       </c>
@@ -6787,7 +6788,7 @@
       <c r="A82" s="393">
         <v>2000</v>
       </c>
-      <c r="B82" s="423" t="s">
+      <c r="B82" s="565" t="s">
         <v>142</v>
       </c>
       <c r="C82" s="60" t="s">
@@ -6799,7 +6800,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="393"/>
-      <c r="B83" s="423"/>
+      <c r="B83" s="565"/>
       <c r="C83" s="61" t="s">
         <v>144</v>
       </c>
@@ -6809,7 +6810,7 @@
       <c r="A85" s="393">
         <v>2001</v>
       </c>
-      <c r="B85" s="420" t="s">
+      <c r="B85" s="562" t="s">
         <v>145</v>
       </c>
       <c r="C85" s="62" t="s">
@@ -6821,7 +6822,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="393"/>
-      <c r="B86" s="420"/>
+      <c r="B86" s="562"/>
       <c r="C86" s="63" t="s">
         <v>147</v>
       </c>
@@ -6831,7 +6832,7 @@
       <c r="A88" s="393">
         <v>2002</v>
       </c>
-      <c r="B88" s="421" t="s">
+      <c r="B88" s="563" t="s">
         <v>148</v>
       </c>
       <c r="C88" s="64" t="s">
@@ -6843,7 +6844,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="393"/>
-      <c r="B89" s="421"/>
+      <c r="B89" s="563"/>
       <c r="C89" s="65" t="s">
         <v>150</v>
       </c>
@@ -6853,7 +6854,7 @@
       <c r="A91" s="393">
         <v>2003</v>
       </c>
-      <c r="B91" s="426" t="s">
+      <c r="B91" s="560" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="66" t="s">
@@ -6865,7 +6866,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="393"/>
-      <c r="B92" s="426"/>
+      <c r="B92" s="560"/>
       <c r="C92" s="67" t="s">
         <v>153</v>
       </c>
@@ -6875,7 +6876,7 @@
       <c r="A94" s="393">
         <v>2004</v>
       </c>
-      <c r="B94" s="427" t="s">
+      <c r="B94" s="561" t="s">
         <v>154</v>
       </c>
       <c r="C94" s="68" t="s">
@@ -6887,7 +6888,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="393"/>
-      <c r="B95" s="427"/>
+      <c r="B95" s="561"/>
       <c r="C95" s="69" t="s">
         <v>156</v>
       </c>
@@ -6897,7 +6898,7 @@
       <c r="A97" s="393">
         <v>2005</v>
       </c>
-      <c r="B97" s="424" t="s">
+      <c r="B97" s="558" t="s">
         <v>157</v>
       </c>
       <c r="C97" s="70" t="s">
@@ -6909,7 +6910,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="393"/>
-      <c r="B98" s="424"/>
+      <c r="B98" s="558"/>
       <c r="C98" s="71" t="s">
         <v>159</v>
       </c>
@@ -6919,7 +6920,7 @@
       <c r="A100" s="393">
         <v>2007</v>
       </c>
-      <c r="B100" s="425" t="s">
+      <c r="B100" s="559" t="s">
         <v>160</v>
       </c>
       <c r="C100" s="72" t="s">
@@ -6931,7 +6932,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="393"/>
-      <c r="B101" s="425"/>
+      <c r="B101" s="559"/>
       <c r="C101" s="73" t="s">
         <v>162</v>
       </c>
@@ -6941,7 +6942,7 @@
       <c r="A103" s="393">
         <v>2008</v>
       </c>
-      <c r="B103" s="430" t="s">
+      <c r="B103" s="556" t="s">
         <v>163</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -6953,7 +6954,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="393"/>
-      <c r="B104" s="430"/>
+      <c r="B104" s="556"/>
       <c r="C104" s="75" t="s">
         <v>165</v>
       </c>
@@ -6963,7 +6964,7 @@
       <c r="A106" s="393">
         <v>2009</v>
       </c>
-      <c r="B106" s="431" t="s">
+      <c r="B106" s="557" t="s">
         <v>166</v>
       </c>
       <c r="C106" s="76" t="s">
@@ -6975,7 +6976,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="393"/>
-      <c r="B107" s="431"/>
+      <c r="B107" s="557"/>
       <c r="C107" s="77" t="s">
         <v>168</v>
       </c>
@@ -6985,7 +6986,7 @@
       <c r="A109" s="393">
         <v>2010</v>
       </c>
-      <c r="B109" s="428" t="s">
+      <c r="B109" s="554" t="s">
         <v>169</v>
       </c>
       <c r="C109" s="78" t="s">
@@ -6997,7 +6998,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="393"/>
-      <c r="B110" s="428"/>
+      <c r="B110" s="554"/>
       <c r="C110" s="79" t="s">
         <v>171</v>
       </c>
@@ -7007,7 +7008,7 @@
       <c r="A112" s="393">
         <v>2011</v>
       </c>
-      <c r="B112" s="429" t="s">
+      <c r="B112" s="555" t="s">
         <v>172</v>
       </c>
       <c r="C112" s="80" t="s">
@@ -7019,7 +7020,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="393"/>
-      <c r="B113" s="429"/>
+      <c r="B113" s="555"/>
       <c r="C113" s="81" t="s">
         <v>174</v>
       </c>
@@ -7029,7 +7030,7 @@
       <c r="A115" s="393">
         <v>2012</v>
       </c>
-      <c r="B115" s="434" t="s">
+      <c r="B115" s="552" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="82" t="s">
@@ -7041,7 +7042,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="393"/>
-      <c r="B116" s="434"/>
+      <c r="B116" s="552"/>
       <c r="C116" s="83" t="s">
         <v>177</v>
       </c>
@@ -7051,7 +7052,7 @@
       <c r="A118" s="393">
         <v>3000</v>
       </c>
-      <c r="B118" s="435" t="s">
+      <c r="B118" s="553" t="s">
         <v>178</v>
       </c>
       <c r="C118" s="84" t="s">
@@ -7063,7 +7064,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="393"/>
-      <c r="B119" s="435"/>
+      <c r="B119" s="553"/>
       <c r="C119" s="85" t="s">
         <v>180</v>
       </c>
@@ -7073,7 +7074,7 @@
       <c r="A121" s="393">
         <v>3001</v>
       </c>
-      <c r="B121" s="432" t="s">
+      <c r="B121" s="550" t="s">
         <v>181</v>
       </c>
       <c r="C121" s="86" t="s">
@@ -7085,7 +7086,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="393"/>
-      <c r="B122" s="432"/>
+      <c r="B122" s="550"/>
       <c r="C122" s="87" t="s">
         <v>183</v>
       </c>
@@ -7095,7 +7096,7 @@
       <c r="A124" s="393">
         <v>3002</v>
       </c>
-      <c r="B124" s="433" t="s">
+      <c r="B124" s="551" t="s">
         <v>184</v>
       </c>
       <c r="C124" s="88" t="s">
@@ -7107,7 +7108,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="393"/>
-      <c r="B125" s="433"/>
+      <c r="B125" s="551"/>
       <c r="C125" s="89" t="s">
         <v>186</v>
       </c>
@@ -7117,7 +7118,7 @@
       <c r="A127" s="393">
         <v>3003</v>
       </c>
-      <c r="B127" s="438" t="s">
+      <c r="B127" s="548" t="s">
         <v>187</v>
       </c>
       <c r="C127" s="90" t="s">
@@ -7129,7 +7130,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="393"/>
-      <c r="B128" s="438"/>
+      <c r="B128" s="548"/>
       <c r="C128" s="91" t="s">
         <v>189</v>
       </c>
@@ -7139,7 +7140,7 @@
       <c r="A130" s="393">
         <v>3004</v>
       </c>
-      <c r="B130" s="439" t="s">
+      <c r="B130" s="549" t="s">
         <v>190</v>
       </c>
       <c r="C130" s="92" t="s">
@@ -7151,7 +7152,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="393"/>
-      <c r="B131" s="439"/>
+      <c r="B131" s="549"/>
       <c r="C131" s="93" t="s">
         <v>192</v>
       </c>
@@ -7161,7 +7162,7 @@
       <c r="A133" s="393">
         <v>3005</v>
       </c>
-      <c r="B133" s="436" t="s">
+      <c r="B133" s="546" t="s">
         <v>193</v>
       </c>
       <c r="C133" s="94" t="s">
@@ -7173,7 +7174,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="393"/>
-      <c r="B134" s="436"/>
+      <c r="B134" s="546"/>
       <c r="C134" s="95" t="s">
         <v>195</v>
       </c>
@@ -7183,7 +7184,7 @@
       <c r="A136" s="393">
         <v>3007</v>
       </c>
-      <c r="B136" s="437" t="s">
+      <c r="B136" s="547" t="s">
         <v>196</v>
       </c>
       <c r="C136" s="96" t="s">
@@ -7195,7 +7196,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="393"/>
-      <c r="B137" s="437"/>
+      <c r="B137" s="547"/>
       <c r="C137" s="97" t="s">
         <v>198</v>
       </c>
@@ -7205,7 +7206,7 @@
       <c r="A139" s="393">
         <v>3009</v>
       </c>
-      <c r="B139" s="442" t="s">
+      <c r="B139" s="544" t="s">
         <v>199</v>
       </c>
       <c r="C139" s="98" t="s">
@@ -7217,7 +7218,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="393"/>
-      <c r="B140" s="442"/>
+      <c r="B140" s="544"/>
       <c r="C140" s="99" t="s">
         <v>201</v>
       </c>
@@ -7227,7 +7228,7 @@
       <c r="A142" s="393">
         <v>3011</v>
       </c>
-      <c r="B142" s="443" t="s">
+      <c r="B142" s="545" t="s">
         <v>202</v>
       </c>
       <c r="C142" s="100" t="s">
@@ -7239,7 +7240,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="393"/>
-      <c r="B143" s="443"/>
+      <c r="B143" s="545"/>
       <c r="C143" s="101" t="s">
         <v>204</v>
       </c>
@@ -7249,7 +7250,7 @@
       <c r="A145" s="393">
         <v>3012</v>
       </c>
-      <c r="B145" s="440" t="s">
+      <c r="B145" s="542" t="s">
         <v>205</v>
       </c>
       <c r="C145" s="102" t="s">
@@ -7261,7 +7262,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="393"/>
-      <c r="B146" s="440"/>
+      <c r="B146" s="542"/>
       <c r="C146" s="103" t="s">
         <v>207</v>
       </c>
@@ -7271,7 +7272,7 @@
       <c r="A148" s="393">
         <v>3013</v>
       </c>
-      <c r="B148" s="441" t="s">
+      <c r="B148" s="543" t="s">
         <v>208</v>
       </c>
       <c r="C148" s="104" t="s">
@@ -7283,7 +7284,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="393"/>
-      <c r="B149" s="441"/>
+      <c r="B149" s="543"/>
       <c r="C149" s="105" t="s">
         <v>210</v>
       </c>
@@ -7293,7 +7294,7 @@
       <c r="A151" s="393">
         <v>3014</v>
       </c>
-      <c r="B151" s="446" t="s">
+      <c r="B151" s="540" t="s">
         <v>211</v>
       </c>
       <c r="C151" s="106" t="s">
@@ -7305,7 +7306,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="393"/>
-      <c r="B152" s="446"/>
+      <c r="B152" s="540"/>
       <c r="C152" s="107" t="s">
         <v>213</v>
       </c>
@@ -7315,7 +7316,7 @@
       <c r="A154" s="393">
         <v>3015</v>
       </c>
-      <c r="B154" s="447" t="s">
+      <c r="B154" s="541" t="s">
         <v>214</v>
       </c>
       <c r="C154" s="108" t="s">
@@ -7327,7 +7328,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="393"/>
-      <c r="B155" s="447"/>
+      <c r="B155" s="541"/>
       <c r="C155" s="109" t="s">
         <v>216</v>
       </c>
@@ -7337,7 +7338,7 @@
       <c r="A157" s="393">
         <v>3016</v>
       </c>
-      <c r="B157" s="444" t="s">
+      <c r="B157" s="538" t="s">
         <v>217</v>
       </c>
       <c r="C157" s="110" t="s">
@@ -7349,7 +7350,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="393"/>
-      <c r="B158" s="444"/>
+      <c r="B158" s="538"/>
       <c r="C158" s="111" t="s">
         <v>219</v>
       </c>
@@ -7359,7 +7360,7 @@
       <c r="A160" s="393">
         <v>3017</v>
       </c>
-      <c r="B160" s="445" t="s">
+      <c r="B160" s="539" t="s">
         <v>220</v>
       </c>
       <c r="C160" s="112" t="s">
@@ -7371,7 +7372,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="393"/>
-      <c r="B161" s="445"/>
+      <c r="B161" s="539"/>
       <c r="C161" s="113" t="s">
         <v>222</v>
       </c>
@@ -7381,7 +7382,7 @@
       <c r="A163" s="393">
         <v>3018</v>
       </c>
-      <c r="B163" s="450" t="s">
+      <c r="B163" s="536" t="s">
         <v>223</v>
       </c>
       <c r="C163" s="114" t="s">
@@ -7393,7 +7394,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="393"/>
-      <c r="B164" s="450"/>
+      <c r="B164" s="536"/>
       <c r="C164" s="115" t="s">
         <v>225</v>
       </c>
@@ -7403,7 +7404,7 @@
       <c r="A166" s="393">
         <v>3020</v>
       </c>
-      <c r="B166" s="451" t="s">
+      <c r="B166" s="537" t="s">
         <v>226</v>
       </c>
       <c r="C166" s="116" t="s">
@@ -7415,7 +7416,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="393"/>
-      <c r="B167" s="451"/>
+      <c r="B167" s="537"/>
       <c r="C167" s="117" t="s">
         <v>228</v>
       </c>
@@ -7425,7 +7426,7 @@
       <c r="A169" s="393">
         <v>3022</v>
       </c>
-      <c r="B169" s="448" t="s">
+      <c r="B169" s="534" t="s">
         <v>229</v>
       </c>
       <c r="C169" s="118" t="s">
@@ -7437,7 +7438,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="393"/>
-      <c r="B170" s="448"/>
+      <c r="B170" s="534"/>
       <c r="C170" s="119" t="s">
         <v>231</v>
       </c>
@@ -7447,7 +7448,7 @@
       <c r="A172" s="393">
         <v>3024</v>
       </c>
-      <c r="B172" s="449" t="s">
+      <c r="B172" s="535" t="s">
         <v>232</v>
       </c>
       <c r="C172" s="120" t="s">
@@ -7459,7 +7460,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="393"/>
-      <c r="B173" s="449"/>
+      <c r="B173" s="535"/>
       <c r="C173" s="121" t="s">
         <v>234</v>
       </c>
@@ -7469,7 +7470,7 @@
       <c r="A175" s="393">
         <v>3026</v>
       </c>
-      <c r="B175" s="454" t="s">
+      <c r="B175" s="532" t="s">
         <v>235</v>
       </c>
       <c r="C175" s="122" t="s">
@@ -7481,7 +7482,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="393"/>
-      <c r="B176" s="454"/>
+      <c r="B176" s="532"/>
       <c r="C176" s="123" t="s">
         <v>237</v>
       </c>
@@ -7491,7 +7492,7 @@
       <c r="A178" s="393">
         <v>3027</v>
       </c>
-      <c r="B178" s="455" t="s">
+      <c r="B178" s="533" t="s">
         <v>238</v>
       </c>
       <c r="C178" s="124" t="s">
@@ -7503,7 +7504,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="393"/>
-      <c r="B179" s="455"/>
+      <c r="B179" s="533"/>
       <c r="C179" s="125" t="s">
         <v>240</v>
       </c>
@@ -7513,7 +7514,7 @@
       <c r="A181" s="393">
         <v>3031</v>
       </c>
-      <c r="B181" s="452" t="s">
+      <c r="B181" s="530" t="s">
         <v>241</v>
       </c>
       <c r="C181" s="126" t="s">
@@ -7525,7 +7526,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="393"/>
-      <c r="B182" s="452"/>
+      <c r="B182" s="530"/>
       <c r="C182" s="127" t="s">
         <v>243</v>
       </c>
@@ -7535,7 +7536,7 @@
       <c r="A184" s="393">
         <v>4001</v>
       </c>
-      <c r="B184" s="453" t="s">
+      <c r="B184" s="531" t="s">
         <v>244</v>
       </c>
       <c r="C184" s="128" t="s">
@@ -7547,7 +7548,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="393"/>
-      <c r="B185" s="453"/>
+      <c r="B185" s="531"/>
       <c r="C185" s="129" t="s">
         <v>246</v>
       </c>
@@ -7557,7 +7558,7 @@
       <c r="A187" s="393">
         <v>4002</v>
       </c>
-      <c r="B187" s="458" t="s">
+      <c r="B187" s="528" t="s">
         <v>247</v>
       </c>
       <c r="C187" s="130" t="s">
@@ -7569,7 +7570,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="393"/>
-      <c r="B188" s="458"/>
+      <c r="B188" s="528"/>
       <c r="C188" s="131" t="s">
         <v>249</v>
       </c>
@@ -7579,7 +7580,7 @@
       <c r="A190" s="393">
         <v>4003</v>
       </c>
-      <c r="B190" s="459" t="s">
+      <c r="B190" s="529" t="s">
         <v>250</v>
       </c>
       <c r="C190" s="132" t="s">
@@ -7591,7 +7592,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="393"/>
-      <c r="B191" s="459"/>
+      <c r="B191" s="529"/>
       <c r="C191" s="133" t="s">
         <v>252</v>
       </c>
@@ -7601,7 +7602,7 @@
       <c r="A193" s="393">
         <v>4004</v>
       </c>
-      <c r="B193" s="456" t="s">
+      <c r="B193" s="526" t="s">
         <v>253</v>
       </c>
       <c r="C193" s="134" t="s">
@@ -7613,7 +7614,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="393"/>
-      <c r="B194" s="456"/>
+      <c r="B194" s="526"/>
       <c r="C194" s="135" t="s">
         <v>255</v>
       </c>
@@ -7623,7 +7624,7 @@
       <c r="A196" s="393">
         <v>4005</v>
       </c>
-      <c r="B196" s="457" t="s">
+      <c r="B196" s="527" t="s">
         <v>256</v>
       </c>
       <c r="C196" s="136" t="s">
@@ -7635,7 +7636,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="393"/>
-      <c r="B197" s="457"/>
+      <c r="B197" s="527"/>
       <c r="C197" s="137" t="s">
         <v>258</v>
       </c>
@@ -7645,7 +7646,7 @@
       <c r="A199" s="393">
         <v>4006</v>
       </c>
-      <c r="B199" s="462" t="s">
+      <c r="B199" s="524" t="s">
         <v>259</v>
       </c>
       <c r="C199" s="138" t="s">
@@ -7657,7 +7658,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="393"/>
-      <c r="B200" s="462"/>
+      <c r="B200" s="524"/>
       <c r="C200" s="139" t="s">
         <v>261</v>
       </c>
@@ -7667,7 +7668,7 @@
       <c r="A202" s="393">
         <v>4007</v>
       </c>
-      <c r="B202" s="463" t="s">
+      <c r="B202" s="525" t="s">
         <v>262</v>
       </c>
       <c r="C202" s="140" t="s">
@@ -7679,7 +7680,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="393"/>
-      <c r="B203" s="463"/>
+      <c r="B203" s="525"/>
       <c r="C203" s="141" t="s">
         <v>264</v>
       </c>
@@ -7689,7 +7690,7 @@
       <c r="A205" s="393">
         <v>4008</v>
       </c>
-      <c r="B205" s="460" t="s">
+      <c r="B205" s="522" t="s">
         <v>265</v>
       </c>
       <c r="C205" s="142" t="s">
@@ -7701,7 +7702,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="393"/>
-      <c r="B206" s="460"/>
+      <c r="B206" s="522"/>
       <c r="C206" s="143" t="s">
         <v>267</v>
       </c>
@@ -7711,7 +7712,7 @@
       <c r="A208" s="393">
         <v>4009</v>
       </c>
-      <c r="B208" s="461" t="s">
+      <c r="B208" s="523" t="s">
         <v>268</v>
       </c>
       <c r="C208" s="144" t="s">
@@ -7723,7 +7724,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="393"/>
-      <c r="B209" s="461"/>
+      <c r="B209" s="523"/>
       <c r="C209" s="145" t="s">
         <v>270</v>
       </c>
@@ -7733,7 +7734,7 @@
       <c r="A211" s="393">
         <v>4010</v>
       </c>
-      <c r="B211" s="466" t="s">
+      <c r="B211" s="520" t="s">
         <v>271</v>
       </c>
       <c r="C211" s="146" t="s">
@@ -7745,7 +7746,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="393"/>
-      <c r="B212" s="466"/>
+      <c r="B212" s="520"/>
       <c r="C212" s="147" t="s">
         <v>273</v>
       </c>
@@ -7755,7 +7756,7 @@
       <c r="A214" s="393">
         <v>5000</v>
       </c>
-      <c r="B214" s="467" t="s">
+      <c r="B214" s="521" t="s">
         <v>274</v>
       </c>
       <c r="C214" s="148" t="s">
@@ -7767,7 +7768,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="393"/>
-      <c r="B215" s="467"/>
+      <c r="B215" s="521"/>
       <c r="C215" s="149" t="s">
         <v>276</v>
       </c>
@@ -7777,7 +7778,7 @@
       <c r="A217" s="393">
         <v>5001</v>
       </c>
-      <c r="B217" s="464" t="s">
+      <c r="B217" s="518" t="s">
         <v>277</v>
       </c>
       <c r="C217" s="150" t="s">
@@ -7789,7 +7790,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="393"/>
-      <c r="B218" s="464"/>
+      <c r="B218" s="518"/>
       <c r="C218" s="151" t="s">
         <v>279</v>
       </c>
@@ -7799,7 +7800,7 @@
       <c r="A220" s="393">
         <v>5002</v>
       </c>
-      <c r="B220" s="465" t="s">
+      <c r="B220" s="519" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="152" t="s">
@@ -7811,7 +7812,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="393"/>
-      <c r="B221" s="465"/>
+      <c r="B221" s="519"/>
       <c r="C221" s="153" t="s">
         <v>282</v>
       </c>
@@ -7821,7 +7822,7 @@
       <c r="A223" s="393">
         <v>5003</v>
       </c>
-      <c r="B223" s="470" t="s">
+      <c r="B223" s="516" t="s">
         <v>283</v>
       </c>
       <c r="C223" s="154" t="s">
@@ -7833,7 +7834,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="393"/>
-      <c r="B224" s="470"/>
+      <c r="B224" s="516"/>
       <c r="C224" s="155" t="s">
         <v>285</v>
       </c>
@@ -7843,7 +7844,7 @@
       <c r="A226" s="393">
         <v>5004</v>
       </c>
-      <c r="B226" s="471" t="s">
+      <c r="B226" s="517" t="s">
         <v>286</v>
       </c>
       <c r="C226" s="156" t="s">
@@ -7855,7 +7856,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="393"/>
-      <c r="B227" s="471"/>
+      <c r="B227" s="517"/>
       <c r="C227" s="157" t="s">
         <v>288</v>
       </c>
@@ -7865,7 +7866,7 @@
       <c r="A229" s="393">
         <v>5005</v>
       </c>
-      <c r="B229" s="468" t="s">
+      <c r="B229" s="514" t="s">
         <v>289</v>
       </c>
       <c r="C229" s="158" t="s">
@@ -7877,7 +7878,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="393"/>
-      <c r="B230" s="468"/>
+      <c r="B230" s="514"/>
       <c r="C230" s="159" t="s">
         <v>291</v>
       </c>
@@ -7887,7 +7888,7 @@
       <c r="A232" s="393">
         <v>5007</v>
       </c>
-      <c r="B232" s="469" t="s">
+      <c r="B232" s="515" t="s">
         <v>292</v>
       </c>
       <c r="C232" s="160" t="s">
@@ -7899,7 +7900,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="393"/>
-      <c r="B233" s="469"/>
+      <c r="B233" s="515"/>
       <c r="C233" s="161" t="s">
         <v>294</v>
       </c>
@@ -7909,7 +7910,7 @@
       <c r="A235" s="393">
         <v>5008</v>
       </c>
-      <c r="B235" s="474" t="s">
+      <c r="B235" s="512" t="s">
         <v>295</v>
       </c>
       <c r="C235" s="162" t="s">
@@ -7921,7 +7922,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="393"/>
-      <c r="B236" s="474"/>
+      <c r="B236" s="512"/>
       <c r="C236" s="163" t="s">
         <v>297</v>
       </c>
@@ -7931,7 +7932,7 @@
       <c r="A238" s="393">
         <v>5009</v>
       </c>
-      <c r="B238" s="475" t="s">
+      <c r="B238" s="513" t="s">
         <v>298</v>
       </c>
       <c r="C238" s="164" t="s">
@@ -7943,7 +7944,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="393"/>
-      <c r="B239" s="475"/>
+      <c r="B239" s="513"/>
       <c r="C239" s="165" t="s">
         <v>300</v>
       </c>
@@ -7953,7 +7954,7 @@
       <c r="A241" s="393">
         <v>5011</v>
       </c>
-      <c r="B241" s="472" t="s">
+      <c r="B241" s="510" t="s">
         <v>301</v>
       </c>
       <c r="C241" s="166" t="s">
@@ -7965,7 +7966,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="393"/>
-      <c r="B242" s="472"/>
+      <c r="B242" s="510"/>
       <c r="C242" s="167" t="s">
         <v>303</v>
       </c>
@@ -7975,7 +7976,7 @@
       <c r="A244" s="393">
         <v>5012</v>
       </c>
-      <c r="B244" s="473" t="s">
+      <c r="B244" s="511" t="s">
         <v>304</v>
       </c>
       <c r="C244" s="168" t="s">
@@ -7987,7 +7988,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="393"/>
-      <c r="B245" s="473"/>
+      <c r="B245" s="511"/>
       <c r="C245" s="169" t="s">
         <v>306</v>
       </c>
@@ -7997,7 +7998,7 @@
       <c r="A247" s="393">
         <v>5013</v>
       </c>
-      <c r="B247" s="478" t="s">
+      <c r="B247" s="508" t="s">
         <v>307</v>
       </c>
       <c r="C247" s="170" t="s">
@@ -8009,7 +8010,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="393"/>
-      <c r="B248" s="478"/>
+      <c r="B248" s="508"/>
       <c r="C248" s="171" t="s">
         <v>309</v>
       </c>
@@ -8019,7 +8020,7 @@
       <c r="A250" s="393">
         <v>5014</v>
       </c>
-      <c r="B250" s="479" t="s">
+      <c r="B250" s="509" t="s">
         <v>310</v>
       </c>
       <c r="C250" s="172" t="s">
@@ -8031,7 +8032,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="393"/>
-      <c r="B251" s="479"/>
+      <c r="B251" s="509"/>
       <c r="C251" s="173" t="s">
         <v>312</v>
       </c>
@@ -8041,7 +8042,7 @@
       <c r="A253" s="393">
         <v>5015</v>
       </c>
-      <c r="B253" s="476" t="s">
+      <c r="B253" s="506" t="s">
         <v>313</v>
       </c>
       <c r="C253" s="174" t="s">
@@ -8053,7 +8054,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="393"/>
-      <c r="B254" s="476"/>
+      <c r="B254" s="506"/>
       <c r="C254" s="175" t="s">
         <v>315</v>
       </c>
@@ -8063,7 +8064,7 @@
       <c r="A256" s="393">
         <v>5017</v>
       </c>
-      <c r="B256" s="477" t="s">
+      <c r="B256" s="507" t="s">
         <v>316</v>
       </c>
       <c r="C256" s="176" t="s">
@@ -8075,7 +8076,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="393"/>
-      <c r="B257" s="477"/>
+      <c r="B257" s="507"/>
       <c r="C257" s="177" t="s">
         <v>318</v>
       </c>
@@ -8085,7 +8086,7 @@
       <c r="A259" s="393">
         <v>5018</v>
       </c>
-      <c r="B259" s="482" t="s">
+      <c r="B259" s="504" t="s">
         <v>319</v>
       </c>
       <c r="C259" s="178" t="s">
@@ -8097,7 +8098,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="393"/>
-      <c r="B260" s="482"/>
+      <c r="B260" s="504"/>
       <c r="C260" s="179" t="s">
         <v>321</v>
       </c>
@@ -8107,7 +8108,7 @@
       <c r="A262" s="393">
         <v>5019</v>
       </c>
-      <c r="B262" s="483" t="s">
+      <c r="B262" s="505" t="s">
         <v>322</v>
       </c>
       <c r="C262" s="180" t="s">
@@ -8119,7 +8120,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="393"/>
-      <c r="B263" s="483"/>
+      <c r="B263" s="505"/>
       <c r="C263" s="181" t="s">
         <v>324</v>
       </c>
@@ -8129,7 +8130,7 @@
       <c r="A265" s="393">
         <v>5020</v>
       </c>
-      <c r="B265" s="480" t="s">
+      <c r="B265" s="502" t="s">
         <v>301</v>
       </c>
       <c r="C265" s="182" t="s">
@@ -8141,7 +8142,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="393"/>
-      <c r="B266" s="480"/>
+      <c r="B266" s="502"/>
       <c r="C266" s="183" t="s">
         <v>326</v>
       </c>
@@ -8151,7 +8152,7 @@
       <c r="A268" s="393">
         <v>5021</v>
       </c>
-      <c r="B268" s="481" t="s">
+      <c r="B268" s="503" t="s">
         <v>327</v>
       </c>
       <c r="C268" s="184" t="s">
@@ -8163,7 +8164,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="393"/>
-      <c r="B269" s="481"/>
+      <c r="B269" s="503"/>
       <c r="C269" s="185" t="s">
         <v>329</v>
       </c>
@@ -8173,7 +8174,7 @@
       <c r="A271" s="393">
         <v>5022</v>
       </c>
-      <c r="B271" s="486" t="s">
+      <c r="B271" s="500" t="s">
         <v>330</v>
       </c>
       <c r="C271" s="186" t="s">
@@ -8185,7 +8186,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="393"/>
-      <c r="B272" s="486"/>
+      <c r="B272" s="500"/>
       <c r="C272" s="187" t="s">
         <v>332</v>
       </c>
@@ -8195,7 +8196,7 @@
       <c r="A274" s="393">
         <v>5023</v>
       </c>
-      <c r="B274" s="487" t="s">
+      <c r="B274" s="501" t="s">
         <v>333</v>
       </c>
       <c r="C274" s="188" t="s">
@@ -8207,7 +8208,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="393"/>
-      <c r="B275" s="487"/>
+      <c r="B275" s="501"/>
       <c r="C275" s="189" t="s">
         <v>335</v>
       </c>
@@ -8217,7 +8218,7 @@
       <c r="A277" s="393">
         <v>5024</v>
       </c>
-      <c r="B277" s="484" t="s">
+      <c r="B277" s="498" t="s">
         <v>336</v>
       </c>
       <c r="C277" s="190" t="s">
@@ -8229,7 +8230,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="393"/>
-      <c r="B278" s="484"/>
+      <c r="B278" s="498"/>
       <c r="C278" s="191" t="s">
         <v>338</v>
       </c>
@@ -8239,7 +8240,7 @@
       <c r="A280" s="393">
         <v>6000</v>
       </c>
-      <c r="B280" s="485" t="s">
+      <c r="B280" s="499" t="s">
         <v>339</v>
       </c>
       <c r="C280" s="192" t="s">
@@ -8251,7 +8252,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="393"/>
-      <c r="B281" s="485"/>
+      <c r="B281" s="499"/>
       <c r="C281" s="193" t="s">
         <v>341</v>
       </c>
@@ -8261,7 +8262,7 @@
       <c r="A283" s="393">
         <v>6001</v>
       </c>
-      <c r="B283" s="490" t="s">
+      <c r="B283" s="496" t="s">
         <v>342</v>
       </c>
       <c r="C283" s="194" t="s">
@@ -8273,7 +8274,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="393"/>
-      <c r="B284" s="490"/>
+      <c r="B284" s="496"/>
       <c r="C284" s="195" t="s">
         <v>344</v>
       </c>
@@ -8283,7 +8284,7 @@
       <c r="A286" s="393">
         <v>6002</v>
       </c>
-      <c r="B286" s="491" t="s">
+      <c r="B286" s="497" t="s">
         <v>345</v>
       </c>
       <c r="C286" s="196" t="s">
@@ -8295,7 +8296,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="393"/>
-      <c r="B287" s="491"/>
+      <c r="B287" s="497"/>
       <c r="C287" s="197" t="s">
         <v>347</v>
       </c>
@@ -8305,7 +8306,7 @@
       <c r="A289" s="393">
         <v>6003</v>
       </c>
-      <c r="B289" s="488" t="s">
+      <c r="B289" s="494" t="s">
         <v>348</v>
       </c>
       <c r="C289" s="198" t="s">
@@ -8317,7 +8318,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="393"/>
-      <c r="B290" s="488"/>
+      <c r="B290" s="494"/>
       <c r="C290" s="199" t="s">
         <v>350</v>
       </c>
@@ -8327,7 +8328,7 @@
       <c r="A292" s="393">
         <v>6004</v>
       </c>
-      <c r="B292" s="489" t="s">
+      <c r="B292" s="495" t="s">
         <v>351</v>
       </c>
       <c r="C292" s="200" t="s">
@@ -8339,7 +8340,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="393"/>
-      <c r="B293" s="489"/>
+      <c r="B293" s="495"/>
       <c r="C293" s="201" t="s">
         <v>353</v>
       </c>
@@ -8349,7 +8350,7 @@
       <c r="A295" s="393">
         <v>6005</v>
       </c>
-      <c r="B295" s="494" t="s">
+      <c r="B295" s="492" t="s">
         <v>354</v>
       </c>
       <c r="C295" s="202" t="s">
@@ -8361,7 +8362,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="393"/>
-      <c r="B296" s="494"/>
+      <c r="B296" s="492"/>
       <c r="C296" s="203" t="s">
         <v>356</v>
       </c>
@@ -8371,7 +8372,7 @@
       <c r="A298" s="393">
         <v>6006</v>
       </c>
-      <c r="B298" s="495" t="s">
+      <c r="B298" s="493" t="s">
         <v>357</v>
       </c>
       <c r="C298" s="204" t="s">
@@ -8383,7 +8384,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="393"/>
-      <c r="B299" s="495"/>
+      <c r="B299" s="493"/>
       <c r="C299" s="205" t="s">
         <v>359</v>
       </c>
@@ -8393,7 +8394,7 @@
       <c r="A301" s="393">
         <v>6007</v>
       </c>
-      <c r="B301" s="492" t="s">
+      <c r="B301" s="490" t="s">
         <v>360</v>
       </c>
       <c r="C301" s="206" t="s">
@@ -8405,7 +8406,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="393"/>
-      <c r="B302" s="492"/>
+      <c r="B302" s="490"/>
       <c r="C302" s="207" t="s">
         <v>362</v>
       </c>
@@ -8415,7 +8416,7 @@
       <c r="A304" s="393">
         <v>6008</v>
       </c>
-      <c r="B304" s="493" t="s">
+      <c r="B304" s="491" t="s">
         <v>363</v>
       </c>
       <c r="C304" s="208" t="s">
@@ -8427,7 +8428,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="393"/>
-      <c r="B305" s="493"/>
+      <c r="B305" s="491"/>
       <c r="C305" s="209" t="s">
         <v>365</v>
       </c>
@@ -8437,7 +8438,7 @@
       <c r="A307" s="393">
         <v>6009</v>
       </c>
-      <c r="B307" s="498" t="s">
+      <c r="B307" s="488" t="s">
         <v>366</v>
       </c>
       <c r="C307" s="210" t="s">
@@ -8449,7 +8450,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="393"/>
-      <c r="B308" s="498"/>
+      <c r="B308" s="488"/>
       <c r="C308" s="211" t="s">
         <v>368</v>
       </c>
@@ -8459,7 +8460,7 @@
       <c r="A310" s="393">
         <v>6010</v>
       </c>
-      <c r="B310" s="499" t="s">
+      <c r="B310" s="489" t="s">
         <v>369</v>
       </c>
       <c r="C310" s="212" t="s">
@@ -8471,7 +8472,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="393"/>
-      <c r="B311" s="499"/>
+      <c r="B311" s="489"/>
       <c r="C311" s="213" t="s">
         <v>371</v>
       </c>
@@ -8481,7 +8482,7 @@
       <c r="A313" s="393">
         <v>6011</v>
       </c>
-      <c r="B313" s="496" t="s">
+      <c r="B313" s="486" t="s">
         <v>372</v>
       </c>
       <c r="C313" s="214" t="s">
@@ -8493,7 +8494,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="393"/>
-      <c r="B314" s="496"/>
+      <c r="B314" s="486"/>
       <c r="C314" s="215" t="s">
         <v>374</v>
       </c>
@@ -8503,7 +8504,7 @@
       <c r="A316" s="393">
         <v>6012</v>
       </c>
-      <c r="B316" s="497" t="s">
+      <c r="B316" s="487" t="s">
         <v>375</v>
       </c>
       <c r="C316" s="216" t="s">
@@ -8515,7 +8516,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="393"/>
-      <c r="B317" s="497"/>
+      <c r="B317" s="487"/>
       <c r="C317" s="217" t="s">
         <v>377</v>
       </c>
@@ -8525,7 +8526,7 @@
       <c r="A319" s="393">
         <v>6013</v>
       </c>
-      <c r="B319" s="502" t="s">
+      <c r="B319" s="484" t="s">
         <v>378</v>
       </c>
       <c r="C319" s="218" t="s">
@@ -8537,7 +8538,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="393"/>
-      <c r="B320" s="502"/>
+      <c r="B320" s="484"/>
       <c r="C320" s="219" t="s">
         <v>380</v>
       </c>
@@ -8547,7 +8548,7 @@
       <c r="A322" s="393">
         <v>6014</v>
       </c>
-      <c r="B322" s="503" t="s">
+      <c r="B322" s="485" t="s">
         <v>381</v>
       </c>
       <c r="C322" s="220" t="s">
@@ -8559,7 +8560,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="393"/>
-      <c r="B323" s="503"/>
+      <c r="B323" s="485"/>
       <c r="C323" s="221" t="s">
         <v>383</v>
       </c>
@@ -8569,7 +8570,7 @@
       <c r="A325" s="393">
         <v>6015</v>
       </c>
-      <c r="B325" s="500" t="s">
+      <c r="B325" s="482" t="s">
         <v>384</v>
       </c>
       <c r="C325" s="222" t="s">
@@ -8581,7 +8582,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="393"/>
-      <c r="B326" s="500"/>
+      <c r="B326" s="482"/>
       <c r="C326" s="223" t="s">
         <v>386</v>
       </c>
@@ -8591,7 +8592,7 @@
       <c r="A328" s="393">
         <v>6016</v>
       </c>
-      <c r="B328" s="501" t="s">
+      <c r="B328" s="483" t="s">
         <v>387</v>
       </c>
       <c r="C328" s="224" t="s">
@@ -8603,7 +8604,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="393"/>
-      <c r="B329" s="501"/>
+      <c r="B329" s="483"/>
       <c r="C329" s="225" t="s">
         <v>389</v>
       </c>
@@ -8613,7 +8614,7 @@
       <c r="A331" s="393">
         <v>6017</v>
       </c>
-      <c r="B331" s="506" t="s">
+      <c r="B331" s="480" t="s">
         <v>390</v>
       </c>
       <c r="C331" s="226" t="s">
@@ -8625,7 +8626,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="393"/>
-      <c r="B332" s="506"/>
+      <c r="B332" s="480"/>
       <c r="C332" s="227" t="s">
         <v>392</v>
       </c>
@@ -8635,7 +8636,7 @@
       <c r="A334" s="393">
         <v>6018</v>
       </c>
-      <c r="B334" s="507" t="s">
+      <c r="B334" s="481" t="s">
         <v>393</v>
       </c>
       <c r="C334" s="228" t="s">
@@ -8647,7 +8648,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="393"/>
-      <c r="B335" s="507"/>
+      <c r="B335" s="481"/>
       <c r="C335" s="229" t="s">
         <v>395</v>
       </c>
@@ -8657,7 +8658,7 @@
       <c r="A337" s="393">
         <v>6019</v>
       </c>
-      <c r="B337" s="504" t="s">
+      <c r="B337" s="478" t="s">
         <v>396</v>
       </c>
       <c r="C337" s="230" t="s">
@@ -8669,7 +8670,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="393"/>
-      <c r="B338" s="504"/>
+      <c r="B338" s="478"/>
       <c r="C338" s="231" t="s">
         <v>398</v>
       </c>
@@ -8679,7 +8680,7 @@
       <c r="A340" s="393">
         <v>6020</v>
       </c>
-      <c r="B340" s="505" t="s">
+      <c r="B340" s="479" t="s">
         <v>399</v>
       </c>
       <c r="C340" s="232" t="s">
@@ -8691,7 +8692,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="393"/>
-      <c r="B341" s="505"/>
+      <c r="B341" s="479"/>
       <c r="C341" s="233" t="s">
         <v>401</v>
       </c>
@@ -8701,7 +8702,7 @@
       <c r="A343" s="393">
         <v>6021</v>
       </c>
-      <c r="B343" s="510" t="s">
+      <c r="B343" s="476" t="s">
         <v>402</v>
       </c>
       <c r="C343" s="234" t="s">
@@ -8713,7 +8714,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="393"/>
-      <c r="B344" s="510"/>
+      <c r="B344" s="476"/>
       <c r="C344" s="235" t="s">
         <v>404</v>
       </c>
@@ -8723,7 +8724,7 @@
       <c r="A346" s="393">
         <v>6022</v>
       </c>
-      <c r="B346" s="511" t="s">
+      <c r="B346" s="477" t="s">
         <v>405</v>
       </c>
       <c r="C346" s="236" t="s">
@@ -8735,7 +8736,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="393"/>
-      <c r="B347" s="511"/>
+      <c r="B347" s="477"/>
       <c r="C347" s="237" t="s">
         <v>407</v>
       </c>
@@ -8745,7 +8746,7 @@
       <c r="A349" s="393">
         <v>6024</v>
       </c>
-      <c r="B349" s="508" t="s">
+      <c r="B349" s="474" t="s">
         <v>408</v>
       </c>
       <c r="C349" s="238" t="s">
@@ -8757,7 +8758,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="393"/>
-      <c r="B350" s="508"/>
+      <c r="B350" s="474"/>
       <c r="C350" s="239" t="s">
         <v>410</v>
       </c>
@@ -8767,7 +8768,7 @@
       <c r="A352" s="393">
         <v>6025</v>
       </c>
-      <c r="B352" s="509" t="s">
+      <c r="B352" s="475" t="s">
         <v>411</v>
       </c>
       <c r="C352" s="240" t="s">
@@ -8779,7 +8780,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="393"/>
-      <c r="B353" s="509"/>
+      <c r="B353" s="475"/>
       <c r="C353" s="241" t="s">
         <v>413</v>
       </c>
@@ -8789,7 +8790,7 @@
       <c r="A355" s="393">
         <v>6026</v>
       </c>
-      <c r="B355" s="514" t="s">
+      <c r="B355" s="472" t="s">
         <v>414</v>
       </c>
       <c r="C355" s="242" t="s">
@@ -8801,7 +8802,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="393"/>
-      <c r="B356" s="514"/>
+      <c r="B356" s="472"/>
       <c r="C356" s="243" t="s">
         <v>416</v>
       </c>
@@ -8811,7 +8812,7 @@
       <c r="A358" s="393">
         <v>6027</v>
       </c>
-      <c r="B358" s="515" t="s">
+      <c r="B358" s="473" t="s">
         <v>417</v>
       </c>
       <c r="C358" s="244" t="s">
@@ -8823,7 +8824,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="393"/>
-      <c r="B359" s="515"/>
+      <c r="B359" s="473"/>
       <c r="C359" s="245" t="s">
         <v>419</v>
       </c>
@@ -8833,7 +8834,7 @@
       <c r="A361" s="393">
         <v>6028</v>
       </c>
-      <c r="B361" s="512" t="s">
+      <c r="B361" s="470" t="s">
         <v>420</v>
       </c>
       <c r="C361" s="246" t="s">
@@ -8845,7 +8846,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="393"/>
-      <c r="B362" s="512"/>
+      <c r="B362" s="470"/>
       <c r="C362" s="247" t="s">
         <v>422</v>
       </c>
@@ -8855,7 +8856,7 @@
       <c r="A364" s="393">
         <v>6029</v>
       </c>
-      <c r="B364" s="513" t="s">
+      <c r="B364" s="471" t="s">
         <v>423</v>
       </c>
       <c r="C364" s="248" t="s">
@@ -8867,7 +8868,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="393"/>
-      <c r="B365" s="513"/>
+      <c r="B365" s="471"/>
       <c r="C365" s="249" t="s">
         <v>425</v>
       </c>
@@ -8877,7 +8878,7 @@
       <c r="A367" s="393">
         <v>6032</v>
       </c>
-      <c r="B367" s="518" t="s">
+      <c r="B367" s="468" t="s">
         <v>426</v>
       </c>
       <c r="C367" s="250" t="s">
@@ -8889,7 +8890,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="393"/>
-      <c r="B368" s="518"/>
+      <c r="B368" s="468"/>
       <c r="C368" s="251" t="s">
         <v>428</v>
       </c>
@@ -8899,7 +8900,7 @@
       <c r="A370" s="393">
         <v>6033</v>
       </c>
-      <c r="B370" s="519" t="s">
+      <c r="B370" s="469" t="s">
         <v>429</v>
       </c>
       <c r="C370" s="252" t="s">
@@ -8911,7 +8912,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="393"/>
-      <c r="B371" s="519"/>
+      <c r="B371" s="469"/>
       <c r="C371" s="253" t="s">
         <v>431</v>
       </c>
@@ -8921,7 +8922,7 @@
       <c r="A373" s="393">
         <v>6034</v>
       </c>
-      <c r="B373" s="516" t="s">
+      <c r="B373" s="466" t="s">
         <v>432</v>
       </c>
       <c r="C373" s="254" t="s">
@@ -8933,7 +8934,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="393"/>
-      <c r="B374" s="516"/>
+      <c r="B374" s="466"/>
       <c r="C374" s="255" t="s">
         <v>434</v>
       </c>
@@ -8943,7 +8944,7 @@
       <c r="A376" s="393">
         <v>7000</v>
       </c>
-      <c r="B376" s="517" t="s">
+      <c r="B376" s="467" t="s">
         <v>435</v>
       </c>
       <c r="C376" s="256" t="s">
@@ -8955,7 +8956,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="393"/>
-      <c r="B377" s="517"/>
+      <c r="B377" s="467"/>
       <c r="C377" s="257" t="s">
         <v>437</v>
       </c>
@@ -8965,7 +8966,7 @@
       <c r="A379" s="393">
         <v>7001</v>
       </c>
-      <c r="B379" s="522" t="s">
+      <c r="B379" s="464" t="s">
         <v>438</v>
       </c>
       <c r="C379" s="258" t="s">
@@ -8977,7 +8978,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="393"/>
-      <c r="B380" s="522"/>
+      <c r="B380" s="464"/>
       <c r="C380" s="259" t="s">
         <v>440</v>
       </c>
@@ -8987,7 +8988,7 @@
       <c r="A382" s="393">
         <v>7002</v>
       </c>
-      <c r="B382" s="523" t="s">
+      <c r="B382" s="465" t="s">
         <v>441</v>
       </c>
       <c r="C382" s="260" t="s">
@@ -8999,7 +9000,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="393"/>
-      <c r="B383" s="523"/>
+      <c r="B383" s="465"/>
       <c r="C383" s="261" t="s">
         <v>443</v>
       </c>
@@ -9009,7 +9010,7 @@
       <c r="A385" s="393">
         <v>7003</v>
       </c>
-      <c r="B385" s="520" t="s">
+      <c r="B385" s="462" t="s">
         <v>444</v>
       </c>
       <c r="C385" s="262" t="s">
@@ -9021,7 +9022,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="393"/>
-      <c r="B386" s="520"/>
+      <c r="B386" s="462"/>
       <c r="C386" s="263" t="s">
         <v>446</v>
       </c>
@@ -9031,7 +9032,7 @@
       <c r="A388" s="393">
         <v>7004</v>
       </c>
-      <c r="B388" s="521" t="s">
+      <c r="B388" s="463" t="s">
         <v>447</v>
       </c>
       <c r="C388" s="264" t="s">
@@ -9043,7 +9044,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="393"/>
-      <c r="B389" s="521"/>
+      <c r="B389" s="463"/>
       <c r="C389" s="265" t="s">
         <v>449</v>
       </c>
@@ -9053,7 +9054,7 @@
       <c r="A391" s="393">
         <v>7005</v>
       </c>
-      <c r="B391" s="526" t="s">
+      <c r="B391" s="460" t="s">
         <v>450</v>
       </c>
       <c r="C391" s="266" t="s">
@@ -9065,7 +9066,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="393"/>
-      <c r="B392" s="526"/>
+      <c r="B392" s="460"/>
       <c r="C392" s="267" t="s">
         <v>452</v>
       </c>
@@ -9075,7 +9076,7 @@
       <c r="A394" s="393">
         <v>7006</v>
       </c>
-      <c r="B394" s="527" t="s">
+      <c r="B394" s="461" t="s">
         <v>453</v>
       </c>
       <c r="C394" s="268" t="s">
@@ -9087,7 +9088,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="393"/>
-      <c r="B395" s="527"/>
+      <c r="B395" s="461"/>
       <c r="C395" s="269" t="s">
         <v>455</v>
       </c>
@@ -9097,7 +9098,7 @@
       <c r="A397" s="393">
         <v>7008</v>
       </c>
-      <c r="B397" s="524" t="s">
+      <c r="B397" s="458" t="s">
         <v>456</v>
       </c>
       <c r="C397" s="270" t="s">
@@ -9109,7 +9110,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="393"/>
-      <c r="B398" s="524"/>
+      <c r="B398" s="458"/>
       <c r="C398" s="271" t="s">
         <v>458</v>
       </c>
@@ -9119,7 +9120,7 @@
       <c r="A400" s="393">
         <v>7009</v>
       </c>
-      <c r="B400" s="525" t="s">
+      <c r="B400" s="459" t="s">
         <v>459</v>
       </c>
       <c r="C400" s="272" t="s">
@@ -9131,7 +9132,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="393"/>
-      <c r="B401" s="525"/>
+      <c r="B401" s="459"/>
       <c r="C401" s="273" t="s">
         <v>461</v>
       </c>
@@ -9141,7 +9142,7 @@
       <c r="A403" s="393">
         <v>7010</v>
       </c>
-      <c r="B403" s="530" t="s">
+      <c r="B403" s="456" t="s">
         <v>462</v>
       </c>
       <c r="C403" s="274" t="s">
@@ -9153,7 +9154,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="393"/>
-      <c r="B404" s="530"/>
+      <c r="B404" s="456"/>
       <c r="C404" s="275" t="s">
         <v>464</v>
       </c>
@@ -9163,7 +9164,7 @@
       <c r="A406" s="393">
         <v>7011</v>
       </c>
-      <c r="B406" s="531" t="s">
+      <c r="B406" s="457" t="s">
         <v>465</v>
       </c>
       <c r="C406" s="276" t="s">
@@ -9175,7 +9176,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="393"/>
-      <c r="B407" s="531"/>
+      <c r="B407" s="457"/>
       <c r="C407" s="277" t="s">
         <v>467</v>
       </c>
@@ -9185,7 +9186,7 @@
       <c r="A409" s="393">
         <v>7012</v>
       </c>
-      <c r="B409" s="528" t="s">
+      <c r="B409" s="454" t="s">
         <v>468</v>
       </c>
       <c r="C409" s="278" t="s">
@@ -9197,7 +9198,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="393"/>
-      <c r="B410" s="528"/>
+      <c r="B410" s="454"/>
       <c r="C410" s="279" t="s">
         <v>470</v>
       </c>
@@ -9207,7 +9208,7 @@
       <c r="A412" s="393">
         <v>7013</v>
       </c>
-      <c r="B412" s="529" t="s">
+      <c r="B412" s="455" t="s">
         <v>471</v>
       </c>
       <c r="C412" s="280" t="s">
@@ -9219,7 +9220,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="393"/>
-      <c r="B413" s="529"/>
+      <c r="B413" s="455"/>
       <c r="C413" s="281" t="s">
         <v>473</v>
       </c>
@@ -9229,7 +9230,7 @@
       <c r="A415" s="393">
         <v>7015</v>
       </c>
-      <c r="B415" s="534" t="s">
+      <c r="B415" s="452" t="s">
         <v>474</v>
       </c>
       <c r="C415" s="282" t="s">
@@ -9241,7 +9242,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="393"/>
-      <c r="B416" s="534"/>
+      <c r="B416" s="452"/>
       <c r="C416" s="283" t="s">
         <v>476</v>
       </c>
@@ -9251,7 +9252,7 @@
       <c r="A418" s="393">
         <v>7016</v>
       </c>
-      <c r="B418" s="535" t="s">
+      <c r="B418" s="453" t="s">
         <v>477</v>
       </c>
       <c r="C418" s="284" t="s">
@@ -9263,7 +9264,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="393"/>
-      <c r="B419" s="535"/>
+      <c r="B419" s="453"/>
       <c r="C419" s="285" t="s">
         <v>479</v>
       </c>
@@ -9273,7 +9274,7 @@
       <c r="A421" s="393">
         <v>7021</v>
       </c>
-      <c r="B421" s="532" t="s">
+      <c r="B421" s="450" t="s">
         <v>480</v>
       </c>
       <c r="C421" s="286" t="s">
@@ -9285,7 +9286,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="393"/>
-      <c r="B422" s="532"/>
+      <c r="B422" s="450"/>
       <c r="C422" s="287" t="s">
         <v>482</v>
       </c>
@@ -9295,7 +9296,7 @@
       <c r="A424" s="393">
         <v>7022</v>
       </c>
-      <c r="B424" s="533" t="s">
+      <c r="B424" s="451" t="s">
         <v>483</v>
       </c>
       <c r="C424" s="288" t="s">
@@ -9307,7 +9308,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="393"/>
-      <c r="B425" s="533"/>
+      <c r="B425" s="451"/>
       <c r="C425" s="289" t="s">
         <v>485</v>
       </c>
@@ -9317,7 +9318,7 @@
       <c r="A427" s="393">
         <v>7023</v>
       </c>
-      <c r="B427" s="538" t="s">
+      <c r="B427" s="448" t="s">
         <v>486</v>
       </c>
       <c r="C427" s="290" t="s">
@@ -9329,7 +9330,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="393"/>
-      <c r="B428" s="538"/>
+      <c r="B428" s="448"/>
       <c r="C428" s="291" t="s">
         <v>488</v>
       </c>
@@ -9339,7 +9340,7 @@
       <c r="A430" s="393">
         <v>7024</v>
       </c>
-      <c r="B430" s="539" t="s">
+      <c r="B430" s="449" t="s">
         <v>489</v>
       </c>
       <c r="C430" s="292" t="s">
@@ -9351,7 +9352,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="393"/>
-      <c r="B431" s="539"/>
+      <c r="B431" s="449"/>
       <c r="C431" s="293" t="s">
         <v>491</v>
       </c>
@@ -9361,7 +9362,7 @@
       <c r="A433" s="393">
         <v>7026</v>
       </c>
-      <c r="B433" s="536" t="s">
+      <c r="B433" s="446" t="s">
         <v>492</v>
       </c>
       <c r="C433" s="294" t="s">
@@ -9373,7 +9374,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="393"/>
-      <c r="B434" s="536"/>
+      <c r="B434" s="446"/>
       <c r="C434" s="295" t="s">
         <v>494</v>
       </c>
@@ -9383,7 +9384,7 @@
       <c r="A436" s="393">
         <v>7030</v>
       </c>
-      <c r="B436" s="537" t="s">
+      <c r="B436" s="447" t="s">
         <v>495</v>
       </c>
       <c r="C436" s="296" t="s">
@@ -9395,7 +9396,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="393"/>
-      <c r="B437" s="537"/>
+      <c r="B437" s="447"/>
       <c r="C437" s="297" t="s">
         <v>497</v>
       </c>
@@ -9405,7 +9406,7 @@
       <c r="A439" s="393">
         <v>7031</v>
       </c>
-      <c r="B439" s="542" t="s">
+      <c r="B439" s="444" t="s">
         <v>498</v>
       </c>
       <c r="C439" s="298" t="s">
@@ -9417,7 +9418,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="393"/>
-      <c r="B440" s="542"/>
+      <c r="B440" s="444"/>
       <c r="C440" s="299" t="s">
         <v>500</v>
       </c>
@@ -9427,7 +9428,7 @@
       <c r="A442" s="393">
         <v>7032</v>
       </c>
-      <c r="B442" s="543" t="s">
+      <c r="B442" s="445" t="s">
         <v>501</v>
       </c>
       <c r="C442" s="300" t="s">
@@ -9439,7 +9440,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="393"/>
-      <c r="B443" s="543"/>
+      <c r="B443" s="445"/>
       <c r="C443" s="301" t="s">
         <v>503</v>
       </c>
@@ -9449,7 +9450,7 @@
       <c r="A445" s="393">
         <v>7033</v>
       </c>
-      <c r="B445" s="540" t="s">
+      <c r="B445" s="442" t="s">
         <v>504</v>
       </c>
       <c r="C445" s="302" t="s">
@@ -9461,7 +9462,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="393"/>
-      <c r="B446" s="540"/>
+      <c r="B446" s="442"/>
       <c r="C446" s="303" t="s">
         <v>506</v>
       </c>
@@ -9471,7 +9472,7 @@
       <c r="A448" s="393">
         <v>7034</v>
       </c>
-      <c r="B448" s="541" t="s">
+      <c r="B448" s="443" t="s">
         <v>507</v>
       </c>
       <c r="C448" s="304" t="s">
@@ -9483,7 +9484,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="393"/>
-      <c r="B449" s="541"/>
+      <c r="B449" s="443"/>
       <c r="C449" s="305" t="s">
         <v>509</v>
       </c>
@@ -9493,7 +9494,7 @@
       <c r="A451" s="393">
         <v>7035</v>
       </c>
-      <c r="B451" s="546" t="s">
+      <c r="B451" s="440" t="s">
         <v>510</v>
       </c>
       <c r="C451" s="306" t="s">
@@ -9505,7 +9506,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="393"/>
-      <c r="B452" s="546"/>
+      <c r="B452" s="440"/>
       <c r="C452" s="307" t="s">
         <v>512</v>
       </c>
@@ -9515,7 +9516,7 @@
       <c r="A454" s="393">
         <v>7036</v>
       </c>
-      <c r="B454" s="547" t="s">
+      <c r="B454" s="441" t="s">
         <v>513</v>
       </c>
       <c r="C454" s="308" t="s">
@@ -9527,7 +9528,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="393"/>
-      <c r="B455" s="547"/>
+      <c r="B455" s="441"/>
       <c r="C455" s="309" t="s">
         <v>515</v>
       </c>
@@ -9537,7 +9538,7 @@
       <c r="A457" s="393">
         <v>7037</v>
       </c>
-      <c r="B457" s="544" t="s">
+      <c r="B457" s="438" t="s">
         <v>516</v>
       </c>
       <c r="C457" s="310" t="s">
@@ -9549,7 +9550,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="393"/>
-      <c r="B458" s="544"/>
+      <c r="B458" s="438"/>
       <c r="C458" s="311" t="s">
         <v>518</v>
       </c>
@@ -9559,7 +9560,7 @@
       <c r="A460" s="393">
         <v>7038</v>
       </c>
-      <c r="B460" s="545" t="s">
+      <c r="B460" s="439" t="s">
         <v>519</v>
       </c>
       <c r="C460" s="312" t="s">
@@ -9571,7 +9572,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="393"/>
-      <c r="B461" s="545"/>
+      <c r="B461" s="439"/>
       <c r="C461" s="313" t="s">
         <v>521</v>
       </c>
@@ -9581,7 +9582,7 @@
       <c r="A463" s="393">
         <v>7039</v>
       </c>
-      <c r="B463" s="550" t="s">
+      <c r="B463" s="436" t="s">
         <v>522</v>
       </c>
       <c r="C463" s="314" t="s">
@@ -9593,7 +9594,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="393"/>
-      <c r="B464" s="550"/>
+      <c r="B464" s="436"/>
       <c r="C464" s="315" t="s">
         <v>524</v>
       </c>
@@ -9603,7 +9604,7 @@
       <c r="A466" s="393">
         <v>7040</v>
       </c>
-      <c r="B466" s="551" t="s">
+      <c r="B466" s="437" t="s">
         <v>525</v>
       </c>
       <c r="C466" s="316" t="s">
@@ -9615,7 +9616,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="393"/>
-      <c r="B467" s="551"/>
+      <c r="B467" s="437"/>
       <c r="C467" s="317" t="s">
         <v>527</v>
       </c>
@@ -9625,7 +9626,7 @@
       <c r="A469" s="393">
         <v>7042</v>
       </c>
-      <c r="B469" s="548" t="s">
+      <c r="B469" s="434" t="s">
         <v>528</v>
       </c>
       <c r="C469" s="318" t="s">
@@ -9637,7 +9638,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="393"/>
-      <c r="B470" s="548"/>
+      <c r="B470" s="434"/>
       <c r="C470" s="319" t="s">
         <v>530</v>
       </c>
@@ -9647,7 +9648,7 @@
       <c r="A472" s="393">
         <v>7043</v>
       </c>
-      <c r="B472" s="549" t="s">
+      <c r="B472" s="435" t="s">
         <v>531</v>
       </c>
       <c r="C472" s="320" t="s">
@@ -9659,7 +9660,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="393"/>
-      <c r="B473" s="549"/>
+      <c r="B473" s="435"/>
       <c r="C473" s="321" t="s">
         <v>533</v>
       </c>
@@ -9669,7 +9670,7 @@
       <c r="A475" s="393">
         <v>7044</v>
       </c>
-      <c r="B475" s="554" t="s">
+      <c r="B475" s="432" t="s">
         <v>534</v>
       </c>
       <c r="C475" s="322" t="s">
@@ -9681,7 +9682,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="393"/>
-      <c r="B476" s="554"/>
+      <c r="B476" s="432"/>
       <c r="C476" s="323" t="s">
         <v>536</v>
       </c>
@@ -9691,7 +9692,7 @@
       <c r="A478" s="393">
         <v>7045</v>
       </c>
-      <c r="B478" s="555" t="s">
+      <c r="B478" s="433" t="s">
         <v>537</v>
       </c>
       <c r="C478" s="324" t="s">
@@ -9703,7 +9704,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="393"/>
-      <c r="B479" s="555"/>
+      <c r="B479" s="433"/>
       <c r="C479" s="325" t="s">
         <v>539</v>
       </c>
@@ -9713,7 +9714,7 @@
       <c r="A481" s="393">
         <v>7046</v>
       </c>
-      <c r="B481" s="552" t="s">
+      <c r="B481" s="430" t="s">
         <v>540</v>
       </c>
       <c r="C481" s="326" t="s">
@@ -9725,7 +9726,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="393"/>
-      <c r="B482" s="552"/>
+      <c r="B482" s="430"/>
       <c r="C482" s="327" t="s">
         <v>542</v>
       </c>
@@ -9735,7 +9736,7 @@
       <c r="A484" s="393">
         <v>7047</v>
       </c>
-      <c r="B484" s="553" t="s">
+      <c r="B484" s="431" t="s">
         <v>543</v>
       </c>
       <c r="C484" s="328" t="s">
@@ -9747,7 +9748,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="393"/>
-      <c r="B485" s="553"/>
+      <c r="B485" s="431"/>
       <c r="C485" s="329" t="s">
         <v>545</v>
       </c>
@@ -9757,7 +9758,7 @@
       <c r="A487" s="393">
         <v>8000</v>
       </c>
-      <c r="B487" s="558" t="s">
+      <c r="B487" s="428" t="s">
         <v>546</v>
       </c>
       <c r="C487" s="330" t="s">
@@ -9769,7 +9770,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="393"/>
-      <c r="B488" s="558"/>
+      <c r="B488" s="428"/>
       <c r="C488" s="331" t="s">
         <v>548</v>
       </c>
@@ -9779,7 +9780,7 @@
       <c r="A490" s="393">
         <v>8001</v>
       </c>
-      <c r="B490" s="559" t="s">
+      <c r="B490" s="429" t="s">
         <v>549</v>
       </c>
       <c r="C490" s="332" t="s">
@@ -9791,7 +9792,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="393"/>
-      <c r="B491" s="559"/>
+      <c r="B491" s="429"/>
       <c r="C491" s="333" t="s">
         <v>551</v>
       </c>
@@ -9801,7 +9802,7 @@
       <c r="A493" s="393">
         <v>8002</v>
       </c>
-      <c r="B493" s="556" t="s">
+      <c r="B493" s="426" t="s">
         <v>552</v>
       </c>
       <c r="C493" s="334" t="s">
@@ -9813,7 +9814,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="393"/>
-      <c r="B494" s="556"/>
+      <c r="B494" s="426"/>
       <c r="C494" s="335" t="s">
         <v>554</v>
       </c>
@@ -9823,7 +9824,7 @@
       <c r="A496" s="393">
         <v>8003</v>
       </c>
-      <c r="B496" s="557" t="s">
+      <c r="B496" s="427" t="s">
         <v>555</v>
       </c>
       <c r="C496" s="336" t="s">
@@ -9835,7 +9836,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="393"/>
-      <c r="B497" s="557"/>
+      <c r="B497" s="427"/>
       <c r="C497" s="337" t="s">
         <v>557</v>
       </c>
@@ -9845,7 +9846,7 @@
       <c r="A499" s="393">
         <v>8004</v>
       </c>
-      <c r="B499" s="562" t="s">
+      <c r="B499" s="424" t="s">
         <v>558</v>
       </c>
       <c r="C499" s="338" t="s">
@@ -9857,7 +9858,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="393"/>
-      <c r="B500" s="562"/>
+      <c r="B500" s="424"/>
       <c r="C500" s="339" t="s">
         <v>560</v>
       </c>
@@ -9867,7 +9868,7 @@
       <c r="A502" s="393">
         <v>8007</v>
       </c>
-      <c r="B502" s="563" t="s">
+      <c r="B502" s="425" t="s">
         <v>561</v>
       </c>
       <c r="C502" s="340" t="s">
@@ -9879,7 +9880,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="393"/>
-      <c r="B503" s="563"/>
+      <c r="B503" s="425"/>
       <c r="C503" s="341" t="s">
         <v>563</v>
       </c>
@@ -9889,7 +9890,7 @@
       <c r="A505" s="393">
         <v>8008</v>
       </c>
-      <c r="B505" s="560" t="s">
+      <c r="B505" s="422" t="s">
         <v>564</v>
       </c>
       <c r="C505" s="342" t="s">
@@ -9901,7 +9902,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="393"/>
-      <c r="B506" s="560"/>
+      <c r="B506" s="422"/>
       <c r="C506" s="343" t="s">
         <v>566</v>
       </c>
@@ -9911,7 +9912,7 @@
       <c r="A508" s="393">
         <v>8011</v>
       </c>
-      <c r="B508" s="561" t="s">
+      <c r="B508" s="423" t="s">
         <v>567</v>
       </c>
       <c r="C508" s="344" t="s">
@@ -9923,7 +9924,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="393"/>
-      <c r="B509" s="561"/>
+      <c r="B509" s="423"/>
       <c r="C509" s="345" t="s">
         <v>569</v>
       </c>
@@ -9933,7 +9934,7 @@
       <c r="A511" s="393">
         <v>8012</v>
       </c>
-      <c r="B511" s="566" t="s">
+      <c r="B511" s="420" t="s">
         <v>570</v>
       </c>
       <c r="C511" s="346" t="s">
@@ -9945,7 +9946,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="393"/>
-      <c r="B512" s="566"/>
+      <c r="B512" s="420"/>
       <c r="C512" s="347" t="s">
         <v>572</v>
       </c>
@@ -9955,7 +9956,7 @@
       <c r="A514" s="393">
         <v>8014</v>
       </c>
-      <c r="B514" s="567" t="s">
+      <c r="B514" s="421" t="s">
         <v>573</v>
       </c>
       <c r="C514" s="348" t="s">
@@ -9967,7 +9968,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="393"/>
-      <c r="B515" s="567"/>
+      <c r="B515" s="421"/>
       <c r="C515" s="349" t="s">
         <v>575</v>
       </c>
@@ -9977,7 +9978,7 @@
       <c r="A517" s="393">
         <v>8015</v>
       </c>
-      <c r="B517" s="564" t="s">
+      <c r="B517" s="418" t="s">
         <v>576</v>
       </c>
       <c r="C517" s="350" t="s">
@@ -9989,7 +9990,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="393"/>
-      <c r="B518" s="564"/>
+      <c r="B518" s="418"/>
       <c r="C518" s="351" t="s">
         <v>578</v>
       </c>
@@ -9999,7 +10000,7 @@
       <c r="A520" s="393">
         <v>8016</v>
       </c>
-      <c r="B520" s="565" t="s">
+      <c r="B520" s="419" t="s">
         <v>579</v>
       </c>
       <c r="C520" s="352" t="s">
@@ -10011,7 +10012,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="393"/>
-      <c r="B521" s="565"/>
+      <c r="B521" s="419"/>
       <c r="C521" s="353" t="s">
         <v>581</v>
       </c>
@@ -10021,7 +10022,7 @@
       <c r="A523" s="393">
         <v>8017</v>
       </c>
-      <c r="B523" s="570" t="s">
+      <c r="B523" s="416" t="s">
         <v>582</v>
       </c>
       <c r="C523" s="354" t="s">
@@ -10033,7 +10034,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="393"/>
-      <c r="B524" s="570"/>
+      <c r="B524" s="416"/>
       <c r="C524" s="355" t="s">
         <v>584</v>
       </c>
@@ -10043,7 +10044,7 @@
       <c r="A526" s="393">
         <v>8019</v>
       </c>
-      <c r="B526" s="571" t="s">
+      <c r="B526" s="417" t="s">
         <v>585</v>
       </c>
       <c r="C526" s="356" t="s">
@@ -10055,7 +10056,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="393"/>
-      <c r="B527" s="571"/>
+      <c r="B527" s="417"/>
       <c r="C527" s="357" t="s">
         <v>587</v>
       </c>
@@ -10065,7 +10066,7 @@
       <c r="A529" s="393">
         <v>8022</v>
       </c>
-      <c r="B529" s="568" t="s">
+      <c r="B529" s="414" t="s">
         <v>588</v>
       </c>
       <c r="C529" s="358" t="s">
@@ -10077,7 +10078,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="393"/>
-      <c r="B530" s="568"/>
+      <c r="B530" s="414"/>
       <c r="C530" s="359" t="s">
         <v>590</v>
       </c>
@@ -10087,7 +10088,7 @@
       <c r="A532" s="393">
         <v>8023</v>
       </c>
-      <c r="B532" s="569" t="s">
+      <c r="B532" s="415" t="s">
         <v>591</v>
       </c>
       <c r="C532" s="360" t="s">
@@ -10099,7 +10100,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="393"/>
-      <c r="B533" s="569"/>
+      <c r="B533" s="415"/>
       <c r="C533" s="361" t="s">
         <v>593</v>
       </c>
@@ -10109,7 +10110,7 @@
       <c r="A535" s="393">
         <v>8024</v>
       </c>
-      <c r="B535" s="574" t="s">
+      <c r="B535" s="412" t="s">
         <v>594</v>
       </c>
       <c r="C535" s="362" t="s">
@@ -10121,7 +10122,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="393"/>
-      <c r="B536" s="574"/>
+      <c r="B536" s="412"/>
       <c r="C536" s="363" t="s">
         <v>596</v>
       </c>
@@ -10131,7 +10132,7 @@
       <c r="A538" s="393">
         <v>8025</v>
       </c>
-      <c r="B538" s="575" t="s">
+      <c r="B538" s="413" t="s">
         <v>597</v>
       </c>
       <c r="C538" s="364" t="s">
@@ -10143,7 +10144,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="393"/>
-      <c r="B539" s="575"/>
+      <c r="B539" s="413"/>
       <c r="C539" s="365" t="s">
         <v>599</v>
       </c>
@@ -10153,7 +10154,7 @@
       <c r="A541" s="393">
         <v>8028</v>
       </c>
-      <c r="B541" s="572" t="s">
+      <c r="B541" s="410" t="s">
         <v>600</v>
       </c>
       <c r="C541" s="366" t="s">
@@ -10165,7 +10166,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="393"/>
-      <c r="B542" s="572"/>
+      <c r="B542" s="410"/>
       <c r="C542" s="367" t="s">
         <v>602</v>
       </c>
@@ -10175,7 +10176,7 @@
       <c r="A544" s="393">
         <v>9001</v>
       </c>
-      <c r="B544" s="573" t="s">
+      <c r="B544" s="411" t="s">
         <v>603</v>
       </c>
       <c r="C544" s="368" t="s">
@@ -10187,7 +10188,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="393"/>
-      <c r="B545" s="573"/>
+      <c r="B545" s="411"/>
       <c r="C545" s="369" t="s">
         <v>605</v>
       </c>
@@ -10197,7 +10198,7 @@
       <c r="A547" s="393">
         <v>9002</v>
       </c>
-      <c r="B547" s="578" t="s">
+      <c r="B547" s="408" t="s">
         <v>606</v>
       </c>
       <c r="C547" s="370" t="s">
@@ -10209,7 +10210,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="393"/>
-      <c r="B548" s="578"/>
+      <c r="B548" s="408"/>
       <c r="C548" s="371" t="s">
         <v>608</v>
       </c>
@@ -10219,7 +10220,7 @@
       <c r="A550" s="393">
         <v>9003</v>
       </c>
-      <c r="B550" s="579" t="s">
+      <c r="B550" s="409" t="s">
         <v>609</v>
       </c>
       <c r="C550" s="372" t="s">
@@ -10231,7 +10232,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="393"/>
-      <c r="B551" s="579"/>
+      <c r="B551" s="409"/>
       <c r="C551" s="373" t="s">
         <v>611</v>
       </c>
@@ -10241,7 +10242,7 @@
       <c r="A553" s="393">
         <v>9004</v>
       </c>
-      <c r="B553" s="576" t="s">
+      <c r="B553" s="406" t="s">
         <v>612</v>
       </c>
       <c r="C553" s="374" t="s">
@@ -10253,7 +10254,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="393"/>
-      <c r="B554" s="576"/>
+      <c r="B554" s="406"/>
       <c r="C554" s="375" t="s">
         <v>614</v>
       </c>
@@ -10263,7 +10264,7 @@
       <c r="A556" s="393">
         <v>9005</v>
       </c>
-      <c r="B556" s="577" t="s">
+      <c r="B556" s="407" t="s">
         <v>615</v>
       </c>
       <c r="C556" s="376" t="s">
@@ -10275,7 +10276,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="393"/>
-      <c r="B557" s="577"/>
+      <c r="B557" s="407"/>
       <c r="C557" s="377" t="s">
         <v>617</v>
       </c>
@@ -10285,7 +10286,7 @@
       <c r="A559" s="393">
         <v>9006</v>
       </c>
-      <c r="B559" s="582" t="s">
+      <c r="B559" s="404" t="s">
         <v>618</v>
       </c>
       <c r="C559" s="378" t="s">
@@ -10297,7 +10298,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="393"/>
-      <c r="B560" s="582"/>
+      <c r="B560" s="404"/>
       <c r="C560" s="379" t="s">
         <v>620</v>
       </c>
@@ -10307,7 +10308,7 @@
       <c r="A562" s="393">
         <v>9007</v>
       </c>
-      <c r="B562" s="583" t="s">
+      <c r="B562" s="405" t="s">
         <v>621</v>
       </c>
       <c r="C562" s="380" t="s">
@@ -10319,7 +10320,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="393"/>
-      <c r="B563" s="583"/>
+      <c r="B563" s="405"/>
       <c r="C563" s="381" t="s">
         <v>623</v>
       </c>
@@ -10329,7 +10330,7 @@
       <c r="A565" s="393">
         <v>9010</v>
       </c>
-      <c r="B565" s="580" t="s">
+      <c r="B565" s="402" t="s">
         <v>624</v>
       </c>
       <c r="C565" s="382" t="s">
@@ -10341,7 +10342,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="393"/>
-      <c r="B566" s="580"/>
+      <c r="B566" s="402"/>
       <c r="C566" s="383" t="s">
         <v>626</v>
       </c>
@@ -10351,7 +10352,7 @@
       <c r="A568" s="393">
         <v>9011</v>
       </c>
-      <c r="B568" s="581" t="s">
+      <c r="B568" s="403" t="s">
         <v>627</v>
       </c>
       <c r="C568" s="384" t="s">
@@ -10363,7 +10364,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="393"/>
-      <c r="B569" s="581"/>
+      <c r="B569" s="403"/>
       <c r="C569" s="385" t="s">
         <v>629</v>
       </c>
@@ -10373,7 +10374,7 @@
       <c r="A571" s="393">
         <v>9016</v>
       </c>
-      <c r="B571" s="589" t="s">
+      <c r="B571" s="400" t="s">
         <v>630</v>
       </c>
       <c r="C571" s="386" t="s">
@@ -10385,7 +10386,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="393"/>
-      <c r="B572" s="589"/>
+      <c r="B572" s="400"/>
       <c r="C572" s="387" t="s">
         <v>632</v>
       </c>
@@ -10395,7 +10396,7 @@
       <c r="A574" s="393">
         <v>9017</v>
       </c>
-      <c r="B574" s="590" t="s">
+      <c r="B574" s="401" t="s">
         <v>633</v>
       </c>
       <c r="C574" s="388" t="s">
@@ -10407,7 +10408,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="393"/>
-      <c r="B575" s="590"/>
+      <c r="B575" s="401"/>
       <c r="C575" s="389" t="s">
         <v>635</v>
       </c>
@@ -10417,7 +10418,7 @@
       <c r="A577" s="393">
         <v>9018</v>
       </c>
-      <c r="B577" s="584" t="s">
+      <c r="B577" s="394" t="s">
         <v>636</v>
       </c>
       <c r="C577" s="390" t="s">
@@ -10429,7 +10430,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="393"/>
-      <c r="B578" s="584"/>
+      <c r="B578" s="394"/>
       <c r="C578" s="391" t="s">
         <v>638</v>
       </c>
@@ -10442,15 +10443,585 @@
       <c r="D580" s="395"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="585"/>
-      <c r="B581" s="587"/>
+      <c r="A581" s="396"/>
+      <c r="B581" s="398"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="586"/>
-      <c r="B582" s="588"/>
+      <c r="A582" s="397"/>
+      <c r="B582" s="399"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10463,576 +11034,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pentapod Bom.xlsx
+++ b/Pentapod Bom.xlsx
@@ -14,7 +14,6 @@
     <sheet name="RAL" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="648">
   <si>
     <t>#</t>
   </si>
@@ -1956,6 +1955,18 @@
   </si>
   <si>
     <t>Additional Servo cables for customized wires</t>
+  </si>
+  <si>
+    <t>https://spraydosen-online.de/epages/163795ab-5a18-407e-a089-66d03db69af9.sf/de_DE/?ObjectPath=/Shops/163795ab-5a18-407e-a089-66d03db69af9/Products/%22Hammer%20Anthrazit%22</t>
+  </si>
+  <si>
+    <t>https://spraydosen-online.de/epages/163795ab-5a18-407e-a089-66d03db69af9.sf/de_DE/?ObjectPath=/Shops/163795ab-5a18-407e-a089-66d03db69af9/Products/%22Hammer%20Kupfer%22</t>
+  </si>
+  <si>
+    <t>hammertone paint black</t>
+  </si>
+  <si>
+    <t>hammertone paint copper</t>
   </si>
 </sst>
 </file>
@@ -4357,10 +4368,577 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4379,573 +4957,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5467,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5977,7 +5988,7 @@
         <v>5.9</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" ref="J25:J26" si="2">I25*B25</f>
+        <f t="shared" ref="J25:J29" si="2">I25*B25</f>
         <v>23.6</v>
       </c>
     </row>
@@ -6002,10 +6013,52 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J27" s="4">
-        <f>SUM(J3:J26)</f>
-        <v>2433.4799999999991</v>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>646</v>
+      </c>
+      <c r="G28" t="s">
+        <v>644</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>647</v>
+      </c>
+      <c r="G29" t="s">
+        <v>645</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J30" s="4">
+        <f>SUM(J3:J29)</f>
+        <v>2451.7799999999988</v>
       </c>
     </row>
   </sheetData>
@@ -6194,7 +6247,7 @@
       <c r="A1" s="393">
         <v>1000</v>
       </c>
-      <c r="B1" s="588" t="s">
+      <c r="B1" s="394" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6206,7 +6259,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="393"/>
-      <c r="B2" s="588"/>
+      <c r="B2" s="394"/>
       <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
@@ -6216,7 +6269,7 @@
       <c r="A4" s="393">
         <v>1001</v>
       </c>
-      <c r="B4" s="589" t="s">
+      <c r="B4" s="396" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -6228,7 +6281,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="393"/>
-      <c r="B5" s="589"/>
+      <c r="B5" s="396"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
@@ -6238,7 +6291,7 @@
       <c r="A7" s="393">
         <v>1002</v>
       </c>
-      <c r="B7" s="586" t="s">
+      <c r="B7" s="399" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6250,7 +6303,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="393"/>
-      <c r="B8" s="586"/>
+      <c r="B8" s="399"/>
       <c r="C8" s="13" t="s">
         <v>71</v>
       </c>
@@ -6260,7 +6313,7 @@
       <c r="A10" s="393">
         <v>1003</v>
       </c>
-      <c r="B10" s="587" t="s">
+      <c r="B10" s="400" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -6272,7 +6325,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="393"/>
-      <c r="B11" s="587"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
@@ -6282,7 +6335,7 @@
       <c r="A13" s="393">
         <v>1004</v>
       </c>
-      <c r="B13" s="590" t="s">
+      <c r="B13" s="397" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -6294,7 +6347,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="393"/>
-      <c r="B14" s="590"/>
+      <c r="B14" s="397"/>
       <c r="C14" s="17" t="s">
         <v>77</v>
       </c>
@@ -6304,7 +6357,7 @@
       <c r="A16" s="393">
         <v>1005</v>
       </c>
-      <c r="B16" s="585" t="s">
+      <c r="B16" s="398" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -6316,7 +6369,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="393"/>
-      <c r="B17" s="585"/>
+      <c r="B17" s="398"/>
       <c r="C17" s="19" t="s">
         <v>80</v>
       </c>
@@ -6326,7 +6379,7 @@
       <c r="A19" s="393">
         <v>1006</v>
       </c>
-      <c r="B19" s="583" t="s">
+      <c r="B19" s="403" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -6338,7 +6391,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="393"/>
-      <c r="B20" s="583"/>
+      <c r="B20" s="403"/>
       <c r="C20" s="21" t="s">
         <v>83</v>
       </c>
@@ -6348,7 +6401,7 @@
       <c r="A22" s="393">
         <v>1007</v>
       </c>
-      <c r="B22" s="584" t="s">
+      <c r="B22" s="404" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -6360,7 +6413,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="393"/>
-      <c r="B23" s="584"/>
+      <c r="B23" s="404"/>
       <c r="C23" s="23" t="s">
         <v>86</v>
       </c>
@@ -6370,7 +6423,7 @@
       <c r="A25" s="393">
         <v>1011</v>
       </c>
-      <c r="B25" s="581" t="s">
+      <c r="B25" s="401" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -6382,7 +6435,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="393"/>
-      <c r="B26" s="581"/>
+      <c r="B26" s="401"/>
       <c r="C26" s="25" t="s">
         <v>89</v>
       </c>
@@ -6392,7 +6445,7 @@
       <c r="A28" s="393">
         <v>1012</v>
       </c>
-      <c r="B28" s="582" t="s">
+      <c r="B28" s="402" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -6404,7 +6457,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="393"/>
-      <c r="B29" s="582"/>
+      <c r="B29" s="402"/>
       <c r="C29" s="27" t="s">
         <v>92</v>
       </c>
@@ -6414,7 +6467,7 @@
       <c r="A31" s="393">
         <v>1013</v>
       </c>
-      <c r="B31" s="579" t="s">
+      <c r="B31" s="407" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -6426,7 +6479,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="393"/>
-      <c r="B32" s="579"/>
+      <c r="B32" s="407"/>
       <c r="C32" s="29" t="s">
         <v>95</v>
       </c>
@@ -6436,7 +6489,7 @@
       <c r="A34" s="393">
         <v>1014</v>
       </c>
-      <c r="B34" s="580" t="s">
+      <c r="B34" s="408" t="s">
         <v>96</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -6448,7 +6501,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="393"/>
-      <c r="B35" s="580"/>
+      <c r="B35" s="408"/>
       <c r="C35" s="31" t="s">
         <v>98</v>
       </c>
@@ -6458,7 +6511,7 @@
       <c r="A37" s="393">
         <v>1015</v>
       </c>
-      <c r="B37" s="577" t="s">
+      <c r="B37" s="405" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="32" t="s">
@@ -6470,7 +6523,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="393"/>
-      <c r="B38" s="577"/>
+      <c r="B38" s="405"/>
       <c r="C38" s="33" t="s">
         <v>101</v>
       </c>
@@ -6480,7 +6533,7 @@
       <c r="A40" s="393">
         <v>1016</v>
       </c>
-      <c r="B40" s="578" t="s">
+      <c r="B40" s="406" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="34" t="s">
@@ -6492,7 +6545,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="393"/>
-      <c r="B41" s="578"/>
+      <c r="B41" s="406"/>
       <c r="C41" s="35" t="s">
         <v>104</v>
       </c>
@@ -6502,7 +6555,7 @@
       <c r="A43" s="393">
         <v>1017</v>
       </c>
-      <c r="B43" s="575" t="s">
+      <c r="B43" s="411" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -6514,7 +6567,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="393"/>
-      <c r="B44" s="575"/>
+      <c r="B44" s="411"/>
       <c r="C44" s="37" t="s">
         <v>107</v>
       </c>
@@ -6524,7 +6577,7 @@
       <c r="A46" s="393">
         <v>1018</v>
       </c>
-      <c r="B46" s="576" t="s">
+      <c r="B46" s="412" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="38" t="s">
@@ -6536,7 +6589,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="393"/>
-      <c r="B47" s="576"/>
+      <c r="B47" s="412"/>
       <c r="C47" s="39" t="s">
         <v>110</v>
       </c>
@@ -6546,7 +6599,7 @@
       <c r="A49" s="393">
         <v>1019</v>
       </c>
-      <c r="B49" s="573" t="s">
+      <c r="B49" s="409" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -6558,7 +6611,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="393"/>
-      <c r="B50" s="573"/>
+      <c r="B50" s="409"/>
       <c r="C50" s="41" t="s">
         <v>113</v>
       </c>
@@ -6568,7 +6621,7 @@
       <c r="A52" s="393">
         <v>1020</v>
       </c>
-      <c r="B52" s="574" t="s">
+      <c r="B52" s="410" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="42" t="s">
@@ -6580,7 +6633,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="393"/>
-      <c r="B53" s="574"/>
+      <c r="B53" s="410"/>
       <c r="C53" s="43" t="s">
         <v>116</v>
       </c>
@@ -6590,7 +6643,7 @@
       <c r="A55" s="393">
         <v>1021</v>
       </c>
-      <c r="B55" s="572" t="s">
+      <c r="B55" s="415" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="44" t="s">
@@ -6602,7 +6655,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="393"/>
-      <c r="B56" s="572"/>
+      <c r="B56" s="415"/>
       <c r="C56" s="45" t="s">
         <v>119</v>
       </c>
@@ -6612,7 +6665,7 @@
       <c r="A58" s="393">
         <v>1023</v>
       </c>
-      <c r="B58" s="572" t="s">
+      <c r="B58" s="415" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="44" t="s">
@@ -6624,7 +6677,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="393"/>
-      <c r="B59" s="572"/>
+      <c r="B59" s="415"/>
       <c r="C59" s="45" t="s">
         <v>119</v>
       </c>
@@ -6634,7 +6687,7 @@
       <c r="A61" s="393">
         <v>1024</v>
       </c>
-      <c r="B61" s="570" t="s">
+      <c r="B61" s="413" t="s">
         <v>121</v>
       </c>
       <c r="C61" s="46" t="s">
@@ -6646,7 +6699,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="393"/>
-      <c r="B62" s="570"/>
+      <c r="B62" s="413"/>
       <c r="C62" s="47" t="s">
         <v>123</v>
       </c>
@@ -6656,7 +6709,7 @@
       <c r="A64" s="393">
         <v>1026</v>
       </c>
-      <c r="B64" s="571" t="s">
+      <c r="B64" s="414" t="s">
         <v>124</v>
       </c>
       <c r="C64" s="48" t="s">
@@ -6668,7 +6721,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="393"/>
-      <c r="B65" s="571"/>
+      <c r="B65" s="414"/>
       <c r="C65" s="49" t="s">
         <v>126</v>
       </c>
@@ -6678,7 +6731,7 @@
       <c r="A67" s="393">
         <v>1027</v>
       </c>
-      <c r="B67" s="568" t="s">
+      <c r="B67" s="418" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="50" t="s">
@@ -6690,7 +6743,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="393"/>
-      <c r="B68" s="568"/>
+      <c r="B68" s="418"/>
       <c r="C68" s="51" t="s">
         <v>129</v>
       </c>
@@ -6700,7 +6753,7 @@
       <c r="A70" s="393">
         <v>1028</v>
       </c>
-      <c r="B70" s="569" t="s">
+      <c r="B70" s="419" t="s">
         <v>130</v>
       </c>
       <c r="C70" s="52" t="s">
@@ -6712,7 +6765,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="393"/>
-      <c r="B71" s="569"/>
+      <c r="B71" s="419"/>
       <c r="C71" s="53" t="s">
         <v>132</v>
       </c>
@@ -6722,7 +6775,7 @@
       <c r="A73" s="393">
         <v>1032</v>
       </c>
-      <c r="B73" s="566" t="s">
+      <c r="B73" s="416" t="s">
         <v>133</v>
       </c>
       <c r="C73" s="54" t="s">
@@ -6734,7 +6787,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="393"/>
-      <c r="B74" s="566"/>
+      <c r="B74" s="416"/>
       <c r="C74" s="55" t="s">
         <v>135</v>
       </c>
@@ -6744,7 +6797,7 @@
       <c r="A76" s="393">
         <v>1033</v>
       </c>
-      <c r="B76" s="567" t="s">
+      <c r="B76" s="417" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="56" t="s">
@@ -6756,7 +6809,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="393"/>
-      <c r="B77" s="567"/>
+      <c r="B77" s="417"/>
       <c r="C77" s="57" t="s">
         <v>138</v>
       </c>
@@ -6766,7 +6819,7 @@
       <c r="A79" s="393">
         <v>1034</v>
       </c>
-      <c r="B79" s="564" t="s">
+      <c r="B79" s="422" t="s">
         <v>139</v>
       </c>
       <c r="C79" s="58" t="s">
@@ -6778,7 +6831,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="393"/>
-      <c r="B80" s="564"/>
+      <c r="B80" s="422"/>
       <c r="C80" s="59" t="s">
         <v>141</v>
       </c>
@@ -6788,7 +6841,7 @@
       <c r="A82" s="393">
         <v>2000</v>
       </c>
-      <c r="B82" s="565" t="s">
+      <c r="B82" s="423" t="s">
         <v>142</v>
       </c>
       <c r="C82" s="60" t="s">
@@ -6800,7 +6853,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="393"/>
-      <c r="B83" s="565"/>
+      <c r="B83" s="423"/>
       <c r="C83" s="61" t="s">
         <v>144</v>
       </c>
@@ -6810,7 +6863,7 @@
       <c r="A85" s="393">
         <v>2001</v>
       </c>
-      <c r="B85" s="562" t="s">
+      <c r="B85" s="420" t="s">
         <v>145</v>
       </c>
       <c r="C85" s="62" t="s">
@@ -6822,7 +6875,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="393"/>
-      <c r="B86" s="562"/>
+      <c r="B86" s="420"/>
       <c r="C86" s="63" t="s">
         <v>147</v>
       </c>
@@ -6832,7 +6885,7 @@
       <c r="A88" s="393">
         <v>2002</v>
       </c>
-      <c r="B88" s="563" t="s">
+      <c r="B88" s="421" t="s">
         <v>148</v>
       </c>
       <c r="C88" s="64" t="s">
@@ -6844,7 +6897,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="393"/>
-      <c r="B89" s="563"/>
+      <c r="B89" s="421"/>
       <c r="C89" s="65" t="s">
         <v>150</v>
       </c>
@@ -6854,7 +6907,7 @@
       <c r="A91" s="393">
         <v>2003</v>
       </c>
-      <c r="B91" s="560" t="s">
+      <c r="B91" s="426" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="66" t="s">
@@ -6866,7 +6919,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="393"/>
-      <c r="B92" s="560"/>
+      <c r="B92" s="426"/>
       <c r="C92" s="67" t="s">
         <v>153</v>
       </c>
@@ -6876,7 +6929,7 @@
       <c r="A94" s="393">
         <v>2004</v>
       </c>
-      <c r="B94" s="561" t="s">
+      <c r="B94" s="427" t="s">
         <v>154</v>
       </c>
       <c r="C94" s="68" t="s">
@@ -6888,7 +6941,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="393"/>
-      <c r="B95" s="561"/>
+      <c r="B95" s="427"/>
       <c r="C95" s="69" t="s">
         <v>156</v>
       </c>
@@ -6898,7 +6951,7 @@
       <c r="A97" s="393">
         <v>2005</v>
       </c>
-      <c r="B97" s="558" t="s">
+      <c r="B97" s="424" t="s">
         <v>157</v>
       </c>
       <c r="C97" s="70" t="s">
@@ -6910,7 +6963,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="393"/>
-      <c r="B98" s="558"/>
+      <c r="B98" s="424"/>
       <c r="C98" s="71" t="s">
         <v>159</v>
       </c>
@@ -6920,7 +6973,7 @@
       <c r="A100" s="393">
         <v>2007</v>
       </c>
-      <c r="B100" s="559" t="s">
+      <c r="B100" s="425" t="s">
         <v>160</v>
       </c>
       <c r="C100" s="72" t="s">
@@ -6932,7 +6985,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="393"/>
-      <c r="B101" s="559"/>
+      <c r="B101" s="425"/>
       <c r="C101" s="73" t="s">
         <v>162</v>
       </c>
@@ -6942,7 +6995,7 @@
       <c r="A103" s="393">
         <v>2008</v>
       </c>
-      <c r="B103" s="556" t="s">
+      <c r="B103" s="430" t="s">
         <v>163</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -6954,7 +7007,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="393"/>
-      <c r="B104" s="556"/>
+      <c r="B104" s="430"/>
       <c r="C104" s="75" t="s">
         <v>165</v>
       </c>
@@ -6964,7 +7017,7 @@
       <c r="A106" s="393">
         <v>2009</v>
       </c>
-      <c r="B106" s="557" t="s">
+      <c r="B106" s="431" t="s">
         <v>166</v>
       </c>
       <c r="C106" s="76" t="s">
@@ -6976,7 +7029,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="393"/>
-      <c r="B107" s="557"/>
+      <c r="B107" s="431"/>
       <c r="C107" s="77" t="s">
         <v>168</v>
       </c>
@@ -6986,7 +7039,7 @@
       <c r="A109" s="393">
         <v>2010</v>
       </c>
-      <c r="B109" s="554" t="s">
+      <c r="B109" s="428" t="s">
         <v>169</v>
       </c>
       <c r="C109" s="78" t="s">
@@ -6998,7 +7051,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="393"/>
-      <c r="B110" s="554"/>
+      <c r="B110" s="428"/>
       <c r="C110" s="79" t="s">
         <v>171</v>
       </c>
@@ -7008,7 +7061,7 @@
       <c r="A112" s="393">
         <v>2011</v>
       </c>
-      <c r="B112" s="555" t="s">
+      <c r="B112" s="429" t="s">
         <v>172</v>
       </c>
       <c r="C112" s="80" t="s">
@@ -7020,7 +7073,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="393"/>
-      <c r="B113" s="555"/>
+      <c r="B113" s="429"/>
       <c r="C113" s="81" t="s">
         <v>174</v>
       </c>
@@ -7030,7 +7083,7 @@
       <c r="A115" s="393">
         <v>2012</v>
       </c>
-      <c r="B115" s="552" t="s">
+      <c r="B115" s="434" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="82" t="s">
@@ -7042,7 +7095,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="393"/>
-      <c r="B116" s="552"/>
+      <c r="B116" s="434"/>
       <c r="C116" s="83" t="s">
         <v>177</v>
       </c>
@@ -7052,7 +7105,7 @@
       <c r="A118" s="393">
         <v>3000</v>
       </c>
-      <c r="B118" s="553" t="s">
+      <c r="B118" s="435" t="s">
         <v>178</v>
       </c>
       <c r="C118" s="84" t="s">
@@ -7064,7 +7117,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="393"/>
-      <c r="B119" s="553"/>
+      <c r="B119" s="435"/>
       <c r="C119" s="85" t="s">
         <v>180</v>
       </c>
@@ -7074,7 +7127,7 @@
       <c r="A121" s="393">
         <v>3001</v>
       </c>
-      <c r="B121" s="550" t="s">
+      <c r="B121" s="432" t="s">
         <v>181</v>
       </c>
       <c r="C121" s="86" t="s">
@@ -7086,7 +7139,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="393"/>
-      <c r="B122" s="550"/>
+      <c r="B122" s="432"/>
       <c r="C122" s="87" t="s">
         <v>183</v>
       </c>
@@ -7096,7 +7149,7 @@
       <c r="A124" s="393">
         <v>3002</v>
       </c>
-      <c r="B124" s="551" t="s">
+      <c r="B124" s="433" t="s">
         <v>184</v>
       </c>
       <c r="C124" s="88" t="s">
@@ -7108,7 +7161,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="393"/>
-      <c r="B125" s="551"/>
+      <c r="B125" s="433"/>
       <c r="C125" s="89" t="s">
         <v>186</v>
       </c>
@@ -7118,7 +7171,7 @@
       <c r="A127" s="393">
         <v>3003</v>
       </c>
-      <c r="B127" s="548" t="s">
+      <c r="B127" s="438" t="s">
         <v>187</v>
       </c>
       <c r="C127" s="90" t="s">
@@ -7130,7 +7183,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="393"/>
-      <c r="B128" s="548"/>
+      <c r="B128" s="438"/>
       <c r="C128" s="91" t="s">
         <v>189</v>
       </c>
@@ -7140,7 +7193,7 @@
       <c r="A130" s="393">
         <v>3004</v>
       </c>
-      <c r="B130" s="549" t="s">
+      <c r="B130" s="439" t="s">
         <v>190</v>
       </c>
       <c r="C130" s="92" t="s">
@@ -7152,7 +7205,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="393"/>
-      <c r="B131" s="549"/>
+      <c r="B131" s="439"/>
       <c r="C131" s="93" t="s">
         <v>192</v>
       </c>
@@ -7162,7 +7215,7 @@
       <c r="A133" s="393">
         <v>3005</v>
       </c>
-      <c r="B133" s="546" t="s">
+      <c r="B133" s="436" t="s">
         <v>193</v>
       </c>
       <c r="C133" s="94" t="s">
@@ -7174,7 +7227,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="393"/>
-      <c r="B134" s="546"/>
+      <c r="B134" s="436"/>
       <c r="C134" s="95" t="s">
         <v>195</v>
       </c>
@@ -7184,7 +7237,7 @@
       <c r="A136" s="393">
         <v>3007</v>
       </c>
-      <c r="B136" s="547" t="s">
+      <c r="B136" s="437" t="s">
         <v>196</v>
       </c>
       <c r="C136" s="96" t="s">
@@ -7196,7 +7249,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="393"/>
-      <c r="B137" s="547"/>
+      <c r="B137" s="437"/>
       <c r="C137" s="97" t="s">
         <v>198</v>
       </c>
@@ -7206,7 +7259,7 @@
       <c r="A139" s="393">
         <v>3009</v>
       </c>
-      <c r="B139" s="544" t="s">
+      <c r="B139" s="442" t="s">
         <v>199</v>
       </c>
       <c r="C139" s="98" t="s">
@@ -7218,7 +7271,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="393"/>
-      <c r="B140" s="544"/>
+      <c r="B140" s="442"/>
       <c r="C140" s="99" t="s">
         <v>201</v>
       </c>
@@ -7228,7 +7281,7 @@
       <c r="A142" s="393">
         <v>3011</v>
       </c>
-      <c r="B142" s="545" t="s">
+      <c r="B142" s="443" t="s">
         <v>202</v>
       </c>
       <c r="C142" s="100" t="s">
@@ -7240,7 +7293,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="393"/>
-      <c r="B143" s="545"/>
+      <c r="B143" s="443"/>
       <c r="C143" s="101" t="s">
         <v>204</v>
       </c>
@@ -7250,7 +7303,7 @@
       <c r="A145" s="393">
         <v>3012</v>
       </c>
-      <c r="B145" s="542" t="s">
+      <c r="B145" s="440" t="s">
         <v>205</v>
       </c>
       <c r="C145" s="102" t="s">
@@ -7262,7 +7315,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="393"/>
-      <c r="B146" s="542"/>
+      <c r="B146" s="440"/>
       <c r="C146" s="103" t="s">
         <v>207</v>
       </c>
@@ -7272,7 +7325,7 @@
       <c r="A148" s="393">
         <v>3013</v>
       </c>
-      <c r="B148" s="543" t="s">
+      <c r="B148" s="441" t="s">
         <v>208</v>
       </c>
       <c r="C148" s="104" t="s">
@@ -7284,7 +7337,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="393"/>
-      <c r="B149" s="543"/>
+      <c r="B149" s="441"/>
       <c r="C149" s="105" t="s">
         <v>210</v>
       </c>
@@ -7294,7 +7347,7 @@
       <c r="A151" s="393">
         <v>3014</v>
       </c>
-      <c r="B151" s="540" t="s">
+      <c r="B151" s="446" t="s">
         <v>211</v>
       </c>
       <c r="C151" s="106" t="s">
@@ -7306,7 +7359,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="393"/>
-      <c r="B152" s="540"/>
+      <c r="B152" s="446"/>
       <c r="C152" s="107" t="s">
         <v>213</v>
       </c>
@@ -7316,7 +7369,7 @@
       <c r="A154" s="393">
         <v>3015</v>
       </c>
-      <c r="B154" s="541" t="s">
+      <c r="B154" s="447" t="s">
         <v>214</v>
       </c>
       <c r="C154" s="108" t="s">
@@ -7328,7 +7381,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="393"/>
-      <c r="B155" s="541"/>
+      <c r="B155" s="447"/>
       <c r="C155" s="109" t="s">
         <v>216</v>
       </c>
@@ -7338,7 +7391,7 @@
       <c r="A157" s="393">
         <v>3016</v>
       </c>
-      <c r="B157" s="538" t="s">
+      <c r="B157" s="444" t="s">
         <v>217</v>
       </c>
       <c r="C157" s="110" t="s">
@@ -7350,7 +7403,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="393"/>
-      <c r="B158" s="538"/>
+      <c r="B158" s="444"/>
       <c r="C158" s="111" t="s">
         <v>219</v>
       </c>
@@ -7360,7 +7413,7 @@
       <c r="A160" s="393">
         <v>3017</v>
       </c>
-      <c r="B160" s="539" t="s">
+      <c r="B160" s="445" t="s">
         <v>220</v>
       </c>
       <c r="C160" s="112" t="s">
@@ -7372,7 +7425,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="393"/>
-      <c r="B161" s="539"/>
+      <c r="B161" s="445"/>
       <c r="C161" s="113" t="s">
         <v>222</v>
       </c>
@@ -7382,7 +7435,7 @@
       <c r="A163" s="393">
         <v>3018</v>
       </c>
-      <c r="B163" s="536" t="s">
+      <c r="B163" s="450" t="s">
         <v>223</v>
       </c>
       <c r="C163" s="114" t="s">
@@ -7394,7 +7447,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="393"/>
-      <c r="B164" s="536"/>
+      <c r="B164" s="450"/>
       <c r="C164" s="115" t="s">
         <v>225</v>
       </c>
@@ -7404,7 +7457,7 @@
       <c r="A166" s="393">
         <v>3020</v>
       </c>
-      <c r="B166" s="537" t="s">
+      <c r="B166" s="451" t="s">
         <v>226</v>
       </c>
       <c r="C166" s="116" t="s">
@@ -7416,7 +7469,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="393"/>
-      <c r="B167" s="537"/>
+      <c r="B167" s="451"/>
       <c r="C167" s="117" t="s">
         <v>228</v>
       </c>
@@ -7426,7 +7479,7 @@
       <c r="A169" s="393">
         <v>3022</v>
       </c>
-      <c r="B169" s="534" t="s">
+      <c r="B169" s="448" t="s">
         <v>229</v>
       </c>
       <c r="C169" s="118" t="s">
@@ -7438,7 +7491,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="393"/>
-      <c r="B170" s="534"/>
+      <c r="B170" s="448"/>
       <c r="C170" s="119" t="s">
         <v>231</v>
       </c>
@@ -7448,7 +7501,7 @@
       <c r="A172" s="393">
         <v>3024</v>
       </c>
-      <c r="B172" s="535" t="s">
+      <c r="B172" s="449" t="s">
         <v>232</v>
       </c>
       <c r="C172" s="120" t="s">
@@ -7460,7 +7513,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="393"/>
-      <c r="B173" s="535"/>
+      <c r="B173" s="449"/>
       <c r="C173" s="121" t="s">
         <v>234</v>
       </c>
@@ -7470,7 +7523,7 @@
       <c r="A175" s="393">
         <v>3026</v>
       </c>
-      <c r="B175" s="532" t="s">
+      <c r="B175" s="454" t="s">
         <v>235</v>
       </c>
       <c r="C175" s="122" t="s">
@@ -7482,7 +7535,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="393"/>
-      <c r="B176" s="532"/>
+      <c r="B176" s="454"/>
       <c r="C176" s="123" t="s">
         <v>237</v>
       </c>
@@ -7492,7 +7545,7 @@
       <c r="A178" s="393">
         <v>3027</v>
       </c>
-      <c r="B178" s="533" t="s">
+      <c r="B178" s="455" t="s">
         <v>238</v>
       </c>
       <c r="C178" s="124" t="s">
@@ -7504,7 +7557,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="393"/>
-      <c r="B179" s="533"/>
+      <c r="B179" s="455"/>
       <c r="C179" s="125" t="s">
         <v>240</v>
       </c>
@@ -7514,7 +7567,7 @@
       <c r="A181" s="393">
         <v>3031</v>
       </c>
-      <c r="B181" s="530" t="s">
+      <c r="B181" s="452" t="s">
         <v>241</v>
       </c>
       <c r="C181" s="126" t="s">
@@ -7526,7 +7579,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="393"/>
-      <c r="B182" s="530"/>
+      <c r="B182" s="452"/>
       <c r="C182" s="127" t="s">
         <v>243</v>
       </c>
@@ -7536,7 +7589,7 @@
       <c r="A184" s="393">
         <v>4001</v>
       </c>
-      <c r="B184" s="531" t="s">
+      <c r="B184" s="453" t="s">
         <v>244</v>
       </c>
       <c r="C184" s="128" t="s">
@@ -7548,7 +7601,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="393"/>
-      <c r="B185" s="531"/>
+      <c r="B185" s="453"/>
       <c r="C185" s="129" t="s">
         <v>246</v>
       </c>
@@ -7558,7 +7611,7 @@
       <c r="A187" s="393">
         <v>4002</v>
       </c>
-      <c r="B187" s="528" t="s">
+      <c r="B187" s="458" t="s">
         <v>247</v>
       </c>
       <c r="C187" s="130" t="s">
@@ -7570,7 +7623,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="393"/>
-      <c r="B188" s="528"/>
+      <c r="B188" s="458"/>
       <c r="C188" s="131" t="s">
         <v>249</v>
       </c>
@@ -7580,7 +7633,7 @@
       <c r="A190" s="393">
         <v>4003</v>
       </c>
-      <c r="B190" s="529" t="s">
+      <c r="B190" s="459" t="s">
         <v>250</v>
       </c>
       <c r="C190" s="132" t="s">
@@ -7592,7 +7645,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="393"/>
-      <c r="B191" s="529"/>
+      <c r="B191" s="459"/>
       <c r="C191" s="133" t="s">
         <v>252</v>
       </c>
@@ -7602,7 +7655,7 @@
       <c r="A193" s="393">
         <v>4004</v>
       </c>
-      <c r="B193" s="526" t="s">
+      <c r="B193" s="456" t="s">
         <v>253</v>
       </c>
       <c r="C193" s="134" t="s">
@@ -7614,7 +7667,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="393"/>
-      <c r="B194" s="526"/>
+      <c r="B194" s="456"/>
       <c r="C194" s="135" t="s">
         <v>255</v>
       </c>
@@ -7624,7 +7677,7 @@
       <c r="A196" s="393">
         <v>4005</v>
       </c>
-      <c r="B196" s="527" t="s">
+      <c r="B196" s="457" t="s">
         <v>256</v>
       </c>
       <c r="C196" s="136" t="s">
@@ -7636,7 +7689,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="393"/>
-      <c r="B197" s="527"/>
+      <c r="B197" s="457"/>
       <c r="C197" s="137" t="s">
         <v>258</v>
       </c>
@@ -7646,7 +7699,7 @@
       <c r="A199" s="393">
         <v>4006</v>
       </c>
-      <c r="B199" s="524" t="s">
+      <c r="B199" s="462" t="s">
         <v>259</v>
       </c>
       <c r="C199" s="138" t="s">
@@ -7658,7 +7711,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="393"/>
-      <c r="B200" s="524"/>
+      <c r="B200" s="462"/>
       <c r="C200" s="139" t="s">
         <v>261</v>
       </c>
@@ -7668,7 +7721,7 @@
       <c r="A202" s="393">
         <v>4007</v>
       </c>
-      <c r="B202" s="525" t="s">
+      <c r="B202" s="463" t="s">
         <v>262</v>
       </c>
       <c r="C202" s="140" t="s">
@@ -7680,7 +7733,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="393"/>
-      <c r="B203" s="525"/>
+      <c r="B203" s="463"/>
       <c r="C203" s="141" t="s">
         <v>264</v>
       </c>
@@ -7690,7 +7743,7 @@
       <c r="A205" s="393">
         <v>4008</v>
       </c>
-      <c r="B205" s="522" t="s">
+      <c r="B205" s="460" t="s">
         <v>265</v>
       </c>
       <c r="C205" s="142" t="s">
@@ -7702,7 +7755,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="393"/>
-      <c r="B206" s="522"/>
+      <c r="B206" s="460"/>
       <c r="C206" s="143" t="s">
         <v>267</v>
       </c>
@@ -7712,7 +7765,7 @@
       <c r="A208" s="393">
         <v>4009</v>
       </c>
-      <c r="B208" s="523" t="s">
+      <c r="B208" s="461" t="s">
         <v>268</v>
       </c>
       <c r="C208" s="144" t="s">
@@ -7724,7 +7777,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="393"/>
-      <c r="B209" s="523"/>
+      <c r="B209" s="461"/>
       <c r="C209" s="145" t="s">
         <v>270</v>
       </c>
@@ -7734,7 +7787,7 @@
       <c r="A211" s="393">
         <v>4010</v>
       </c>
-      <c r="B211" s="520" t="s">
+      <c r="B211" s="466" t="s">
         <v>271</v>
       </c>
       <c r="C211" s="146" t="s">
@@ -7746,7 +7799,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="393"/>
-      <c r="B212" s="520"/>
+      <c r="B212" s="466"/>
       <c r="C212" s="147" t="s">
         <v>273</v>
       </c>
@@ -7756,7 +7809,7 @@
       <c r="A214" s="393">
         <v>5000</v>
       </c>
-      <c r="B214" s="521" t="s">
+      <c r="B214" s="467" t="s">
         <v>274</v>
       </c>
       <c r="C214" s="148" t="s">
@@ -7768,7 +7821,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="393"/>
-      <c r="B215" s="521"/>
+      <c r="B215" s="467"/>
       <c r="C215" s="149" t="s">
         <v>276</v>
       </c>
@@ -7778,7 +7831,7 @@
       <c r="A217" s="393">
         <v>5001</v>
       </c>
-      <c r="B217" s="518" t="s">
+      <c r="B217" s="464" t="s">
         <v>277</v>
       </c>
       <c r="C217" s="150" t="s">
@@ -7790,7 +7843,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="393"/>
-      <c r="B218" s="518"/>
+      <c r="B218" s="464"/>
       <c r="C218" s="151" t="s">
         <v>279</v>
       </c>
@@ -7800,7 +7853,7 @@
       <c r="A220" s="393">
         <v>5002</v>
       </c>
-      <c r="B220" s="519" t="s">
+      <c r="B220" s="465" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="152" t="s">
@@ -7812,7 +7865,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="393"/>
-      <c r="B221" s="519"/>
+      <c r="B221" s="465"/>
       <c r="C221" s="153" t="s">
         <v>282</v>
       </c>
@@ -7822,7 +7875,7 @@
       <c r="A223" s="393">
         <v>5003</v>
       </c>
-      <c r="B223" s="516" t="s">
+      <c r="B223" s="470" t="s">
         <v>283</v>
       </c>
       <c r="C223" s="154" t="s">
@@ -7834,7 +7887,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="393"/>
-      <c r="B224" s="516"/>
+      <c r="B224" s="470"/>
       <c r="C224" s="155" t="s">
         <v>285</v>
       </c>
@@ -7844,7 +7897,7 @@
       <c r="A226" s="393">
         <v>5004</v>
       </c>
-      <c r="B226" s="517" t="s">
+      <c r="B226" s="471" t="s">
         <v>286</v>
       </c>
       <c r="C226" s="156" t="s">
@@ -7856,7 +7909,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="393"/>
-      <c r="B227" s="517"/>
+      <c r="B227" s="471"/>
       <c r="C227" s="157" t="s">
         <v>288</v>
       </c>
@@ -7866,7 +7919,7 @@
       <c r="A229" s="393">
         <v>5005</v>
       </c>
-      <c r="B229" s="514" t="s">
+      <c r="B229" s="468" t="s">
         <v>289</v>
       </c>
       <c r="C229" s="158" t="s">
@@ -7878,7 +7931,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="393"/>
-      <c r="B230" s="514"/>
+      <c r="B230" s="468"/>
       <c r="C230" s="159" t="s">
         <v>291</v>
       </c>
@@ -7888,7 +7941,7 @@
       <c r="A232" s="393">
         <v>5007</v>
       </c>
-      <c r="B232" s="515" t="s">
+      <c r="B232" s="469" t="s">
         <v>292</v>
       </c>
       <c r="C232" s="160" t="s">
@@ -7900,7 +7953,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="393"/>
-      <c r="B233" s="515"/>
+      <c r="B233" s="469"/>
       <c r="C233" s="161" t="s">
         <v>294</v>
       </c>
@@ -7910,7 +7963,7 @@
       <c r="A235" s="393">
         <v>5008</v>
       </c>
-      <c r="B235" s="512" t="s">
+      <c r="B235" s="474" t="s">
         <v>295</v>
       </c>
       <c r="C235" s="162" t="s">
@@ -7922,7 +7975,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="393"/>
-      <c r="B236" s="512"/>
+      <c r="B236" s="474"/>
       <c r="C236" s="163" t="s">
         <v>297</v>
       </c>
@@ -7932,7 +7985,7 @@
       <c r="A238" s="393">
         <v>5009</v>
       </c>
-      <c r="B238" s="513" t="s">
+      <c r="B238" s="475" t="s">
         <v>298</v>
       </c>
       <c r="C238" s="164" t="s">
@@ -7944,7 +7997,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="393"/>
-      <c r="B239" s="513"/>
+      <c r="B239" s="475"/>
       <c r="C239" s="165" t="s">
         <v>300</v>
       </c>
@@ -7954,7 +8007,7 @@
       <c r="A241" s="393">
         <v>5011</v>
       </c>
-      <c r="B241" s="510" t="s">
+      <c r="B241" s="472" t="s">
         <v>301</v>
       </c>
       <c r="C241" s="166" t="s">
@@ -7966,7 +8019,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="393"/>
-      <c r="B242" s="510"/>
+      <c r="B242" s="472"/>
       <c r="C242" s="167" t="s">
         <v>303</v>
       </c>
@@ -7976,7 +8029,7 @@
       <c r="A244" s="393">
         <v>5012</v>
       </c>
-      <c r="B244" s="511" t="s">
+      <c r="B244" s="473" t="s">
         <v>304</v>
       </c>
       <c r="C244" s="168" t="s">
@@ -7988,7 +8041,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="393"/>
-      <c r="B245" s="511"/>
+      <c r="B245" s="473"/>
       <c r="C245" s="169" t="s">
         <v>306</v>
       </c>
@@ -7998,7 +8051,7 @@
       <c r="A247" s="393">
         <v>5013</v>
       </c>
-      <c r="B247" s="508" t="s">
+      <c r="B247" s="478" t="s">
         <v>307</v>
       </c>
       <c r="C247" s="170" t="s">
@@ -8010,7 +8063,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="393"/>
-      <c r="B248" s="508"/>
+      <c r="B248" s="478"/>
       <c r="C248" s="171" t="s">
         <v>309</v>
       </c>
@@ -8020,7 +8073,7 @@
       <c r="A250" s="393">
         <v>5014</v>
       </c>
-      <c r="B250" s="509" t="s">
+      <c r="B250" s="479" t="s">
         <v>310</v>
       </c>
       <c r="C250" s="172" t="s">
@@ -8032,7 +8085,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="393"/>
-      <c r="B251" s="509"/>
+      <c r="B251" s="479"/>
       <c r="C251" s="173" t="s">
         <v>312</v>
       </c>
@@ -8042,7 +8095,7 @@
       <c r="A253" s="393">
         <v>5015</v>
       </c>
-      <c r="B253" s="506" t="s">
+      <c r="B253" s="476" t="s">
         <v>313</v>
       </c>
       <c r="C253" s="174" t="s">
@@ -8054,7 +8107,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="393"/>
-      <c r="B254" s="506"/>
+      <c r="B254" s="476"/>
       <c r="C254" s="175" t="s">
         <v>315</v>
       </c>
@@ -8064,7 +8117,7 @@
       <c r="A256" s="393">
         <v>5017</v>
       </c>
-      <c r="B256" s="507" t="s">
+      <c r="B256" s="477" t="s">
         <v>316</v>
       </c>
       <c r="C256" s="176" t="s">
@@ -8076,7 +8129,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="393"/>
-      <c r="B257" s="507"/>
+      <c r="B257" s="477"/>
       <c r="C257" s="177" t="s">
         <v>318</v>
       </c>
@@ -8086,7 +8139,7 @@
       <c r="A259" s="393">
         <v>5018</v>
       </c>
-      <c r="B259" s="504" t="s">
+      <c r="B259" s="482" t="s">
         <v>319</v>
       </c>
       <c r="C259" s="178" t="s">
@@ -8098,7 +8151,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="393"/>
-      <c r="B260" s="504"/>
+      <c r="B260" s="482"/>
       <c r="C260" s="179" t="s">
         <v>321</v>
       </c>
@@ -8108,7 +8161,7 @@
       <c r="A262" s="393">
         <v>5019</v>
       </c>
-      <c r="B262" s="505" t="s">
+      <c r="B262" s="483" t="s">
         <v>322</v>
       </c>
       <c r="C262" s="180" t="s">
@@ -8120,7 +8173,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="393"/>
-      <c r="B263" s="505"/>
+      <c r="B263" s="483"/>
       <c r="C263" s="181" t="s">
         <v>324</v>
       </c>
@@ -8130,7 +8183,7 @@
       <c r="A265" s="393">
         <v>5020</v>
       </c>
-      <c r="B265" s="502" t="s">
+      <c r="B265" s="480" t="s">
         <v>301</v>
       </c>
       <c r="C265" s="182" t="s">
@@ -8142,7 +8195,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="393"/>
-      <c r="B266" s="502"/>
+      <c r="B266" s="480"/>
       <c r="C266" s="183" t="s">
         <v>326</v>
       </c>
@@ -8152,7 +8205,7 @@
       <c r="A268" s="393">
         <v>5021</v>
       </c>
-      <c r="B268" s="503" t="s">
+      <c r="B268" s="481" t="s">
         <v>327</v>
       </c>
       <c r="C268" s="184" t="s">
@@ -8164,7 +8217,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="393"/>
-      <c r="B269" s="503"/>
+      <c r="B269" s="481"/>
       <c r="C269" s="185" t="s">
         <v>329</v>
       </c>
@@ -8174,7 +8227,7 @@
       <c r="A271" s="393">
         <v>5022</v>
       </c>
-      <c r="B271" s="500" t="s">
+      <c r="B271" s="486" t="s">
         <v>330</v>
       </c>
       <c r="C271" s="186" t="s">
@@ -8186,7 +8239,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="393"/>
-      <c r="B272" s="500"/>
+      <c r="B272" s="486"/>
       <c r="C272" s="187" t="s">
         <v>332</v>
       </c>
@@ -8196,7 +8249,7 @@
       <c r="A274" s="393">
         <v>5023</v>
       </c>
-      <c r="B274" s="501" t="s">
+      <c r="B274" s="487" t="s">
         <v>333</v>
       </c>
       <c r="C274" s="188" t="s">
@@ -8208,7 +8261,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="393"/>
-      <c r="B275" s="501"/>
+      <c r="B275" s="487"/>
       <c r="C275" s="189" t="s">
         <v>335</v>
       </c>
@@ -8218,7 +8271,7 @@
       <c r="A277" s="393">
         <v>5024</v>
       </c>
-      <c r="B277" s="498" t="s">
+      <c r="B277" s="484" t="s">
         <v>336</v>
       </c>
       <c r="C277" s="190" t="s">
@@ -8230,7 +8283,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="393"/>
-      <c r="B278" s="498"/>
+      <c r="B278" s="484"/>
       <c r="C278" s="191" t="s">
         <v>338</v>
       </c>
@@ -8240,7 +8293,7 @@
       <c r="A280" s="393">
         <v>6000</v>
       </c>
-      <c r="B280" s="499" t="s">
+      <c r="B280" s="485" t="s">
         <v>339</v>
       </c>
       <c r="C280" s="192" t="s">
@@ -8252,7 +8305,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="393"/>
-      <c r="B281" s="499"/>
+      <c r="B281" s="485"/>
       <c r="C281" s="193" t="s">
         <v>341</v>
       </c>
@@ -8262,7 +8315,7 @@
       <c r="A283" s="393">
         <v>6001</v>
       </c>
-      <c r="B283" s="496" t="s">
+      <c r="B283" s="490" t="s">
         <v>342</v>
       </c>
       <c r="C283" s="194" t="s">
@@ -8274,7 +8327,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="393"/>
-      <c r="B284" s="496"/>
+      <c r="B284" s="490"/>
       <c r="C284" s="195" t="s">
         <v>344</v>
       </c>
@@ -8284,7 +8337,7 @@
       <c r="A286" s="393">
         <v>6002</v>
       </c>
-      <c r="B286" s="497" t="s">
+      <c r="B286" s="491" t="s">
         <v>345</v>
       </c>
       <c r="C286" s="196" t="s">
@@ -8296,7 +8349,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="393"/>
-      <c r="B287" s="497"/>
+      <c r="B287" s="491"/>
       <c r="C287" s="197" t="s">
         <v>347</v>
       </c>
@@ -8306,7 +8359,7 @@
       <c r="A289" s="393">
         <v>6003</v>
       </c>
-      <c r="B289" s="494" t="s">
+      <c r="B289" s="488" t="s">
         <v>348</v>
       </c>
       <c r="C289" s="198" t="s">
@@ -8318,7 +8371,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="393"/>
-      <c r="B290" s="494"/>
+      <c r="B290" s="488"/>
       <c r="C290" s="199" t="s">
         <v>350</v>
       </c>
@@ -8328,7 +8381,7 @@
       <c r="A292" s="393">
         <v>6004</v>
       </c>
-      <c r="B292" s="495" t="s">
+      <c r="B292" s="489" t="s">
         <v>351</v>
       </c>
       <c r="C292" s="200" t="s">
@@ -8340,7 +8393,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="393"/>
-      <c r="B293" s="495"/>
+      <c r="B293" s="489"/>
       <c r="C293" s="201" t="s">
         <v>353</v>
       </c>
@@ -8350,7 +8403,7 @@
       <c r="A295" s="393">
         <v>6005</v>
       </c>
-      <c r="B295" s="492" t="s">
+      <c r="B295" s="494" t="s">
         <v>354</v>
       </c>
       <c r="C295" s="202" t="s">
@@ -8362,7 +8415,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="393"/>
-      <c r="B296" s="492"/>
+      <c r="B296" s="494"/>
       <c r="C296" s="203" t="s">
         <v>356</v>
       </c>
@@ -8372,7 +8425,7 @@
       <c r="A298" s="393">
         <v>6006</v>
       </c>
-      <c r="B298" s="493" t="s">
+      <c r="B298" s="495" t="s">
         <v>357</v>
       </c>
       <c r="C298" s="204" t="s">
@@ -8384,7 +8437,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="393"/>
-      <c r="B299" s="493"/>
+      <c r="B299" s="495"/>
       <c r="C299" s="205" t="s">
         <v>359</v>
       </c>
@@ -8394,7 +8447,7 @@
       <c r="A301" s="393">
         <v>6007</v>
       </c>
-      <c r="B301" s="490" t="s">
+      <c r="B301" s="492" t="s">
         <v>360</v>
       </c>
       <c r="C301" s="206" t="s">
@@ -8406,7 +8459,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="393"/>
-      <c r="B302" s="490"/>
+      <c r="B302" s="492"/>
       <c r="C302" s="207" t="s">
         <v>362</v>
       </c>
@@ -8416,7 +8469,7 @@
       <c r="A304" s="393">
         <v>6008</v>
       </c>
-      <c r="B304" s="491" t="s">
+      <c r="B304" s="493" t="s">
         <v>363</v>
       </c>
       <c r="C304" s="208" t="s">
@@ -8428,7 +8481,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="393"/>
-      <c r="B305" s="491"/>
+      <c r="B305" s="493"/>
       <c r="C305" s="209" t="s">
         <v>365</v>
       </c>
@@ -8438,7 +8491,7 @@
       <c r="A307" s="393">
         <v>6009</v>
       </c>
-      <c r="B307" s="488" t="s">
+      <c r="B307" s="498" t="s">
         <v>366</v>
       </c>
       <c r="C307" s="210" t="s">
@@ -8450,7 +8503,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="393"/>
-      <c r="B308" s="488"/>
+      <c r="B308" s="498"/>
       <c r="C308" s="211" t="s">
         <v>368</v>
       </c>
@@ -8460,7 +8513,7 @@
       <c r="A310" s="393">
         <v>6010</v>
       </c>
-      <c r="B310" s="489" t="s">
+      <c r="B310" s="499" t="s">
         <v>369</v>
       </c>
       <c r="C310" s="212" t="s">
@@ -8472,7 +8525,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="393"/>
-      <c r="B311" s="489"/>
+      <c r="B311" s="499"/>
       <c r="C311" s="213" t="s">
         <v>371</v>
       </c>
@@ -8482,7 +8535,7 @@
       <c r="A313" s="393">
         <v>6011</v>
       </c>
-      <c r="B313" s="486" t="s">
+      <c r="B313" s="496" t="s">
         <v>372</v>
       </c>
       <c r="C313" s="214" t="s">
@@ -8494,7 +8547,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="393"/>
-      <c r="B314" s="486"/>
+      <c r="B314" s="496"/>
       <c r="C314" s="215" t="s">
         <v>374</v>
       </c>
@@ -8504,7 +8557,7 @@
       <c r="A316" s="393">
         <v>6012</v>
       </c>
-      <c r="B316" s="487" t="s">
+      <c r="B316" s="497" t="s">
         <v>375</v>
       </c>
       <c r="C316" s="216" t="s">
@@ -8516,7 +8569,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="393"/>
-      <c r="B317" s="487"/>
+      <c r="B317" s="497"/>
       <c r="C317" s="217" t="s">
         <v>377</v>
       </c>
@@ -8526,7 +8579,7 @@
       <c r="A319" s="393">
         <v>6013</v>
       </c>
-      <c r="B319" s="484" t="s">
+      <c r="B319" s="502" t="s">
         <v>378</v>
       </c>
       <c r="C319" s="218" t="s">
@@ -8538,7 +8591,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="393"/>
-      <c r="B320" s="484"/>
+      <c r="B320" s="502"/>
       <c r="C320" s="219" t="s">
         <v>380</v>
       </c>
@@ -8548,7 +8601,7 @@
       <c r="A322" s="393">
         <v>6014</v>
       </c>
-      <c r="B322" s="485" t="s">
+      <c r="B322" s="503" t="s">
         <v>381</v>
       </c>
       <c r="C322" s="220" t="s">
@@ -8560,7 +8613,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="393"/>
-      <c r="B323" s="485"/>
+      <c r="B323" s="503"/>
       <c r="C323" s="221" t="s">
         <v>383</v>
       </c>
@@ -8570,7 +8623,7 @@
       <c r="A325" s="393">
         <v>6015</v>
       </c>
-      <c r="B325" s="482" t="s">
+      <c r="B325" s="500" t="s">
         <v>384</v>
       </c>
       <c r="C325" s="222" t="s">
@@ -8582,7 +8635,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="393"/>
-      <c r="B326" s="482"/>
+      <c r="B326" s="500"/>
       <c r="C326" s="223" t="s">
         <v>386</v>
       </c>
@@ -8592,7 +8645,7 @@
       <c r="A328" s="393">
         <v>6016</v>
       </c>
-      <c r="B328" s="483" t="s">
+      <c r="B328" s="501" t="s">
         <v>387</v>
       </c>
       <c r="C328" s="224" t="s">
@@ -8604,7 +8657,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="393"/>
-      <c r="B329" s="483"/>
+      <c r="B329" s="501"/>
       <c r="C329" s="225" t="s">
         <v>389</v>
       </c>
@@ -8614,7 +8667,7 @@
       <c r="A331" s="393">
         <v>6017</v>
       </c>
-      <c r="B331" s="480" t="s">
+      <c r="B331" s="506" t="s">
         <v>390</v>
       </c>
       <c r="C331" s="226" t="s">
@@ -8626,7 +8679,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="393"/>
-      <c r="B332" s="480"/>
+      <c r="B332" s="506"/>
       <c r="C332" s="227" t="s">
         <v>392</v>
       </c>
@@ -8636,7 +8689,7 @@
       <c r="A334" s="393">
         <v>6018</v>
       </c>
-      <c r="B334" s="481" t="s">
+      <c r="B334" s="507" t="s">
         <v>393</v>
       </c>
       <c r="C334" s="228" t="s">
@@ -8648,7 +8701,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="393"/>
-      <c r="B335" s="481"/>
+      <c r="B335" s="507"/>
       <c r="C335" s="229" t="s">
         <v>395</v>
       </c>
@@ -8658,7 +8711,7 @@
       <c r="A337" s="393">
         <v>6019</v>
       </c>
-      <c r="B337" s="478" t="s">
+      <c r="B337" s="504" t="s">
         <v>396</v>
       </c>
       <c r="C337" s="230" t="s">
@@ -8670,7 +8723,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="393"/>
-      <c r="B338" s="478"/>
+      <c r="B338" s="504"/>
       <c r="C338" s="231" t="s">
         <v>398</v>
       </c>
@@ -8680,7 +8733,7 @@
       <c r="A340" s="393">
         <v>6020</v>
       </c>
-      <c r="B340" s="479" t="s">
+      <c r="B340" s="505" t="s">
         <v>399</v>
       </c>
       <c r="C340" s="232" t="s">
@@ -8692,7 +8745,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="393"/>
-      <c r="B341" s="479"/>
+      <c r="B341" s="505"/>
       <c r="C341" s="233" t="s">
         <v>401</v>
       </c>
@@ -8702,7 +8755,7 @@
       <c r="A343" s="393">
         <v>6021</v>
       </c>
-      <c r="B343" s="476" t="s">
+      <c r="B343" s="510" t="s">
         <v>402</v>
       </c>
       <c r="C343" s="234" t="s">
@@ -8714,7 +8767,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="393"/>
-      <c r="B344" s="476"/>
+      <c r="B344" s="510"/>
       <c r="C344" s="235" t="s">
         <v>404</v>
       </c>
@@ -8724,7 +8777,7 @@
       <c r="A346" s="393">
         <v>6022</v>
       </c>
-      <c r="B346" s="477" t="s">
+      <c r="B346" s="511" t="s">
         <v>405</v>
       </c>
       <c r="C346" s="236" t="s">
@@ -8736,7 +8789,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="393"/>
-      <c r="B347" s="477"/>
+      <c r="B347" s="511"/>
       <c r="C347" s="237" t="s">
         <v>407</v>
       </c>
@@ -8746,7 +8799,7 @@
       <c r="A349" s="393">
         <v>6024</v>
       </c>
-      <c r="B349" s="474" t="s">
+      <c r="B349" s="508" t="s">
         <v>408</v>
       </c>
       <c r="C349" s="238" t="s">
@@ -8758,7 +8811,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="393"/>
-      <c r="B350" s="474"/>
+      <c r="B350" s="508"/>
       <c r="C350" s="239" t="s">
         <v>410</v>
       </c>
@@ -8768,7 +8821,7 @@
       <c r="A352" s="393">
         <v>6025</v>
       </c>
-      <c r="B352" s="475" t="s">
+      <c r="B352" s="509" t="s">
         <v>411</v>
       </c>
       <c r="C352" s="240" t="s">
@@ -8780,7 +8833,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="393"/>
-      <c r="B353" s="475"/>
+      <c r="B353" s="509"/>
       <c r="C353" s="241" t="s">
         <v>413</v>
       </c>
@@ -8790,7 +8843,7 @@
       <c r="A355" s="393">
         <v>6026</v>
       </c>
-      <c r="B355" s="472" t="s">
+      <c r="B355" s="514" t="s">
         <v>414</v>
       </c>
       <c r="C355" s="242" t="s">
@@ -8802,7 +8855,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="393"/>
-      <c r="B356" s="472"/>
+      <c r="B356" s="514"/>
       <c r="C356" s="243" t="s">
         <v>416</v>
       </c>
@@ -8812,7 +8865,7 @@
       <c r="A358" s="393">
         <v>6027</v>
       </c>
-      <c r="B358" s="473" t="s">
+      <c r="B358" s="515" t="s">
         <v>417</v>
       </c>
       <c r="C358" s="244" t="s">
@@ -8824,7 +8877,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="393"/>
-      <c r="B359" s="473"/>
+      <c r="B359" s="515"/>
       <c r="C359" s="245" t="s">
         <v>419</v>
       </c>
@@ -8834,7 +8887,7 @@
       <c r="A361" s="393">
         <v>6028</v>
       </c>
-      <c r="B361" s="470" t="s">
+      <c r="B361" s="512" t="s">
         <v>420</v>
       </c>
       <c r="C361" s="246" t="s">
@@ -8846,7 +8899,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="393"/>
-      <c r="B362" s="470"/>
+      <c r="B362" s="512"/>
       <c r="C362" s="247" t="s">
         <v>422</v>
       </c>
@@ -8856,7 +8909,7 @@
       <c r="A364" s="393">
         <v>6029</v>
       </c>
-      <c r="B364" s="471" t="s">
+      <c r="B364" s="513" t="s">
         <v>423</v>
       </c>
       <c r="C364" s="248" t="s">
@@ -8868,7 +8921,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="393"/>
-      <c r="B365" s="471"/>
+      <c r="B365" s="513"/>
       <c r="C365" s="249" t="s">
         <v>425</v>
       </c>
@@ -8878,7 +8931,7 @@
       <c r="A367" s="393">
         <v>6032</v>
       </c>
-      <c r="B367" s="468" t="s">
+      <c r="B367" s="518" t="s">
         <v>426</v>
       </c>
       <c r="C367" s="250" t="s">
@@ -8890,7 +8943,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="393"/>
-      <c r="B368" s="468"/>
+      <c r="B368" s="518"/>
       <c r="C368" s="251" t="s">
         <v>428</v>
       </c>
@@ -8900,7 +8953,7 @@
       <c r="A370" s="393">
         <v>6033</v>
       </c>
-      <c r="B370" s="469" t="s">
+      <c r="B370" s="519" t="s">
         <v>429</v>
       </c>
       <c r="C370" s="252" t="s">
@@ -8912,7 +8965,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="393"/>
-      <c r="B371" s="469"/>
+      <c r="B371" s="519"/>
       <c r="C371" s="253" t="s">
         <v>431</v>
       </c>
@@ -8922,7 +8975,7 @@
       <c r="A373" s="393">
         <v>6034</v>
       </c>
-      <c r="B373" s="466" t="s">
+      <c r="B373" s="516" t="s">
         <v>432</v>
       </c>
       <c r="C373" s="254" t="s">
@@ -8934,7 +8987,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="393"/>
-      <c r="B374" s="466"/>
+      <c r="B374" s="516"/>
       <c r="C374" s="255" t="s">
         <v>434</v>
       </c>
@@ -8944,7 +8997,7 @@
       <c r="A376" s="393">
         <v>7000</v>
       </c>
-      <c r="B376" s="467" t="s">
+      <c r="B376" s="517" t="s">
         <v>435</v>
       </c>
       <c r="C376" s="256" t="s">
@@ -8956,7 +9009,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="393"/>
-      <c r="B377" s="467"/>
+      <c r="B377" s="517"/>
       <c r="C377" s="257" t="s">
         <v>437</v>
       </c>
@@ -8966,7 +9019,7 @@
       <c r="A379" s="393">
         <v>7001</v>
       </c>
-      <c r="B379" s="464" t="s">
+      <c r="B379" s="522" t="s">
         <v>438</v>
       </c>
       <c r="C379" s="258" t="s">
@@ -8978,7 +9031,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="393"/>
-      <c r="B380" s="464"/>
+      <c r="B380" s="522"/>
       <c r="C380" s="259" t="s">
         <v>440</v>
       </c>
@@ -8988,7 +9041,7 @@
       <c r="A382" s="393">
         <v>7002</v>
       </c>
-      <c r="B382" s="465" t="s">
+      <c r="B382" s="523" t="s">
         <v>441</v>
       </c>
       <c r="C382" s="260" t="s">
@@ -9000,7 +9053,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="393"/>
-      <c r="B383" s="465"/>
+      <c r="B383" s="523"/>
       <c r="C383" s="261" t="s">
         <v>443</v>
       </c>
@@ -9010,7 +9063,7 @@
       <c r="A385" s="393">
         <v>7003</v>
       </c>
-      <c r="B385" s="462" t="s">
+      <c r="B385" s="520" t="s">
         <v>444</v>
       </c>
       <c r="C385" s="262" t="s">
@@ -9022,7 +9075,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="393"/>
-      <c r="B386" s="462"/>
+      <c r="B386" s="520"/>
       <c r="C386" s="263" t="s">
         <v>446</v>
       </c>
@@ -9032,7 +9085,7 @@
       <c r="A388" s="393">
         <v>7004</v>
       </c>
-      <c r="B388" s="463" t="s">
+      <c r="B388" s="521" t="s">
         <v>447</v>
       </c>
       <c r="C388" s="264" t="s">
@@ -9044,7 +9097,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="393"/>
-      <c r="B389" s="463"/>
+      <c r="B389" s="521"/>
       <c r="C389" s="265" t="s">
         <v>449</v>
       </c>
@@ -9054,7 +9107,7 @@
       <c r="A391" s="393">
         <v>7005</v>
       </c>
-      <c r="B391" s="460" t="s">
+      <c r="B391" s="526" t="s">
         <v>450</v>
       </c>
       <c r="C391" s="266" t="s">
@@ -9066,7 +9119,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="393"/>
-      <c r="B392" s="460"/>
+      <c r="B392" s="526"/>
       <c r="C392" s="267" t="s">
         <v>452</v>
       </c>
@@ -9076,7 +9129,7 @@
       <c r="A394" s="393">
         <v>7006</v>
       </c>
-      <c r="B394" s="461" t="s">
+      <c r="B394" s="527" t="s">
         <v>453</v>
       </c>
       <c r="C394" s="268" t="s">
@@ -9088,7 +9141,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="393"/>
-      <c r="B395" s="461"/>
+      <c r="B395" s="527"/>
       <c r="C395" s="269" t="s">
         <v>455</v>
       </c>
@@ -9098,7 +9151,7 @@
       <c r="A397" s="393">
         <v>7008</v>
       </c>
-      <c r="B397" s="458" t="s">
+      <c r="B397" s="524" t="s">
         <v>456</v>
       </c>
       <c r="C397" s="270" t="s">
@@ -9110,7 +9163,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="393"/>
-      <c r="B398" s="458"/>
+      <c r="B398" s="524"/>
       <c r="C398" s="271" t="s">
         <v>458</v>
       </c>
@@ -9120,7 +9173,7 @@
       <c r="A400" s="393">
         <v>7009</v>
       </c>
-      <c r="B400" s="459" t="s">
+      <c r="B400" s="525" t="s">
         <v>459</v>
       </c>
       <c r="C400" s="272" t="s">
@@ -9132,7 +9185,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="393"/>
-      <c r="B401" s="459"/>
+      <c r="B401" s="525"/>
       <c r="C401" s="273" t="s">
         <v>461</v>
       </c>
@@ -9142,7 +9195,7 @@
       <c r="A403" s="393">
         <v>7010</v>
       </c>
-      <c r="B403" s="456" t="s">
+      <c r="B403" s="530" t="s">
         <v>462</v>
       </c>
       <c r="C403" s="274" t="s">
@@ -9154,7 +9207,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="393"/>
-      <c r="B404" s="456"/>
+      <c r="B404" s="530"/>
       <c r="C404" s="275" t="s">
         <v>464</v>
       </c>
@@ -9164,7 +9217,7 @@
       <c r="A406" s="393">
         <v>7011</v>
       </c>
-      <c r="B406" s="457" t="s">
+      <c r="B406" s="531" t="s">
         <v>465</v>
       </c>
       <c r="C406" s="276" t="s">
@@ -9176,7 +9229,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="393"/>
-      <c r="B407" s="457"/>
+      <c r="B407" s="531"/>
       <c r="C407" s="277" t="s">
         <v>467</v>
       </c>
@@ -9186,7 +9239,7 @@
       <c r="A409" s="393">
         <v>7012</v>
       </c>
-      <c r="B409" s="454" t="s">
+      <c r="B409" s="528" t="s">
         <v>468</v>
       </c>
       <c r="C409" s="278" t="s">
@@ -9198,7 +9251,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="393"/>
-      <c r="B410" s="454"/>
+      <c r="B410" s="528"/>
       <c r="C410" s="279" t="s">
         <v>470</v>
       </c>
@@ -9208,7 +9261,7 @@
       <c r="A412" s="393">
         <v>7013</v>
       </c>
-      <c r="B412" s="455" t="s">
+      <c r="B412" s="529" t="s">
         <v>471</v>
       </c>
       <c r="C412" s="280" t="s">
@@ -9220,7 +9273,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="393"/>
-      <c r="B413" s="455"/>
+      <c r="B413" s="529"/>
       <c r="C413" s="281" t="s">
         <v>473</v>
       </c>
@@ -9230,7 +9283,7 @@
       <c r="A415" s="393">
         <v>7015</v>
       </c>
-      <c r="B415" s="452" t="s">
+      <c r="B415" s="534" t="s">
         <v>474</v>
       </c>
       <c r="C415" s="282" t="s">
@@ -9242,7 +9295,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="393"/>
-      <c r="B416" s="452"/>
+      <c r="B416" s="534"/>
       <c r="C416" s="283" t="s">
         <v>476</v>
       </c>
@@ -9252,7 +9305,7 @@
       <c r="A418" s="393">
         <v>7016</v>
       </c>
-      <c r="B418" s="453" t="s">
+      <c r="B418" s="535" t="s">
         <v>477</v>
       </c>
       <c r="C418" s="284" t="s">
@@ -9264,7 +9317,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="393"/>
-      <c r="B419" s="453"/>
+      <c r="B419" s="535"/>
       <c r="C419" s="285" t="s">
         <v>479</v>
       </c>
@@ -9274,7 +9327,7 @@
       <c r="A421" s="393">
         <v>7021</v>
       </c>
-      <c r="B421" s="450" t="s">
+      <c r="B421" s="532" t="s">
         <v>480</v>
       </c>
       <c r="C421" s="286" t="s">
@@ -9286,7 +9339,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="393"/>
-      <c r="B422" s="450"/>
+      <c r="B422" s="532"/>
       <c r="C422" s="287" t="s">
         <v>482</v>
       </c>
@@ -9296,7 +9349,7 @@
       <c r="A424" s="393">
         <v>7022</v>
       </c>
-      <c r="B424" s="451" t="s">
+      <c r="B424" s="533" t="s">
         <v>483</v>
       </c>
       <c r="C424" s="288" t="s">
@@ -9308,7 +9361,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="393"/>
-      <c r="B425" s="451"/>
+      <c r="B425" s="533"/>
       <c r="C425" s="289" t="s">
         <v>485</v>
       </c>
@@ -9318,7 +9371,7 @@
       <c r="A427" s="393">
         <v>7023</v>
       </c>
-      <c r="B427" s="448" t="s">
+      <c r="B427" s="538" t="s">
         <v>486</v>
       </c>
       <c r="C427" s="290" t="s">
@@ -9330,7 +9383,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="393"/>
-      <c r="B428" s="448"/>
+      <c r="B428" s="538"/>
       <c r="C428" s="291" t="s">
         <v>488</v>
       </c>
@@ -9340,7 +9393,7 @@
       <c r="A430" s="393">
         <v>7024</v>
       </c>
-      <c r="B430" s="449" t="s">
+      <c r="B430" s="539" t="s">
         <v>489</v>
       </c>
       <c r="C430" s="292" t="s">
@@ -9352,7 +9405,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="393"/>
-      <c r="B431" s="449"/>
+      <c r="B431" s="539"/>
       <c r="C431" s="293" t="s">
         <v>491</v>
       </c>
@@ -9362,7 +9415,7 @@
       <c r="A433" s="393">
         <v>7026</v>
       </c>
-      <c r="B433" s="446" t="s">
+      <c r="B433" s="536" t="s">
         <v>492</v>
       </c>
       <c r="C433" s="294" t="s">
@@ -9374,7 +9427,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="393"/>
-      <c r="B434" s="446"/>
+      <c r="B434" s="536"/>
       <c r="C434" s="295" t="s">
         <v>494</v>
       </c>
@@ -9384,7 +9437,7 @@
       <c r="A436" s="393">
         <v>7030</v>
       </c>
-      <c r="B436" s="447" t="s">
+      <c r="B436" s="537" t="s">
         <v>495</v>
       </c>
       <c r="C436" s="296" t="s">
@@ -9396,7 +9449,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="393"/>
-      <c r="B437" s="447"/>
+      <c r="B437" s="537"/>
       <c r="C437" s="297" t="s">
         <v>497</v>
       </c>
@@ -9406,7 +9459,7 @@
       <c r="A439" s="393">
         <v>7031</v>
       </c>
-      <c r="B439" s="444" t="s">
+      <c r="B439" s="542" t="s">
         <v>498</v>
       </c>
       <c r="C439" s="298" t="s">
@@ -9418,7 +9471,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="393"/>
-      <c r="B440" s="444"/>
+      <c r="B440" s="542"/>
       <c r="C440" s="299" t="s">
         <v>500</v>
       </c>
@@ -9428,7 +9481,7 @@
       <c r="A442" s="393">
         <v>7032</v>
       </c>
-      <c r="B442" s="445" t="s">
+      <c r="B442" s="543" t="s">
         <v>501</v>
       </c>
       <c r="C442" s="300" t="s">
@@ -9440,7 +9493,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="393"/>
-      <c r="B443" s="445"/>
+      <c r="B443" s="543"/>
       <c r="C443" s="301" t="s">
         <v>503</v>
       </c>
@@ -9450,7 +9503,7 @@
       <c r="A445" s="393">
         <v>7033</v>
       </c>
-      <c r="B445" s="442" t="s">
+      <c r="B445" s="540" t="s">
         <v>504</v>
       </c>
       <c r="C445" s="302" t="s">
@@ -9462,7 +9515,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="393"/>
-      <c r="B446" s="442"/>
+      <c r="B446" s="540"/>
       <c r="C446" s="303" t="s">
         <v>506</v>
       </c>
@@ -9472,7 +9525,7 @@
       <c r="A448" s="393">
         <v>7034</v>
       </c>
-      <c r="B448" s="443" t="s">
+      <c r="B448" s="541" t="s">
         <v>507</v>
       </c>
       <c r="C448" s="304" t="s">
@@ -9484,7 +9537,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="393"/>
-      <c r="B449" s="443"/>
+      <c r="B449" s="541"/>
       <c r="C449" s="305" t="s">
         <v>509</v>
       </c>
@@ -9494,7 +9547,7 @@
       <c r="A451" s="393">
         <v>7035</v>
       </c>
-      <c r="B451" s="440" t="s">
+      <c r="B451" s="546" t="s">
         <v>510</v>
       </c>
       <c r="C451" s="306" t="s">
@@ -9506,7 +9559,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="393"/>
-      <c r="B452" s="440"/>
+      <c r="B452" s="546"/>
       <c r="C452" s="307" t="s">
         <v>512</v>
       </c>
@@ -9516,7 +9569,7 @@
       <c r="A454" s="393">
         <v>7036</v>
       </c>
-      <c r="B454" s="441" t="s">
+      <c r="B454" s="547" t="s">
         <v>513</v>
       </c>
       <c r="C454" s="308" t="s">
@@ -9528,7 +9581,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="393"/>
-      <c r="B455" s="441"/>
+      <c r="B455" s="547"/>
       <c r="C455" s="309" t="s">
         <v>515</v>
       </c>
@@ -9538,7 +9591,7 @@
       <c r="A457" s="393">
         <v>7037</v>
       </c>
-      <c r="B457" s="438" t="s">
+      <c r="B457" s="544" t="s">
         <v>516</v>
       </c>
       <c r="C457" s="310" t="s">
@@ -9550,7 +9603,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="393"/>
-      <c r="B458" s="438"/>
+      <c r="B458" s="544"/>
       <c r="C458" s="311" t="s">
         <v>518</v>
       </c>
@@ -9560,7 +9613,7 @@
       <c r="A460" s="393">
         <v>7038</v>
       </c>
-      <c r="B460" s="439" t="s">
+      <c r="B460" s="545" t="s">
         <v>519</v>
       </c>
       <c r="C460" s="312" t="s">
@@ -9572,7 +9625,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="393"/>
-      <c r="B461" s="439"/>
+      <c r="B461" s="545"/>
       <c r="C461" s="313" t="s">
         <v>521</v>
       </c>
@@ -9582,7 +9635,7 @@
       <c r="A463" s="393">
         <v>7039</v>
       </c>
-      <c r="B463" s="436" t="s">
+      <c r="B463" s="550" t="s">
         <v>522</v>
       </c>
       <c r="C463" s="314" t="s">
@@ -9594,7 +9647,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="393"/>
-      <c r="B464" s="436"/>
+      <c r="B464" s="550"/>
       <c r="C464" s="315" t="s">
         <v>524</v>
       </c>
@@ -9604,7 +9657,7 @@
       <c r="A466" s="393">
         <v>7040</v>
       </c>
-      <c r="B466" s="437" t="s">
+      <c r="B466" s="551" t="s">
         <v>525</v>
       </c>
       <c r="C466" s="316" t="s">
@@ -9616,7 +9669,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="393"/>
-      <c r="B467" s="437"/>
+      <c r="B467" s="551"/>
       <c r="C467" s="317" t="s">
         <v>527</v>
       </c>
@@ -9626,7 +9679,7 @@
       <c r="A469" s="393">
         <v>7042</v>
       </c>
-      <c r="B469" s="434" t="s">
+      <c r="B469" s="548" t="s">
         <v>528</v>
       </c>
       <c r="C469" s="318" t="s">
@@ -9638,7 +9691,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="393"/>
-      <c r="B470" s="434"/>
+      <c r="B470" s="548"/>
       <c r="C470" s="319" t="s">
         <v>530</v>
       </c>
@@ -9648,7 +9701,7 @@
       <c r="A472" s="393">
         <v>7043</v>
       </c>
-      <c r="B472" s="435" t="s">
+      <c r="B472" s="549" t="s">
         <v>531</v>
       </c>
       <c r="C472" s="320" t="s">
@@ -9660,7 +9713,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="393"/>
-      <c r="B473" s="435"/>
+      <c r="B473" s="549"/>
       <c r="C473" s="321" t="s">
         <v>533</v>
       </c>
@@ -9670,7 +9723,7 @@
       <c r="A475" s="393">
         <v>7044</v>
       </c>
-      <c r="B475" s="432" t="s">
+      <c r="B475" s="554" t="s">
         <v>534</v>
       </c>
       <c r="C475" s="322" t="s">
@@ -9682,7 +9735,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="393"/>
-      <c r="B476" s="432"/>
+      <c r="B476" s="554"/>
       <c r="C476" s="323" t="s">
         <v>536</v>
       </c>
@@ -9692,7 +9745,7 @@
       <c r="A478" s="393">
         <v>7045</v>
       </c>
-      <c r="B478" s="433" t="s">
+      <c r="B478" s="555" t="s">
         <v>537</v>
       </c>
       <c r="C478" s="324" t="s">
@@ -9704,7 +9757,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="393"/>
-      <c r="B479" s="433"/>
+      <c r="B479" s="555"/>
       <c r="C479" s="325" t="s">
         <v>539</v>
       </c>
@@ -9714,7 +9767,7 @@
       <c r="A481" s="393">
         <v>7046</v>
       </c>
-      <c r="B481" s="430" t="s">
+      <c r="B481" s="552" t="s">
         <v>540</v>
       </c>
       <c r="C481" s="326" t="s">
@@ -9726,7 +9779,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="393"/>
-      <c r="B482" s="430"/>
+      <c r="B482" s="552"/>
       <c r="C482" s="327" t="s">
         <v>542</v>
       </c>
@@ -9736,7 +9789,7 @@
       <c r="A484" s="393">
         <v>7047</v>
       </c>
-      <c r="B484" s="431" t="s">
+      <c r="B484" s="553" t="s">
         <v>543</v>
       </c>
       <c r="C484" s="328" t="s">
@@ -9748,7 +9801,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="393"/>
-      <c r="B485" s="431"/>
+      <c r="B485" s="553"/>
       <c r="C485" s="329" t="s">
         <v>545</v>
       </c>
@@ -9758,7 +9811,7 @@
       <c r="A487" s="393">
         <v>8000</v>
       </c>
-      <c r="B487" s="428" t="s">
+      <c r="B487" s="558" t="s">
         <v>546</v>
       </c>
       <c r="C487" s="330" t="s">
@@ -9770,7 +9823,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="393"/>
-      <c r="B488" s="428"/>
+      <c r="B488" s="558"/>
       <c r="C488" s="331" t="s">
         <v>548</v>
       </c>
@@ -9780,7 +9833,7 @@
       <c r="A490" s="393">
         <v>8001</v>
       </c>
-      <c r="B490" s="429" t="s">
+      <c r="B490" s="559" t="s">
         <v>549</v>
       </c>
       <c r="C490" s="332" t="s">
@@ -9792,7 +9845,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="393"/>
-      <c r="B491" s="429"/>
+      <c r="B491" s="559"/>
       <c r="C491" s="333" t="s">
         <v>551</v>
       </c>
@@ -9802,7 +9855,7 @@
       <c r="A493" s="393">
         <v>8002</v>
       </c>
-      <c r="B493" s="426" t="s">
+      <c r="B493" s="556" t="s">
         <v>552</v>
       </c>
       <c r="C493" s="334" t="s">
@@ -9814,7 +9867,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="393"/>
-      <c r="B494" s="426"/>
+      <c r="B494" s="556"/>
       <c r="C494" s="335" t="s">
         <v>554</v>
       </c>
@@ -9824,7 +9877,7 @@
       <c r="A496" s="393">
         <v>8003</v>
       </c>
-      <c r="B496" s="427" t="s">
+      <c r="B496" s="557" t="s">
         <v>555</v>
       </c>
       <c r="C496" s="336" t="s">
@@ -9836,7 +9889,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="393"/>
-      <c r="B497" s="427"/>
+      <c r="B497" s="557"/>
       <c r="C497" s="337" t="s">
         <v>557</v>
       </c>
@@ -9846,7 +9899,7 @@
       <c r="A499" s="393">
         <v>8004</v>
       </c>
-      <c r="B499" s="424" t="s">
+      <c r="B499" s="562" t="s">
         <v>558</v>
       </c>
       <c r="C499" s="338" t="s">
@@ -9858,7 +9911,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="393"/>
-      <c r="B500" s="424"/>
+      <c r="B500" s="562"/>
       <c r="C500" s="339" t="s">
         <v>560</v>
       </c>
@@ -9868,7 +9921,7 @@
       <c r="A502" s="393">
         <v>8007</v>
       </c>
-      <c r="B502" s="425" t="s">
+      <c r="B502" s="563" t="s">
         <v>561</v>
       </c>
       <c r="C502" s="340" t="s">
@@ -9880,7 +9933,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="393"/>
-      <c r="B503" s="425"/>
+      <c r="B503" s="563"/>
       <c r="C503" s="341" t="s">
         <v>563</v>
       </c>
@@ -9890,7 +9943,7 @@
       <c r="A505" s="393">
         <v>8008</v>
       </c>
-      <c r="B505" s="422" t="s">
+      <c r="B505" s="560" t="s">
         <v>564</v>
       </c>
       <c r="C505" s="342" t="s">
@@ -9902,7 +9955,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="393"/>
-      <c r="B506" s="422"/>
+      <c r="B506" s="560"/>
       <c r="C506" s="343" t="s">
         <v>566</v>
       </c>
@@ -9912,7 +9965,7 @@
       <c r="A508" s="393">
         <v>8011</v>
       </c>
-      <c r="B508" s="423" t="s">
+      <c r="B508" s="561" t="s">
         <v>567</v>
       </c>
       <c r="C508" s="344" t="s">
@@ -9924,7 +9977,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="393"/>
-      <c r="B509" s="423"/>
+      <c r="B509" s="561"/>
       <c r="C509" s="345" t="s">
         <v>569</v>
       </c>
@@ -9934,7 +9987,7 @@
       <c r="A511" s="393">
         <v>8012</v>
       </c>
-      <c r="B511" s="420" t="s">
+      <c r="B511" s="566" t="s">
         <v>570</v>
       </c>
       <c r="C511" s="346" t="s">
@@ -9946,7 +9999,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="393"/>
-      <c r="B512" s="420"/>
+      <c r="B512" s="566"/>
       <c r="C512" s="347" t="s">
         <v>572</v>
       </c>
@@ -9956,7 +10009,7 @@
       <c r="A514" s="393">
         <v>8014</v>
       </c>
-      <c r="B514" s="421" t="s">
+      <c r="B514" s="567" t="s">
         <v>573</v>
       </c>
       <c r="C514" s="348" t="s">
@@ -9968,7 +10021,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="393"/>
-      <c r="B515" s="421"/>
+      <c r="B515" s="567"/>
       <c r="C515" s="349" t="s">
         <v>575</v>
       </c>
@@ -9978,7 +10031,7 @@
       <c r="A517" s="393">
         <v>8015</v>
       </c>
-      <c r="B517" s="418" t="s">
+      <c r="B517" s="564" t="s">
         <v>576</v>
       </c>
       <c r="C517" s="350" t="s">
@@ -9990,7 +10043,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="393"/>
-      <c r="B518" s="418"/>
+      <c r="B518" s="564"/>
       <c r="C518" s="351" t="s">
         <v>578</v>
       </c>
@@ -10000,7 +10053,7 @@
       <c r="A520" s="393">
         <v>8016</v>
       </c>
-      <c r="B520" s="419" t="s">
+      <c r="B520" s="565" t="s">
         <v>579</v>
       </c>
       <c r="C520" s="352" t="s">
@@ -10012,7 +10065,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="393"/>
-      <c r="B521" s="419"/>
+      <c r="B521" s="565"/>
       <c r="C521" s="353" t="s">
         <v>581</v>
       </c>
@@ -10022,7 +10075,7 @@
       <c r="A523" s="393">
         <v>8017</v>
       </c>
-      <c r="B523" s="416" t="s">
+      <c r="B523" s="570" t="s">
         <v>582</v>
       </c>
       <c r="C523" s="354" t="s">
@@ -10034,7 +10087,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="393"/>
-      <c r="B524" s="416"/>
+      <c r="B524" s="570"/>
       <c r="C524" s="355" t="s">
         <v>584</v>
       </c>
@@ -10044,7 +10097,7 @@
       <c r="A526" s="393">
         <v>8019</v>
       </c>
-      <c r="B526" s="417" t="s">
+      <c r="B526" s="571" t="s">
         <v>585</v>
       </c>
       <c r="C526" s="356" t="s">
@@ -10056,7 +10109,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="393"/>
-      <c r="B527" s="417"/>
+      <c r="B527" s="571"/>
       <c r="C527" s="357" t="s">
         <v>587</v>
       </c>
@@ -10066,7 +10119,7 @@
       <c r="A529" s="393">
         <v>8022</v>
       </c>
-      <c r="B529" s="414" t="s">
+      <c r="B529" s="568" t="s">
         <v>588</v>
       </c>
       <c r="C529" s="358" t="s">
@@ -10078,7 +10131,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="393"/>
-      <c r="B530" s="414"/>
+      <c r="B530" s="568"/>
       <c r="C530" s="359" t="s">
         <v>590</v>
       </c>
@@ -10088,7 +10141,7 @@
       <c r="A532" s="393">
         <v>8023</v>
       </c>
-      <c r="B532" s="415" t="s">
+      <c r="B532" s="569" t="s">
         <v>591</v>
       </c>
       <c r="C532" s="360" t="s">
@@ -10100,7 +10153,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="393"/>
-      <c r="B533" s="415"/>
+      <c r="B533" s="569"/>
       <c r="C533" s="361" t="s">
         <v>593</v>
       </c>
@@ -10110,7 +10163,7 @@
       <c r="A535" s="393">
         <v>8024</v>
       </c>
-      <c r="B535" s="412" t="s">
+      <c r="B535" s="574" t="s">
         <v>594</v>
       </c>
       <c r="C535" s="362" t="s">
@@ -10122,7 +10175,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="393"/>
-      <c r="B536" s="412"/>
+      <c r="B536" s="574"/>
       <c r="C536" s="363" t="s">
         <v>596</v>
       </c>
@@ -10132,7 +10185,7 @@
       <c r="A538" s="393">
         <v>8025</v>
       </c>
-      <c r="B538" s="413" t="s">
+      <c r="B538" s="575" t="s">
         <v>597</v>
       </c>
       <c r="C538" s="364" t="s">
@@ -10144,7 +10197,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="393"/>
-      <c r="B539" s="413"/>
+      <c r="B539" s="575"/>
       <c r="C539" s="365" t="s">
         <v>599</v>
       </c>
@@ -10154,7 +10207,7 @@
       <c r="A541" s="393">
         <v>8028</v>
       </c>
-      <c r="B541" s="410" t="s">
+      <c r="B541" s="572" t="s">
         <v>600</v>
       </c>
       <c r="C541" s="366" t="s">
@@ -10166,7 +10219,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="393"/>
-      <c r="B542" s="410"/>
+      <c r="B542" s="572"/>
       <c r="C542" s="367" t="s">
         <v>602</v>
       </c>
@@ -10176,7 +10229,7 @@
       <c r="A544" s="393">
         <v>9001</v>
       </c>
-      <c r="B544" s="411" t="s">
+      <c r="B544" s="573" t="s">
         <v>603</v>
       </c>
       <c r="C544" s="368" t="s">
@@ -10188,7 +10241,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="393"/>
-      <c r="B545" s="411"/>
+      <c r="B545" s="573"/>
       <c r="C545" s="369" t="s">
         <v>605</v>
       </c>
@@ -10198,7 +10251,7 @@
       <c r="A547" s="393">
         <v>9002</v>
       </c>
-      <c r="B547" s="408" t="s">
+      <c r="B547" s="578" t="s">
         <v>606</v>
       </c>
       <c r="C547" s="370" t="s">
@@ -10210,7 +10263,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="393"/>
-      <c r="B548" s="408"/>
+      <c r="B548" s="578"/>
       <c r="C548" s="371" t="s">
         <v>608</v>
       </c>
@@ -10220,7 +10273,7 @@
       <c r="A550" s="393">
         <v>9003</v>
       </c>
-      <c r="B550" s="409" t="s">
+      <c r="B550" s="579" t="s">
         <v>609</v>
       </c>
       <c r="C550" s="372" t="s">
@@ -10232,7 +10285,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="393"/>
-      <c r="B551" s="409"/>
+      <c r="B551" s="579"/>
       <c r="C551" s="373" t="s">
         <v>611</v>
       </c>
@@ -10242,7 +10295,7 @@
       <c r="A553" s="393">
         <v>9004</v>
       </c>
-      <c r="B553" s="406" t="s">
+      <c r="B553" s="576" t="s">
         <v>612</v>
       </c>
       <c r="C553" s="374" t="s">
@@ -10254,7 +10307,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="393"/>
-      <c r="B554" s="406"/>
+      <c r="B554" s="576"/>
       <c r="C554" s="375" t="s">
         <v>614</v>
       </c>
@@ -10264,7 +10317,7 @@
       <c r="A556" s="393">
         <v>9005</v>
       </c>
-      <c r="B556" s="407" t="s">
+      <c r="B556" s="577" t="s">
         <v>615</v>
       </c>
       <c r="C556" s="376" t="s">
@@ -10276,7 +10329,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="393"/>
-      <c r="B557" s="407"/>
+      <c r="B557" s="577"/>
       <c r="C557" s="377" t="s">
         <v>617</v>
       </c>
@@ -10286,7 +10339,7 @@
       <c r="A559" s="393">
         <v>9006</v>
       </c>
-      <c r="B559" s="404" t="s">
+      <c r="B559" s="582" t="s">
         <v>618</v>
       </c>
       <c r="C559" s="378" t="s">
@@ -10298,7 +10351,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="393"/>
-      <c r="B560" s="404"/>
+      <c r="B560" s="582"/>
       <c r="C560" s="379" t="s">
         <v>620</v>
       </c>
@@ -10308,7 +10361,7 @@
       <c r="A562" s="393">
         <v>9007</v>
       </c>
-      <c r="B562" s="405" t="s">
+      <c r="B562" s="583" t="s">
         <v>621</v>
       </c>
       <c r="C562" s="380" t="s">
@@ -10320,7 +10373,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="393"/>
-      <c r="B563" s="405"/>
+      <c r="B563" s="583"/>
       <c r="C563" s="381" t="s">
         <v>623</v>
       </c>
@@ -10330,7 +10383,7 @@
       <c r="A565" s="393">
         <v>9010</v>
       </c>
-      <c r="B565" s="402" t="s">
+      <c r="B565" s="580" t="s">
         <v>624</v>
       </c>
       <c r="C565" s="382" t="s">
@@ -10342,7 +10395,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="393"/>
-      <c r="B566" s="402"/>
+      <c r="B566" s="580"/>
       <c r="C566" s="383" t="s">
         <v>626</v>
       </c>
@@ -10352,7 +10405,7 @@
       <c r="A568" s="393">
         <v>9011</v>
       </c>
-      <c r="B568" s="403" t="s">
+      <c r="B568" s="581" t="s">
         <v>627</v>
       </c>
       <c r="C568" s="384" t="s">
@@ -10364,7 +10417,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="393"/>
-      <c r="B569" s="403"/>
+      <c r="B569" s="581"/>
       <c r="C569" s="385" t="s">
         <v>629</v>
       </c>
@@ -10374,7 +10427,7 @@
       <c r="A571" s="393">
         <v>9016</v>
       </c>
-      <c r="B571" s="400" t="s">
+      <c r="B571" s="589" t="s">
         <v>630</v>
       </c>
       <c r="C571" s="386" t="s">
@@ -10386,7 +10439,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="393"/>
-      <c r="B572" s="400"/>
+      <c r="B572" s="589"/>
       <c r="C572" s="387" t="s">
         <v>632</v>
       </c>
@@ -10396,7 +10449,7 @@
       <c r="A574" s="393">
         <v>9017</v>
       </c>
-      <c r="B574" s="401" t="s">
+      <c r="B574" s="590" t="s">
         <v>633</v>
       </c>
       <c r="C574" s="388" t="s">
@@ -10408,7 +10461,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="393"/>
-      <c r="B575" s="401"/>
+      <c r="B575" s="590"/>
       <c r="C575" s="389" t="s">
         <v>635</v>
       </c>
@@ -10418,7 +10471,7 @@
       <c r="A577" s="393">
         <v>9018</v>
       </c>
-      <c r="B577" s="394" t="s">
+      <c r="B577" s="584" t="s">
         <v>636</v>
       </c>
       <c r="C577" s="390" t="s">
@@ -10430,7 +10483,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="393"/>
-      <c r="B578" s="394"/>
+      <c r="B578" s="584"/>
       <c r="C578" s="391" t="s">
         <v>638</v>
       </c>
@@ -10443,33 +10496,567 @@
       <c r="D580" s="395"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="396"/>
-      <c r="B581" s="398"/>
+      <c r="A581" s="585"/>
+      <c r="B581" s="587"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="397"/>
-      <c r="B582" s="399"/>
+      <c r="A582" s="586"/>
+      <c r="B582" s="588"/>
     </row>
   </sheetData>
   <mergeCells count="582">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="A580:D580"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="B581:B582"/>
+    <mergeCell ref="A571:A572"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="D571:D572"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="B574:B575"/>
+    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -10482,558 +11069,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="A580:D580"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="B581:B582"/>
-    <mergeCell ref="A571:A572"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="D571:D572"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="B574:B575"/>
-    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pentapod Bom.xlsx
+++ b/Pentapod Bom.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="RAL-Basic" sheetId="4" r:id="rId4"/>
     <sheet name="RAL" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="649">
   <si>
     <t>#</t>
   </si>
@@ -1967,6 +1967,9 @@
   </si>
   <si>
     <t>LiPO Battery size 18650 3,7V, 3500mAh, 3C/10A continous load</t>
+  </si>
+  <si>
+    <t>https://www.akkuteile.de/lithium-ionen-akkus/18650/efest/efest-purple-imr-18650-3500mah-3-6v-3-7v-li-ionen-flattop-ungeschuetzt/a-100612/</t>
   </si>
 </sst>
 </file>
@@ -4390,6 +4393,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4984,7 +4988,6 @@
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5504,10 +5507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6003,7 +6006,7 @@
       <c r="B25" s="391">
         <v>4</v>
       </c>
-      <c r="C25" s="593" t="s">
+      <c r="C25" s="395" t="s">
         <v>647</v>
       </c>
       <c r="G25" s="391" t="s">
@@ -6016,7 +6019,7 @@
         <v>5.9</v>
       </c>
       <c r="J25" s="392">
-        <f t="shared" ref="J25:J29" si="2">I25*B25</f>
+        <f t="shared" ref="J25:J30" si="2">I25*B25</f>
         <v>23.6</v>
       </c>
     </row>
@@ -6041,51 +6044,56 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="391">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G27" s="391" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="391">
         <v>2</v>
       </c>
-      <c r="C28" s="391" t="s">
+      <c r="C29" s="391" t="s">
         <v>645</v>
       </c>
-      <c r="G28" s="391" t="s">
+      <c r="G29" s="391" t="s">
         <v>643</v>
       </c>
-      <c r="H28" s="391">
+      <c r="H29" s="391">
         <v>1</v>
       </c>
-      <c r="I28" s="392">
+      <c r="I29" s="392">
         <v>6.1</v>
       </c>
-      <c r="J28" s="392">
+      <c r="J29" s="392">
         <f t="shared" si="2"/>
         <v>12.2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="391">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="391">
         <v>1</v>
       </c>
-      <c r="C29" s="391" t="s">
+      <c r="C30" s="391" t="s">
         <v>646</v>
       </c>
-      <c r="G29" s="391" t="s">
+      <c r="G30" s="391" t="s">
         <v>644</v>
       </c>
-      <c r="H29" s="391">
+      <c r="H30" s="391">
         <v>1</v>
       </c>
-      <c r="I29" s="392">
+      <c r="I30" s="392">
         <v>6.1</v>
       </c>
-      <c r="J29" s="392">
+      <c r="J30" s="392">
         <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J30" s="394">
-        <f>SUM(J3:J29)</f>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J31" s="394">
+        <f>SUM(J3:J30)</f>
         <v>2451.7799999999988</v>
       </c>
     </row>
@@ -6265,4271 +6273,4271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D582"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202:B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="395">
+      <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="396" t="s">
+      <c r="B1" s="397" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="397" t="s">
+      <c r="D1" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="395"/>
-      <c r="B2" s="396"/>
+      <c r="A2" s="396"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="397"/>
+      <c r="D2" s="398"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="395">
+      <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="398" t="s">
+      <c r="B4" s="399" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="397" t="s">
+      <c r="D4" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="395"/>
-      <c r="B5" s="398"/>
+      <c r="A5" s="396"/>
+      <c r="B5" s="399"/>
       <c r="C5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="397"/>
+      <c r="D5" s="398"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="395">
+      <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="401" t="s">
+      <c r="B7" s="402" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="397" t="s">
+      <c r="D7" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="395"/>
-      <c r="B8" s="401"/>
+      <c r="A8" s="396"/>
+      <c r="B8" s="402"/>
       <c r="C8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="397"/>
+      <c r="D8" s="398"/>
     </row>
     <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="395">
+      <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="402" t="s">
+      <c r="B10" s="403" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="397" t="s">
+      <c r="D10" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="395"/>
-      <c r="B11" s="402"/>
+      <c r="A11" s="396"/>
+      <c r="B11" s="403"/>
       <c r="C11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="397"/>
+      <c r="D11" s="398"/>
     </row>
     <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="395">
+      <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="399" t="s">
+      <c r="B13" s="400" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="397" t="s">
+      <c r="D13" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="395"/>
-      <c r="B14" s="399"/>
+      <c r="A14" s="396"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="397"/>
+      <c r="D14" s="398"/>
     </row>
     <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="395">
+      <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="400" t="s">
+      <c r="B16" s="401" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="395"/>
-      <c r="B17" s="400"/>
+      <c r="A17" s="396"/>
+      <c r="B17" s="401"/>
       <c r="C17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="397"/>
+      <c r="D17" s="398"/>
     </row>
     <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="395">
+      <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="405" t="s">
+      <c r="B19" s="406" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="397" t="s">
+      <c r="D19" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="395"/>
-      <c r="B20" s="405"/>
+      <c r="A20" s="396"/>
+      <c r="B20" s="406"/>
       <c r="C20" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="397"/>
+      <c r="D20" s="398"/>
     </row>
     <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="395">
+      <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="406" t="s">
+      <c r="B22" s="407" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="397" t="s">
+      <c r="D22" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="395"/>
-      <c r="B23" s="406"/>
+      <c r="A23" s="396"/>
+      <c r="B23" s="407"/>
       <c r="C23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="397"/>
+      <c r="D23" s="398"/>
     </row>
     <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="395">
+      <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="403" t="s">
+      <c r="B25" s="404" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="397" t="s">
+      <c r="D25" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="395"/>
-      <c r="B26" s="403"/>
+      <c r="A26" s="396"/>
+      <c r="B26" s="404"/>
       <c r="C26" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="397"/>
+      <c r="D26" s="398"/>
     </row>
     <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="395">
+      <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="404" t="s">
+      <c r="B28" s="405" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="397" t="s">
+      <c r="D28" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="395"/>
-      <c r="B29" s="404"/>
+      <c r="A29" s="396"/>
+      <c r="B29" s="405"/>
       <c r="C29" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="397"/>
+      <c r="D29" s="398"/>
     </row>
     <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="395">
+      <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="409" t="s">
+      <c r="B31" s="410" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="397" t="s">
+      <c r="D31" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="395"/>
-      <c r="B32" s="409"/>
+      <c r="A32" s="396"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="397"/>
+      <c r="D32" s="398"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="395">
+      <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="410" t="s">
+      <c r="B34" s="411" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="397" t="s">
+      <c r="D34" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="395"/>
-      <c r="B35" s="410"/>
+      <c r="A35" s="396"/>
+      <c r="B35" s="411"/>
       <c r="C35" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="397"/>
+      <c r="D35" s="398"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="395">
+      <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="407" t="s">
+      <c r="B37" s="408" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="397" t="s">
+      <c r="D37" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="395"/>
-      <c r="B38" s="407"/>
+      <c r="A38" s="396"/>
+      <c r="B38" s="408"/>
       <c r="C38" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="397"/>
+      <c r="D38" s="398"/>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="395">
+      <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="408" t="s">
+      <c r="B40" s="409" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="397" t="s">
+      <c r="D40" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="395"/>
-      <c r="B41" s="408"/>
+      <c r="A41" s="396"/>
+      <c r="B41" s="409"/>
       <c r="C41" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="397"/>
+      <c r="D41" s="398"/>
     </row>
     <row r="43" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="395">
+      <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="413" t="s">
+      <c r="B43" s="414" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="397" t="s">
+      <c r="D43" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="395"/>
-      <c r="B44" s="413"/>
+      <c r="A44" s="396"/>
+      <c r="B44" s="414"/>
       <c r="C44" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="397"/>
+      <c r="D44" s="398"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="395">
+      <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="414" t="s">
+      <c r="B46" s="415" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="397" t="s">
+      <c r="D46" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="395"/>
-      <c r="B47" s="414"/>
+      <c r="A47" s="396"/>
+      <c r="B47" s="415"/>
       <c r="C47" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="397"/>
+      <c r="D47" s="398"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="395">
+      <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="411" t="s">
+      <c r="B49" s="412" t="s">
         <v>110</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="397" t="s">
+      <c r="D49" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="395"/>
-      <c r="B50" s="411"/>
+      <c r="A50" s="396"/>
+      <c r="B50" s="412"/>
       <c r="C50" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="397"/>
+      <c r="D50" s="398"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="395">
+      <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="412" t="s">
+      <c r="B52" s="413" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="397" t="s">
+      <c r="D52" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="395"/>
-      <c r="B53" s="412"/>
+      <c r="A53" s="396"/>
+      <c r="B53" s="413"/>
       <c r="C53" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="397"/>
+      <c r="D53" s="398"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="395">
+      <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="417" t="s">
+      <c r="B55" s="418" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="397" t="s">
+      <c r="D55" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="395"/>
-      <c r="B56" s="417"/>
+      <c r="A56" s="396"/>
+      <c r="B56" s="418"/>
       <c r="C56" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="397"/>
+      <c r="D56" s="398"/>
     </row>
     <row r="58" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="395">
+      <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="417" t="s">
+      <c r="B58" s="418" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="397" t="s">
+      <c r="D58" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="395"/>
-      <c r="B59" s="417"/>
+      <c r="A59" s="396"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="397"/>
+      <c r="D59" s="398"/>
     </row>
     <row r="61" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="395">
+      <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="415" t="s">
+      <c r="B61" s="416" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="397" t="s">
+      <c r="D61" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="395"/>
-      <c r="B62" s="415"/>
+      <c r="A62" s="396"/>
+      <c r="B62" s="416"/>
       <c r="C62" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="397"/>
+      <c r="D62" s="398"/>
     </row>
     <row r="64" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="395">
+      <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="416" t="s">
+      <c r="B64" s="417" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="397" t="s">
+      <c r="D64" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="395"/>
-      <c r="B65" s="416"/>
+      <c r="A65" s="396"/>
+      <c r="B65" s="417"/>
       <c r="C65" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="397"/>
+      <c r="D65" s="398"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="395">
+      <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="420" t="s">
+      <c r="B67" s="421" t="s">
         <v>126</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="397" t="s">
+      <c r="D67" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="395"/>
-      <c r="B68" s="420"/>
+      <c r="A68" s="396"/>
+      <c r="B68" s="421"/>
       <c r="C68" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="397"/>
+      <c r="D68" s="398"/>
     </row>
     <row r="70" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="395">
+      <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="421" t="s">
+      <c r="B70" s="422" t="s">
         <v>129</v>
       </c>
       <c r="C70" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="397" t="s">
+      <c r="D70" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="395"/>
-      <c r="B71" s="421"/>
+      <c r="A71" s="396"/>
+      <c r="B71" s="422"/>
       <c r="C71" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="397"/>
+      <c r="D71" s="398"/>
     </row>
     <row r="73" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="395">
+      <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="418" t="s">
+      <c r="B73" s="419" t="s">
         <v>132</v>
       </c>
       <c r="C73" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="397" t="s">
+      <c r="D73" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="395"/>
-      <c r="B74" s="418"/>
+      <c r="A74" s="396"/>
+      <c r="B74" s="419"/>
       <c r="C74" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="397"/>
+      <c r="D74" s="398"/>
     </row>
     <row r="76" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="395">
+      <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="419" t="s">
+      <c r="B76" s="420" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="397" t="s">
+      <c r="D76" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="395"/>
-      <c r="B77" s="419"/>
+      <c r="A77" s="396"/>
+      <c r="B77" s="420"/>
       <c r="C77" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="397"/>
+      <c r="D77" s="398"/>
     </row>
     <row r="79" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="395">
+      <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="424" t="s">
+      <c r="B79" s="425" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="397" t="s">
+      <c r="D79" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="395"/>
-      <c r="B80" s="424"/>
+      <c r="A80" s="396"/>
+      <c r="B80" s="425"/>
       <c r="C80" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="397"/>
+      <c r="D80" s="398"/>
     </row>
     <row r="82" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="395">
+      <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="425" t="s">
+      <c r="B82" s="426" t="s">
         <v>141</v>
       </c>
       <c r="C82" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="397" t="s">
+      <c r="D82" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="395"/>
-      <c r="B83" s="425"/>
+      <c r="A83" s="396"/>
+      <c r="B83" s="426"/>
       <c r="C83" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="397"/>
+      <c r="D83" s="398"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="395">
+      <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="422" t="s">
+      <c r="B85" s="423" t="s">
         <v>144</v>
       </c>
       <c r="C85" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="397" t="s">
+      <c r="D85" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="395"/>
-      <c r="B86" s="422"/>
+      <c r="A86" s="396"/>
+      <c r="B86" s="423"/>
       <c r="C86" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="397"/>
+      <c r="D86" s="398"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="395">
+      <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="423" t="s">
+      <c r="B88" s="424" t="s">
         <v>147</v>
       </c>
       <c r="C88" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D88" s="397" t="s">
+      <c r="D88" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="395"/>
-      <c r="B89" s="423"/>
+      <c r="A89" s="396"/>
+      <c r="B89" s="424"/>
       <c r="C89" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D89" s="397"/>
+      <c r="D89" s="398"/>
     </row>
     <row r="91" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="395">
+      <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="428" t="s">
+      <c r="B91" s="429" t="s">
         <v>150</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D91" s="397" t="s">
+      <c r="D91" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="395"/>
-      <c r="B92" s="428"/>
+      <c r="A92" s="396"/>
+      <c r="B92" s="429"/>
       <c r="C92" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D92" s="397"/>
+      <c r="D92" s="398"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="395">
+      <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="429" t="s">
+      <c r="B94" s="430" t="s">
         <v>153</v>
       </c>
       <c r="C94" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D94" s="397" t="s">
+      <c r="D94" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="395"/>
-      <c r="B95" s="429"/>
+      <c r="A95" s="396"/>
+      <c r="B95" s="430"/>
       <c r="C95" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="D95" s="397"/>
+      <c r="D95" s="398"/>
     </row>
     <row r="97" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="395">
+      <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="426" t="s">
+      <c r="B97" s="427" t="s">
         <v>156</v>
       </c>
       <c r="C97" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D97" s="397" t="s">
+      <c r="D97" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="395"/>
-      <c r="B98" s="426"/>
+      <c r="A98" s="396"/>
+      <c r="B98" s="427"/>
       <c r="C98" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="D98" s="397"/>
+      <c r="D98" s="398"/>
     </row>
     <row r="100" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="395">
+      <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="427" t="s">
+      <c r="B100" s="428" t="s">
         <v>159</v>
       </c>
       <c r="C100" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D100" s="397" t="s">
+      <c r="D100" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="395"/>
-      <c r="B101" s="427"/>
+      <c r="A101" s="396"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="D101" s="397"/>
+      <c r="D101" s="398"/>
     </row>
     <row r="103" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="395">
+      <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="432" t="s">
+      <c r="B103" s="433" t="s">
         <v>162</v>
       </c>
       <c r="C103" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="D103" s="397" t="s">
+      <c r="D103" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="395"/>
-      <c r="B104" s="432"/>
+      <c r="A104" s="396"/>
+      <c r="B104" s="433"/>
       <c r="C104" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D104" s="397"/>
+      <c r="D104" s="398"/>
     </row>
     <row r="106" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="395">
+      <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="433" t="s">
+      <c r="B106" s="434" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="D106" s="397" t="s">
+      <c r="D106" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="395"/>
-      <c r="B107" s="433"/>
+      <c r="A107" s="396"/>
+      <c r="B107" s="434"/>
       <c r="C107" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D107" s="397"/>
+      <c r="D107" s="398"/>
     </row>
     <row r="109" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="395">
+      <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="430" t="s">
+      <c r="B109" s="431" t="s">
         <v>168</v>
       </c>
       <c r="C109" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D109" s="397" t="s">
+      <c r="D109" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="395"/>
-      <c r="B110" s="430"/>
+      <c r="A110" s="396"/>
+      <c r="B110" s="431"/>
       <c r="C110" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="D110" s="397"/>
+      <c r="D110" s="398"/>
     </row>
     <row r="112" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="395">
+      <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="431" t="s">
+      <c r="B112" s="432" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="397" t="s">
+      <c r="D112" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="395"/>
-      <c r="B113" s="431"/>
+      <c r="A113" s="396"/>
+      <c r="B113" s="432"/>
       <c r="C113" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="D113" s="397"/>
+      <c r="D113" s="398"/>
     </row>
     <row r="115" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="395">
+      <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="436" t="s">
+      <c r="B115" s="437" t="s">
         <v>174</v>
       </c>
       <c r="C115" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="D115" s="397" t="s">
+      <c r="D115" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="395"/>
-      <c r="B116" s="436"/>
+      <c r="A116" s="396"/>
+      <c r="B116" s="437"/>
       <c r="C116" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="D116" s="397"/>
+      <c r="D116" s="398"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="395">
+      <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="437" t="s">
+      <c r="B118" s="438" t="s">
         <v>177</v>
       </c>
       <c r="C118" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="D118" s="397" t="s">
+      <c r="D118" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="395"/>
-      <c r="B119" s="437"/>
+      <c r="A119" s="396"/>
+      <c r="B119" s="438"/>
       <c r="C119" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="D119" s="397"/>
+      <c r="D119" s="398"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="395">
+      <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="434" t="s">
+      <c r="B121" s="435" t="s">
         <v>180</v>
       </c>
       <c r="C121" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="D121" s="397" t="s">
+      <c r="D121" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="395"/>
-      <c r="B122" s="434"/>
+      <c r="A122" s="396"/>
+      <c r="B122" s="435"/>
       <c r="C122" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="D122" s="397"/>
+      <c r="D122" s="398"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="395">
+      <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="435" t="s">
+      <c r="B124" s="436" t="s">
         <v>183</v>
       </c>
       <c r="C124" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="D124" s="397" t="s">
+      <c r="D124" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="395"/>
-      <c r="B125" s="435"/>
+      <c r="A125" s="396"/>
+      <c r="B125" s="436"/>
       <c r="C125" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="D125" s="397"/>
+      <c r="D125" s="398"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="395">
+      <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="440" t="s">
+      <c r="B127" s="441" t="s">
         <v>186</v>
       </c>
       <c r="C127" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="397" t="s">
+      <c r="D127" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="395"/>
-      <c r="B128" s="440"/>
+      <c r="A128" s="396"/>
+      <c r="B128" s="441"/>
       <c r="C128" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="D128" s="397"/>
+      <c r="D128" s="398"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="395">
+      <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="441" t="s">
+      <c r="B130" s="442" t="s">
         <v>189</v>
       </c>
       <c r="C130" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="397" t="s">
+      <c r="D130" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="395"/>
-      <c r="B131" s="441"/>
+      <c r="A131" s="396"/>
+      <c r="B131" s="442"/>
       <c r="C131" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="D131" s="397"/>
+      <c r="D131" s="398"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="395">
+      <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="438" t="s">
+      <c r="B133" s="439" t="s">
         <v>192</v>
       </c>
       <c r="C133" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="D133" s="397" t="s">
+      <c r="D133" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="395"/>
-      <c r="B134" s="438"/>
+      <c r="A134" s="396"/>
+      <c r="B134" s="439"/>
       <c r="C134" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="D134" s="397"/>
+      <c r="D134" s="398"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="395">
+      <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="439" t="s">
+      <c r="B136" s="440" t="s">
         <v>195</v>
       </c>
       <c r="C136" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="D136" s="397" t="s">
+      <c r="D136" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="395"/>
-      <c r="B137" s="439"/>
+      <c r="A137" s="396"/>
+      <c r="B137" s="440"/>
       <c r="C137" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="D137" s="397"/>
+      <c r="D137" s="398"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="395">
+      <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="444" t="s">
+      <c r="B139" s="445" t="s">
         <v>198</v>
       </c>
       <c r="C139" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="D139" s="397" t="s">
+      <c r="D139" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="395"/>
-      <c r="B140" s="444"/>
+      <c r="A140" s="396"/>
+      <c r="B140" s="445"/>
       <c r="C140" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="D140" s="397"/>
+      <c r="D140" s="398"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="395">
+      <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="445" t="s">
+      <c r="B142" s="446" t="s">
         <v>201</v>
       </c>
       <c r="C142" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="D142" s="397" t="s">
+      <c r="D142" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="395"/>
-      <c r="B143" s="445"/>
+      <c r="A143" s="396"/>
+      <c r="B143" s="446"/>
       <c r="C143" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="397"/>
+      <c r="D143" s="398"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="395">
+      <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="442" t="s">
+      <c r="B145" s="443" t="s">
         <v>204</v>
       </c>
       <c r="C145" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D145" s="397" t="s">
+      <c r="D145" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="395"/>
-      <c r="B146" s="442"/>
+      <c r="A146" s="396"/>
+      <c r="B146" s="443"/>
       <c r="C146" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="D146" s="397"/>
+      <c r="D146" s="398"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="395">
+      <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="443" t="s">
+      <c r="B148" s="444" t="s">
         <v>207</v>
       </c>
       <c r="C148" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="D148" s="397" t="s">
+      <c r="D148" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="395"/>
-      <c r="B149" s="443"/>
+      <c r="A149" s="396"/>
+      <c r="B149" s="444"/>
       <c r="C149" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="397"/>
+      <c r="D149" s="398"/>
     </row>
     <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="395">
+      <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="448" t="s">
+      <c r="B151" s="449" t="s">
         <v>210</v>
       </c>
       <c r="C151" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="D151" s="397" t="s">
+      <c r="D151" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="395"/>
-      <c r="B152" s="448"/>
+      <c r="A152" s="396"/>
+      <c r="B152" s="449"/>
       <c r="C152" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D152" s="397"/>
+      <c r="D152" s="398"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="395">
+      <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="449" t="s">
+      <c r="B154" s="450" t="s">
         <v>213</v>
       </c>
       <c r="C154" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="D154" s="397" t="s">
+      <c r="D154" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="395"/>
-      <c r="B155" s="449"/>
+      <c r="A155" s="396"/>
+      <c r="B155" s="450"/>
       <c r="C155" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="D155" s="397"/>
+      <c r="D155" s="398"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="395">
+      <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="446" t="s">
+      <c r="B157" s="447" t="s">
         <v>216</v>
       </c>
       <c r="C157" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="D157" s="397" t="s">
+      <c r="D157" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="395"/>
-      <c r="B158" s="446"/>
+      <c r="A158" s="396"/>
+      <c r="B158" s="447"/>
       <c r="C158" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="D158" s="397"/>
+      <c r="D158" s="398"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="395">
+      <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="447" t="s">
+      <c r="B160" s="448" t="s">
         <v>219</v>
       </c>
       <c r="C160" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="D160" s="397" t="s">
+      <c r="D160" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="395"/>
-      <c r="B161" s="447"/>
+      <c r="A161" s="396"/>
+      <c r="B161" s="448"/>
       <c r="C161" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="D161" s="397"/>
+      <c r="D161" s="398"/>
     </row>
     <row r="163" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="395">
+      <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="452" t="s">
+      <c r="B163" s="453" t="s">
         <v>222</v>
       </c>
       <c r="C163" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="D163" s="397" t="s">
+      <c r="D163" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="395"/>
-      <c r="B164" s="452"/>
+      <c r="A164" s="396"/>
+      <c r="B164" s="453"/>
       <c r="C164" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="D164" s="397"/>
+      <c r="D164" s="398"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="395">
+      <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="453" t="s">
+      <c r="B166" s="454" t="s">
         <v>225</v>
       </c>
       <c r="C166" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="D166" s="397" t="s">
+      <c r="D166" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="395"/>
-      <c r="B167" s="453"/>
+      <c r="A167" s="396"/>
+      <c r="B167" s="454"/>
       <c r="C167" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="D167" s="397"/>
+      <c r="D167" s="398"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="395">
+      <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="450" t="s">
+      <c r="B169" s="451" t="s">
         <v>228</v>
       </c>
       <c r="C169" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="D169" s="397" t="s">
+      <c r="D169" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="395"/>
-      <c r="B170" s="450"/>
+      <c r="A170" s="396"/>
+      <c r="B170" s="451"/>
       <c r="C170" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="D170" s="397"/>
+      <c r="D170" s="398"/>
     </row>
     <row r="172" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="395">
+      <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="451" t="s">
+      <c r="B172" s="452" t="s">
         <v>231</v>
       </c>
       <c r="C172" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="D172" s="397" t="s">
+      <c r="D172" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="395"/>
-      <c r="B173" s="451"/>
+      <c r="A173" s="396"/>
+      <c r="B173" s="452"/>
       <c r="C173" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="D173" s="397"/>
+      <c r="D173" s="398"/>
     </row>
     <row r="175" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="395">
+      <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="456" t="s">
+      <c r="B175" s="457" t="s">
         <v>234</v>
       </c>
       <c r="C175" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="D175" s="397" t="s">
+      <c r="D175" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="395"/>
-      <c r="B176" s="456"/>
+      <c r="A176" s="396"/>
+      <c r="B176" s="457"/>
       <c r="C176" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="D176" s="397"/>
+      <c r="D176" s="398"/>
     </row>
     <row r="178" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="395">
+      <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="457" t="s">
+      <c r="B178" s="458" t="s">
         <v>237</v>
       </c>
       <c r="C178" s="121" t="s">
         <v>238</v>
       </c>
-      <c r="D178" s="397" t="s">
+      <c r="D178" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="395"/>
-      <c r="B179" s="457"/>
+      <c r="A179" s="396"/>
+      <c r="B179" s="458"/>
       <c r="C179" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="D179" s="397"/>
+      <c r="D179" s="398"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="395">
+      <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="454" t="s">
+      <c r="B181" s="455" t="s">
         <v>240</v>
       </c>
       <c r="C181" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="D181" s="397" t="s">
+      <c r="D181" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="395"/>
-      <c r="B182" s="454"/>
+      <c r="A182" s="396"/>
+      <c r="B182" s="455"/>
       <c r="C182" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="D182" s="397"/>
+      <c r="D182" s="398"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="395">
+      <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="455" t="s">
+      <c r="B184" s="456" t="s">
         <v>243</v>
       </c>
       <c r="C184" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="D184" s="397" t="s">
+      <c r="D184" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="395"/>
-      <c r="B185" s="455"/>
+      <c r="A185" s="396"/>
+      <c r="B185" s="456"/>
       <c r="C185" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="D185" s="397"/>
+      <c r="D185" s="398"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="395">
+      <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="460" t="s">
+      <c r="B187" s="461" t="s">
         <v>246</v>
       </c>
       <c r="C187" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="D187" s="397" t="s">
+      <c r="D187" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="395"/>
-      <c r="B188" s="460"/>
+      <c r="A188" s="396"/>
+      <c r="B188" s="461"/>
       <c r="C188" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="D188" s="397"/>
+      <c r="D188" s="398"/>
     </row>
     <row r="190" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="395">
+      <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="461" t="s">
+      <c r="B190" s="462" t="s">
         <v>249</v>
       </c>
       <c r="C190" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="D190" s="397" t="s">
+      <c r="D190" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="395"/>
-      <c r="B191" s="461"/>
+      <c r="A191" s="396"/>
+      <c r="B191" s="462"/>
       <c r="C191" s="130" t="s">
         <v>251</v>
       </c>
-      <c r="D191" s="397"/>
+      <c r="D191" s="398"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="395">
+      <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="458" t="s">
+      <c r="B193" s="459" t="s">
         <v>252</v>
       </c>
       <c r="C193" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="D193" s="397" t="s">
+      <c r="D193" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="395"/>
-      <c r="B194" s="458"/>
+      <c r="A194" s="396"/>
+      <c r="B194" s="459"/>
       <c r="C194" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="D194" s="397"/>
+      <c r="D194" s="398"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="395">
+      <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="459" t="s">
+      <c r="B196" s="460" t="s">
         <v>255</v>
       </c>
       <c r="C196" s="133" t="s">
         <v>256</v>
       </c>
-      <c r="D196" s="397" t="s">
+      <c r="D196" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="395"/>
-      <c r="B197" s="459"/>
+      <c r="A197" s="396"/>
+      <c r="B197" s="460"/>
       <c r="C197" s="134" t="s">
         <v>257</v>
       </c>
-      <c r="D197" s="397"/>
+      <c r="D197" s="398"/>
     </row>
     <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="395">
+      <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="464" t="s">
+      <c r="B199" s="465" t="s">
         <v>258</v>
       </c>
       <c r="C199" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="D199" s="397" t="s">
+      <c r="D199" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="395"/>
-      <c r="B200" s="464"/>
+      <c r="A200" s="396"/>
+      <c r="B200" s="465"/>
       <c r="C200" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="D200" s="397"/>
+      <c r="D200" s="398"/>
     </row>
     <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="395">
+      <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="465" t="s">
+      <c r="B202" s="466" t="s">
         <v>261</v>
       </c>
       <c r="C202" s="137" t="s">
         <v>262</v>
       </c>
-      <c r="D202" s="397" t="s">
+      <c r="D202" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="395"/>
-      <c r="B203" s="465"/>
+      <c r="A203" s="396"/>
+      <c r="B203" s="466"/>
       <c r="C203" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="D203" s="397"/>
+      <c r="D203" s="398"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="395">
+      <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="462" t="s">
+      <c r="B205" s="463" t="s">
         <v>264</v>
       </c>
       <c r="C205" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="D205" s="397" t="s">
+      <c r="D205" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="395"/>
-      <c r="B206" s="462"/>
+      <c r="A206" s="396"/>
+      <c r="B206" s="463"/>
       <c r="C206" s="140" t="s">
         <v>266</v>
       </c>
-      <c r="D206" s="397"/>
+      <c r="D206" s="398"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="395">
+      <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="463" t="s">
+      <c r="B208" s="464" t="s">
         <v>267</v>
       </c>
       <c r="C208" s="141" t="s">
         <v>268</v>
       </c>
-      <c r="D208" s="397" t="s">
+      <c r="D208" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="395"/>
-      <c r="B209" s="463"/>
+      <c r="A209" s="396"/>
+      <c r="B209" s="464"/>
       <c r="C209" s="142" t="s">
         <v>269</v>
       </c>
-      <c r="D209" s="397"/>
+      <c r="D209" s="398"/>
     </row>
     <row r="211" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="395">
+      <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="468" t="s">
+      <c r="B211" s="469" t="s">
         <v>270</v>
       </c>
       <c r="C211" s="143" t="s">
         <v>271</v>
       </c>
-      <c r="D211" s="397" t="s">
+      <c r="D211" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="395"/>
-      <c r="B212" s="468"/>
+      <c r="A212" s="396"/>
+      <c r="B212" s="469"/>
       <c r="C212" s="144" t="s">
         <v>272</v>
       </c>
-      <c r="D212" s="397"/>
+      <c r="D212" s="398"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="395">
+      <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="469" t="s">
+      <c r="B214" s="470" t="s">
         <v>273</v>
       </c>
       <c r="C214" s="145" t="s">
         <v>274</v>
       </c>
-      <c r="D214" s="397" t="s">
+      <c r="D214" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="395"/>
-      <c r="B215" s="469"/>
+      <c r="A215" s="396"/>
+      <c r="B215" s="470"/>
       <c r="C215" s="146" t="s">
         <v>275</v>
       </c>
-      <c r="D215" s="397"/>
+      <c r="D215" s="398"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="395">
+      <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="466" t="s">
+      <c r="B217" s="467" t="s">
         <v>276</v>
       </c>
       <c r="C217" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D217" s="397" t="s">
+      <c r="D217" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="395"/>
-      <c r="B218" s="466"/>
+      <c r="A218" s="396"/>
+      <c r="B218" s="467"/>
       <c r="C218" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="D218" s="397"/>
+      <c r="D218" s="398"/>
     </row>
     <row r="220" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="395">
+      <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="467" t="s">
+      <c r="B220" s="468" t="s">
         <v>279</v>
       </c>
       <c r="C220" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="D220" s="397" t="s">
+      <c r="D220" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="395"/>
-      <c r="B221" s="467"/>
+      <c r="A221" s="396"/>
+      <c r="B221" s="468"/>
       <c r="C221" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="D221" s="397"/>
+      <c r="D221" s="398"/>
     </row>
     <row r="223" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="395">
+      <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="472" t="s">
+      <c r="B223" s="473" t="s">
         <v>282</v>
       </c>
       <c r="C223" s="151" t="s">
         <v>283</v>
       </c>
-      <c r="D223" s="397" t="s">
+      <c r="D223" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="395"/>
-      <c r="B224" s="472"/>
+      <c r="A224" s="396"/>
+      <c r="B224" s="473"/>
       <c r="C224" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="397"/>
+      <c r="D224" s="398"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="395">
+      <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="473" t="s">
+      <c r="B226" s="474" t="s">
         <v>285</v>
       </c>
       <c r="C226" s="153" t="s">
         <v>286</v>
       </c>
-      <c r="D226" s="397" t="s">
+      <c r="D226" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="395"/>
-      <c r="B227" s="473"/>
+      <c r="A227" s="396"/>
+      <c r="B227" s="474"/>
       <c r="C227" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="D227" s="397"/>
+      <c r="D227" s="398"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="395">
+      <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="470" t="s">
+      <c r="B229" s="471" t="s">
         <v>288</v>
       </c>
       <c r="C229" s="155" t="s">
         <v>289</v>
       </c>
-      <c r="D229" s="397" t="s">
+      <c r="D229" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="395"/>
-      <c r="B230" s="470"/>
+      <c r="A230" s="396"/>
+      <c r="B230" s="471"/>
       <c r="C230" s="156" t="s">
         <v>290</v>
       </c>
-      <c r="D230" s="397"/>
+      <c r="D230" s="398"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="395">
+      <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="471" t="s">
+      <c r="B232" s="472" t="s">
         <v>291</v>
       </c>
       <c r="C232" s="157" t="s">
         <v>292</v>
       </c>
-      <c r="D232" s="397" t="s">
+      <c r="D232" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="395"/>
-      <c r="B233" s="471"/>
+      <c r="A233" s="396"/>
+      <c r="B233" s="472"/>
       <c r="C233" s="158" t="s">
         <v>293</v>
       </c>
-      <c r="D233" s="397"/>
+      <c r="D233" s="398"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="395">
+      <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="476" t="s">
+      <c r="B235" s="477" t="s">
         <v>294</v>
       </c>
       <c r="C235" s="159" t="s">
         <v>295</v>
       </c>
-      <c r="D235" s="397" t="s">
+      <c r="D235" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="395"/>
-      <c r="B236" s="476"/>
+      <c r="A236" s="396"/>
+      <c r="B236" s="477"/>
       <c r="C236" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="D236" s="397"/>
+      <c r="D236" s="398"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="395">
+      <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="477" t="s">
+      <c r="B238" s="478" t="s">
         <v>297</v>
       </c>
       <c r="C238" s="161" t="s">
         <v>298</v>
       </c>
-      <c r="D238" s="397" t="s">
+      <c r="D238" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="395"/>
-      <c r="B239" s="477"/>
+      <c r="A239" s="396"/>
+      <c r="B239" s="478"/>
       <c r="C239" s="162" t="s">
         <v>299</v>
       </c>
-      <c r="D239" s="397"/>
+      <c r="D239" s="398"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="395">
+      <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="474" t="s">
+      <c r="B241" s="475" t="s">
         <v>300</v>
       </c>
       <c r="C241" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="D241" s="397" t="s">
+      <c r="D241" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="395"/>
-      <c r="B242" s="474"/>
+      <c r="A242" s="396"/>
+      <c r="B242" s="475"/>
       <c r="C242" s="164" t="s">
         <v>302</v>
       </c>
-      <c r="D242" s="397"/>
+      <c r="D242" s="398"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="395">
+      <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="475" t="s">
+      <c r="B244" s="476" t="s">
         <v>303</v>
       </c>
       <c r="C244" s="165" t="s">
         <v>304</v>
       </c>
-      <c r="D244" s="397" t="s">
+      <c r="D244" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="395"/>
-      <c r="B245" s="475"/>
+      <c r="A245" s="396"/>
+      <c r="B245" s="476"/>
       <c r="C245" s="166" t="s">
         <v>305</v>
       </c>
-      <c r="D245" s="397"/>
+      <c r="D245" s="398"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="395">
+      <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="480" t="s">
+      <c r="B247" s="481" t="s">
         <v>306</v>
       </c>
       <c r="C247" s="167" t="s">
         <v>307</v>
       </c>
-      <c r="D247" s="397" t="s">
+      <c r="D247" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="395"/>
-      <c r="B248" s="480"/>
+      <c r="A248" s="396"/>
+      <c r="B248" s="481"/>
       <c r="C248" s="168" t="s">
         <v>308</v>
       </c>
-      <c r="D248" s="397"/>
+      <c r="D248" s="398"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="395">
+      <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="481" t="s">
+      <c r="B250" s="482" t="s">
         <v>309</v>
       </c>
       <c r="C250" s="169" t="s">
         <v>310</v>
       </c>
-      <c r="D250" s="397" t="s">
+      <c r="D250" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="395"/>
-      <c r="B251" s="481"/>
+      <c r="A251" s="396"/>
+      <c r="B251" s="482"/>
       <c r="C251" s="170" t="s">
         <v>311</v>
       </c>
-      <c r="D251" s="397"/>
+      <c r="D251" s="398"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="395">
+      <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="478" t="s">
+      <c r="B253" s="479" t="s">
         <v>312</v>
       </c>
       <c r="C253" s="171" t="s">
         <v>313</v>
       </c>
-      <c r="D253" s="397" t="s">
+      <c r="D253" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="395"/>
-      <c r="B254" s="478"/>
+      <c r="A254" s="396"/>
+      <c r="B254" s="479"/>
       <c r="C254" s="172" t="s">
         <v>314</v>
       </c>
-      <c r="D254" s="397"/>
+      <c r="D254" s="398"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="395">
+      <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="479" t="s">
+      <c r="B256" s="480" t="s">
         <v>315</v>
       </c>
       <c r="C256" s="173" t="s">
         <v>316</v>
       </c>
-      <c r="D256" s="397" t="s">
+      <c r="D256" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="395"/>
-      <c r="B257" s="479"/>
+      <c r="A257" s="396"/>
+      <c r="B257" s="480"/>
       <c r="C257" s="174" t="s">
         <v>317</v>
       </c>
-      <c r="D257" s="397"/>
+      <c r="D257" s="398"/>
     </row>
     <row r="259" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="395">
+      <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="484" t="s">
+      <c r="B259" s="485" t="s">
         <v>318</v>
       </c>
       <c r="C259" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="D259" s="397" t="s">
+      <c r="D259" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="395"/>
-      <c r="B260" s="484"/>
+      <c r="A260" s="396"/>
+      <c r="B260" s="485"/>
       <c r="C260" s="176" t="s">
         <v>320</v>
       </c>
-      <c r="D260" s="397"/>
+      <c r="D260" s="398"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="395">
+      <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="485" t="s">
+      <c r="B262" s="486" t="s">
         <v>321</v>
       </c>
       <c r="C262" s="177" t="s">
         <v>322</v>
       </c>
-      <c r="D262" s="397" t="s">
+      <c r="D262" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="395"/>
-      <c r="B263" s="485"/>
+      <c r="A263" s="396"/>
+      <c r="B263" s="486"/>
       <c r="C263" s="178" t="s">
         <v>323</v>
       </c>
-      <c r="D263" s="397"/>
+      <c r="D263" s="398"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="395">
+      <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="482" t="s">
+      <c r="B265" s="483" t="s">
         <v>300</v>
       </c>
       <c r="C265" s="179" t="s">
         <v>324</v>
       </c>
-      <c r="D265" s="397" t="s">
+      <c r="D265" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="395"/>
-      <c r="B266" s="482"/>
+      <c r="A266" s="396"/>
+      <c r="B266" s="483"/>
       <c r="C266" s="180" t="s">
         <v>325</v>
       </c>
-      <c r="D266" s="397"/>
+      <c r="D266" s="398"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="395">
+      <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="483" t="s">
+      <c r="B268" s="484" t="s">
         <v>326</v>
       </c>
       <c r="C268" s="181" t="s">
         <v>327</v>
       </c>
-      <c r="D268" s="397" t="s">
+      <c r="D268" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="395"/>
-      <c r="B269" s="483"/>
+      <c r="A269" s="396"/>
+      <c r="B269" s="484"/>
       <c r="C269" s="182" t="s">
         <v>328</v>
       </c>
-      <c r="D269" s="397"/>
+      <c r="D269" s="398"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="395">
+      <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="488" t="s">
+      <c r="B271" s="489" t="s">
         <v>329</v>
       </c>
       <c r="C271" s="183" t="s">
         <v>330</v>
       </c>
-      <c r="D271" s="397" t="s">
+      <c r="D271" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="395"/>
-      <c r="B272" s="488"/>
+      <c r="A272" s="396"/>
+      <c r="B272" s="489"/>
       <c r="C272" s="184" t="s">
         <v>331</v>
       </c>
-      <c r="D272" s="397"/>
+      <c r="D272" s="398"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="395">
+      <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="489" t="s">
+      <c r="B274" s="490" t="s">
         <v>332</v>
       </c>
       <c r="C274" s="185" t="s">
         <v>333</v>
       </c>
-      <c r="D274" s="397" t="s">
+      <c r="D274" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="395"/>
-      <c r="B275" s="489"/>
+      <c r="A275" s="396"/>
+      <c r="B275" s="490"/>
       <c r="C275" s="186" t="s">
         <v>334</v>
       </c>
-      <c r="D275" s="397"/>
+      <c r="D275" s="398"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="395">
+      <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="486" t="s">
+      <c r="B277" s="487" t="s">
         <v>335</v>
       </c>
       <c r="C277" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="D277" s="397" t="s">
+      <c r="D277" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="395"/>
-      <c r="B278" s="486"/>
+      <c r="A278" s="396"/>
+      <c r="B278" s="487"/>
       <c r="C278" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="D278" s="397"/>
+      <c r="D278" s="398"/>
     </row>
     <row r="280" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="395">
+      <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="487" t="s">
+      <c r="B280" s="488" t="s">
         <v>338</v>
       </c>
       <c r="C280" s="189" t="s">
         <v>339</v>
       </c>
-      <c r="D280" s="397" t="s">
+      <c r="D280" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="395"/>
-      <c r="B281" s="487"/>
+      <c r="A281" s="396"/>
+      <c r="B281" s="488"/>
       <c r="C281" s="190" t="s">
         <v>340</v>
       </c>
-      <c r="D281" s="397"/>
+      <c r="D281" s="398"/>
     </row>
     <row r="283" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="395">
+      <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="492" t="s">
+      <c r="B283" s="493" t="s">
         <v>341</v>
       </c>
       <c r="C283" s="191" t="s">
         <v>342</v>
       </c>
-      <c r="D283" s="397" t="s">
+      <c r="D283" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="395"/>
-      <c r="B284" s="492"/>
+      <c r="A284" s="396"/>
+      <c r="B284" s="493"/>
       <c r="C284" s="192" t="s">
         <v>343</v>
       </c>
-      <c r="D284" s="397"/>
+      <c r="D284" s="398"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="395">
+      <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="493" t="s">
+      <c r="B286" s="494" t="s">
         <v>344</v>
       </c>
       <c r="C286" s="193" t="s">
         <v>345</v>
       </c>
-      <c r="D286" s="397" t="s">
+      <c r="D286" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="395"/>
-      <c r="B287" s="493"/>
+      <c r="A287" s="396"/>
+      <c r="B287" s="494"/>
       <c r="C287" s="194" t="s">
         <v>346</v>
       </c>
-      <c r="D287" s="397"/>
+      <c r="D287" s="398"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="395">
+      <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="490" t="s">
+      <c r="B289" s="491" t="s">
         <v>347</v>
       </c>
       <c r="C289" s="195" t="s">
         <v>348</v>
       </c>
-      <c r="D289" s="397" t="s">
+      <c r="D289" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="395"/>
-      <c r="B290" s="490"/>
+      <c r="A290" s="396"/>
+      <c r="B290" s="491"/>
       <c r="C290" s="196" t="s">
         <v>349</v>
       </c>
-      <c r="D290" s="397"/>
+      <c r="D290" s="398"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="395">
+      <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="491" t="s">
+      <c r="B292" s="492" t="s">
         <v>350</v>
       </c>
       <c r="C292" s="197" t="s">
         <v>351</v>
       </c>
-      <c r="D292" s="397" t="s">
+      <c r="D292" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="395"/>
-      <c r="B293" s="491"/>
+      <c r="A293" s="396"/>
+      <c r="B293" s="492"/>
       <c r="C293" s="198" t="s">
         <v>352</v>
       </c>
-      <c r="D293" s="397"/>
+      <c r="D293" s="398"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="395">
+      <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="496" t="s">
+      <c r="B295" s="497" t="s">
         <v>353</v>
       </c>
       <c r="C295" s="199" t="s">
         <v>354</v>
       </c>
-      <c r="D295" s="397" t="s">
+      <c r="D295" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="395"/>
-      <c r="B296" s="496"/>
+      <c r="A296" s="396"/>
+      <c r="B296" s="497"/>
       <c r="C296" s="200" t="s">
         <v>355</v>
       </c>
-      <c r="D296" s="397"/>
+      <c r="D296" s="398"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="395">
+      <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="497" t="s">
+      <c r="B298" s="498" t="s">
         <v>356</v>
       </c>
       <c r="C298" s="201" t="s">
         <v>357</v>
       </c>
-      <c r="D298" s="397" t="s">
+      <c r="D298" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="395"/>
-      <c r="B299" s="497"/>
+      <c r="A299" s="396"/>
+      <c r="B299" s="498"/>
       <c r="C299" s="202" t="s">
         <v>358</v>
       </c>
-      <c r="D299" s="397"/>
+      <c r="D299" s="398"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="395">
+      <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="494" t="s">
+      <c r="B301" s="495" t="s">
         <v>359</v>
       </c>
       <c r="C301" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="D301" s="397" t="s">
+      <c r="D301" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="395"/>
-      <c r="B302" s="494"/>
+      <c r="A302" s="396"/>
+      <c r="B302" s="495"/>
       <c r="C302" s="204" t="s">
         <v>361</v>
       </c>
-      <c r="D302" s="397"/>
+      <c r="D302" s="398"/>
     </row>
     <row r="304" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="395">
+      <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="495" t="s">
+      <c r="B304" s="496" t="s">
         <v>362</v>
       </c>
       <c r="C304" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="D304" s="397" t="s">
+      <c r="D304" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="395"/>
-      <c r="B305" s="495"/>
+      <c r="A305" s="396"/>
+      <c r="B305" s="496"/>
       <c r="C305" s="206" t="s">
         <v>364</v>
       </c>
-      <c r="D305" s="397"/>
+      <c r="D305" s="398"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="395">
+      <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="500" t="s">
+      <c r="B307" s="501" t="s">
         <v>365</v>
       </c>
       <c r="C307" s="207" t="s">
         <v>366</v>
       </c>
-      <c r="D307" s="397" t="s">
+      <c r="D307" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="395"/>
-      <c r="B308" s="500"/>
+      <c r="A308" s="396"/>
+      <c r="B308" s="501"/>
       <c r="C308" s="208" t="s">
         <v>367</v>
       </c>
-      <c r="D308" s="397"/>
+      <c r="D308" s="398"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="395">
+      <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="501" t="s">
+      <c r="B310" s="502" t="s">
         <v>368</v>
       </c>
       <c r="C310" s="209" t="s">
         <v>369</v>
       </c>
-      <c r="D310" s="397" t="s">
+      <c r="D310" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="395"/>
-      <c r="B311" s="501"/>
+      <c r="A311" s="396"/>
+      <c r="B311" s="502"/>
       <c r="C311" s="210" t="s">
         <v>370</v>
       </c>
-      <c r="D311" s="397"/>
+      <c r="D311" s="398"/>
     </row>
     <row r="313" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="395">
+      <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="498" t="s">
+      <c r="B313" s="499" t="s">
         <v>371</v>
       </c>
       <c r="C313" s="211" t="s">
         <v>372</v>
       </c>
-      <c r="D313" s="397" t="s">
+      <c r="D313" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="395"/>
-      <c r="B314" s="498"/>
+      <c r="A314" s="396"/>
+      <c r="B314" s="499"/>
       <c r="C314" s="212" t="s">
         <v>373</v>
       </c>
-      <c r="D314" s="397"/>
+      <c r="D314" s="398"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="395">
+      <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="499" t="s">
+      <c r="B316" s="500" t="s">
         <v>374</v>
       </c>
       <c r="C316" s="213" t="s">
         <v>375</v>
       </c>
-      <c r="D316" s="397" t="s">
+      <c r="D316" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="395"/>
-      <c r="B317" s="499"/>
+      <c r="A317" s="396"/>
+      <c r="B317" s="500"/>
       <c r="C317" s="214" t="s">
         <v>376</v>
       </c>
-      <c r="D317" s="397"/>
+      <c r="D317" s="398"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="395">
+      <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="504" t="s">
+      <c r="B319" s="505" t="s">
         <v>377</v>
       </c>
       <c r="C319" s="215" t="s">
         <v>378</v>
       </c>
-      <c r="D319" s="397" t="s">
+      <c r="D319" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="395"/>
-      <c r="B320" s="504"/>
+      <c r="A320" s="396"/>
+      <c r="B320" s="505"/>
       <c r="C320" s="216" t="s">
         <v>379</v>
       </c>
-      <c r="D320" s="397"/>
+      <c r="D320" s="398"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="395">
+      <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="505" t="s">
+      <c r="B322" s="506" t="s">
         <v>380</v>
       </c>
       <c r="C322" s="217" t="s">
         <v>381</v>
       </c>
-      <c r="D322" s="397" t="s">
+      <c r="D322" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="395"/>
-      <c r="B323" s="505"/>
+      <c r="A323" s="396"/>
+      <c r="B323" s="506"/>
       <c r="C323" s="218" t="s">
         <v>382</v>
       </c>
-      <c r="D323" s="397"/>
+      <c r="D323" s="398"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="395">
+      <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="502" t="s">
+      <c r="B325" s="503" t="s">
         <v>383</v>
       </c>
       <c r="C325" s="219" t="s">
         <v>384</v>
       </c>
-      <c r="D325" s="397" t="s">
+      <c r="D325" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="395"/>
-      <c r="B326" s="502"/>
+      <c r="A326" s="396"/>
+      <c r="B326" s="503"/>
       <c r="C326" s="220" t="s">
         <v>385</v>
       </c>
-      <c r="D326" s="397"/>
+      <c r="D326" s="398"/>
     </row>
     <row r="328" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="395">
+      <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="503" t="s">
+      <c r="B328" s="504" t="s">
         <v>386</v>
       </c>
       <c r="C328" s="221" t="s">
         <v>387</v>
       </c>
-      <c r="D328" s="397" t="s">
+      <c r="D328" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="395"/>
-      <c r="B329" s="503"/>
+      <c r="A329" s="396"/>
+      <c r="B329" s="504"/>
       <c r="C329" s="222" t="s">
         <v>388</v>
       </c>
-      <c r="D329" s="397"/>
+      <c r="D329" s="398"/>
     </row>
     <row r="331" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="395">
+      <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="508" t="s">
+      <c r="B331" s="509" t="s">
         <v>389</v>
       </c>
       <c r="C331" s="223" t="s">
         <v>390</v>
       </c>
-      <c r="D331" s="397" t="s">
+      <c r="D331" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="395"/>
-      <c r="B332" s="508"/>
+      <c r="A332" s="396"/>
+      <c r="B332" s="509"/>
       <c r="C332" s="224" t="s">
         <v>391</v>
       </c>
-      <c r="D332" s="397"/>
+      <c r="D332" s="398"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="395">
+      <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="509" t="s">
+      <c r="B334" s="510" t="s">
         <v>392</v>
       </c>
       <c r="C334" s="225" t="s">
         <v>393</v>
       </c>
-      <c r="D334" s="397" t="s">
+      <c r="D334" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="395"/>
-      <c r="B335" s="509"/>
+      <c r="A335" s="396"/>
+      <c r="B335" s="510"/>
       <c r="C335" s="226" t="s">
         <v>394</v>
       </c>
-      <c r="D335" s="397"/>
+      <c r="D335" s="398"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="395">
+      <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="506" t="s">
+      <c r="B337" s="507" t="s">
         <v>395</v>
       </c>
       <c r="C337" s="227" t="s">
         <v>396</v>
       </c>
-      <c r="D337" s="397" t="s">
+      <c r="D337" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="395"/>
-      <c r="B338" s="506"/>
+      <c r="A338" s="396"/>
+      <c r="B338" s="507"/>
       <c r="C338" s="228" t="s">
         <v>397</v>
       </c>
-      <c r="D338" s="397"/>
+      <c r="D338" s="398"/>
     </row>
     <row r="340" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="395">
+      <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="507" t="s">
+      <c r="B340" s="508" t="s">
         <v>398</v>
       </c>
       <c r="C340" s="229" t="s">
         <v>399</v>
       </c>
-      <c r="D340" s="397" t="s">
+      <c r="D340" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="395"/>
-      <c r="B341" s="507"/>
+      <c r="A341" s="396"/>
+      <c r="B341" s="508"/>
       <c r="C341" s="230" t="s">
         <v>400</v>
       </c>
-      <c r="D341" s="397"/>
+      <c r="D341" s="398"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="395">
+      <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="512" t="s">
+      <c r="B343" s="513" t="s">
         <v>401</v>
       </c>
       <c r="C343" s="231" t="s">
         <v>402</v>
       </c>
-      <c r="D343" s="397" t="s">
+      <c r="D343" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="395"/>
-      <c r="B344" s="512"/>
+      <c r="A344" s="396"/>
+      <c r="B344" s="513"/>
       <c r="C344" s="232" t="s">
         <v>403</v>
       </c>
-      <c r="D344" s="397"/>
+      <c r="D344" s="398"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="395">
+      <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="513" t="s">
+      <c r="B346" s="514" t="s">
         <v>404</v>
       </c>
       <c r="C346" s="233" t="s">
         <v>405</v>
       </c>
-      <c r="D346" s="397" t="s">
+      <c r="D346" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="395"/>
-      <c r="B347" s="513"/>
+      <c r="A347" s="396"/>
+      <c r="B347" s="514"/>
       <c r="C347" s="234" t="s">
         <v>406</v>
       </c>
-      <c r="D347" s="397"/>
+      <c r="D347" s="398"/>
     </row>
     <row r="349" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="395">
+      <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="510" t="s">
+      <c r="B349" s="511" t="s">
         <v>407</v>
       </c>
       <c r="C349" s="235" t="s">
         <v>408</v>
       </c>
-      <c r="D349" s="397" t="s">
+      <c r="D349" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="395"/>
-      <c r="B350" s="510"/>
+      <c r="A350" s="396"/>
+      <c r="B350" s="511"/>
       <c r="C350" s="236" t="s">
         <v>409</v>
       </c>
-      <c r="D350" s="397"/>
+      <c r="D350" s="398"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="395">
+      <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="511" t="s">
+      <c r="B352" s="512" t="s">
         <v>410</v>
       </c>
       <c r="C352" s="237" t="s">
         <v>411</v>
       </c>
-      <c r="D352" s="397" t="s">
+      <c r="D352" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="395"/>
-      <c r="B353" s="511"/>
+      <c r="A353" s="396"/>
+      <c r="B353" s="512"/>
       <c r="C353" s="238" t="s">
         <v>412</v>
       </c>
-      <c r="D353" s="397"/>
+      <c r="D353" s="398"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="395">
+      <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="516" t="s">
+      <c r="B355" s="517" t="s">
         <v>413</v>
       </c>
       <c r="C355" s="239" t="s">
         <v>414</v>
       </c>
-      <c r="D355" s="397" t="s">
+      <c r="D355" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="395"/>
-      <c r="B356" s="516"/>
+      <c r="A356" s="396"/>
+      <c r="B356" s="517"/>
       <c r="C356" s="240" t="s">
         <v>415</v>
       </c>
-      <c r="D356" s="397"/>
+      <c r="D356" s="398"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="395">
+      <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="517" t="s">
+      <c r="B358" s="518" t="s">
         <v>416</v>
       </c>
       <c r="C358" s="241" t="s">
         <v>417</v>
       </c>
-      <c r="D358" s="397" t="s">
+      <c r="D358" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="395"/>
-      <c r="B359" s="517"/>
+      <c r="A359" s="396"/>
+      <c r="B359" s="518"/>
       <c r="C359" s="242" t="s">
         <v>418</v>
       </c>
-      <c r="D359" s="397"/>
+      <c r="D359" s="398"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="395">
+      <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="514" t="s">
+      <c r="B361" s="515" t="s">
         <v>419</v>
       </c>
       <c r="C361" s="243" t="s">
         <v>420</v>
       </c>
-      <c r="D361" s="397" t="s">
+      <c r="D361" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="395"/>
-      <c r="B362" s="514"/>
+      <c r="A362" s="396"/>
+      <c r="B362" s="515"/>
       <c r="C362" s="244" t="s">
         <v>421</v>
       </c>
-      <c r="D362" s="397"/>
+      <c r="D362" s="398"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="395">
+      <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="515" t="s">
+      <c r="B364" s="516" t="s">
         <v>422</v>
       </c>
       <c r="C364" s="245" t="s">
         <v>423</v>
       </c>
-      <c r="D364" s="397" t="s">
+      <c r="D364" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="395"/>
-      <c r="B365" s="515"/>
+      <c r="A365" s="396"/>
+      <c r="B365" s="516"/>
       <c r="C365" s="246" t="s">
         <v>424</v>
       </c>
-      <c r="D365" s="397"/>
+      <c r="D365" s="398"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" s="395">
+      <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="520" t="s">
+      <c r="B367" s="521" t="s">
         <v>425</v>
       </c>
       <c r="C367" s="247" t="s">
         <v>426</v>
       </c>
-      <c r="D367" s="397" t="s">
+      <c r="D367" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="395"/>
-      <c r="B368" s="520"/>
+      <c r="A368" s="396"/>
+      <c r="B368" s="521"/>
       <c r="C368" s="248" t="s">
         <v>427</v>
       </c>
-      <c r="D368" s="397"/>
+      <c r="D368" s="398"/>
     </row>
     <row r="370" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="395">
+      <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="521" t="s">
+      <c r="B370" s="522" t="s">
         <v>428</v>
       </c>
       <c r="C370" s="249" t="s">
         <v>429</v>
       </c>
-      <c r="D370" s="397" t="s">
+      <c r="D370" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="395"/>
-      <c r="B371" s="521"/>
+      <c r="A371" s="396"/>
+      <c r="B371" s="522"/>
       <c r="C371" s="250" t="s">
         <v>430</v>
       </c>
-      <c r="D371" s="397"/>
+      <c r="D371" s="398"/>
     </row>
     <row r="373" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="395">
+      <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="518" t="s">
+      <c r="B373" s="519" t="s">
         <v>431</v>
       </c>
       <c r="C373" s="251" t="s">
         <v>432</v>
       </c>
-      <c r="D373" s="397" t="s">
+      <c r="D373" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="395"/>
-      <c r="B374" s="518"/>
+      <c r="A374" s="396"/>
+      <c r="B374" s="519"/>
       <c r="C374" s="252" t="s">
         <v>433</v>
       </c>
-      <c r="D374" s="397"/>
+      <c r="D374" s="398"/>
     </row>
     <row r="376" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="395">
+      <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="519" t="s">
+      <c r="B376" s="520" t="s">
         <v>434</v>
       </c>
       <c r="C376" s="253" t="s">
         <v>435</v>
       </c>
-      <c r="D376" s="397" t="s">
+      <c r="D376" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="395"/>
-      <c r="B377" s="519"/>
+      <c r="A377" s="396"/>
+      <c r="B377" s="520"/>
       <c r="C377" s="254" t="s">
         <v>436</v>
       </c>
-      <c r="D377" s="397"/>
+      <c r="D377" s="398"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="395">
+      <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="524" t="s">
+      <c r="B379" s="525" t="s">
         <v>437</v>
       </c>
       <c r="C379" s="255" t="s">
         <v>438</v>
       </c>
-      <c r="D379" s="397" t="s">
+      <c r="D379" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="395"/>
-      <c r="B380" s="524"/>
+      <c r="A380" s="396"/>
+      <c r="B380" s="525"/>
       <c r="C380" s="256" t="s">
         <v>439</v>
       </c>
-      <c r="D380" s="397"/>
+      <c r="D380" s="398"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="395">
+      <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="525" t="s">
+      <c r="B382" s="526" t="s">
         <v>440</v>
       </c>
       <c r="C382" s="257" t="s">
         <v>441</v>
       </c>
-      <c r="D382" s="397" t="s">
+      <c r="D382" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="395"/>
-      <c r="B383" s="525"/>
+      <c r="A383" s="396"/>
+      <c r="B383" s="526"/>
       <c r="C383" s="258" t="s">
         <v>442</v>
       </c>
-      <c r="D383" s="397"/>
+      <c r="D383" s="398"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" s="395">
+      <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="522" t="s">
+      <c r="B385" s="523" t="s">
         <v>443</v>
       </c>
       <c r="C385" s="259" t="s">
         <v>444</v>
       </c>
-      <c r="D385" s="397" t="s">
+      <c r="D385" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="395"/>
-      <c r="B386" s="522"/>
+      <c r="A386" s="396"/>
+      <c r="B386" s="523"/>
       <c r="C386" s="260" t="s">
         <v>445</v>
       </c>
-      <c r="D386" s="397"/>
+      <c r="D386" s="398"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" s="395">
+      <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="523" t="s">
+      <c r="B388" s="524" t="s">
         <v>446</v>
       </c>
       <c r="C388" s="261" t="s">
         <v>447</v>
       </c>
-      <c r="D388" s="397" t="s">
+      <c r="D388" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" s="395"/>
-      <c r="B389" s="523"/>
+      <c r="A389" s="396"/>
+      <c r="B389" s="524"/>
       <c r="C389" s="262" t="s">
         <v>448</v>
       </c>
-      <c r="D389" s="397"/>
+      <c r="D389" s="398"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" s="395">
+      <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="528" t="s">
+      <c r="B391" s="529" t="s">
         <v>449</v>
       </c>
       <c r="C391" s="263" t="s">
         <v>450</v>
       </c>
-      <c r="D391" s="397" t="s">
+      <c r="D391" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" s="395"/>
-      <c r="B392" s="528"/>
+      <c r="A392" s="396"/>
+      <c r="B392" s="529"/>
       <c r="C392" s="264" t="s">
         <v>451</v>
       </c>
-      <c r="D392" s="397"/>
+      <c r="D392" s="398"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" s="395">
+      <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="529" t="s">
+      <c r="B394" s="530" t="s">
         <v>452</v>
       </c>
       <c r="C394" s="265" t="s">
         <v>453</v>
       </c>
-      <c r="D394" s="397" t="s">
+      <c r="D394" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" s="395"/>
-      <c r="B395" s="529"/>
+      <c r="A395" s="396"/>
+      <c r="B395" s="530"/>
       <c r="C395" s="266" t="s">
         <v>454</v>
       </c>
-      <c r="D395" s="397"/>
+      <c r="D395" s="398"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" s="395">
+      <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="526" t="s">
+      <c r="B397" s="527" t="s">
         <v>455</v>
       </c>
       <c r="C397" s="267" t="s">
         <v>456</v>
       </c>
-      <c r="D397" s="397" t="s">
+      <c r="D397" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398" s="395"/>
-      <c r="B398" s="526"/>
+      <c r="A398" s="396"/>
+      <c r="B398" s="527"/>
       <c r="C398" s="268" t="s">
         <v>457</v>
       </c>
-      <c r="D398" s="397"/>
+      <c r="D398" s="398"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400" s="395">
+      <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="527" t="s">
+      <c r="B400" s="528" t="s">
         <v>458</v>
       </c>
       <c r="C400" s="269" t="s">
         <v>459</v>
       </c>
-      <c r="D400" s="397" t="s">
+      <c r="D400" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" s="395"/>
-      <c r="B401" s="527"/>
+      <c r="A401" s="396"/>
+      <c r="B401" s="528"/>
       <c r="C401" s="270" t="s">
         <v>460</v>
       </c>
-      <c r="D401" s="397"/>
+      <c r="D401" s="398"/>
     </row>
     <row r="403" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="395">
+      <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="532" t="s">
+      <c r="B403" s="533" t="s">
         <v>461</v>
       </c>
       <c r="C403" s="271" t="s">
         <v>462</v>
       </c>
-      <c r="D403" s="397" t="s">
+      <c r="D403" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404" s="395"/>
-      <c r="B404" s="532"/>
+      <c r="A404" s="396"/>
+      <c r="B404" s="533"/>
       <c r="C404" s="272" t="s">
         <v>463</v>
       </c>
-      <c r="D404" s="397"/>
+      <c r="D404" s="398"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" s="395">
+      <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="533" t="s">
+      <c r="B406" s="534" t="s">
         <v>464</v>
       </c>
       <c r="C406" s="273" t="s">
         <v>465</v>
       </c>
-      <c r="D406" s="397" t="s">
+      <c r="D406" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" s="395"/>
-      <c r="B407" s="533"/>
+      <c r="A407" s="396"/>
+      <c r="B407" s="534"/>
       <c r="C407" s="274" t="s">
         <v>466</v>
       </c>
-      <c r="D407" s="397"/>
+      <c r="D407" s="398"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" s="395">
+      <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="530" t="s">
+      <c r="B409" s="531" t="s">
         <v>467</v>
       </c>
       <c r="C409" s="275" t="s">
         <v>468</v>
       </c>
-      <c r="D409" s="397" t="s">
+      <c r="D409" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" s="395"/>
-      <c r="B410" s="530"/>
+      <c r="A410" s="396"/>
+      <c r="B410" s="531"/>
       <c r="C410" s="276" t="s">
         <v>469</v>
       </c>
-      <c r="D410" s="397"/>
+      <c r="D410" s="398"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412" s="395">
+      <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="531" t="s">
+      <c r="B412" s="532" t="s">
         <v>470</v>
       </c>
       <c r="C412" s="277" t="s">
         <v>471</v>
       </c>
-      <c r="D412" s="397" t="s">
+      <c r="D412" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413" s="395"/>
-      <c r="B413" s="531"/>
+      <c r="A413" s="396"/>
+      <c r="B413" s="532"/>
       <c r="C413" s="278" t="s">
         <v>472</v>
       </c>
-      <c r="D413" s="397"/>
+      <c r="D413" s="398"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" s="395">
+      <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="536" t="s">
+      <c r="B415" s="537" t="s">
         <v>473</v>
       </c>
       <c r="C415" s="279" t="s">
         <v>474</v>
       </c>
-      <c r="D415" s="397" t="s">
+      <c r="D415" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" s="395"/>
-      <c r="B416" s="536"/>
+      <c r="A416" s="396"/>
+      <c r="B416" s="537"/>
       <c r="C416" s="280" t="s">
         <v>475</v>
       </c>
-      <c r="D416" s="397"/>
+      <c r="D416" s="398"/>
     </row>
     <row r="418" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="395">
+      <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="537" t="s">
+      <c r="B418" s="538" t="s">
         <v>476</v>
       </c>
       <c r="C418" s="281" t="s">
         <v>477</v>
       </c>
-      <c r="D418" s="397" t="s">
+      <c r="D418" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" s="395"/>
-      <c r="B419" s="537"/>
+      <c r="A419" s="396"/>
+      <c r="B419" s="538"/>
       <c r="C419" s="282" t="s">
         <v>478</v>
       </c>
-      <c r="D419" s="397"/>
+      <c r="D419" s="398"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="395">
+      <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="534" t="s">
+      <c r="B421" s="535" t="s">
         <v>479</v>
       </c>
       <c r="C421" s="283" t="s">
         <v>480</v>
       </c>
-      <c r="D421" s="397" t="s">
+      <c r="D421" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" s="395"/>
-      <c r="B422" s="534"/>
+      <c r="A422" s="396"/>
+      <c r="B422" s="535"/>
       <c r="C422" s="284" t="s">
         <v>481</v>
       </c>
-      <c r="D422" s="397"/>
+      <c r="D422" s="398"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" s="395">
+      <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="535" t="s">
+      <c r="B424" s="536" t="s">
         <v>482</v>
       </c>
       <c r="C424" s="285" t="s">
         <v>483</v>
       </c>
-      <c r="D424" s="397" t="s">
+      <c r="D424" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425" s="395"/>
-      <c r="B425" s="535"/>
+      <c r="A425" s="396"/>
+      <c r="B425" s="536"/>
       <c r="C425" s="286" t="s">
         <v>484</v>
       </c>
-      <c r="D425" s="397"/>
+      <c r="D425" s="398"/>
     </row>
     <row r="427" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="395">
+      <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="540" t="s">
+      <c r="B427" s="541" t="s">
         <v>485</v>
       </c>
       <c r="C427" s="287" t="s">
         <v>486</v>
       </c>
-      <c r="D427" s="397" t="s">
+      <c r="D427" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" s="395"/>
-      <c r="B428" s="540"/>
+      <c r="A428" s="396"/>
+      <c r="B428" s="541"/>
       <c r="C428" s="288" t="s">
         <v>487</v>
       </c>
-      <c r="D428" s="397"/>
+      <c r="D428" s="398"/>
     </row>
     <row r="430" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="395">
+      <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="541" t="s">
+      <c r="B430" s="542" t="s">
         <v>488</v>
       </c>
       <c r="C430" s="289" t="s">
         <v>489</v>
       </c>
-      <c r="D430" s="397" t="s">
+      <c r="D430" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" s="395"/>
-      <c r="B431" s="541"/>
+      <c r="A431" s="396"/>
+      <c r="B431" s="542"/>
       <c r="C431" s="290" t="s">
         <v>490</v>
       </c>
-      <c r="D431" s="397"/>
+      <c r="D431" s="398"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" s="395">
+      <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="538" t="s">
+      <c r="B433" s="539" t="s">
         <v>491</v>
       </c>
       <c r="C433" s="291" t="s">
         <v>492</v>
       </c>
-      <c r="D433" s="397" t="s">
+      <c r="D433" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="395"/>
-      <c r="B434" s="538"/>
+      <c r="A434" s="396"/>
+      <c r="B434" s="539"/>
       <c r="C434" s="292" t="s">
         <v>493</v>
       </c>
-      <c r="D434" s="397"/>
+      <c r="D434" s="398"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436" s="395">
+      <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="539" t="s">
+      <c r="B436" s="540" t="s">
         <v>494</v>
       </c>
       <c r="C436" s="293" t="s">
         <v>495</v>
       </c>
-      <c r="D436" s="397" t="s">
+      <c r="D436" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437" s="395"/>
-      <c r="B437" s="539"/>
+      <c r="A437" s="396"/>
+      <c r="B437" s="540"/>
       <c r="C437" s="294" t="s">
         <v>496</v>
       </c>
-      <c r="D437" s="397"/>
+      <c r="D437" s="398"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439" s="395">
+      <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="544" t="s">
+      <c r="B439" s="545" t="s">
         <v>497</v>
       </c>
       <c r="C439" s="295" t="s">
         <v>498</v>
       </c>
-      <c r="D439" s="397" t="s">
+      <c r="D439" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440" s="395"/>
-      <c r="B440" s="544"/>
+      <c r="A440" s="396"/>
+      <c r="B440" s="545"/>
       <c r="C440" s="296" t="s">
         <v>499</v>
       </c>
-      <c r="D440" s="397"/>
+      <c r="D440" s="398"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442" s="395">
+      <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="545" t="s">
+      <c r="B442" s="546" t="s">
         <v>500</v>
       </c>
       <c r="C442" s="297" t="s">
         <v>501</v>
       </c>
-      <c r="D442" s="397" t="s">
+      <c r="D442" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="395"/>
-      <c r="B443" s="545"/>
+      <c r="A443" s="396"/>
+      <c r="B443" s="546"/>
       <c r="C443" s="298" t="s">
         <v>502</v>
       </c>
-      <c r="D443" s="397"/>
+      <c r="D443" s="398"/>
     </row>
     <row r="445" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="395">
+      <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="542" t="s">
+      <c r="B445" s="543" t="s">
         <v>503</v>
       </c>
       <c r="C445" s="299" t="s">
         <v>504</v>
       </c>
-      <c r="D445" s="397" t="s">
+      <c r="D445" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446" s="395"/>
-      <c r="B446" s="542"/>
+      <c r="A446" s="396"/>
+      <c r="B446" s="543"/>
       <c r="C446" s="300" t="s">
         <v>505</v>
       </c>
-      <c r="D446" s="397"/>
+      <c r="D446" s="398"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448" s="395">
+      <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="543" t="s">
+      <c r="B448" s="544" t="s">
         <v>506</v>
       </c>
       <c r="C448" s="301" t="s">
         <v>507</v>
       </c>
-      <c r="D448" s="397" t="s">
+      <c r="D448" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449" s="395"/>
-      <c r="B449" s="543"/>
+      <c r="A449" s="396"/>
+      <c r="B449" s="544"/>
       <c r="C449" s="302" t="s">
         <v>508</v>
       </c>
-      <c r="D449" s="397"/>
+      <c r="D449" s="398"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" s="395">
+      <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="548" t="s">
+      <c r="B451" s="549" t="s">
         <v>509</v>
       </c>
       <c r="C451" s="303" t="s">
         <v>510</v>
       </c>
-      <c r="D451" s="397" t="s">
+      <c r="D451" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452" s="395"/>
-      <c r="B452" s="548"/>
+      <c r="A452" s="396"/>
+      <c r="B452" s="549"/>
       <c r="C452" s="304" t="s">
         <v>511</v>
       </c>
-      <c r="D452" s="397"/>
+      <c r="D452" s="398"/>
     </row>
     <row r="454" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="395">
+      <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="549" t="s">
+      <c r="B454" s="550" t="s">
         <v>512</v>
       </c>
       <c r="C454" s="305" t="s">
         <v>513</v>
       </c>
-      <c r="D454" s="397" t="s">
+      <c r="D454" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455" s="395"/>
-      <c r="B455" s="549"/>
+      <c r="A455" s="396"/>
+      <c r="B455" s="550"/>
       <c r="C455" s="306" t="s">
         <v>514</v>
       </c>
-      <c r="D455" s="397"/>
+      <c r="D455" s="398"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A457" s="395">
+      <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="546" t="s">
+      <c r="B457" s="547" t="s">
         <v>515</v>
       </c>
       <c r="C457" s="307" t="s">
         <v>516</v>
       </c>
-      <c r="D457" s="397" t="s">
+      <c r="D457" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A458" s="395"/>
-      <c r="B458" s="546"/>
+      <c r="A458" s="396"/>
+      <c r="B458" s="547"/>
       <c r="C458" s="308" t="s">
         <v>517</v>
       </c>
-      <c r="D458" s="397"/>
+      <c r="D458" s="398"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460" s="395">
+      <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="547" t="s">
+      <c r="B460" s="548" t="s">
         <v>518</v>
       </c>
       <c r="C460" s="309" t="s">
         <v>519</v>
       </c>
-      <c r="D460" s="397" t="s">
+      <c r="D460" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461" s="395"/>
-      <c r="B461" s="547"/>
+      <c r="A461" s="396"/>
+      <c r="B461" s="548"/>
       <c r="C461" s="310" t="s">
         <v>520</v>
       </c>
-      <c r="D461" s="397"/>
+      <c r="D461" s="398"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463" s="395">
+      <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="552" t="s">
+      <c r="B463" s="553" t="s">
         <v>521</v>
       </c>
       <c r="C463" s="311" t="s">
         <v>522</v>
       </c>
-      <c r="D463" s="397" t="s">
+      <c r="D463" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464" s="395"/>
-      <c r="B464" s="552"/>
+      <c r="A464" s="396"/>
+      <c r="B464" s="553"/>
       <c r="C464" s="312" t="s">
         <v>523</v>
       </c>
-      <c r="D464" s="397"/>
+      <c r="D464" s="398"/>
     </row>
     <row r="466" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="395">
+      <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="553" t="s">
+      <c r="B466" s="554" t="s">
         <v>524</v>
       </c>
       <c r="C466" s="313" t="s">
         <v>525</v>
       </c>
-      <c r="D466" s="397" t="s">
+      <c r="D466" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A467" s="395"/>
-      <c r="B467" s="553"/>
+      <c r="A467" s="396"/>
+      <c r="B467" s="554"/>
       <c r="C467" s="314" t="s">
         <v>526</v>
       </c>
-      <c r="D467" s="397"/>
+      <c r="D467" s="398"/>
     </row>
     <row r="469" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="395">
+      <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="550" t="s">
+      <c r="B469" s="551" t="s">
         <v>527</v>
       </c>
       <c r="C469" s="315" t="s">
         <v>528</v>
       </c>
-      <c r="D469" s="397" t="s">
+      <c r="D469" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470" s="395"/>
-      <c r="B470" s="550"/>
+      <c r="A470" s="396"/>
+      <c r="B470" s="551"/>
       <c r="C470" s="316" t="s">
         <v>529</v>
       </c>
-      <c r="D470" s="397"/>
+      <c r="D470" s="398"/>
     </row>
     <row r="472" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="395">
+      <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="551" t="s">
+      <c r="B472" s="552" t="s">
         <v>530</v>
       </c>
       <c r="C472" s="317" t="s">
         <v>531</v>
       </c>
-      <c r="D472" s="397" t="s">
+      <c r="D472" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A473" s="395"/>
-      <c r="B473" s="551"/>
+      <c r="A473" s="396"/>
+      <c r="B473" s="552"/>
       <c r="C473" s="318" t="s">
         <v>532</v>
       </c>
-      <c r="D473" s="397"/>
+      <c r="D473" s="398"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475" s="395">
+      <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="556" t="s">
+      <c r="B475" s="557" t="s">
         <v>533</v>
       </c>
       <c r="C475" s="319" t="s">
         <v>534</v>
       </c>
-      <c r="D475" s="397" t="s">
+      <c r="D475" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476" s="395"/>
-      <c r="B476" s="556"/>
+      <c r="A476" s="396"/>
+      <c r="B476" s="557"/>
       <c r="C476" s="320" t="s">
         <v>535</v>
       </c>
-      <c r="D476" s="397"/>
+      <c r="D476" s="398"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A478" s="395">
+      <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="557" t="s">
+      <c r="B478" s="558" t="s">
         <v>536</v>
       </c>
       <c r="C478" s="321" t="s">
         <v>537</v>
       </c>
-      <c r="D478" s="397" t="s">
+      <c r="D478" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A479" s="395"/>
-      <c r="B479" s="557"/>
+      <c r="A479" s="396"/>
+      <c r="B479" s="558"/>
       <c r="C479" s="322" t="s">
         <v>538</v>
       </c>
-      <c r="D479" s="397"/>
+      <c r="D479" s="398"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A481" s="395">
+      <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="554" t="s">
+      <c r="B481" s="555" t="s">
         <v>539</v>
       </c>
       <c r="C481" s="323" t="s">
         <v>540</v>
       </c>
-      <c r="D481" s="397" t="s">
+      <c r="D481" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A482" s="395"/>
-      <c r="B482" s="554"/>
+      <c r="A482" s="396"/>
+      <c r="B482" s="555"/>
       <c r="C482" s="324" t="s">
         <v>541</v>
       </c>
-      <c r="D482" s="397"/>
+      <c r="D482" s="398"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A484" s="395">
+      <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="555" t="s">
+      <c r="B484" s="556" t="s">
         <v>542</v>
       </c>
       <c r="C484" s="325" t="s">
         <v>543</v>
       </c>
-      <c r="D484" s="397" t="s">
+      <c r="D484" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A485" s="395"/>
-      <c r="B485" s="555"/>
+      <c r="A485" s="396"/>
+      <c r="B485" s="556"/>
       <c r="C485" s="326" t="s">
         <v>544</v>
       </c>
-      <c r="D485" s="397"/>
+      <c r="D485" s="398"/>
     </row>
     <row r="487" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="395">
+      <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="560" t="s">
+      <c r="B487" s="561" t="s">
         <v>545</v>
       </c>
       <c r="C487" s="327" t="s">
         <v>546</v>
       </c>
-      <c r="D487" s="397" t="s">
+      <c r="D487" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A488" s="395"/>
-      <c r="B488" s="560"/>
+      <c r="A488" s="396"/>
+      <c r="B488" s="561"/>
       <c r="C488" s="328" t="s">
         <v>547</v>
       </c>
-      <c r="D488" s="397"/>
+      <c r="D488" s="398"/>
     </row>
     <row r="490" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="395">
+      <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="561" t="s">
+      <c r="B490" s="562" t="s">
         <v>548</v>
       </c>
       <c r="C490" s="329" t="s">
         <v>549</v>
       </c>
-      <c r="D490" s="397" t="s">
+      <c r="D490" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A491" s="395"/>
-      <c r="B491" s="561"/>
+      <c r="A491" s="396"/>
+      <c r="B491" s="562"/>
       <c r="C491" s="330" t="s">
         <v>550</v>
       </c>
-      <c r="D491" s="397"/>
+      <c r="D491" s="398"/>
     </row>
     <row r="493" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="395">
+      <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="558" t="s">
+      <c r="B493" s="559" t="s">
         <v>551</v>
       </c>
       <c r="C493" s="331" t="s">
         <v>552</v>
       </c>
-      <c r="D493" s="397" t="s">
+      <c r="D493" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A494" s="395"/>
-      <c r="B494" s="558"/>
+      <c r="A494" s="396"/>
+      <c r="B494" s="559"/>
       <c r="C494" s="332" t="s">
         <v>553</v>
       </c>
-      <c r="D494" s="397"/>
+      <c r="D494" s="398"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A496" s="395">
+      <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="559" t="s">
+      <c r="B496" s="560" t="s">
         <v>554</v>
       </c>
       <c r="C496" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="D496" s="397" t="s">
+      <c r="D496" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A497" s="395"/>
-      <c r="B497" s="559"/>
+      <c r="A497" s="396"/>
+      <c r="B497" s="560"/>
       <c r="C497" s="334" t="s">
         <v>556</v>
       </c>
-      <c r="D497" s="397"/>
+      <c r="D497" s="398"/>
     </row>
     <row r="499" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="395">
+      <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="564" t="s">
+      <c r="B499" s="565" t="s">
         <v>557</v>
       </c>
       <c r="C499" s="335" t="s">
         <v>558</v>
       </c>
-      <c r="D499" s="397" t="s">
+      <c r="D499" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A500" s="395"/>
-      <c r="B500" s="564"/>
+      <c r="A500" s="396"/>
+      <c r="B500" s="565"/>
       <c r="C500" s="336" t="s">
         <v>559</v>
       </c>
-      <c r="D500" s="397"/>
+      <c r="D500" s="398"/>
     </row>
     <row r="502" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="395">
+      <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="565" t="s">
+      <c r="B502" s="566" t="s">
         <v>560</v>
       </c>
       <c r="C502" s="337" t="s">
         <v>561</v>
       </c>
-      <c r="D502" s="397" t="s">
+      <c r="D502" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A503" s="395"/>
-      <c r="B503" s="565"/>
+      <c r="A503" s="396"/>
+      <c r="B503" s="566"/>
       <c r="C503" s="338" t="s">
         <v>562</v>
       </c>
-      <c r="D503" s="397"/>
+      <c r="D503" s="398"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A505" s="395">
+      <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="562" t="s">
+      <c r="B505" s="563" t="s">
         <v>563</v>
       </c>
       <c r="C505" s="339" t="s">
         <v>564</v>
       </c>
-      <c r="D505" s="397" t="s">
+      <c r="D505" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A506" s="395"/>
-      <c r="B506" s="562"/>
+      <c r="A506" s="396"/>
+      <c r="B506" s="563"/>
       <c r="C506" s="340" t="s">
         <v>565</v>
       </c>
-      <c r="D506" s="397"/>
+      <c r="D506" s="398"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A508" s="395">
+      <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="563" t="s">
+      <c r="B508" s="564" t="s">
         <v>566</v>
       </c>
       <c r="C508" s="341" t="s">
         <v>567</v>
       </c>
-      <c r="D508" s="397" t="s">
+      <c r="D508" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A509" s="395"/>
-      <c r="B509" s="563"/>
+      <c r="A509" s="396"/>
+      <c r="B509" s="564"/>
       <c r="C509" s="342" t="s">
         <v>568</v>
       </c>
-      <c r="D509" s="397"/>
+      <c r="D509" s="398"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A511" s="395">
+      <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="568" t="s">
+      <c r="B511" s="569" t="s">
         <v>569</v>
       </c>
       <c r="C511" s="343" t="s">
         <v>570</v>
       </c>
-      <c r="D511" s="397" t="s">
+      <c r="D511" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A512" s="395"/>
-      <c r="B512" s="568"/>
+      <c r="A512" s="396"/>
+      <c r="B512" s="569"/>
       <c r="C512" s="344" t="s">
         <v>571</v>
       </c>
-      <c r="D512" s="397"/>
+      <c r="D512" s="398"/>
     </row>
     <row r="514" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="395">
+      <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="569" t="s">
+      <c r="B514" s="570" t="s">
         <v>572</v>
       </c>
       <c r="C514" s="345" t="s">
         <v>573</v>
       </c>
-      <c r="D514" s="397" t="s">
+      <c r="D514" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A515" s="395"/>
-      <c r="B515" s="569"/>
+      <c r="A515" s="396"/>
+      <c r="B515" s="570"/>
       <c r="C515" s="346" t="s">
         <v>574</v>
       </c>
-      <c r="D515" s="397"/>
+      <c r="D515" s="398"/>
     </row>
     <row r="517" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="395">
+      <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="566" t="s">
+      <c r="B517" s="567" t="s">
         <v>575</v>
       </c>
       <c r="C517" s="347" t="s">
         <v>576</v>
       </c>
-      <c r="D517" s="397" t="s">
+      <c r="D517" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A518" s="395"/>
-      <c r="B518" s="566"/>
+      <c r="A518" s="396"/>
+      <c r="B518" s="567"/>
       <c r="C518" s="348" t="s">
         <v>577</v>
       </c>
-      <c r="D518" s="397"/>
+      <c r="D518" s="398"/>
     </row>
     <row r="520" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A520" s="395">
+      <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="567" t="s">
+      <c r="B520" s="568" t="s">
         <v>578</v>
       </c>
       <c r="C520" s="349" t="s">
         <v>579</v>
       </c>
-      <c r="D520" s="397" t="s">
+      <c r="D520" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A521" s="395"/>
-      <c r="B521" s="567"/>
+      <c r="A521" s="396"/>
+      <c r="B521" s="568"/>
       <c r="C521" s="350" t="s">
         <v>580</v>
       </c>
-      <c r="D521" s="397"/>
+      <c r="D521" s="398"/>
     </row>
     <row r="523" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="395">
+      <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="572" t="s">
+      <c r="B523" s="573" t="s">
         <v>581</v>
       </c>
       <c r="C523" s="351" t="s">
         <v>582</v>
       </c>
-      <c r="D523" s="397" t="s">
+      <c r="D523" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A524" s="395"/>
-      <c r="B524" s="572"/>
+      <c r="A524" s="396"/>
+      <c r="B524" s="573"/>
       <c r="C524" s="352" t="s">
         <v>583</v>
       </c>
-      <c r="D524" s="397"/>
+      <c r="D524" s="398"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A526" s="395">
+      <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="573" t="s">
+      <c r="B526" s="574" t="s">
         <v>584</v>
       </c>
       <c r="C526" s="353" t="s">
         <v>585</v>
       </c>
-      <c r="D526" s="397" t="s">
+      <c r="D526" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A527" s="395"/>
-      <c r="B527" s="573"/>
+      <c r="A527" s="396"/>
+      <c r="B527" s="574"/>
       <c r="C527" s="354" t="s">
         <v>586</v>
       </c>
-      <c r="D527" s="397"/>
+      <c r="D527" s="398"/>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A529" s="395">
+      <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="570" t="s">
+      <c r="B529" s="571" t="s">
         <v>587</v>
       </c>
       <c r="C529" s="355" t="s">
         <v>588</v>
       </c>
-      <c r="D529" s="397" t="s">
+      <c r="D529" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A530" s="395"/>
-      <c r="B530" s="570"/>
+      <c r="A530" s="396"/>
+      <c r="B530" s="571"/>
       <c r="C530" s="356" t="s">
         <v>589</v>
       </c>
-      <c r="D530" s="397"/>
+      <c r="D530" s="398"/>
     </row>
     <row r="532" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="395">
+      <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="571" t="s">
+      <c r="B532" s="572" t="s">
         <v>590</v>
       </c>
       <c r="C532" s="357" t="s">
         <v>591</v>
       </c>
-      <c r="D532" s="397" t="s">
+      <c r="D532" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A533" s="395"/>
-      <c r="B533" s="571"/>
+      <c r="A533" s="396"/>
+      <c r="B533" s="572"/>
       <c r="C533" s="358" t="s">
         <v>592</v>
       </c>
-      <c r="D533" s="397"/>
+      <c r="D533" s="398"/>
     </row>
     <row r="535" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A535" s="395">
+      <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="576" t="s">
+      <c r="B535" s="577" t="s">
         <v>593</v>
       </c>
       <c r="C535" s="359" t="s">
         <v>594</v>
       </c>
-      <c r="D535" s="397" t="s">
+      <c r="D535" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A536" s="395"/>
-      <c r="B536" s="576"/>
+      <c r="A536" s="396"/>
+      <c r="B536" s="577"/>
       <c r="C536" s="360" t="s">
         <v>595</v>
       </c>
-      <c r="D536" s="397"/>
+      <c r="D536" s="398"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A538" s="395">
+      <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="577" t="s">
+      <c r="B538" s="578" t="s">
         <v>596</v>
       </c>
       <c r="C538" s="361" t="s">
         <v>597</v>
       </c>
-      <c r="D538" s="397" t="s">
+      <c r="D538" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A539" s="395"/>
-      <c r="B539" s="577"/>
+      <c r="A539" s="396"/>
+      <c r="B539" s="578"/>
       <c r="C539" s="362" t="s">
         <v>598</v>
       </c>
-      <c r="D539" s="397"/>
+      <c r="D539" s="398"/>
     </row>
     <row r="541" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="395">
+      <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="574" t="s">
+      <c r="B541" s="575" t="s">
         <v>599</v>
       </c>
       <c r="C541" s="363" t="s">
         <v>600</v>
       </c>
-      <c r="D541" s="397" t="s">
+      <c r="D541" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A542" s="395"/>
-      <c r="B542" s="574"/>
+      <c r="A542" s="396"/>
+      <c r="B542" s="575"/>
       <c r="C542" s="364" t="s">
         <v>601</v>
       </c>
-      <c r="D542" s="397"/>
+      <c r="D542" s="398"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A544" s="395">
+      <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="575" t="s">
+      <c r="B544" s="576" t="s">
         <v>602</v>
       </c>
       <c r="C544" s="365" t="s">
         <v>603</v>
       </c>
-      <c r="D544" s="397" t="s">
+      <c r="D544" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A545" s="395"/>
-      <c r="B545" s="575"/>
+      <c r="A545" s="396"/>
+      <c r="B545" s="576"/>
       <c r="C545" s="366" t="s">
         <v>604</v>
       </c>
-      <c r="D545" s="397"/>
+      <c r="D545" s="398"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A547" s="395">
+      <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="580" t="s">
+      <c r="B547" s="581" t="s">
         <v>605</v>
       </c>
       <c r="C547" s="367" t="s">
         <v>606</v>
       </c>
-      <c r="D547" s="397" t="s">
+      <c r="D547" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A548" s="395"/>
-      <c r="B548" s="580"/>
+      <c r="A548" s="396"/>
+      <c r="B548" s="581"/>
       <c r="C548" s="368" t="s">
         <v>607</v>
       </c>
-      <c r="D548" s="397"/>
+      <c r="D548" s="398"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A550" s="395">
+      <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="581" t="s">
+      <c r="B550" s="582" t="s">
         <v>608</v>
       </c>
       <c r="C550" s="369" t="s">
         <v>609</v>
       </c>
-      <c r="D550" s="397" t="s">
+      <c r="D550" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A551" s="395"/>
-      <c r="B551" s="581"/>
+      <c r="A551" s="396"/>
+      <c r="B551" s="582"/>
       <c r="C551" s="370" t="s">
         <v>610</v>
       </c>
-      <c r="D551" s="397"/>
+      <c r="D551" s="398"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A553" s="395">
+      <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="578" t="s">
+      <c r="B553" s="579" t="s">
         <v>611</v>
       </c>
       <c r="C553" s="371" t="s">
         <v>612</v>
       </c>
-      <c r="D553" s="397" t="s">
+      <c r="D553" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A554" s="395"/>
-      <c r="B554" s="578"/>
+      <c r="A554" s="396"/>
+      <c r="B554" s="579"/>
       <c r="C554" s="372" t="s">
         <v>613</v>
       </c>
-      <c r="D554" s="397"/>
+      <c r="D554" s="398"/>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A556" s="395">
+      <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="579" t="s">
+      <c r="B556" s="580" t="s">
         <v>614</v>
       </c>
       <c r="C556" s="373" t="s">
         <v>615</v>
       </c>
-      <c r="D556" s="397" t="s">
+      <c r="D556" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A557" s="395"/>
-      <c r="B557" s="579"/>
+      <c r="A557" s="396"/>
+      <c r="B557" s="580"/>
       <c r="C557" s="374" t="s">
         <v>616</v>
       </c>
-      <c r="D557" s="397"/>
+      <c r="D557" s="398"/>
     </row>
     <row r="559" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="395">
+      <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="584" t="s">
+      <c r="B559" s="585" t="s">
         <v>617</v>
       </c>
       <c r="C559" s="375" t="s">
         <v>618</v>
       </c>
-      <c r="D559" s="397" t="s">
+      <c r="D559" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A560" s="395"/>
-      <c r="B560" s="584"/>
+      <c r="A560" s="396"/>
+      <c r="B560" s="585"/>
       <c r="C560" s="376" t="s">
         <v>619</v>
       </c>
-      <c r="D560" s="397"/>
+      <c r="D560" s="398"/>
     </row>
     <row r="562" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A562" s="395">
+      <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="585" t="s">
+      <c r="B562" s="586" t="s">
         <v>620</v>
       </c>
       <c r="C562" s="377" t="s">
         <v>621</v>
       </c>
-      <c r="D562" s="397" t="s">
+      <c r="D562" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A563" s="395"/>
-      <c r="B563" s="585"/>
+      <c r="A563" s="396"/>
+      <c r="B563" s="586"/>
       <c r="C563" s="378" t="s">
         <v>622</v>
       </c>
-      <c r="D563" s="397"/>
+      <c r="D563" s="398"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A565" s="395">
+      <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="582" t="s">
+      <c r="B565" s="583" t="s">
         <v>623</v>
       </c>
       <c r="C565" s="379" t="s">
         <v>624</v>
       </c>
-      <c r="D565" s="397" t="s">
+      <c r="D565" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A566" s="395"/>
-      <c r="B566" s="582"/>
+      <c r="A566" s="396"/>
+      <c r="B566" s="583"/>
       <c r="C566" s="380" t="s">
         <v>625</v>
       </c>
-      <c r="D566" s="397"/>
+      <c r="D566" s="398"/>
     </row>
     <row r="568" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A568" s="395">
+      <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="583" t="s">
+      <c r="B568" s="584" t="s">
         <v>626</v>
       </c>
       <c r="C568" s="381" t="s">
         <v>627</v>
       </c>
-      <c r="D568" s="397" t="s">
+      <c r="D568" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A569" s="395"/>
-      <c r="B569" s="583"/>
+      <c r="A569" s="396"/>
+      <c r="B569" s="584"/>
       <c r="C569" s="382" t="s">
         <v>628</v>
       </c>
-      <c r="D569" s="397"/>
+      <c r="D569" s="398"/>
     </row>
     <row r="571" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A571" s="395">
+      <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="591" t="s">
+      <c r="B571" s="592" t="s">
         <v>629</v>
       </c>
       <c r="C571" s="383" t="s">
         <v>630</v>
       </c>
-      <c r="D571" s="397" t="s">
+      <c r="D571" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A572" s="395"/>
-      <c r="B572" s="591"/>
+      <c r="A572" s="396"/>
+      <c r="B572" s="592"/>
       <c r="C572" s="384" t="s">
         <v>631</v>
       </c>
-      <c r="D572" s="397"/>
+      <c r="D572" s="398"/>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A574" s="395">
+      <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="592" t="s">
+      <c r="B574" s="593" t="s">
         <v>632</v>
       </c>
       <c r="C574" s="385" t="s">
         <v>633</v>
       </c>
-      <c r="D574" s="397" t="s">
+      <c r="D574" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A575" s="395"/>
-      <c r="B575" s="592"/>
+      <c r="A575" s="396"/>
+      <c r="B575" s="593"/>
       <c r="C575" s="386" t="s">
         <v>634</v>
       </c>
-      <c r="D575" s="397"/>
+      <c r="D575" s="398"/>
     </row>
     <row r="577" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A577" s="395">
+      <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="586" t="s">
+      <c r="B577" s="587" t="s">
         <v>635</v>
       </c>
       <c r="C577" s="387" t="s">
         <v>636</v>
       </c>
-      <c r="D577" s="397" t="s">
+      <c r="D577" s="398" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A578" s="395"/>
-      <c r="B578" s="586"/>
+      <c r="A578" s="396"/>
+      <c r="B578" s="587"/>
       <c r="C578" s="388" t="s">
         <v>637</v>
       </c>
-      <c r="D578" s="397"/>
+      <c r="D578" s="398"/>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A580" s="397"/>
-      <c r="B580" s="397"/>
-      <c r="C580" s="397"/>
-      <c r="D580" s="397"/>
+      <c r="A580" s="398"/>
+      <c r="B580" s="398"/>
+      <c r="C580" s="398"/>
+      <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="587"/>
-      <c r="B581" s="589"/>
+      <c r="A581" s="588"/>
+      <c r="B581" s="590"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="588"/>
-      <c r="B582" s="590"/>
+      <c r="A582" s="589"/>
+      <c r="B582" s="591"/>
     </row>
   </sheetData>
   <mergeCells count="582">
@@ -11124,7 +11132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Pentapod Bom.xlsx
+++ b/Pentapod Bom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -4397,577 +4397,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4986,6 +4419,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5509,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6273,7 +6273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D582"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B202" sqref="B202:B203"/>
     </sheetView>
   </sheetViews>
@@ -6283,7 +6283,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="591" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6295,7 +6295,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
+      <c r="B2" s="591"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="592" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6317,7 +6317,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="399"/>
+      <c r="B5" s="592"/>
       <c r="C5" s="8" t="s">
         <v>67</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="589" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6339,7 +6339,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="402"/>
+      <c r="B8" s="589"/>
       <c r="C8" s="10" t="s">
         <v>70</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="590" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -6361,7 +6361,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="403"/>
+      <c r="B11" s="590"/>
       <c r="C11" s="12" t="s">
         <v>73</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="400" t="s">
+      <c r="B13" s="593" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -6383,7 +6383,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="400"/>
+      <c r="B14" s="593"/>
       <c r="C14" s="14" t="s">
         <v>76</v>
       </c>
@@ -6393,7 +6393,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="401" t="s">
+      <c r="B16" s="588" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -6405,7 +6405,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="401"/>
+      <c r="B17" s="588"/>
       <c r="C17" s="16" t="s">
         <v>79</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="406" t="s">
+      <c r="B19" s="586" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -6427,7 +6427,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="406"/>
+      <c r="B20" s="586"/>
       <c r="C20" s="18" t="s">
         <v>82</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="407" t="s">
+      <c r="B22" s="587" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6449,7 +6449,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="407"/>
+      <c r="B23" s="587"/>
       <c r="C23" s="20" t="s">
         <v>85</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="584" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6471,7 +6471,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="404"/>
+      <c r="B26" s="584"/>
       <c r="C26" s="22" t="s">
         <v>88</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="585" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6493,7 +6493,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="405"/>
+      <c r="B29" s="585"/>
       <c r="C29" s="24" t="s">
         <v>91</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="410" t="s">
+      <c r="B31" s="582" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6515,7 +6515,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="410"/>
+      <c r="B32" s="582"/>
       <c r="C32" s="26" t="s">
         <v>94</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="411" t="s">
+      <c r="B34" s="583" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6537,7 +6537,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="411"/>
+      <c r="B35" s="583"/>
       <c r="C35" s="28" t="s">
         <v>97</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="408" t="s">
+      <c r="B37" s="580" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6559,7 +6559,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="408"/>
+      <c r="B38" s="580"/>
       <c r="C38" s="30" t="s">
         <v>100</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="409" t="s">
+      <c r="B40" s="581" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6581,7 +6581,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="409"/>
+      <c r="B41" s="581"/>
       <c r="C41" s="32" t="s">
         <v>103</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="414" t="s">
+      <c r="B43" s="578" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="414"/>
+      <c r="B44" s="578"/>
       <c r="C44" s="34" t="s">
         <v>106</v>
       </c>
@@ -6613,7 +6613,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="579" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6625,7 +6625,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="415"/>
+      <c r="B47" s="579"/>
       <c r="C47" s="36" t="s">
         <v>109</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="412" t="s">
+      <c r="B49" s="576" t="s">
         <v>110</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6647,7 +6647,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="412"/>
+      <c r="B50" s="576"/>
       <c r="C50" s="38" t="s">
         <v>112</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="413" t="s">
+      <c r="B52" s="577" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6669,7 +6669,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="413"/>
+      <c r="B53" s="577"/>
       <c r="C53" s="40" t="s">
         <v>115</v>
       </c>
@@ -6679,7 +6679,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="418" t="s">
+      <c r="B55" s="575" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6691,7 +6691,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="418"/>
+      <c r="B56" s="575"/>
       <c r="C56" s="42" t="s">
         <v>118</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="418" t="s">
+      <c r="B58" s="575" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6713,7 +6713,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="418"/>
+      <c r="B59" s="575"/>
       <c r="C59" s="42" t="s">
         <v>118</v>
       </c>
@@ -6723,7 +6723,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="416" t="s">
+      <c r="B61" s="573" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6735,7 +6735,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="416"/>
+      <c r="B62" s="573"/>
       <c r="C62" s="44" t="s">
         <v>122</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="417" t="s">
+      <c r="B64" s="574" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6757,7 +6757,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="417"/>
+      <c r="B65" s="574"/>
       <c r="C65" s="46" t="s">
         <v>125</v>
       </c>
@@ -6767,7 +6767,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="421" t="s">
+      <c r="B67" s="571" t="s">
         <v>126</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6779,7 +6779,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="421"/>
+      <c r="B68" s="571"/>
       <c r="C68" s="48" t="s">
         <v>128</v>
       </c>
@@ -6789,7 +6789,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="422" t="s">
+      <c r="B70" s="572" t="s">
         <v>129</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6801,7 +6801,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="422"/>
+      <c r="B71" s="572"/>
       <c r="C71" s="50" t="s">
         <v>131</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="419" t="s">
+      <c r="B73" s="569" t="s">
         <v>132</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6823,7 +6823,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="419"/>
+      <c r="B74" s="569"/>
       <c r="C74" s="52" t="s">
         <v>134</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="420" t="s">
+      <c r="B76" s="570" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6845,7 +6845,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="420"/>
+      <c r="B77" s="570"/>
       <c r="C77" s="54" t="s">
         <v>137</v>
       </c>
@@ -6855,7 +6855,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="425" t="s">
+      <c r="B79" s="567" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6867,7 +6867,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="425"/>
+      <c r="B80" s="567"/>
       <c r="C80" s="56" t="s">
         <v>140</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="426" t="s">
+      <c r="B82" s="568" t="s">
         <v>141</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6889,7 +6889,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="426"/>
+      <c r="B83" s="568"/>
       <c r="C83" s="58" t="s">
         <v>143</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="423" t="s">
+      <c r="B85" s="565" t="s">
         <v>144</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6911,7 +6911,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="423"/>
+      <c r="B86" s="565"/>
       <c r="C86" s="60" t="s">
         <v>146</v>
       </c>
@@ -6921,7 +6921,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="424" t="s">
+      <c r="B88" s="566" t="s">
         <v>147</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6933,7 +6933,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="424"/>
+      <c r="B89" s="566"/>
       <c r="C89" s="62" t="s">
         <v>149</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="429" t="s">
+      <c r="B91" s="563" t="s">
         <v>150</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6955,7 +6955,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="429"/>
+      <c r="B92" s="563"/>
       <c r="C92" s="64" t="s">
         <v>152</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="430" t="s">
+      <c r="B94" s="564" t="s">
         <v>153</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6977,7 +6977,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="430"/>
+      <c r="B95" s="564"/>
       <c r="C95" s="66" t="s">
         <v>155</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="427" t="s">
+      <c r="B97" s="561" t="s">
         <v>156</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6999,7 +6999,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="427"/>
+      <c r="B98" s="561"/>
       <c r="C98" s="68" t="s">
         <v>158</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="428" t="s">
+      <c r="B100" s="562" t="s">
         <v>159</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -7021,7 +7021,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="428"/>
+      <c r="B101" s="562"/>
       <c r="C101" s="70" t="s">
         <v>161</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="433" t="s">
+      <c r="B103" s="559" t="s">
         <v>162</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -7043,7 +7043,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="433"/>
+      <c r="B104" s="559"/>
       <c r="C104" s="72" t="s">
         <v>164</v>
       </c>
@@ -7053,7 +7053,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="434" t="s">
+      <c r="B106" s="560" t="s">
         <v>165</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -7065,7 +7065,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="434"/>
+      <c r="B107" s="560"/>
       <c r="C107" s="74" t="s">
         <v>167</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="431" t="s">
+      <c r="B109" s="557" t="s">
         <v>168</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -7087,7 +7087,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="431"/>
+      <c r="B110" s="557"/>
       <c r="C110" s="76" t="s">
         <v>170</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="432" t="s">
+      <c r="B112" s="558" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -7109,7 +7109,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="432"/>
+      <c r="B113" s="558"/>
       <c r="C113" s="78" t="s">
         <v>173</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="437" t="s">
+      <c r="B115" s="555" t="s">
         <v>174</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -7131,7 +7131,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="437"/>
+      <c r="B116" s="555"/>
       <c r="C116" s="80" t="s">
         <v>176</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="438" t="s">
+      <c r="B118" s="556" t="s">
         <v>177</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -7153,7 +7153,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="438"/>
+      <c r="B119" s="556"/>
       <c r="C119" s="82" t="s">
         <v>179</v>
       </c>
@@ -7163,7 +7163,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="435" t="s">
+      <c r="B121" s="553" t="s">
         <v>180</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -7175,7 +7175,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="435"/>
+      <c r="B122" s="553"/>
       <c r="C122" s="84" t="s">
         <v>182</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="436" t="s">
+      <c r="B124" s="554" t="s">
         <v>183</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -7197,7 +7197,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="436"/>
+      <c r="B125" s="554"/>
       <c r="C125" s="86" t="s">
         <v>185</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="441" t="s">
+      <c r="B127" s="551" t="s">
         <v>186</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -7219,7 +7219,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="441"/>
+      <c r="B128" s="551"/>
       <c r="C128" s="88" t="s">
         <v>188</v>
       </c>
@@ -7229,7 +7229,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="442" t="s">
+      <c r="B130" s="552" t="s">
         <v>189</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -7241,7 +7241,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="442"/>
+      <c r="B131" s="552"/>
       <c r="C131" s="90" t="s">
         <v>191</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="439" t="s">
+      <c r="B133" s="549" t="s">
         <v>192</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -7263,7 +7263,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="439"/>
+      <c r="B134" s="549"/>
       <c r="C134" s="92" t="s">
         <v>194</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="440" t="s">
+      <c r="B136" s="550" t="s">
         <v>195</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -7285,7 +7285,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="440"/>
+      <c r="B137" s="550"/>
       <c r="C137" s="94" t="s">
         <v>197</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="445" t="s">
+      <c r="B139" s="547" t="s">
         <v>198</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -7307,7 +7307,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="445"/>
+      <c r="B140" s="547"/>
       <c r="C140" s="96" t="s">
         <v>200</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="446" t="s">
+      <c r="B142" s="548" t="s">
         <v>201</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -7329,7 +7329,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="446"/>
+      <c r="B143" s="548"/>
       <c r="C143" s="98" t="s">
         <v>203</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="443" t="s">
+      <c r="B145" s="545" t="s">
         <v>204</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -7351,7 +7351,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="443"/>
+      <c r="B146" s="545"/>
       <c r="C146" s="100" t="s">
         <v>206</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="444" t="s">
+      <c r="B148" s="546" t="s">
         <v>207</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -7373,7 +7373,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="444"/>
+      <c r="B149" s="546"/>
       <c r="C149" s="102" t="s">
         <v>209</v>
       </c>
@@ -7383,7 +7383,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="449" t="s">
+      <c r="B151" s="543" t="s">
         <v>210</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -7395,7 +7395,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="449"/>
+      <c r="B152" s="543"/>
       <c r="C152" s="104" t="s">
         <v>212</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="450" t="s">
+      <c r="B154" s="544" t="s">
         <v>213</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -7417,7 +7417,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="450"/>
+      <c r="B155" s="544"/>
       <c r="C155" s="106" t="s">
         <v>215</v>
       </c>
@@ -7427,7 +7427,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="447" t="s">
+      <c r="B157" s="541" t="s">
         <v>216</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -7439,7 +7439,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="447"/>
+      <c r="B158" s="541"/>
       <c r="C158" s="108" t="s">
         <v>218</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="448" t="s">
+      <c r="B160" s="542" t="s">
         <v>219</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -7461,7 +7461,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="448"/>
+      <c r="B161" s="542"/>
       <c r="C161" s="110" t="s">
         <v>221</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="453" t="s">
+      <c r="B163" s="539" t="s">
         <v>222</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7483,7 +7483,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="453"/>
+      <c r="B164" s="539"/>
       <c r="C164" s="112" t="s">
         <v>224</v>
       </c>
@@ -7493,7 +7493,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="454" t="s">
+      <c r="B166" s="540" t="s">
         <v>225</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7505,7 +7505,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="454"/>
+      <c r="B167" s="540"/>
       <c r="C167" s="114" t="s">
         <v>227</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="451" t="s">
+      <c r="B169" s="537" t="s">
         <v>228</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7527,7 +7527,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="451"/>
+      <c r="B170" s="537"/>
       <c r="C170" s="116" t="s">
         <v>230</v>
       </c>
@@ -7537,7 +7537,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="452" t="s">
+      <c r="B172" s="538" t="s">
         <v>231</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7549,7 +7549,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="452"/>
+      <c r="B173" s="538"/>
       <c r="C173" s="118" t="s">
         <v>233</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="457" t="s">
+      <c r="B175" s="535" t="s">
         <v>234</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7571,7 +7571,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="457"/>
+      <c r="B176" s="535"/>
       <c r="C176" s="120" t="s">
         <v>236</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="458" t="s">
+      <c r="B178" s="536" t="s">
         <v>237</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7593,7 +7593,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="458"/>
+      <c r="B179" s="536"/>
       <c r="C179" s="122" t="s">
         <v>239</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="455" t="s">
+      <c r="B181" s="533" t="s">
         <v>240</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7615,7 +7615,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="455"/>
+      <c r="B182" s="533"/>
       <c r="C182" s="124" t="s">
         <v>242</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="456" t="s">
+      <c r="B184" s="534" t="s">
         <v>243</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7637,7 +7637,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="456"/>
+      <c r="B185" s="534"/>
       <c r="C185" s="126" t="s">
         <v>245</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="461" t="s">
+      <c r="B187" s="531" t="s">
         <v>246</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7659,7 +7659,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="461"/>
+      <c r="B188" s="531"/>
       <c r="C188" s="128" t="s">
         <v>248</v>
       </c>
@@ -7669,7 +7669,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="462" t="s">
+      <c r="B190" s="532" t="s">
         <v>249</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7681,7 +7681,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="462"/>
+      <c r="B191" s="532"/>
       <c r="C191" s="130" t="s">
         <v>251</v>
       </c>
@@ -7691,7 +7691,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="459" t="s">
+      <c r="B193" s="529" t="s">
         <v>252</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7703,7 +7703,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="459"/>
+      <c r="B194" s="529"/>
       <c r="C194" s="132" t="s">
         <v>254</v>
       </c>
@@ -7713,7 +7713,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="460" t="s">
+      <c r="B196" s="530" t="s">
         <v>255</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7725,7 +7725,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="460"/>
+      <c r="B197" s="530"/>
       <c r="C197" s="134" t="s">
         <v>257</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="465" t="s">
+      <c r="B199" s="527" t="s">
         <v>258</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7747,7 +7747,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="465"/>
+      <c r="B200" s="527"/>
       <c r="C200" s="136" t="s">
         <v>260</v>
       </c>
@@ -7757,7 +7757,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="466" t="s">
+      <c r="B202" s="528" t="s">
         <v>261</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7769,7 +7769,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="466"/>
+      <c r="B203" s="528"/>
       <c r="C203" s="138" t="s">
         <v>263</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="463" t="s">
+      <c r="B205" s="525" t="s">
         <v>264</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7791,7 +7791,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="463"/>
+      <c r="B206" s="525"/>
       <c r="C206" s="140" t="s">
         <v>266</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="464" t="s">
+      <c r="B208" s="526" t="s">
         <v>267</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7813,7 +7813,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="464"/>
+      <c r="B209" s="526"/>
       <c r="C209" s="142" t="s">
         <v>269</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="469" t="s">
+      <c r="B211" s="523" t="s">
         <v>270</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7835,7 +7835,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="469"/>
+      <c r="B212" s="523"/>
       <c r="C212" s="144" t="s">
         <v>272</v>
       </c>
@@ -7845,7 +7845,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="470" t="s">
+      <c r="B214" s="524" t="s">
         <v>273</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7857,7 +7857,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="470"/>
+      <c r="B215" s="524"/>
       <c r="C215" s="146" t="s">
         <v>275</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="467" t="s">
+      <c r="B217" s="521" t="s">
         <v>276</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7879,7 +7879,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="467"/>
+      <c r="B218" s="521"/>
       <c r="C218" s="148" t="s">
         <v>278</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="468" t="s">
+      <c r="B220" s="522" t="s">
         <v>279</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7901,7 +7901,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="468"/>
+      <c r="B221" s="522"/>
       <c r="C221" s="150" t="s">
         <v>281</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="473" t="s">
+      <c r="B223" s="519" t="s">
         <v>282</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7923,7 +7923,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="473"/>
+      <c r="B224" s="519"/>
       <c r="C224" s="152" t="s">
         <v>284</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="474" t="s">
+      <c r="B226" s="520" t="s">
         <v>285</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7945,7 +7945,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="474"/>
+      <c r="B227" s="520"/>
       <c r="C227" s="154" t="s">
         <v>287</v>
       </c>
@@ -7955,7 +7955,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="471" t="s">
+      <c r="B229" s="517" t="s">
         <v>288</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7967,7 +7967,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="471"/>
+      <c r="B230" s="517"/>
       <c r="C230" s="156" t="s">
         <v>290</v>
       </c>
@@ -7977,7 +7977,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="472" t="s">
+      <c r="B232" s="518" t="s">
         <v>291</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7989,7 +7989,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="472"/>
+      <c r="B233" s="518"/>
       <c r="C233" s="158" t="s">
         <v>293</v>
       </c>
@@ -7999,7 +7999,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="477" t="s">
+      <c r="B235" s="515" t="s">
         <v>294</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -8011,7 +8011,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="477"/>
+      <c r="B236" s="515"/>
       <c r="C236" s="160" t="s">
         <v>296</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="478" t="s">
+      <c r="B238" s="516" t="s">
         <v>297</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -8033,7 +8033,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="478"/>
+      <c r="B239" s="516"/>
       <c r="C239" s="162" t="s">
         <v>299</v>
       </c>
@@ -8043,7 +8043,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="475" t="s">
+      <c r="B241" s="513" t="s">
         <v>300</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -8055,7 +8055,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="475"/>
+      <c r="B242" s="513"/>
       <c r="C242" s="164" t="s">
         <v>302</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="476" t="s">
+      <c r="B244" s="514" t="s">
         <v>303</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -8077,7 +8077,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="476"/>
+      <c r="B245" s="514"/>
       <c r="C245" s="166" t="s">
         <v>305</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="481" t="s">
+      <c r="B247" s="511" t="s">
         <v>306</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -8099,7 +8099,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="481"/>
+      <c r="B248" s="511"/>
       <c r="C248" s="168" t="s">
         <v>308</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="482" t="s">
+      <c r="B250" s="512" t="s">
         <v>309</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -8121,7 +8121,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="482"/>
+      <c r="B251" s="512"/>
       <c r="C251" s="170" t="s">
         <v>311</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="479" t="s">
+      <c r="B253" s="509" t="s">
         <v>312</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -8143,7 +8143,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="479"/>
+      <c r="B254" s="509"/>
       <c r="C254" s="172" t="s">
         <v>314</v>
       </c>
@@ -8153,7 +8153,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="480" t="s">
+      <c r="B256" s="510" t="s">
         <v>315</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -8165,7 +8165,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="480"/>
+      <c r="B257" s="510"/>
       <c r="C257" s="174" t="s">
         <v>317</v>
       </c>
@@ -8175,7 +8175,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="485" t="s">
+      <c r="B259" s="507" t="s">
         <v>318</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -8187,7 +8187,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="485"/>
+      <c r="B260" s="507"/>
       <c r="C260" s="176" t="s">
         <v>320</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="486" t="s">
+      <c r="B262" s="508" t="s">
         <v>321</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -8209,7 +8209,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="486"/>
+      <c r="B263" s="508"/>
       <c r="C263" s="178" t="s">
         <v>323</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="483" t="s">
+      <c r="B265" s="505" t="s">
         <v>300</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -8231,7 +8231,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="483"/>
+      <c r="B266" s="505"/>
       <c r="C266" s="180" t="s">
         <v>325</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="484" t="s">
+      <c r="B268" s="506" t="s">
         <v>326</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -8253,7 +8253,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="484"/>
+      <c r="B269" s="506"/>
       <c r="C269" s="182" t="s">
         <v>328</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="489" t="s">
+      <c r="B271" s="503" t="s">
         <v>329</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -8275,7 +8275,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="489"/>
+      <c r="B272" s="503"/>
       <c r="C272" s="184" t="s">
         <v>331</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="490" t="s">
+      <c r="B274" s="504" t="s">
         <v>332</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -8297,7 +8297,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="490"/>
+      <c r="B275" s="504"/>
       <c r="C275" s="186" t="s">
         <v>334</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="487" t="s">
+      <c r="B277" s="501" t="s">
         <v>335</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -8319,7 +8319,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="487"/>
+      <c r="B278" s="501"/>
       <c r="C278" s="188" t="s">
         <v>337</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="488" t="s">
+      <c r="B280" s="502" t="s">
         <v>338</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -8341,7 +8341,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="488"/>
+      <c r="B281" s="502"/>
       <c r="C281" s="190" t="s">
         <v>340</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="493" t="s">
+      <c r="B283" s="499" t="s">
         <v>341</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -8363,7 +8363,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="493"/>
+      <c r="B284" s="499"/>
       <c r="C284" s="192" t="s">
         <v>343</v>
       </c>
@@ -8373,7 +8373,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="494" t="s">
+      <c r="B286" s="500" t="s">
         <v>344</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -8385,7 +8385,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="494"/>
+      <c r="B287" s="500"/>
       <c r="C287" s="194" t="s">
         <v>346</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="491" t="s">
+      <c r="B289" s="497" t="s">
         <v>347</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -8407,7 +8407,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="491"/>
+      <c r="B290" s="497"/>
       <c r="C290" s="196" t="s">
         <v>349</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="492" t="s">
+      <c r="B292" s="498" t="s">
         <v>350</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -8429,7 +8429,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="492"/>
+      <c r="B293" s="498"/>
       <c r="C293" s="198" t="s">
         <v>352</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="497" t="s">
+      <c r="B295" s="495" t="s">
         <v>353</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -8451,7 +8451,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="497"/>
+      <c r="B296" s="495"/>
       <c r="C296" s="200" t="s">
         <v>355</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="498" t="s">
+      <c r="B298" s="496" t="s">
         <v>356</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8473,7 +8473,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="498"/>
+      <c r="B299" s="496"/>
       <c r="C299" s="202" t="s">
         <v>358</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="495" t="s">
+      <c r="B301" s="493" t="s">
         <v>359</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8495,7 +8495,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="495"/>
+      <c r="B302" s="493"/>
       <c r="C302" s="204" t="s">
         <v>361</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="496" t="s">
+      <c r="B304" s="494" t="s">
         <v>362</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8517,7 +8517,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="496"/>
+      <c r="B305" s="494"/>
       <c r="C305" s="206" t="s">
         <v>364</v>
       </c>
@@ -8527,7 +8527,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="501" t="s">
+      <c r="B307" s="491" t="s">
         <v>365</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8539,7 +8539,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="501"/>
+      <c r="B308" s="491"/>
       <c r="C308" s="208" t="s">
         <v>367</v>
       </c>
@@ -8549,7 +8549,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="502" t="s">
+      <c r="B310" s="492" t="s">
         <v>368</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8561,7 +8561,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="502"/>
+      <c r="B311" s="492"/>
       <c r="C311" s="210" t="s">
         <v>370</v>
       </c>
@@ -8571,7 +8571,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="499" t="s">
+      <c r="B313" s="489" t="s">
         <v>371</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8583,7 +8583,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="499"/>
+      <c r="B314" s="489"/>
       <c r="C314" s="212" t="s">
         <v>373</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="500" t="s">
+      <c r="B316" s="490" t="s">
         <v>374</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8605,7 +8605,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="500"/>
+      <c r="B317" s="490"/>
       <c r="C317" s="214" t="s">
         <v>376</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="505" t="s">
+      <c r="B319" s="487" t="s">
         <v>377</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8627,7 +8627,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="505"/>
+      <c r="B320" s="487"/>
       <c r="C320" s="216" t="s">
         <v>379</v>
       </c>
@@ -8637,7 +8637,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="506" t="s">
+      <c r="B322" s="488" t="s">
         <v>380</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8649,7 +8649,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="506"/>
+      <c r="B323" s="488"/>
       <c r="C323" s="218" t="s">
         <v>382</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="503" t="s">
+      <c r="B325" s="485" t="s">
         <v>383</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8671,7 +8671,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="503"/>
+      <c r="B326" s="485"/>
       <c r="C326" s="220" t="s">
         <v>385</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="504" t="s">
+      <c r="B328" s="486" t="s">
         <v>386</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8693,7 +8693,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="504"/>
+      <c r="B329" s="486"/>
       <c r="C329" s="222" t="s">
         <v>388</v>
       </c>
@@ -8703,7 +8703,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="509" t="s">
+      <c r="B331" s="483" t="s">
         <v>389</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8715,7 +8715,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="509"/>
+      <c r="B332" s="483"/>
       <c r="C332" s="224" t="s">
         <v>391</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="510" t="s">
+      <c r="B334" s="484" t="s">
         <v>392</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8737,7 +8737,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="510"/>
+      <c r="B335" s="484"/>
       <c r="C335" s="226" t="s">
         <v>394</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="507" t="s">
+      <c r="B337" s="481" t="s">
         <v>395</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8759,7 +8759,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="507"/>
+      <c r="B338" s="481"/>
       <c r="C338" s="228" t="s">
         <v>397</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="508" t="s">
+      <c r="B340" s="482" t="s">
         <v>398</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8781,7 +8781,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="508"/>
+      <c r="B341" s="482"/>
       <c r="C341" s="230" t="s">
         <v>400</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="513" t="s">
+      <c r="B343" s="479" t="s">
         <v>401</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8803,7 +8803,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="513"/>
+      <c r="B344" s="479"/>
       <c r="C344" s="232" t="s">
         <v>403</v>
       </c>
@@ -8813,7 +8813,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="514" t="s">
+      <c r="B346" s="480" t="s">
         <v>404</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8825,7 +8825,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="514"/>
+      <c r="B347" s="480"/>
       <c r="C347" s="234" t="s">
         <v>406</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="511" t="s">
+      <c r="B349" s="477" t="s">
         <v>407</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8847,7 +8847,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="511"/>
+      <c r="B350" s="477"/>
       <c r="C350" s="236" t="s">
         <v>409</v>
       </c>
@@ -8857,7 +8857,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="512" t="s">
+      <c r="B352" s="478" t="s">
         <v>410</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8869,7 +8869,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="512"/>
+      <c r="B353" s="478"/>
       <c r="C353" s="238" t="s">
         <v>412</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="517" t="s">
+      <c r="B355" s="475" t="s">
         <v>413</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8891,7 +8891,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="517"/>
+      <c r="B356" s="475"/>
       <c r="C356" s="240" t="s">
         <v>415</v>
       </c>
@@ -8901,7 +8901,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="518" t="s">
+      <c r="B358" s="476" t="s">
         <v>416</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8913,7 +8913,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="518"/>
+      <c r="B359" s="476"/>
       <c r="C359" s="242" t="s">
         <v>418</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="515" t="s">
+      <c r="B361" s="473" t="s">
         <v>419</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8935,7 +8935,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="515"/>
+      <c r="B362" s="473"/>
       <c r="C362" s="244" t="s">
         <v>421</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="516" t="s">
+      <c r="B364" s="474" t="s">
         <v>422</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8957,7 +8957,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="516"/>
+      <c r="B365" s="474"/>
       <c r="C365" s="246" t="s">
         <v>424</v>
       </c>
@@ -8967,7 +8967,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="521" t="s">
+      <c r="B367" s="471" t="s">
         <v>425</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8979,7 +8979,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="521"/>
+      <c r="B368" s="471"/>
       <c r="C368" s="248" t="s">
         <v>427</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="522" t="s">
+      <c r="B370" s="472" t="s">
         <v>428</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -9001,7 +9001,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="522"/>
+      <c r="B371" s="472"/>
       <c r="C371" s="250" t="s">
         <v>430</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="519" t="s">
+      <c r="B373" s="469" t="s">
         <v>431</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -9023,7 +9023,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="519"/>
+      <c r="B374" s="469"/>
       <c r="C374" s="252" t="s">
         <v>433</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="520" t="s">
+      <c r="B376" s="470" t="s">
         <v>434</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -9045,7 +9045,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="520"/>
+      <c r="B377" s="470"/>
       <c r="C377" s="254" t="s">
         <v>436</v>
       </c>
@@ -9055,7 +9055,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="525" t="s">
+      <c r="B379" s="467" t="s">
         <v>437</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -9067,7 +9067,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="525"/>
+      <c r="B380" s="467"/>
       <c r="C380" s="256" t="s">
         <v>439</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="526" t="s">
+      <c r="B382" s="468" t="s">
         <v>440</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -9089,7 +9089,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="526"/>
+      <c r="B383" s="468"/>
       <c r="C383" s="258" t="s">
         <v>442</v>
       </c>
@@ -9099,7 +9099,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="523" t="s">
+      <c r="B385" s="465" t="s">
         <v>443</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -9111,7 +9111,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="523"/>
+      <c r="B386" s="465"/>
       <c r="C386" s="260" t="s">
         <v>445</v>
       </c>
@@ -9121,7 +9121,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="524" t="s">
+      <c r="B388" s="466" t="s">
         <v>446</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -9133,7 +9133,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="524"/>
+      <c r="B389" s="466"/>
       <c r="C389" s="262" t="s">
         <v>448</v>
       </c>
@@ -9143,7 +9143,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="529" t="s">
+      <c r="B391" s="463" t="s">
         <v>449</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -9155,7 +9155,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="529"/>
+      <c r="B392" s="463"/>
       <c r="C392" s="264" t="s">
         <v>451</v>
       </c>
@@ -9165,7 +9165,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="530" t="s">
+      <c r="B394" s="464" t="s">
         <v>452</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -9177,7 +9177,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="530"/>
+      <c r="B395" s="464"/>
       <c r="C395" s="266" t="s">
         <v>454</v>
       </c>
@@ -9187,7 +9187,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="527" t="s">
+      <c r="B397" s="461" t="s">
         <v>455</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -9199,7 +9199,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="527"/>
+      <c r="B398" s="461"/>
       <c r="C398" s="268" t="s">
         <v>457</v>
       </c>
@@ -9209,7 +9209,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="528" t="s">
+      <c r="B400" s="462" t="s">
         <v>458</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -9221,7 +9221,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="528"/>
+      <c r="B401" s="462"/>
       <c r="C401" s="270" t="s">
         <v>460</v>
       </c>
@@ -9231,7 +9231,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="533" t="s">
+      <c r="B403" s="459" t="s">
         <v>461</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -9243,7 +9243,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="533"/>
+      <c r="B404" s="459"/>
       <c r="C404" s="272" t="s">
         <v>463</v>
       </c>
@@ -9253,7 +9253,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="534" t="s">
+      <c r="B406" s="460" t="s">
         <v>464</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -9265,7 +9265,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="534"/>
+      <c r="B407" s="460"/>
       <c r="C407" s="274" t="s">
         <v>466</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="531" t="s">
+      <c r="B409" s="457" t="s">
         <v>467</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -9287,7 +9287,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="531"/>
+      <c r="B410" s="457"/>
       <c r="C410" s="276" t="s">
         <v>469</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="532" t="s">
+      <c r="B412" s="458" t="s">
         <v>470</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -9309,7 +9309,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="532"/>
+      <c r="B413" s="458"/>
       <c r="C413" s="278" t="s">
         <v>472</v>
       </c>
@@ -9319,7 +9319,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="537" t="s">
+      <c r="B415" s="455" t="s">
         <v>473</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -9331,7 +9331,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="537"/>
+      <c r="B416" s="455"/>
       <c r="C416" s="280" t="s">
         <v>475</v>
       </c>
@@ -9341,7 +9341,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="538" t="s">
+      <c r="B418" s="456" t="s">
         <v>476</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -9353,7 +9353,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="538"/>
+      <c r="B419" s="456"/>
       <c r="C419" s="282" t="s">
         <v>478</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="535" t="s">
+      <c r="B421" s="453" t="s">
         <v>479</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -9375,7 +9375,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="535"/>
+      <c r="B422" s="453"/>
       <c r="C422" s="284" t="s">
         <v>481</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="536" t="s">
+      <c r="B424" s="454" t="s">
         <v>482</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -9397,7 +9397,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="536"/>
+      <c r="B425" s="454"/>
       <c r="C425" s="286" t="s">
         <v>484</v>
       </c>
@@ -9407,7 +9407,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="541" t="s">
+      <c r="B427" s="451" t="s">
         <v>485</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -9419,7 +9419,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="541"/>
+      <c r="B428" s="451"/>
       <c r="C428" s="288" t="s">
         <v>487</v>
       </c>
@@ -9429,7 +9429,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="542" t="s">
+      <c r="B430" s="452" t="s">
         <v>488</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -9441,7 +9441,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="542"/>
+      <c r="B431" s="452"/>
       <c r="C431" s="290" t="s">
         <v>490</v>
       </c>
@@ -9451,7 +9451,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="539" t="s">
+      <c r="B433" s="449" t="s">
         <v>491</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -9463,7 +9463,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="539"/>
+      <c r="B434" s="449"/>
       <c r="C434" s="292" t="s">
         <v>493</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="540" t="s">
+      <c r="B436" s="450" t="s">
         <v>494</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9485,7 +9485,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="540"/>
+      <c r="B437" s="450"/>
       <c r="C437" s="294" t="s">
         <v>496</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="545" t="s">
+      <c r="B439" s="447" t="s">
         <v>497</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9507,7 +9507,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="545"/>
+      <c r="B440" s="447"/>
       <c r="C440" s="296" t="s">
         <v>499</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="546" t="s">
+      <c r="B442" s="448" t="s">
         <v>500</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9529,7 +9529,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="546"/>
+      <c r="B443" s="448"/>
       <c r="C443" s="298" t="s">
         <v>502</v>
       </c>
@@ -9539,7 +9539,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="543" t="s">
+      <c r="B445" s="445" t="s">
         <v>503</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9551,7 +9551,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="543"/>
+      <c r="B446" s="445"/>
       <c r="C446" s="300" t="s">
         <v>505</v>
       </c>
@@ -9561,7 +9561,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="544" t="s">
+      <c r="B448" s="446" t="s">
         <v>506</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9573,7 +9573,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="544"/>
+      <c r="B449" s="446"/>
       <c r="C449" s="302" t="s">
         <v>508</v>
       </c>
@@ -9583,7 +9583,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="549" t="s">
+      <c r="B451" s="443" t="s">
         <v>509</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9595,7 +9595,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="549"/>
+      <c r="B452" s="443"/>
       <c r="C452" s="304" t="s">
         <v>511</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="550" t="s">
+      <c r="B454" s="444" t="s">
         <v>512</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9617,7 +9617,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="550"/>
+      <c r="B455" s="444"/>
       <c r="C455" s="306" t="s">
         <v>514</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="547" t="s">
+      <c r="B457" s="441" t="s">
         <v>515</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9639,7 +9639,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="547"/>
+      <c r="B458" s="441"/>
       <c r="C458" s="308" t="s">
         <v>517</v>
       </c>
@@ -9649,7 +9649,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="548" t="s">
+      <c r="B460" s="442" t="s">
         <v>518</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9661,7 +9661,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="548"/>
+      <c r="B461" s="442"/>
       <c r="C461" s="310" t="s">
         <v>520</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="553" t="s">
+      <c r="B463" s="439" t="s">
         <v>521</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9683,7 +9683,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="553"/>
+      <c r="B464" s="439"/>
       <c r="C464" s="312" t="s">
         <v>523</v>
       </c>
@@ -9693,7 +9693,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="554" t="s">
+      <c r="B466" s="440" t="s">
         <v>524</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9705,7 +9705,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="554"/>
+      <c r="B467" s="440"/>
       <c r="C467" s="314" t="s">
         <v>526</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="551" t="s">
+      <c r="B469" s="437" t="s">
         <v>527</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9727,7 +9727,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="551"/>
+      <c r="B470" s="437"/>
       <c r="C470" s="316" t="s">
         <v>529</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="552" t="s">
+      <c r="B472" s="438" t="s">
         <v>530</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9749,7 +9749,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="552"/>
+      <c r="B473" s="438"/>
       <c r="C473" s="318" t="s">
         <v>532</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="557" t="s">
+      <c r="B475" s="435" t="s">
         <v>533</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9771,7 +9771,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="557"/>
+      <c r="B476" s="435"/>
       <c r="C476" s="320" t="s">
         <v>535</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="558" t="s">
+      <c r="B478" s="436" t="s">
         <v>536</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9793,7 +9793,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="558"/>
+      <c r="B479" s="436"/>
       <c r="C479" s="322" t="s">
         <v>538</v>
       </c>
@@ -9803,7 +9803,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="555" t="s">
+      <c r="B481" s="433" t="s">
         <v>539</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9815,7 +9815,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="555"/>
+      <c r="B482" s="433"/>
       <c r="C482" s="324" t="s">
         <v>541</v>
       </c>
@@ -9825,7 +9825,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="556" t="s">
+      <c r="B484" s="434" t="s">
         <v>542</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9837,7 +9837,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="556"/>
+      <c r="B485" s="434"/>
       <c r="C485" s="326" t="s">
         <v>544</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="561" t="s">
+      <c r="B487" s="431" t="s">
         <v>545</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9859,7 +9859,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="561"/>
+      <c r="B488" s="431"/>
       <c r="C488" s="328" t="s">
         <v>547</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="562" t="s">
+      <c r="B490" s="432" t="s">
         <v>548</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9881,7 +9881,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="562"/>
+      <c r="B491" s="432"/>
       <c r="C491" s="330" t="s">
         <v>550</v>
       </c>
@@ -9891,7 +9891,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="559" t="s">
+      <c r="B493" s="429" t="s">
         <v>551</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9903,7 +9903,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="559"/>
+      <c r="B494" s="429"/>
       <c r="C494" s="332" t="s">
         <v>553</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="560" t="s">
+      <c r="B496" s="430" t="s">
         <v>554</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9925,7 +9925,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="560"/>
+      <c r="B497" s="430"/>
       <c r="C497" s="334" t="s">
         <v>556</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="565" t="s">
+      <c r="B499" s="427" t="s">
         <v>557</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9947,7 +9947,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="565"/>
+      <c r="B500" s="427"/>
       <c r="C500" s="336" t="s">
         <v>559</v>
       </c>
@@ -9957,7 +9957,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="566" t="s">
+      <c r="B502" s="428" t="s">
         <v>560</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9969,7 +9969,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="566"/>
+      <c r="B503" s="428"/>
       <c r="C503" s="338" t="s">
         <v>562</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="563" t="s">
+      <c r="B505" s="425" t="s">
         <v>563</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9991,7 +9991,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="563"/>
+      <c r="B506" s="425"/>
       <c r="C506" s="340" t="s">
         <v>565</v>
       </c>
@@ -10001,7 +10001,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="564" t="s">
+      <c r="B508" s="426" t="s">
         <v>566</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -10013,7 +10013,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="564"/>
+      <c r="B509" s="426"/>
       <c r="C509" s="342" t="s">
         <v>568</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="569" t="s">
+      <c r="B511" s="423" t="s">
         <v>569</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -10035,7 +10035,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="569"/>
+      <c r="B512" s="423"/>
       <c r="C512" s="344" t="s">
         <v>571</v>
       </c>
@@ -10045,7 +10045,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="570" t="s">
+      <c r="B514" s="424" t="s">
         <v>572</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -10057,7 +10057,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="570"/>
+      <c r="B515" s="424"/>
       <c r="C515" s="346" t="s">
         <v>574</v>
       </c>
@@ -10067,7 +10067,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="567" t="s">
+      <c r="B517" s="421" t="s">
         <v>575</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -10079,7 +10079,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="567"/>
+      <c r="B518" s="421"/>
       <c r="C518" s="348" t="s">
         <v>577</v>
       </c>
@@ -10089,7 +10089,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="568" t="s">
+      <c r="B520" s="422" t="s">
         <v>578</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -10101,7 +10101,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="568"/>
+      <c r="B521" s="422"/>
       <c r="C521" s="350" t="s">
         <v>580</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="573" t="s">
+      <c r="B523" s="419" t="s">
         <v>581</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -10123,7 +10123,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="573"/>
+      <c r="B524" s="419"/>
       <c r="C524" s="352" t="s">
         <v>583</v>
       </c>
@@ -10133,7 +10133,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="574" t="s">
+      <c r="B526" s="420" t="s">
         <v>584</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -10145,7 +10145,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="574"/>
+      <c r="B527" s="420"/>
       <c r="C527" s="354" t="s">
         <v>586</v>
       </c>
@@ -10155,7 +10155,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="571" t="s">
+      <c r="B529" s="417" t="s">
         <v>587</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -10167,7 +10167,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="571"/>
+      <c r="B530" s="417"/>
       <c r="C530" s="356" t="s">
         <v>589</v>
       </c>
@@ -10177,7 +10177,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="572" t="s">
+      <c r="B532" s="418" t="s">
         <v>590</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -10189,7 +10189,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="572"/>
+      <c r="B533" s="418"/>
       <c r="C533" s="358" t="s">
         <v>592</v>
       </c>
@@ -10199,7 +10199,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="577" t="s">
+      <c r="B535" s="415" t="s">
         <v>593</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -10211,7 +10211,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="577"/>
+      <c r="B536" s="415"/>
       <c r="C536" s="360" t="s">
         <v>595</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="578" t="s">
+      <c r="B538" s="416" t="s">
         <v>596</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -10233,7 +10233,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="578"/>
+      <c r="B539" s="416"/>
       <c r="C539" s="362" t="s">
         <v>598</v>
       </c>
@@ -10243,7 +10243,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="575" t="s">
+      <c r="B541" s="413" t="s">
         <v>599</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -10255,7 +10255,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="575"/>
+      <c r="B542" s="413"/>
       <c r="C542" s="364" t="s">
         <v>601</v>
       </c>
@@ -10265,7 +10265,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="576" t="s">
+      <c r="B544" s="414" t="s">
         <v>602</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -10277,7 +10277,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="576"/>
+      <c r="B545" s="414"/>
       <c r="C545" s="366" t="s">
         <v>604</v>
       </c>
@@ -10287,7 +10287,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="581" t="s">
+      <c r="B547" s="411" t="s">
         <v>605</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -10299,7 +10299,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="581"/>
+      <c r="B548" s="411"/>
       <c r="C548" s="368" t="s">
         <v>607</v>
       </c>
@@ -10309,7 +10309,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="582" t="s">
+      <c r="B550" s="412" t="s">
         <v>608</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -10321,7 +10321,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="582"/>
+      <c r="B551" s="412"/>
       <c r="C551" s="370" t="s">
         <v>610</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="579" t="s">
+      <c r="B553" s="409" t="s">
         <v>611</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -10343,7 +10343,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="579"/>
+      <c r="B554" s="409"/>
       <c r="C554" s="372" t="s">
         <v>613</v>
       </c>
@@ -10353,7 +10353,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="580" t="s">
+      <c r="B556" s="410" t="s">
         <v>614</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -10365,7 +10365,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="580"/>
+      <c r="B557" s="410"/>
       <c r="C557" s="374" t="s">
         <v>616</v>
       </c>
@@ -10375,7 +10375,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="585" t="s">
+      <c r="B559" s="407" t="s">
         <v>617</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -10387,7 +10387,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="585"/>
+      <c r="B560" s="407"/>
       <c r="C560" s="376" t="s">
         <v>619</v>
       </c>
@@ -10397,7 +10397,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="586" t="s">
+      <c r="B562" s="408" t="s">
         <v>620</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -10409,7 +10409,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="586"/>
+      <c r="B563" s="408"/>
       <c r="C563" s="378" t="s">
         <v>622</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="583" t="s">
+      <c r="B565" s="405" t="s">
         <v>623</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -10431,7 +10431,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="583"/>
+      <c r="B566" s="405"/>
       <c r="C566" s="380" t="s">
         <v>625</v>
       </c>
@@ -10441,7 +10441,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="584" t="s">
+      <c r="B568" s="406" t="s">
         <v>626</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -10453,7 +10453,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="584"/>
+      <c r="B569" s="406"/>
       <c r="C569" s="382" t="s">
         <v>628</v>
       </c>
@@ -10463,7 +10463,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="592" t="s">
+      <c r="B571" s="403" t="s">
         <v>629</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10475,7 +10475,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="592"/>
+      <c r="B572" s="403"/>
       <c r="C572" s="384" t="s">
         <v>631</v>
       </c>
@@ -10485,7 +10485,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="593" t="s">
+      <c r="B574" s="404" t="s">
         <v>632</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10497,7 +10497,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="593"/>
+      <c r="B575" s="404"/>
       <c r="C575" s="386" t="s">
         <v>634</v>
       </c>
@@ -10507,7 +10507,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="587" t="s">
+      <c r="B577" s="397" t="s">
         <v>635</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10519,7 +10519,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="587"/>
+      <c r="B578" s="397"/>
       <c r="C578" s="388" t="s">
         <v>637</v>
       </c>
@@ -10532,15 +10532,585 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="588"/>
-      <c r="B581" s="590"/>
+      <c r="A581" s="399"/>
+      <c r="B581" s="401"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="589"/>
-      <c r="B582" s="591"/>
+      <c r="A582" s="400"/>
+      <c r="B582" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10553,576 +11123,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
